--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667A7F65-943D-4452-9462-0AD2DA9FA27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C16B9A3-D13D-4DDF-8663-012B05D5826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="2220" windowWidth="29190" windowHeight="15915" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="13350" yWindow="270" windowWidth="27420" windowHeight="20610" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,8 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    26.0-28.5B given Q422</t>
+    26.0-28.5B given Q422
+Consensus 27.65B 4/26</t>
       </text>
     </comment>
   </commentList>
@@ -869,16 +870,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>32263</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>36909</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>32525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>32263</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>36909</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>32526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -893,8 +894,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13808665" y="0"/>
-          <a:ext cx="0" cy="19514635"/>
+          <a:off x="14421982" y="32525"/>
+          <a:ext cx="0" cy="19677257"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1292,7 +1293,8 @@
     <text>Q322: 30.0-32.5B</text>
   </threadedComment>
   <threadedComment ref="W26" dT="2023-02-01T21:20:58.90" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{48BE0944-3BDD-4973-B1C2-88AA905BEB25}">
-    <text>26.0-28.5B given Q422</text>
+    <text>26.0-28.5B given Q422
+Consensus 27.65B 4/26</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1318,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="17">
-        <v>110</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1351,7 +1353,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M3*M2</f>
-        <v>291670.35414000001</v>
+        <v>556825.22154000006</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1388,7 +1390,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>253288.35414000001</v>
+        <v>518443.22154000006</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1482,10 +1484,10 @@
   <dimension ref="A1:CW108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
+      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1693,7 +1695,9 @@
       <c r="V3" s="6">
         <v>2960</v>
       </c>
-      <c r="W3" s="6"/>
+      <c r="W3" s="6">
+        <v>3020</v>
+      </c>
       <c r="X3" s="6"/>
       <c r="Y3" s="6"/>
     </row>
@@ -1747,7 +1751,9 @@
       <c r="V4" s="6">
         <v>3740</v>
       </c>
-      <c r="W4" s="6"/>
+      <c r="W4" s="6">
+        <v>3810</v>
+      </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
     </row>
@@ -1807,7 +1813,9 @@
       <c r="V5" s="6">
         <v>2000</v>
       </c>
-      <c r="W5" s="6"/>
+      <c r="W5" s="6">
+        <v>2040</v>
+      </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
     </row>
@@ -1978,7 +1986,9 @@
       <c r="V8" s="6">
         <v>2960</v>
       </c>
-      <c r="W8" s="6"/>
+      <c r="W8" s="6">
+        <v>2990</v>
+      </c>
       <c r="X8" s="6"/>
       <c r="Y8" s="6"/>
     </row>
@@ -2051,7 +2061,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-      <c r="U10" s="10"/>
+      <c r="U10" s="9"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
@@ -2754,7 +2764,9 @@
       <c r="V23" s="6">
         <v>184</v>
       </c>
-      <c r="W23" s="6"/>
+      <c r="W23" s="6">
+        <v>205</v>
+      </c>
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
       <c r="AG23" s="3">
@@ -2812,7 +2824,9 @@
       <c r="V24" s="6">
         <v>727</v>
       </c>
-      <c r="W24" s="6"/>
+      <c r="W24" s="6">
+        <v>339</v>
+      </c>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="AH24" s="3">
@@ -2901,15 +2915,14 @@
         <v>31254</v>
       </c>
       <c r="W25" s="6">
-        <f t="shared" ref="W25:Z25" si="17">+S25*0.98</f>
-        <v>26458.04</v>
+        <v>28101</v>
       </c>
       <c r="X25" s="6">
-        <f t="shared" si="17"/>
-        <v>27588.959999999999</v>
+        <f>+T25*1.1</f>
+        <v>30967.200000000001</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="Y25:Z25" si="17">+U25*0.98</f>
         <v>26692.26</v>
       </c>
       <c r="Z25" s="6">
@@ -3023,14 +3036,14 @@
       </c>
       <c r="W26" s="8">
         <f>SUM(W23:W25)</f>
-        <v>26458.04</v>
+        <v>28645</v>
       </c>
       <c r="X26" s="8">
-        <f t="shared" ref="X26:Z26" si="20">SUM(X23:X25)</f>
-        <v>27588.959999999999</v>
+        <f>SUM(X23:X25)</f>
+        <v>30967.200000000001</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="Y26:Z26" si="20">SUM(Y23:Y25)</f>
         <v>26692.26</v>
       </c>
       <c r="Z26" s="8">
@@ -3176,11 +3189,11 @@
       </c>
       <c r="W27" s="6">
         <f>+W26-W28</f>
-        <v>5556.1883999999991</v>
+        <v>6015.4500000000007</v>
       </c>
       <c r="X27" s="6">
         <f t="shared" ref="X27:Z27" si="24">+X26-X28</f>
-        <v>5793.6815999999999</v>
+        <v>6503.1119999999974</v>
       </c>
       <c r="Y27" s="6">
         <f t="shared" si="24"/>
@@ -3325,11 +3338,11 @@
       </c>
       <c r="W28" s="6">
         <f>+W26*0.79</f>
-        <v>20901.851600000002</v>
+        <v>22629.55</v>
       </c>
       <c r="X28" s="6">
         <f t="shared" ref="X28:Z28" si="32">+X26*0.79</f>
-        <v>21795.278399999999</v>
+        <v>24464.088000000003</v>
       </c>
       <c r="Y28" s="6">
         <f t="shared" si="32"/>
@@ -4021,11 +4034,11 @@
       </c>
       <c r="W33" s="6">
         <f t="shared" ref="W33:Z33" si="72">+W28-W32</f>
-        <v>8860.7516000000014</v>
+        <v>10588.449999999999</v>
       </c>
       <c r="X33" s="6">
         <f t="shared" si="72"/>
-        <v>8050.4784</v>
+        <v>10719.288000000004</v>
       </c>
       <c r="Y33" s="6">
         <f t="shared" si="72"/>
@@ -4299,11 +4312,11 @@
       </c>
       <c r="W35" s="6">
         <f t="shared" si="90"/>
-        <v>8610.7516000000014</v>
+        <v>10338.449999999999</v>
       </c>
       <c r="X35" s="6">
         <f t="shared" si="90"/>
-        <v>7800.4784</v>
+        <v>10469.288000000004</v>
       </c>
       <c r="Y35" s="6">
         <f t="shared" si="90"/>
@@ -4433,11 +4446,11 @@
       </c>
       <c r="W36" s="6">
         <f t="shared" ref="W36:Z36" si="101">+W35*0.19</f>
-        <v>1636.0428040000004</v>
+        <v>1964.3054999999997</v>
       </c>
       <c r="X36" s="6">
         <f t="shared" si="101"/>
-        <v>1482.0908959999999</v>
+        <v>1989.1647200000009</v>
       </c>
       <c r="Y36" s="6">
         <f t="shared" si="101"/>
@@ -4583,11 +4596,11 @@
       </c>
       <c r="W37" s="6">
         <f t="shared" ref="W37:Z37" si="110">+W35-W36</f>
-        <v>6974.7087960000008</v>
+        <v>8374.1444999999985</v>
       </c>
       <c r="X37" s="6">
         <f t="shared" si="110"/>
-        <v>6318.3875040000003</v>
+        <v>8480.1232800000034</v>
       </c>
       <c r="Y37" s="6">
         <f t="shared" si="110"/>
@@ -4960,11 +4973,11 @@
       </c>
       <c r="W38" s="9">
         <f t="shared" ref="W38:Z38" si="130">+W37/W39</f>
-        <v>2.6419351500000001</v>
+        <v>3.1720244318181812</v>
       </c>
       <c r="X38" s="9">
         <f t="shared" si="130"/>
-        <v>2.3933286000000003</v>
+        <v>3.2121679090909105</v>
       </c>
       <c r="Y38" s="9">
         <f t="shared" si="130"/>
@@ -5237,11 +5250,11 @@
       </c>
       <c r="W41" s="11">
         <f>+W26/S26-1</f>
-        <v>-5.1954994983517189E-2</v>
+        <v>2.6408198366060009E-2</v>
       </c>
       <c r="X41" s="11">
         <f t="shared" ref="X41" si="146">+X26/T26-1</f>
-        <v>-4.2781208798834292E-2</v>
+        <v>7.4429255429879992E-2</v>
       </c>
       <c r="Y41" s="11">
         <f t="shared" ref="Y41" si="147">+Y26/U26-1</f>
@@ -5666,7 +5679,7 @@
       </c>
       <c r="W48" s="10">
         <f t="shared" si="157"/>
-        <v>0.79</v>
+        <v>0.78999999999999992</v>
       </c>
       <c r="X48" s="10">
         <f t="shared" si="157"/>
@@ -5819,11 +5832,11 @@
       </c>
       <c r="W49" s="10">
         <f t="shared" si="164"/>
-        <v>0.33489826154923047</v>
+        <v>0.36964391691394655</v>
       </c>
       <c r="X49" s="10">
         <f t="shared" si="164"/>
-        <v>0.29180072028811527</v>
+        <v>0.346149732620321</v>
       </c>
       <c r="Y49" s="10">
         <f t="shared" si="164"/>
@@ -6091,19 +6104,19 @@
       </c>
       <c r="W52" s="6">
         <f t="shared" si="170"/>
-        <v>50008.708795999999</v>
+        <v>51408.144499999995</v>
       </c>
       <c r="X52" s="6">
         <f t="shared" si="170"/>
-        <v>56327.096300000005</v>
+        <v>59888.267779999995</v>
       </c>
       <c r="Y52" s="6">
         <f t="shared" si="170"/>
-        <v>61297.487474000009</v>
+        <v>64858.658953999999</v>
       </c>
       <c r="Z52" s="6">
         <f t="shared" si="170"/>
-        <v>67987.963382000002</v>
+        <v>71549.134861999992</v>
       </c>
       <c r="AW52" s="3" t="s">
         <v>111</v>
@@ -6165,19 +6178,19 @@
       </c>
       <c r="W53" s="6">
         <f>+V53+W37</f>
-        <v>59930.708795999999</v>
+        <v>61330.144499999995</v>
       </c>
       <c r="X53" s="6">
         <f>+W53+X37</f>
-        <v>66249.096300000005</v>
+        <v>69810.267779999995</v>
       </c>
       <c r="Y53" s="6">
         <f>+X53+Y37</f>
-        <v>71219.487474000009</v>
+        <v>74780.658953999999</v>
       </c>
       <c r="Z53" s="6">
         <f>+Y53+Z37</f>
-        <v>77909.963382000002</v>
+        <v>81471.134861999992</v>
       </c>
       <c r="AJ53" s="3">
         <f>+R53</f>
@@ -6275,7 +6288,7 @@
       </c>
       <c r="AX54" s="19">
         <f>AX53/Main!M2-1</f>
-        <v>0.96251518275817882</v>
+        <v>2.7984143349522261E-2</v>
       </c>
     </row>
     <row r="55" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">

--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C16B9A3-D13D-4DDF-8663-012B05D5826D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8F4F24-3C61-8D48-9B55-24CA4B8B23B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13350" yWindow="270" windowWidth="27420" windowHeight="20610" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="7140" yWindow="760" windowWidth="27420" windowHeight="20620" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="210">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -728,6 +728,18 @@
   </si>
   <si>
     <t xml:space="preserve">  US/CA ARPU</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -870,16 +882,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>36909</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>24519</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>32525</xdr:rowOff>
+      <xdr:rowOff>12390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>36909</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>24519</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>32526</xdr:rowOff>
+      <xdr:rowOff>12391</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -894,8 +906,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14421982" y="32525"/>
-          <a:ext cx="0" cy="19677257"/>
+          <a:off x="18634665" y="12390"/>
+          <a:ext cx="0" cy="20239464"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -920,13 +932,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -978,9 +990,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1018,7 +1030,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1124,7 +1136,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1266,7 +1278,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1305,17 +1317,17 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="L2" t="s">
         <v>1</v>
       </c>
@@ -1323,7 +1335,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -1356,7 +1368,7 @@
         <v>556825.22154000006</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>126</v>
       </c>
@@ -1370,7 +1382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -1384,7 +1396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="L7" t="s">
         <v>6</v>
       </c>
@@ -1393,17 +1405,17 @@
         <v>518443.22154000006</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>1865.970703</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="L11" t="s">
         <v>91</v>
       </c>
@@ -1422,22 +1434,22 @@
         <v>366.55794300000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -1445,7 +1457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>102</v>
       </c>
@@ -1453,22 +1465,22 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -1481,28 +1493,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
-  <dimension ref="A1:CW108"/>
+  <dimension ref="A1:DA108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z29" sqref="Z29"/>
+      <selection pane="bottomRight" activeCell="Z96" sqref="R96:Z96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="25" width="9.140625" style="1"/>
+    <col min="3" max="25" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
         <v>125</v>
       </c>
@@ -1575,77 +1587,89 @@
       <c r="Z2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB2">
+      <c r="AA2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AF2">
         <v>2013</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>2014</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <v>2015</v>
       </c>
-      <c r="AE2">
-        <f>+AD2+1</f>
+      <c r="AI2">
+        <f>+AH2+1</f>
         <v>2016</v>
       </c>
-      <c r="AF2">
-        <f t="shared" ref="AF2:AS2" si="0">+AE2+1</f>
+      <c r="AJ2">
+        <f t="shared" ref="AJ2:AW2" si="0">+AI2+1</f>
         <v>2017</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AK2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AL2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AM2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AN2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AO2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AP2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AQ2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AR2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AS2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1698,10 +1722,17 @@
       <c r="W3" s="6">
         <v>3020</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="4" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X3" s="6">
+        <v>3070</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>3140</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1754,10 +1785,17 @@
       <c r="W4" s="6">
         <v>3810</v>
       </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-    </row>
-    <row r="5" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="6">
+        <v>3880</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>3950</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1816,10 +1854,17 @@
       <c r="W5" s="6">
         <v>2040</v>
       </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="6">
+        <v>2060</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>2090</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -1869,7 +1914,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>205</v>
       </c>
@@ -1930,7 +1975,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -1989,10 +2034,17 @@
       <c r="W8" s="6">
         <v>2990</v>
       </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-    </row>
-    <row r="9" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X8" s="6">
+        <v>3030</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>3050</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>101</v>
       </c>
@@ -2042,7 +2094,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2067,7 +2119,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2080,7 +2132,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="9">
-        <f t="shared" ref="K11:V11" si="8">+K26/K4</f>
+        <f t="shared" ref="K11:W11" si="8">+K26/K4</f>
         <v>5.9321070234113709</v>
       </c>
       <c r="L11" s="9">
@@ -2127,11 +2179,14 @@
         <f t="shared" si="8"/>
         <v>8.6002673796791438</v>
       </c>
-      <c r="W11" s="6"/>
+      <c r="W11" s="9">
+        <f t="shared" si="8"/>
+        <v>7.5183727034120738</v>
+      </c>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
@@ -2188,11 +2243,14 @@
         <f>AVERAGE(U11:V11)</f>
         <v>8.0351741211064187</v>
       </c>
-      <c r="W12" s="6"/>
+      <c r="W12" s="9">
+        <f>AVERAGE(V11:W11)</f>
+        <v>8.0593200415456092</v>
+      </c>
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
@@ -2237,11 +2295,14 @@
         <f>V12/R12-1</f>
         <v>-8.0773089170694701E-2</v>
       </c>
-      <c r="W13" s="14"/>
+      <c r="W13" s="16">
+        <f>W12/S12-1</f>
+        <v>-5.4411229279200723E-2</v>
+      </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
@@ -2254,7 +2315,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="9">
-        <f t="shared" ref="K14:V14" si="11">+K25/K4</f>
+        <f t="shared" ref="K14:W14" si="11">+K25/K4</f>
         <v>5.8327759197324411</v>
       </c>
       <c r="L14" s="9">
@@ -2301,11 +2362,14 @@
         <f t="shared" si="11"/>
         <v>8.3566844919786103</v>
       </c>
-      <c r="W14" s="6"/>
+      <c r="W14" s="9">
+        <f t="shared" si="11"/>
+        <v>7.3755905511811024</v>
+      </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
@@ -2318,7 +2382,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="9">
-        <f t="shared" ref="K15:V15" si="12">+K25/K3</f>
+        <f t="shared" ref="K15:W15" si="12">+K25/K3</f>
         <v>7.3898305084745761</v>
       </c>
       <c r="L15" s="9">
@@ -2365,11 +2429,14 @@
         <f t="shared" si="12"/>
         <v>10.558783783783785</v>
       </c>
-      <c r="W15" s="6"/>
+      <c r="W15" s="9">
+        <f t="shared" si="12"/>
+        <v>9.3049668874172191</v>
+      </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
@@ -2426,11 +2493,14 @@
         <f>AVERAGE(U15:V15)</f>
         <v>9.9273441103219255</v>
       </c>
-      <c r="W16" s="6"/>
+      <c r="W16" s="9">
+        <f>AVERAGE(V15:W15)</f>
+        <v>9.9318753356005018</v>
+      </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="2:45" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:49" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
@@ -2475,11 +2545,14 @@
         <f>V16/R16-1</f>
         <v>-8.2362598799723963E-2</v>
       </c>
-      <c r="W17" s="14"/>
+      <c r="W17" s="16">
+        <f>W16/S16-1</f>
+        <v>-5.3254233451745958E-2</v>
+      </c>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2504,7 +2577,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>121</v>
       </c>
@@ -2554,7 +2627,7 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
     </row>
-    <row r="20" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>107</v>
       </c>
@@ -2604,7 +2677,7 @@
       <c r="X20" s="6"/>
       <c r="Y20" s="6"/>
     </row>
-    <row r="21" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>104</v>
       </c>
@@ -2654,7 +2727,7 @@
       <c r="X21" s="6"/>
       <c r="Y21" s="6"/>
     </row>
-    <row r="22" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>103</v>
       </c>
@@ -2704,7 +2777,7 @@
       <c r="X22" s="6"/>
       <c r="Y22" s="6"/>
     </row>
-    <row r="23" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
@@ -2767,22 +2840,29 @@
       <c r="W23" s="6">
         <v>205</v>
       </c>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="AG23" s="3">
+      <c r="X23" s="6">
+        <v>225</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>293</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>334</v>
+      </c>
+      <c r="AK23" s="3">
         <v>825</v>
       </c>
-      <c r="AH23" s="3">
+      <c r="AL23" s="3">
         <v>541</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AM23" s="3">
         <v>657</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AN23" s="3">
         <v>721</v>
       </c>
     </row>
-    <row r="24" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>83</v>
       </c>
@@ -2827,19 +2907,26 @@
       <c r="W24" s="6">
         <v>339</v>
       </c>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="AH24" s="3">
+      <c r="X24" s="6">
+        <v>276</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>210</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1071</v>
+      </c>
+      <c r="AL24" s="3">
         <v>501</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AM24" s="3">
         <v>1139</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AN24" s="3">
         <v>2274</v>
       </c>
     </row>
-    <row r="25" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
@@ -2918,75 +3005,76 @@
         <v>28101</v>
       </c>
       <c r="X25" s="6">
-        <f>+T25*1.1</f>
-        <v>30967.200000000001</v>
+        <v>31498</v>
       </c>
       <c r="Y25" s="6">
-        <f t="shared" ref="Y25:Z25" si="17">+U25*0.98</f>
-        <v>26692.26</v>
+        <v>33643</v>
       </c>
       <c r="Z25" s="6">
-        <f t="shared" si="17"/>
-        <v>30628.92</v>
-      </c>
-      <c r="AB25" s="3">
+        <v>38706</v>
+      </c>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AF25" s="3">
         <v>7872</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AG25" s="3">
         <v>12466</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AH25" s="3">
         <v>17928</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AI25" s="3">
         <v>27638</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AJ25" s="3">
         <v>40653</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AK25" s="3">
         <v>55013</v>
       </c>
-      <c r="AH25" s="3">
+      <c r="AL25" s="3">
         <v>69655</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AM25" s="3">
         <v>84169</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AN25" s="3">
         <v>114934</v>
       </c>
     </row>
-    <row r="26" spans="2:45" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:49" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" ref="C26:I26" si="18">SUM(C23:C25)</f>
+        <f t="shared" ref="C26:I26" si="17">SUM(C23:C25)</f>
         <v>11966</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>13231</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>13727</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>16914</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" ref="G26" si="19">SUM(G23:G25)</f>
+        <f t="shared" ref="G26" si="18">SUM(G23:G25)</f>
         <v>15077</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>16886</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>17652</v>
       </c>
       <c r="J26" s="8">
@@ -3040,90 +3128,106 @@
       </c>
       <c r="X26" s="8">
         <f>SUM(X23:X25)</f>
-        <v>30967.200000000001</v>
+        <v>31999</v>
       </c>
       <c r="Y26" s="8">
-        <f t="shared" ref="Y26:Z26" si="20">SUM(Y23:Y25)</f>
-        <v>26692.26</v>
+        <f t="shared" ref="Y26:AD26" si="19">SUM(Y23:Y25)</f>
+        <v>34146</v>
       </c>
       <c r="Z26" s="8">
+        <f t="shared" si="19"/>
+        <v>40111</v>
+      </c>
+      <c r="AA26" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="7">
+        <f t="shared" ref="AF26:AK26" si="20">SUM(AF23:AF25)</f>
+        <v>7872</v>
+      </c>
+      <c r="AG26" s="7">
         <f t="shared" si="20"/>
-        <v>30628.92</v>
-      </c>
-      <c r="AB26" s="7">
-        <f t="shared" ref="AB26:AG26" si="21">SUM(AB23:AB25)</f>
-        <v>7872</v>
-      </c>
-      <c r="AC26" s="7">
+        <v>12466</v>
+      </c>
+      <c r="AH26" s="7">
+        <f t="shared" si="20"/>
+        <v>17928</v>
+      </c>
+      <c r="AI26" s="7">
+        <f t="shared" si="20"/>
+        <v>27638</v>
+      </c>
+      <c r="AJ26" s="7">
+        <f t="shared" si="20"/>
+        <v>40653</v>
+      </c>
+      <c r="AK26" s="7">
+        <f t="shared" si="20"/>
+        <v>55838</v>
+      </c>
+      <c r="AL26" s="7">
+        <f>SUM(AL23:AL25)</f>
+        <v>70697</v>
+      </c>
+      <c r="AM26" s="7">
+        <f t="shared" ref="AM26:AN26" si="21">SUM(AM23:AM25)</f>
+        <v>85965</v>
+      </c>
+      <c r="AN26" s="7">
         <f t="shared" si="21"/>
-        <v>12466</v>
-      </c>
-      <c r="AD26" s="7">
-        <f t="shared" si="21"/>
-        <v>17928</v>
-      </c>
-      <c r="AE26" s="7">
-        <f t="shared" si="21"/>
-        <v>27638</v>
-      </c>
-      <c r="AF26" s="7">
-        <f t="shared" si="21"/>
-        <v>40653</v>
-      </c>
-      <c r="AG26" s="7">
-        <f t="shared" si="21"/>
-        <v>55838</v>
-      </c>
-      <c r="AH26" s="7">
-        <f>SUM(AH23:AH25)</f>
-        <v>70697</v>
-      </c>
-      <c r="AI26" s="7">
-        <f t="shared" ref="AI26:AJ26" si="22">SUM(AI23:AI25)</f>
-        <v>85965</v>
-      </c>
-      <c r="AJ26" s="7">
-        <f t="shared" si="22"/>
         <v>117929</v>
       </c>
-      <c r="AK26" s="7">
+      <c r="AO26" s="7">
         <f>SUM(S26:V26)</f>
         <v>116609</v>
       </c>
-      <c r="AL26" s="7">
-        <f>+AK26*0.95</f>
+      <c r="AP26" s="7">
+        <f>+AO26*0.95</f>
         <v>110778.54999999999</v>
       </c>
-      <c r="AM26" s="7">
-        <f>+AL26*0.95</f>
+      <c r="AQ26" s="7">
+        <f>+AP26*0.95</f>
         <v>105239.62249999998</v>
       </c>
-      <c r="AN26" s="7">
-        <f>+AM26*1.1</f>
+      <c r="AR26" s="7">
+        <f>+AQ26*1.1</f>
         <v>115763.58474999999</v>
       </c>
-      <c r="AO26" s="7">
-        <f>+AN26*1.05</f>
+      <c r="AS26" s="7">
+        <f>+AR26*1.05</f>
         <v>121551.7639875</v>
       </c>
-      <c r="AP26" s="7">
-        <f t="shared" ref="AP26:AS26" si="23">+AO26*1.03</f>
+      <c r="AT26" s="7">
+        <f t="shared" ref="AT26:AW26" si="22">+AS26*1.03</f>
         <v>125198.316907125</v>
       </c>
-      <c r="AQ26" s="7">
-        <f t="shared" si="23"/>
+      <c r="AU26" s="7">
+        <f t="shared" si="22"/>
         <v>128954.26641433875</v>
       </c>
-      <c r="AR26" s="7">
-        <f t="shared" si="23"/>
+      <c r="AV26" s="7">
+        <f t="shared" si="22"/>
         <v>132822.89440676893</v>
       </c>
-      <c r="AS26" s="7">
-        <f t="shared" si="23"/>
+      <c r="AW26" s="7">
+        <f t="shared" si="22"/>
         <v>136807.58123897199</v>
       </c>
     </row>
-    <row r="27" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3" t="s">
         <v>36</v>
       </c>
@@ -3192,116 +3296,117 @@
         <v>6015.4500000000007</v>
       </c>
       <c r="X27" s="6">
-        <f t="shared" ref="X27:Z27" si="24">+X26-X28</f>
-        <v>6503.1119999999974</v>
+        <v>5945</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" si="24"/>
-        <v>5605.3745999999992</v>
+        <v>6210</v>
       </c>
       <c r="Z27" s="6">
-        <f t="shared" si="24"/>
-        <v>6432.0731999999989</v>
-      </c>
-      <c r="AG27" s="3">
+        <v>7695</v>
+      </c>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AK27" s="3">
         <v>9355</v>
       </c>
-      <c r="AH27" s="3">
+      <c r="AL27" s="3">
         <v>12770</v>
       </c>
-      <c r="AI27" s="3">
+      <c r="AM27" s="3">
         <v>16692</v>
       </c>
-      <c r="AJ27" s="3">
+      <c r="AN27" s="3">
         <v>22649</v>
       </c>
-      <c r="AK27" s="3">
-        <f>+AK26-AK28</f>
+      <c r="AO27" s="3">
+        <f>+AO26-AO28</f>
         <v>22155.709999999992</v>
       </c>
-      <c r="AL27" s="3">
-        <f t="shared" ref="AL27:AS27" si="25">+AL26-AL28</f>
+      <c r="AP27" s="3">
+        <f t="shared" ref="AP27:AW27" si="23">+AP26-AP28</f>
         <v>21047.924499999994</v>
       </c>
-      <c r="AM27" s="3">
-        <f t="shared" si="25"/>
+      <c r="AQ27" s="3">
+        <f t="shared" si="23"/>
         <v>19995.52827499999</v>
       </c>
-      <c r="AN27" s="3">
-        <f t="shared" si="25"/>
+      <c r="AR27" s="3">
+        <f t="shared" si="23"/>
         <v>21995.081102499986</v>
       </c>
-      <c r="AO27" s="3">
-        <f t="shared" si="25"/>
+      <c r="AS27" s="3">
+        <f t="shared" si="23"/>
         <v>23094.835157624999</v>
       </c>
-      <c r="AP27" s="3">
-        <f t="shared" si="25"/>
+      <c r="AT27" s="3">
+        <f t="shared" si="23"/>
         <v>23787.680212353749</v>
       </c>
-      <c r="AQ27" s="3">
-        <f t="shared" si="25"/>
+      <c r="AU27" s="3">
+        <f t="shared" si="23"/>
         <v>24501.310618724354</v>
       </c>
-      <c r="AR27" s="3">
-        <f t="shared" si="25"/>
+      <c r="AV27" s="3">
+        <f t="shared" si="23"/>
         <v>25236.349937286082</v>
       </c>
-      <c r="AS27" s="3">
-        <f t="shared" si="25"/>
+      <c r="AW27" s="3">
+        <f t="shared" si="23"/>
         <v>25993.440435404671</v>
       </c>
     </row>
-    <row r="28" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" ref="C28:D28" si="26">+C26-C27</f>
+        <f t="shared" ref="C28:D28" si="24">+C26-C27</f>
         <v>10039</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>11017</v>
       </c>
       <c r="E28" s="6">
-        <f t="shared" ref="E28:G28" si="27">+E26-E27</f>
+        <f t="shared" ref="E28:G28" si="25">+E26-E27</f>
         <v>11309</v>
       </c>
       <c r="F28" s="6">
+        <f t="shared" si="25"/>
+        <v>14118</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="25"/>
+        <v>12261</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" ref="H28" si="26">+H26-H27</f>
+        <v>13579</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" ref="I28:J28" si="27">+I26-I27</f>
+        <v>14497</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="27"/>
-        <v>14118</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="27"/>
-        <v>12261</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" ref="H28" si="28">+H26-H27</f>
-        <v>13579</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" ref="I28:J28" si="29">+I26-I27</f>
-        <v>14497</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="29"/>
         <v>17590</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" ref="K28:N28" si="30">+K26-K27</f>
+        <f t="shared" ref="K28:N28" si="28">+K26-K27</f>
         <v>14278</v>
       </c>
       <c r="L28" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>14858</v>
       </c>
       <c r="M28" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>17276</v>
       </c>
       <c r="N28" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>22862</v>
       </c>
       <c r="O28" s="6">
@@ -3309,15 +3414,15 @@
         <v>21040</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" ref="P28:R28" si="31">+P26-P27</f>
+        <f t="shared" ref="P28:R28" si="29">+P26-P27</f>
         <v>23678</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>23239</v>
       </c>
       <c r="R28" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>27323</v>
       </c>
       <c r="S28" s="6">
@@ -3341,71 +3446,75 @@
         <v>22629.55</v>
       </c>
       <c r="X28" s="6">
-        <f t="shared" ref="X28:Z28" si="32">+X26*0.79</f>
-        <v>24464.088000000003</v>
+        <f>X26-X27</f>
+        <v>26054</v>
       </c>
       <c r="Y28" s="6">
+        <f>Y26-Y27</f>
+        <v>27936</v>
+      </c>
+      <c r="Z28" s="6">
+        <f t="shared" ref="Z28" si="30">+Z26*0.79</f>
+        <v>31687.690000000002</v>
+      </c>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AK28" s="3">
+        <f>+AK26-AK27</f>
+        <v>46483</v>
+      </c>
+      <c r="AL28" s="3">
+        <f>+AL26-AL27</f>
+        <v>57927</v>
+      </c>
+      <c r="AM28" s="3">
+        <f>+AM26-AM27</f>
+        <v>69273</v>
+      </c>
+      <c r="AN28" s="3">
+        <f t="shared" ref="AN28" si="31">+AN26-AN27</f>
+        <v>95280</v>
+      </c>
+      <c r="AO28" s="3">
+        <f>+AO26*0.81</f>
+        <v>94453.290000000008</v>
+      </c>
+      <c r="AP28" s="3">
+        <f t="shared" ref="AP28:AW28" si="32">+AP26*0.81</f>
+        <v>89730.625499999995</v>
+      </c>
+      <c r="AQ28" s="3">
         <f t="shared" si="32"/>
-        <v>21086.885399999999</v>
-      </c>
-      <c r="Z28" s="6">
+        <v>85244.094224999993</v>
+      </c>
+      <c r="AR28" s="3">
         <f t="shared" si="32"/>
-        <v>24196.846799999999</v>
-      </c>
-      <c r="AG28" s="3">
-        <f>+AG26-AG27</f>
-        <v>46483</v>
-      </c>
-      <c r="AH28" s="3">
-        <f>+AH26-AH27</f>
-        <v>57927</v>
-      </c>
-      <c r="AI28" s="3">
-        <f>+AI26-AI27</f>
-        <v>69273</v>
-      </c>
-      <c r="AJ28" s="3">
-        <f t="shared" ref="AJ28" si="33">+AJ26-AJ27</f>
-        <v>95280</v>
-      </c>
-      <c r="AK28" s="3">
-        <f>+AK26*0.81</f>
-        <v>94453.290000000008</v>
-      </c>
-      <c r="AL28" s="3">
-        <f t="shared" ref="AL28:AS28" si="34">+AL26*0.81</f>
-        <v>89730.625499999995</v>
-      </c>
-      <c r="AM28" s="3">
-        <f t="shared" si="34"/>
-        <v>85244.094224999993</v>
-      </c>
-      <c r="AN28" s="3">
-        <f t="shared" si="34"/>
         <v>93768.503647500009</v>
       </c>
-      <c r="AO28" s="3">
-        <f t="shared" si="34"/>
+      <c r="AS28" s="3">
+        <f t="shared" si="32"/>
         <v>98456.928829875003</v>
       </c>
-      <c r="AP28" s="3">
-        <f t="shared" si="34"/>
+      <c r="AT28" s="3">
+        <f t="shared" si="32"/>
         <v>101410.63669477125</v>
       </c>
-      <c r="AQ28" s="3">
-        <f t="shared" si="34"/>
+      <c r="AU28" s="3">
+        <f t="shared" si="32"/>
         <v>104452.9557956144</v>
       </c>
-      <c r="AR28" s="3">
-        <f t="shared" si="34"/>
+      <c r="AV28" s="3">
+        <f t="shared" si="32"/>
         <v>107586.54446948285</v>
       </c>
-      <c r="AS28" s="3">
-        <f t="shared" si="34"/>
+      <c r="AW28" s="3">
+        <f t="shared" si="32"/>
         <v>110814.14080356732</v>
       </c>
     </row>
-    <row r="29" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
         <v>38</v>
       </c>
@@ -3474,67 +3583,68 @@
         <v>6936.3</v>
       </c>
       <c r="X29" s="6">
-        <f t="shared" ref="X29:X31" si="35">+T29*0.9</f>
-        <v>7821</v>
+        <v>9344</v>
       </c>
       <c r="Y29" s="6">
-        <f t="shared" ref="Y29:Y31" si="36">+U29*0.9</f>
-        <v>8253</v>
+        <v>9241</v>
       </c>
       <c r="Z29" s="6">
-        <f t="shared" ref="Z29:Z31" si="37">+V29*0.9</f>
-        <v>8793.9</v>
-      </c>
-      <c r="AG29" s="3">
+        <v>10517</v>
+      </c>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AK29" s="3">
         <v>10273</v>
       </c>
-      <c r="AH29" s="3">
+      <c r="AL29" s="3">
         <v>13600</v>
       </c>
-      <c r="AI29" s="3">
+      <c r="AM29" s="3">
         <v>18447</v>
       </c>
-      <c r="AJ29" s="3">
+      <c r="AN29" s="3">
         <v>24655</v>
       </c>
-      <c r="AK29" s="3">
-        <f t="shared" ref="AK29:AP29" si="38">+AJ29*0.9</f>
+      <c r="AO29" s="3">
+        <f t="shared" ref="AO29:AT29" si="33">+AN29*0.9</f>
         <v>22189.5</v>
       </c>
-      <c r="AL29" s="3">
-        <f t="shared" si="38"/>
+      <c r="AP29" s="3">
+        <f t="shared" si="33"/>
         <v>19970.55</v>
       </c>
-      <c r="AM29" s="3">
-        <f t="shared" si="38"/>
+      <c r="AQ29" s="3">
+        <f t="shared" si="33"/>
         <v>17973.494999999999</v>
       </c>
-      <c r="AN29" s="3">
-        <f t="shared" si="38"/>
+      <c r="AR29" s="3">
+        <f t="shared" si="33"/>
         <v>16176.145499999999</v>
       </c>
-      <c r="AO29" s="3">
-        <f t="shared" si="38"/>
+      <c r="AS29" s="3">
+        <f t="shared" si="33"/>
         <v>14558.530949999998</v>
       </c>
-      <c r="AP29" s="3">
-        <f t="shared" si="38"/>
+      <c r="AT29" s="3">
+        <f t="shared" si="33"/>
         <v>13102.677854999998</v>
       </c>
-      <c r="AQ29" s="3">
-        <f t="shared" ref="AQ29:AS29" si="39">+AP29*0.9</f>
+      <c r="AU29" s="3">
+        <f t="shared" ref="AU29:AW29" si="34">+AT29*0.9</f>
         <v>11792.410069499998</v>
       </c>
-      <c r="AR29" s="3">
-        <f t="shared" si="39"/>
+      <c r="AV29" s="3">
+        <f t="shared" si="34"/>
         <v>10613.169062549998</v>
       </c>
-      <c r="AS29" s="3">
-        <f t="shared" si="39"/>
+      <c r="AW29" s="3">
+        <f t="shared" si="34"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
-    <row r="30" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
@@ -3599,71 +3709,72 @@
         <v>4574</v>
       </c>
       <c r="W30" s="6">
-        <f t="shared" ref="W30:W31" si="40">+S30*0.9</f>
+        <f t="shared" ref="W30:W31" si="35">+S30*0.9</f>
         <v>2980.8</v>
       </c>
       <c r="X30" s="6">
-        <f t="shared" si="35"/>
-        <v>3235.5</v>
+        <v>3154</v>
       </c>
       <c r="Y30" s="6">
+        <v>2877</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>3226</v>
+      </c>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AK30" s="3">
+        <v>7846</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>9876</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>11591</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>14043</v>
+      </c>
+      <c r="AO30" s="3">
+        <f>+AN30</f>
+        <v>14043</v>
+      </c>
+      <c r="AP30" s="3">
+        <f t="shared" ref="AP30:AW30" si="36">+AO30</f>
+        <v>14043</v>
+      </c>
+      <c r="AQ30" s="3">
         <f t="shared" si="36"/>
-        <v>3402</v>
-      </c>
-      <c r="Z30" s="6">
-        <f t="shared" si="37"/>
-        <v>4116.6000000000004</v>
-      </c>
-      <c r="AG30" s="3">
-        <v>7846</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>9876</v>
-      </c>
-      <c r="AI30" s="3">
-        <v>11591</v>
-      </c>
-      <c r="AJ30" s="3">
         <v>14043</v>
       </c>
-      <c r="AK30" s="3">
-        <f>+AJ30</f>
+      <c r="AR30" s="3">
+        <f t="shared" si="36"/>
         <v>14043</v>
       </c>
-      <c r="AL30" s="3">
-        <f t="shared" ref="AL30:AS30" si="41">+AK30</f>
+      <c r="AS30" s="3">
+        <f t="shared" si="36"/>
         <v>14043</v>
       </c>
-      <c r="AM30" s="3">
-        <f t="shared" si="41"/>
+      <c r="AT30" s="3">
+        <f t="shared" si="36"/>
         <v>14043</v>
       </c>
-      <c r="AN30" s="3">
-        <f t="shared" si="41"/>
+      <c r="AU30" s="3">
+        <f t="shared" si="36"/>
         <v>14043</v>
       </c>
-      <c r="AO30" s="3">
-        <f t="shared" si="41"/>
+      <c r="AV30" s="3">
+        <f t="shared" si="36"/>
         <v>14043</v>
       </c>
-      <c r="AP30" s="3">
-        <f t="shared" si="41"/>
+      <c r="AW30" s="3">
+        <f t="shared" si="36"/>
         <v>14043</v>
       </c>
-      <c r="AQ30" s="3">
-        <f t="shared" si="41"/>
-        <v>14043</v>
-      </c>
-      <c r="AR30" s="3">
-        <f t="shared" si="41"/>
-        <v>14043</v>
-      </c>
-      <c r="AS30" s="3">
-        <f t="shared" si="41"/>
-        <v>14043</v>
-      </c>
-    </row>
-    <row r="31" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
@@ -3730,137 +3841,139 @@
         <v>3085</v>
       </c>
       <c r="W31" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>2124</v>
       </c>
       <c r="X31" s="6">
-        <f t="shared" si="35"/>
-        <v>2688.3</v>
+        <f>4164-1870</f>
+        <v>2294</v>
       </c>
       <c r="Y31" s="6">
-        <f t="shared" si="36"/>
-        <v>3045.6</v>
+        <v>2070</v>
       </c>
       <c r="Z31" s="6">
-        <f t="shared" si="37"/>
-        <v>2776.5</v>
-      </c>
-      <c r="AG31" s="3">
+        <v>2289</v>
+      </c>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AK31" s="3">
         <v>3451</v>
       </c>
-      <c r="AH31" s="3">
+      <c r="AL31" s="3">
         <f>10465-5000</f>
         <v>5465</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AM31" s="3">
         <v>6564</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AN31" s="3">
         <v>9829</v>
       </c>
-      <c r="AK31" s="3">
-        <f t="shared" ref="AK31:AS31" si="42">+AJ31</f>
+      <c r="AO31" s="3">
+        <f t="shared" ref="AO31:AW31" si="37">+AN31</f>
         <v>9829</v>
       </c>
-      <c r="AL31" s="3">
-        <f t="shared" si="42"/>
+      <c r="AP31" s="3">
+        <f t="shared" si="37"/>
         <v>9829</v>
       </c>
-      <c r="AM31" s="3">
-        <f t="shared" si="42"/>
+      <c r="AQ31" s="3">
+        <f t="shared" si="37"/>
         <v>9829</v>
       </c>
-      <c r="AN31" s="3">
-        <f t="shared" si="42"/>
+      <c r="AR31" s="3">
+        <f t="shared" si="37"/>
         <v>9829</v>
       </c>
-      <c r="AO31" s="3">
-        <f t="shared" si="42"/>
+      <c r="AS31" s="3">
+        <f t="shared" si="37"/>
         <v>9829</v>
       </c>
-      <c r="AP31" s="3">
-        <f t="shared" si="42"/>
+      <c r="AT31" s="3">
+        <f t="shared" si="37"/>
         <v>9829</v>
       </c>
-      <c r="AQ31" s="3">
-        <f t="shared" si="42"/>
+      <c r="AU31" s="3">
+        <f t="shared" si="37"/>
         <v>9829</v>
       </c>
-      <c r="AR31" s="3">
-        <f t="shared" si="42"/>
+      <c r="AV31" s="3">
+        <f t="shared" si="37"/>
         <v>9829</v>
       </c>
-      <c r="AS31" s="3">
-        <f t="shared" si="42"/>
+      <c r="AW31" s="3">
+        <f t="shared" si="37"/>
         <v>9829</v>
       </c>
     </row>
-    <row r="32" spans="2:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" ref="C32:D32" si="43">+C31+C30+C29</f>
+        <f t="shared" ref="C32:D32" si="38">+C31+C30+C29</f>
         <v>4590</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="38"/>
         <v>5154</v>
       </c>
       <c r="E32" s="6">
-        <f t="shared" ref="E32:G32" si="44">+E31+E30+E29</f>
+        <f t="shared" ref="E32:G32" si="39">+E31+E30+E29</f>
         <v>5528</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>6298</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="39"/>
         <v>5944</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:I32" si="45">+H31+H30+H29</f>
+        <f t="shared" ref="H32:I32" si="40">+H31+H30+H29</f>
         <v>6953</v>
       </c>
       <c r="I32" s="6">
+        <f t="shared" si="40"/>
+        <v>7312</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" ref="J32:K32" si="41">+J31+J30+J29</f>
+        <v>8732</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="41"/>
+        <v>8385</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" ref="L32" si="42">+L31+L30+L29</f>
+        <v>8895</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" ref="M32" si="43">+M31+M30+M29</f>
+        <v>9236</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" ref="N32" si="44">+N31+N30+N29</f>
+        <v>10087</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32:R32" si="45">+O31+O30+O29</f>
+        <v>9662</v>
+      </c>
+      <c r="P32" s="6">
         <f t="shared" si="45"/>
-        <v>7312</v>
-      </c>
-      <c r="J32" s="6">
-        <f t="shared" ref="J32:K32" si="46">+J31+J30+J29</f>
-        <v>8732</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" si="46"/>
-        <v>8385</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" ref="L32" si="47">+L31+L30+L29</f>
-        <v>8895</v>
-      </c>
-      <c r="M32" s="6">
-        <f t="shared" ref="M32" si="48">+M31+M30+M29</f>
-        <v>9236</v>
-      </c>
-      <c r="N32" s="6">
-        <f t="shared" ref="N32" si="49">+N31+N30+N29</f>
-        <v>10087</v>
-      </c>
-      <c r="O32" s="6">
-        <f t="shared" ref="O32:R32" si="50">+O31+O30+O29</f>
-        <v>9662</v>
-      </c>
-      <c r="P32" s="6">
-        <f t="shared" si="50"/>
         <v>11311</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>12816</v>
       </c>
       <c r="R32" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="45"/>
         <v>14738</v>
       </c>
       <c r="S32" s="6">
@@ -3868,152 +3981,156 @@
         <v>13379</v>
       </c>
       <c r="T32" s="6">
-        <f t="shared" ref="T32:V32" si="51">+T31+T30+T29</f>
+        <f t="shared" ref="T32:V32" si="46">+T31+T30+T29</f>
         <v>15272</v>
       </c>
       <c r="U32" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>16334</v>
       </c>
       <c r="V32" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>17430</v>
       </c>
       <c r="W32" s="6">
-        <f t="shared" ref="W32:Z32" si="52">+W31+W30+W29</f>
+        <f t="shared" ref="W32:Z32" si="47">+W31+W30+W29</f>
         <v>12041.1</v>
       </c>
       <c r="X32" s="6">
-        <f t="shared" si="52"/>
-        <v>13744.8</v>
+        <f t="shared" si="47"/>
+        <v>14792</v>
       </c>
       <c r="Y32" s="6">
-        <f t="shared" si="52"/>
-        <v>14700.6</v>
+        <f t="shared" si="47"/>
+        <v>14188</v>
       </c>
       <c r="Z32" s="6">
-        <f t="shared" si="52"/>
-        <v>15687</v>
-      </c>
-      <c r="AG32" s="3">
-        <f>SUM(AG29:AG31)</f>
+        <f t="shared" si="47"/>
+        <v>16032</v>
+      </c>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="6"/>
+      <c r="AK32" s="3">
+        <f>SUM(AK29:AK31)</f>
         <v>21570</v>
       </c>
-      <c r="AH32" s="3">
-        <f>SUM(AH29:AH31)</f>
+      <c r="AL32" s="3">
+        <f>SUM(AL29:AL31)</f>
         <v>28941</v>
       </c>
-      <c r="AI32" s="3">
-        <f>SUM(AI29:AI31)</f>
+      <c r="AM32" s="3">
+        <f>SUM(AM29:AM31)</f>
         <v>36602</v>
       </c>
-      <c r="AJ32" s="3">
-        <f t="shared" ref="AJ32" si="53">SUM(AJ29:AJ31)</f>
+      <c r="AN32" s="3">
+        <f t="shared" ref="AN32" si="48">SUM(AN29:AN31)</f>
         <v>48527</v>
       </c>
-      <c r="AK32" s="3">
-        <f t="shared" ref="AK32" si="54">SUM(AK29:AK31)</f>
+      <c r="AO32" s="3">
+        <f t="shared" ref="AO32" si="49">SUM(AO29:AO31)</f>
         <v>46061.5</v>
       </c>
-      <c r="AL32" s="3">
-        <f t="shared" ref="AL32" si="55">SUM(AL29:AL31)</f>
+      <c r="AP32" s="3">
+        <f t="shared" ref="AP32" si="50">SUM(AP29:AP31)</f>
         <v>43842.55</v>
       </c>
-      <c r="AM32" s="3">
-        <f t="shared" ref="AM32" si="56">SUM(AM29:AM31)</f>
+      <c r="AQ32" s="3">
+        <f t="shared" ref="AQ32" si="51">SUM(AQ29:AQ31)</f>
         <v>41845.494999999995</v>
       </c>
-      <c r="AN32" s="3">
-        <f t="shared" ref="AN32" si="57">SUM(AN29:AN31)</f>
+      <c r="AR32" s="3">
+        <f t="shared" ref="AR32" si="52">SUM(AR29:AR31)</f>
         <v>40048.145499999999</v>
       </c>
-      <c r="AO32" s="3">
-        <f t="shared" ref="AO32" si="58">SUM(AO29:AO31)</f>
+      <c r="AS32" s="3">
+        <f t="shared" ref="AS32" si="53">SUM(AS29:AS31)</f>
         <v>38430.53095</v>
       </c>
-      <c r="AP32" s="3">
-        <f t="shared" ref="AP32" si="59">SUM(AP29:AP31)</f>
+      <c r="AT32" s="3">
+        <f t="shared" ref="AT32" si="54">SUM(AT29:AT31)</f>
         <v>36974.677855000002</v>
       </c>
-      <c r="AQ32" s="3">
-        <f t="shared" ref="AQ32" si="60">SUM(AQ29:AQ31)</f>
+      <c r="AU32" s="3">
+        <f t="shared" ref="AU32" si="55">SUM(AU29:AU31)</f>
         <v>35664.410069499994</v>
       </c>
-      <c r="AR32" s="3">
-        <f t="shared" ref="AR32" si="61">SUM(AR29:AR31)</f>
+      <c r="AV32" s="3">
+        <f t="shared" ref="AV32" si="56">SUM(AV29:AV31)</f>
         <v>34485.169062549998</v>
       </c>
-      <c r="AS32" s="3">
-        <f t="shared" ref="AS32" si="62">SUM(AS29:AS31)</f>
+      <c r="AW32" s="3">
+        <f t="shared" ref="AW32" si="57">SUM(AW29:AW31)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
-    <row r="33" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" ref="C33:D33" si="63">+C28-C32</f>
+        <f t="shared" ref="C33:D33" si="58">+C28-C32</f>
         <v>5449</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="58"/>
         <v>5863</v>
       </c>
       <c r="E33" s="6">
-        <f t="shared" ref="E33:G33" si="64">+E28-E32</f>
+        <f t="shared" ref="E33:G33" si="59">+E28-E32</f>
         <v>5781</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>7820</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="59"/>
         <v>6317</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" ref="H33:I33" si="65">+H28-H32</f>
+        <f t="shared" ref="H33:I33" si="60">+H28-H32</f>
         <v>6626</v>
       </c>
       <c r="I33" s="6">
+        <f t="shared" si="60"/>
+        <v>7185</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" ref="J33:K33" si="61">+J28-J32</f>
+        <v>8858</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="61"/>
+        <v>5893</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" ref="L33" si="62">+L28-L32</f>
+        <v>5963</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" ref="M33" si="63">+M28-M32</f>
+        <v>8040</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" ref="N33" si="64">+N28-N32</f>
+        <v>12775</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" ref="O33:R33" si="65">+O28-O32</f>
+        <v>11378</v>
+      </c>
+      <c r="P33" s="6">
         <f t="shared" si="65"/>
-        <v>7185</v>
-      </c>
-      <c r="J33" s="6">
-        <f t="shared" ref="J33:K33" si="66">+J28-J32</f>
-        <v>8858</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" si="66"/>
-        <v>5893</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" ref="L33" si="67">+L28-L32</f>
-        <v>5963</v>
-      </c>
-      <c r="M33" s="6">
-        <f t="shared" ref="M33" si="68">+M28-M32</f>
-        <v>8040</v>
-      </c>
-      <c r="N33" s="6">
-        <f t="shared" ref="N33" si="69">+N28-N32</f>
-        <v>12775</v>
-      </c>
-      <c r="O33" s="6">
-        <f t="shared" ref="O33:R33" si="70">+O28-O32</f>
-        <v>11378</v>
-      </c>
-      <c r="P33" s="6">
-        <f t="shared" si="70"/>
         <v>12367</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>10423</v>
       </c>
       <c r="R33" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>12585</v>
       </c>
       <c r="S33" s="6">
@@ -4021,87 +4138,91 @@
         <v>8524</v>
       </c>
       <c r="T33" s="6">
-        <f t="shared" ref="T33:V33" si="71">+T28-T32</f>
+        <f t="shared" ref="T33:V33" si="66">+T28-T32</f>
         <v>8358</v>
       </c>
       <c r="U33" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>5664</v>
       </c>
       <c r="V33" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>6399</v>
       </c>
       <c r="W33" s="6">
-        <f t="shared" ref="W33:Z33" si="72">+W28-W32</f>
+        <f t="shared" ref="W33:Z33" si="67">+W28-W32</f>
         <v>10588.449999999999</v>
       </c>
       <c r="X33" s="6">
-        <f t="shared" si="72"/>
-        <v>10719.288000000004</v>
+        <f t="shared" si="67"/>
+        <v>11262</v>
       </c>
       <c r="Y33" s="6">
-        <f t="shared" si="72"/>
-        <v>6386.2853999999988</v>
+        <f t="shared" si="67"/>
+        <v>13748</v>
       </c>
       <c r="Z33" s="6">
-        <f t="shared" si="72"/>
-        <v>8509.8467999999993</v>
-      </c>
-      <c r="AG33" s="3">
-        <f>AG28-AG32</f>
+        <f t="shared" si="67"/>
+        <v>15655.690000000002</v>
+      </c>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AK33" s="3">
+        <f>AK28-AK32</f>
         <v>24913</v>
       </c>
-      <c r="AH33" s="3">
-        <f>AH28-AH32</f>
+      <c r="AL33" s="3">
+        <f>AL28-AL32</f>
         <v>28986</v>
       </c>
-      <c r="AI33" s="3">
-        <f>AI28-AI32</f>
+      <c r="AM33" s="3">
+        <f>AM28-AM32</f>
         <v>32671</v>
       </c>
-      <c r="AJ33" s="3">
-        <f t="shared" ref="AJ33" si="73">AJ28-AJ32</f>
+      <c r="AN33" s="3">
+        <f t="shared" ref="AN33" si="68">AN28-AN32</f>
         <v>46753</v>
       </c>
-      <c r="AK33" s="3">
-        <f t="shared" ref="AK33" si="74">AK28-AK32</f>
+      <c r="AO33" s="3">
+        <f t="shared" ref="AO33" si="69">AO28-AO32</f>
         <v>48391.790000000008</v>
       </c>
-      <c r="AL33" s="3">
-        <f t="shared" ref="AL33" si="75">AL28-AL32</f>
+      <c r="AP33" s="3">
+        <f t="shared" ref="AP33" si="70">AP28-AP32</f>
         <v>45888.075499999992</v>
       </c>
-      <c r="AM33" s="3">
-        <f t="shared" ref="AM33" si="76">AM28-AM32</f>
+      <c r="AQ33" s="3">
+        <f t="shared" ref="AQ33" si="71">AQ28-AQ32</f>
         <v>43398.599224999998</v>
       </c>
-      <c r="AN33" s="3">
-        <f t="shared" ref="AN33" si="77">AN28-AN32</f>
+      <c r="AR33" s="3">
+        <f t="shared" ref="AR33" si="72">AR28-AR32</f>
         <v>53720.35814750001</v>
       </c>
-      <c r="AO33" s="3">
-        <f t="shared" ref="AO33" si="78">AO28-AO32</f>
+      <c r="AS33" s="3">
+        <f t="shared" ref="AS33" si="73">AS28-AS32</f>
         <v>60026.397879875003</v>
       </c>
-      <c r="AP33" s="3">
-        <f t="shared" ref="AP33" si="79">AP28-AP32</f>
+      <c r="AT33" s="3">
+        <f t="shared" ref="AT33" si="74">AT28-AT32</f>
         <v>64435.95883977125</v>
       </c>
-      <c r="AQ33" s="3">
-        <f t="shared" ref="AQ33" si="80">AQ28-AQ32</f>
+      <c r="AU33" s="3">
+        <f t="shared" ref="AU33" si="75">AU28-AU32</f>
         <v>68788.545726114404</v>
       </c>
-      <c r="AR33" s="3">
-        <f t="shared" ref="AR33" si="81">AR28-AR32</f>
+      <c r="AV33" s="3">
+        <f t="shared" ref="AV33" si="76">AV28-AV32</f>
         <v>73101.375406932842</v>
       </c>
-      <c r="AS33" s="3">
-        <f t="shared" ref="AS33" si="82">AS28-AS32</f>
+      <c r="AW33" s="3">
+        <f t="shared" ref="AW33" si="77">AW28-AW32</f>
         <v>77390.288647272333</v>
       </c>
     </row>
-    <row r="34" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>43</v>
       </c>
@@ -4170,128 +4291,129 @@
         <v>-250</v>
       </c>
       <c r="X34" s="6">
-        <f t="shared" ref="X34:Z34" si="83">+W34</f>
-        <v>-250</v>
+        <v>-99</v>
       </c>
       <c r="Y34" s="6">
-        <f t="shared" si="83"/>
-        <v>-250</v>
+        <v>272</v>
       </c>
       <c r="Z34" s="6">
-        <f t="shared" si="83"/>
-        <v>-250</v>
-      </c>
-      <c r="AG34" s="3">
+        <v>424</v>
+      </c>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="6"/>
+      <c r="AK34" s="3">
         <v>448</v>
       </c>
-      <c r="AH34" s="3">
+      <c r="AL34" s="3">
         <v>826</v>
       </c>
-      <c r="AI34" s="3">
+      <c r="AM34" s="3">
         <v>509</v>
       </c>
-      <c r="AJ34" s="3">
+      <c r="AN34" s="3">
         <v>531</v>
       </c>
-      <c r="AL34" s="3">
-        <f t="shared" ref="AL34:AS34" si="84">+AK53*$AX$52</f>
+      <c r="AP34" s="3">
+        <f t="shared" ref="AP34:AW34" si="78">+AO53*$BB$52</f>
         <v>1059.1200000000001</v>
       </c>
-      <c r="AM34" s="3">
-        <f t="shared" si="84"/>
+      <c r="AQ34" s="3">
+        <f t="shared" si="78"/>
         <v>1829.0540062</v>
       </c>
-      <c r="AN34" s="3">
-        <f t="shared" si="84"/>
+      <c r="AR34" s="3">
+        <f t="shared" si="78"/>
         <v>2570.7875191916801</v>
       </c>
-      <c r="AO34" s="3">
-        <f t="shared" si="84"/>
+      <c r="AS34" s="3">
+        <f t="shared" si="78"/>
         <v>3493.962308125424</v>
       </c>
-      <c r="AP34" s="3">
-        <f t="shared" si="84"/>
+      <c r="AT34" s="3">
+        <f t="shared" si="78"/>
         <v>4535.6962152086307</v>
       </c>
-      <c r="AQ34" s="3">
-        <f t="shared" si="84"/>
+      <c r="AU34" s="3">
+        <f t="shared" si="78"/>
         <v>5666.8313581103021</v>
       </c>
-      <c r="AR34" s="3">
-        <f t="shared" si="84"/>
+      <c r="AV34" s="3">
+        <f t="shared" si="78"/>
         <v>6887.8995422915868</v>
       </c>
-      <c r="AS34" s="3">
-        <f t="shared" si="84"/>
+      <c r="AW34" s="3">
+        <f t="shared" si="78"/>
         <v>8199.7236514588676</v>
       </c>
     </row>
-    <row r="35" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" ref="C35:D35" si="85">+C33+C34</f>
+        <f t="shared" ref="C35:D35" si="79">+C33+C34</f>
         <v>5610</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="79"/>
         <v>5868</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" ref="E35:G35" si="86">+E33+E34</f>
+        <f t="shared" ref="E35:G35" si="80">+E33+E34</f>
         <v>5912</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>7971</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="80"/>
         <v>6523</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" ref="H35" si="87">+H33+H34</f>
+        <f t="shared" ref="H35" si="81">+H33+H34</f>
         <v>6832</v>
       </c>
       <c r="I35" s="6">
-        <f t="shared" ref="I35:J35" si="88">+I33+I34</f>
+        <f t="shared" ref="I35:J35" si="82">+I33+I34</f>
         <v>7329</v>
       </c>
       <c r="J35" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="82"/>
         <v>9169</v>
       </c>
       <c r="K35" s="6">
-        <f t="shared" ref="K35:R35" si="89">+K33+K34</f>
+        <f t="shared" ref="K35:R35" si="83">+K33+K34</f>
         <v>5861</v>
       </c>
       <c r="L35" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>6131</v>
       </c>
       <c r="M35" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>8133</v>
       </c>
       <c r="N35" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>13055</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>11503</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>12513</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>10565</v>
       </c>
       <c r="R35" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="83"/>
         <v>12702</v>
       </c>
       <c r="S35" s="6">
@@ -4299,87 +4421,91 @@
         <v>8908</v>
       </c>
       <c r="T35" s="6">
-        <f t="shared" ref="T35:Z35" si="90">+T33+T34</f>
+        <f t="shared" ref="T35:Z35" si="84">+T33+T34</f>
         <v>8186</v>
       </c>
       <c r="U35" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>5576</v>
       </c>
       <c r="V35" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>6149</v>
       </c>
       <c r="W35" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="84"/>
         <v>10338.449999999999</v>
       </c>
       <c r="X35" s="6">
-        <f t="shared" si="90"/>
-        <v>10469.288000000004</v>
+        <f t="shared" si="84"/>
+        <v>11163</v>
       </c>
       <c r="Y35" s="6">
-        <f t="shared" si="90"/>
-        <v>6136.2853999999988</v>
+        <f t="shared" si="84"/>
+        <v>14020</v>
       </c>
       <c r="Z35" s="6">
-        <f t="shared" si="90"/>
-        <v>8259.8467999999993</v>
-      </c>
-      <c r="AG35" s="3">
-        <f>+AG33+AG34</f>
+        <f t="shared" si="84"/>
+        <v>16079.690000000002</v>
+      </c>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AK35" s="3">
+        <f>+AK33+AK34</f>
         <v>25361</v>
       </c>
-      <c r="AH35" s="3">
-        <f>+AH33+AH34</f>
+      <c r="AL35" s="3">
+        <f>+AL33+AL34</f>
         <v>29812</v>
       </c>
-      <c r="AI35" s="3">
-        <f>+AI33+AI34</f>
+      <c r="AM35" s="3">
+        <f>+AM33+AM34</f>
         <v>33180</v>
       </c>
-      <c r="AJ35" s="3">
-        <f t="shared" ref="AJ35" si="91">+AJ33+AJ34</f>
+      <c r="AN35" s="3">
+        <f t="shared" ref="AN35" si="85">+AN33+AN34</f>
         <v>47284</v>
       </c>
-      <c r="AK35" s="3">
-        <f t="shared" ref="AK35" si="92">+AK33+AK34</f>
+      <c r="AO35" s="3">
+        <f t="shared" ref="AO35" si="86">+AO33+AO34</f>
         <v>48391.790000000008</v>
       </c>
-      <c r="AL35" s="3">
-        <f t="shared" ref="AL35" si="93">+AL33+AL34</f>
+      <c r="AP35" s="3">
+        <f t="shared" ref="AP35" si="87">+AP33+AP34</f>
         <v>46947.195499999994</v>
       </c>
-      <c r="AM35" s="3">
-        <f t="shared" ref="AM35" si="94">+AM33+AM34</f>
+      <c r="AQ35" s="3">
+        <f t="shared" ref="AQ35" si="88">+AQ33+AQ34</f>
         <v>45227.653231199998</v>
       </c>
-      <c r="AN35" s="3">
-        <f t="shared" ref="AN35" si="95">+AN33+AN34</f>
+      <c r="AR35" s="3">
+        <f t="shared" ref="AR35" si="89">+AR33+AR34</f>
         <v>56291.145666691693</v>
       </c>
-      <c r="AO35" s="3">
-        <f t="shared" ref="AO35" si="96">+AO33+AO34</f>
+      <c r="AS35" s="3">
+        <f t="shared" ref="AS35" si="90">+AS33+AS34</f>
         <v>63520.360188000428</v>
       </c>
-      <c r="AP35" s="3">
-        <f t="shared" ref="AP35" si="97">+AP33+AP34</f>
+      <c r="AT35" s="3">
+        <f t="shared" ref="AT35" si="91">+AT33+AT34</f>
         <v>68971.655054979885</v>
       </c>
-      <c r="AQ35" s="3">
-        <f t="shared" ref="AQ35" si="98">+AQ33+AQ34</f>
+      <c r="AU35" s="3">
+        <f t="shared" ref="AU35" si="92">+AU33+AU34</f>
         <v>74455.377084224703</v>
       </c>
-      <c r="AR35" s="3">
-        <f t="shared" ref="AR35" si="99">+AR33+AR34</f>
+      <c r="AV35" s="3">
+        <f t="shared" ref="AV35" si="93">+AV33+AV34</f>
         <v>79989.274949224433</v>
       </c>
-      <c r="AS35" s="3">
-        <f t="shared" ref="AS35" si="100">+AS33+AS34</f>
+      <c r="AW35" s="3">
+        <f t="shared" ref="AW35" si="94">+AW33+AW34</f>
         <v>85590.012298731206</v>
       </c>
     </row>
-    <row r="36" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
@@ -4445,137 +4571,138 @@
         <v>1497</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" ref="W36:Z36" si="101">+W35*0.19</f>
+        <f t="shared" ref="W36:Z36" si="95">+W35*0.19</f>
         <v>1964.3054999999997</v>
       </c>
       <c r="X36" s="6">
-        <f t="shared" si="101"/>
-        <v>1989.1647200000009</v>
+        <v>1505</v>
       </c>
       <c r="Y36" s="6">
-        <f t="shared" si="101"/>
-        <v>1165.8942259999999</v>
+        <v>2437</v>
       </c>
       <c r="Z36" s="6">
-        <f t="shared" si="101"/>
-        <v>1569.3708919999999</v>
-      </c>
-      <c r="AG36" s="3">
+        <v>2791</v>
+      </c>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AK36" s="3">
         <f>3249+1</f>
         <v>3250</v>
       </c>
-      <c r="AH36" s="3">
+      <c r="AL36" s="3">
         <v>6327</v>
       </c>
-      <c r="AI36" s="3">
+      <c r="AM36" s="3">
         <v>4034</v>
       </c>
-      <c r="AJ36" s="3">
+      <c r="AN36" s="3">
         <v>7914</v>
       </c>
-      <c r="AK36" s="3">
-        <f>+AK35*0.18</f>
+      <c r="AO36" s="3">
+        <f>+AO35*0.18</f>
         <v>8710.5222000000012</v>
       </c>
-      <c r="AL36" s="3">
-        <f t="shared" ref="AL36:AS36" si="102">+AL35*0.18</f>
+      <c r="AP36" s="3">
+        <f t="shared" ref="AP36:AW36" si="96">+AP35*0.18</f>
         <v>8450.4951899999978</v>
       </c>
-      <c r="AM36" s="3">
-        <f t="shared" si="102"/>
+      <c r="AQ36" s="3">
+        <f t="shared" si="96"/>
         <v>8140.977581615999</v>
       </c>
-      <c r="AN36" s="3">
-        <f t="shared" si="102"/>
+      <c r="AR36" s="3">
+        <f t="shared" si="96"/>
         <v>10132.406220004505</v>
       </c>
-      <c r="AO36" s="3">
-        <f t="shared" si="102"/>
+      <c r="AS36" s="3">
+        <f t="shared" si="96"/>
         <v>11433.664833840077</v>
       </c>
-      <c r="AP36" s="3">
-        <f t="shared" si="102"/>
+      <c r="AT36" s="3">
+        <f t="shared" si="96"/>
         <v>12414.897909896379</v>
       </c>
-      <c r="AQ36" s="3">
-        <f t="shared" si="102"/>
+      <c r="AU36" s="3">
+        <f t="shared" si="96"/>
         <v>13401.967875160446</v>
       </c>
-      <c r="AR36" s="3">
-        <f t="shared" si="102"/>
+      <c r="AV36" s="3">
+        <f t="shared" si="96"/>
         <v>14398.069490860398</v>
       </c>
-      <c r="AS36" s="3">
-        <f t="shared" si="102"/>
+      <c r="AW36" s="3">
+        <f t="shared" si="96"/>
         <v>15406.202213771616</v>
       </c>
     </row>
-    <row r="37" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ref="C37:D37" si="103">+C35-C36</f>
+        <f t="shared" ref="C37:D37" si="97">+C35-C36</f>
         <v>4987</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>5106</v>
       </c>
       <c r="E37" s="6">
-        <f t="shared" ref="E37:G37" si="104">+E35-E36</f>
+        <f t="shared" ref="E37:G37" si="98">+E35-E36</f>
         <v>5137</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>6882</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>4307</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" ref="H37" si="105">+H35-H36</f>
+        <f t="shared" ref="H37" si="99">+H35-H36</f>
         <v>4616</v>
       </c>
       <c r="I37" s="6">
-        <f t="shared" ref="I37:J37" si="106">+I35-I36</f>
+        <f t="shared" ref="I37:J37" si="100">+I35-I36</f>
         <v>6091</v>
       </c>
       <c r="J37" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="100"/>
         <v>7349</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" ref="K37:L37" si="107">+K35-K36</f>
+        <f t="shared" ref="K37:L37" si="101">+K35-K36</f>
         <v>4902</v>
       </c>
       <c r="L37" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="101"/>
         <v>5178</v>
       </c>
       <c r="M37" s="6">
-        <f t="shared" ref="M37:R37" si="108">+M35-M36</f>
+        <f t="shared" ref="M37:R37" si="102">+M35-M36</f>
         <v>7846</v>
       </c>
       <c r="N37" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>11219</v>
       </c>
       <c r="O37" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>9497</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>10394</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>9194</v>
       </c>
       <c r="R37" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="102"/>
         <v>10285</v>
       </c>
       <c r="S37" s="6">
@@ -4583,376 +4710,380 @@
         <v>7465</v>
       </c>
       <c r="T37" s="6">
-        <f t="shared" ref="T37:V37" si="109">+T35-T36</f>
+        <f t="shared" ref="T37:V37" si="103">+T35-T36</f>
         <v>6687</v>
       </c>
       <c r="U37" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>4395</v>
       </c>
       <c r="V37" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="103"/>
         <v>4652</v>
       </c>
       <c r="W37" s="6">
-        <f t="shared" ref="W37:Z37" si="110">+W35-W36</f>
+        <f t="shared" ref="W37:Z37" si="104">+W35-W36</f>
         <v>8374.1444999999985</v>
       </c>
       <c r="X37" s="6">
-        <f t="shared" si="110"/>
-        <v>8480.1232800000034</v>
+        <f t="shared" si="104"/>
+        <v>9658</v>
       </c>
       <c r="Y37" s="6">
-        <f t="shared" si="110"/>
-        <v>4970.3911739999985</v>
+        <f t="shared" si="104"/>
+        <v>11583</v>
       </c>
       <c r="Z37" s="6">
-        <f t="shared" si="110"/>
-        <v>6690.4759079999994</v>
-      </c>
-      <c r="AG37" s="3">
-        <f>+AG35-AG36</f>
+        <f t="shared" si="104"/>
+        <v>13288.690000000002</v>
+      </c>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="6"/>
+      <c r="AK37" s="3">
+        <f>+AK35-AK36</f>
         <v>22111</v>
       </c>
-      <c r="AH37" s="3">
-        <f>+AH35-AH36</f>
+      <c r="AL37" s="3">
+        <f>+AL35-AL36</f>
         <v>23485</v>
       </c>
-      <c r="AI37" s="3">
-        <f>+AI35-AI36</f>
+      <c r="AM37" s="3">
+        <f>+AM35-AM36</f>
         <v>29146</v>
       </c>
-      <c r="AJ37" s="3">
-        <f t="shared" ref="AJ37" si="111">+AJ35-AJ36</f>
+      <c r="AN37" s="3">
+        <f t="shared" ref="AN37" si="105">+AN35-AN36</f>
         <v>39370</v>
       </c>
-      <c r="AK37" s="3">
-        <f t="shared" ref="AK37" si="112">+AK35-AK36</f>
+      <c r="AO37" s="3">
+        <f t="shared" ref="AO37" si="106">+AO35-AO36</f>
         <v>39681.267800000009</v>
       </c>
-      <c r="AL37" s="3">
-        <f t="shared" ref="AL37" si="113">+AL35-AL36</f>
+      <c r="AP37" s="3">
+        <f t="shared" ref="AP37" si="107">+AP35-AP36</f>
         <v>38496.70031</v>
       </c>
-      <c r="AM37" s="3">
-        <f t="shared" ref="AM37" si="114">+AM35-AM36</f>
+      <c r="AQ37" s="3">
+        <f t="shared" ref="AQ37" si="108">+AQ35-AQ36</f>
         <v>37086.675649584002</v>
       </c>
-      <c r="AN37" s="3">
-        <f t="shared" ref="AN37" si="115">+AN35-AN36</f>
+      <c r="AR37" s="3">
+        <f t="shared" ref="AR37" si="109">+AR35-AR36</f>
         <v>46158.739446687192</v>
       </c>
-      <c r="AO37" s="3">
-        <f t="shared" ref="AO37" si="116">+AO35-AO36</f>
+      <c r="AS37" s="3">
+        <f t="shared" ref="AS37" si="110">+AS35-AS36</f>
         <v>52086.695354160351</v>
       </c>
-      <c r="AP37" s="3">
-        <f t="shared" ref="AP37" si="117">+AP35-AP36</f>
+      <c r="AT37" s="3">
+        <f t="shared" ref="AT37" si="111">+AT35-AT36</f>
         <v>56556.757145083509</v>
       </c>
-      <c r="AQ37" s="3">
-        <f t="shared" ref="AQ37" si="118">+AQ35-AQ36</f>
+      <c r="AU37" s="3">
+        <f t="shared" ref="AU37" si="112">+AU35-AU36</f>
         <v>61053.409209064259</v>
       </c>
-      <c r="AR37" s="3">
-        <f t="shared" ref="AR37" si="119">+AR35-AR36</f>
+      <c r="AV37" s="3">
+        <f t="shared" ref="AV37" si="113">+AV35-AV36</f>
         <v>65591.205458364042</v>
       </c>
-      <c r="AS37" s="3">
-        <f t="shared" ref="AS37" si="120">+AS35-AS36</f>
+      <c r="AW37" s="3">
+        <f t="shared" ref="AW37" si="114">+AW35-AW36</f>
         <v>70183.810084959594</v>
       </c>
-      <c r="AT37" s="3">
-        <f t="shared" ref="AT37:BY37" si="121">+AS37*(1+$AX$51)</f>
+      <c r="AX37" s="3">
+        <f t="shared" ref="AX37:CC37" si="115">+AW37*(1+$BB$51)</f>
         <v>66674.619580711616</v>
       </c>
-      <c r="AU37" s="3">
-        <f t="shared" si="121"/>
+      <c r="AY37" s="3">
+        <f t="shared" si="115"/>
         <v>63340.88860167603</v>
       </c>
-      <c r="AV37" s="3">
-        <f t="shared" si="121"/>
+      <c r="AZ37" s="3">
+        <f t="shared" si="115"/>
         <v>60173.844171592224</v>
       </c>
-      <c r="AW37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BA37" s="3">
+        <f t="shared" si="115"/>
         <v>57165.151963012613</v>
       </c>
-      <c r="AX37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BB37" s="3">
+        <f t="shared" si="115"/>
         <v>54306.894364861982</v>
       </c>
-      <c r="AY37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BC37" s="3">
+        <f t="shared" si="115"/>
         <v>51591.549646618878</v>
       </c>
-      <c r="AZ37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BD37" s="3">
+        <f t="shared" si="115"/>
         <v>49011.97216428793</v>
       </c>
-      <c r="BA37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BE37" s="3">
+        <f t="shared" si="115"/>
         <v>46561.373556073529</v>
       </c>
-      <c r="BB37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BF37" s="3">
+        <f t="shared" si="115"/>
         <v>44233.304878269853</v>
       </c>
-      <c r="BC37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BG37" s="3">
+        <f t="shared" si="115"/>
         <v>42021.639634356361</v>
       </c>
-      <c r="BD37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BH37" s="3">
+        <f t="shared" si="115"/>
         <v>39920.557652638541</v>
       </c>
-      <c r="BE37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BI37" s="3">
+        <f t="shared" si="115"/>
         <v>37924.529770006615</v>
       </c>
-      <c r="BF37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BJ37" s="3">
+        <f t="shared" si="115"/>
         <v>36028.303281506283</v>
       </c>
-      <c r="BG37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BK37" s="3">
+        <f t="shared" si="115"/>
         <v>34226.888117430964</v>
       </c>
-      <c r="BH37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BL37" s="3">
+        <f t="shared" si="115"/>
         <v>32515.543711559414</v>
       </c>
-      <c r="BI37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BM37" s="3">
+        <f t="shared" si="115"/>
         <v>30889.766525981442</v>
       </c>
-      <c r="BJ37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BN37" s="3">
+        <f t="shared" si="115"/>
         <v>29345.278199682369</v>
       </c>
-      <c r="BK37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BO37" s="3">
+        <f t="shared" si="115"/>
         <v>27878.014289698251</v>
       </c>
-      <c r="BL37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BP37" s="3">
+        <f t="shared" si="115"/>
         <v>26484.113575213338</v>
       </c>
-      <c r="BM37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BQ37" s="3">
+        <f t="shared" si="115"/>
         <v>25159.907896452671</v>
       </c>
-      <c r="BN37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BR37" s="3">
+        <f t="shared" si="115"/>
         <v>23901.912501630035</v>
       </c>
-      <c r="BO37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BS37" s="3">
+        <f t="shared" si="115"/>
         <v>22706.816876548532</v>
       </c>
-      <c r="BP37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BT37" s="3">
+        <f t="shared" si="115"/>
         <v>21571.476032721104</v>
       </c>
-      <c r="BQ37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BU37" s="3">
+        <f t="shared" si="115"/>
         <v>20492.902231085049</v>
       </c>
-      <c r="BR37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BV37" s="3">
+        <f t="shared" si="115"/>
         <v>19468.257119530794</v>
       </c>
-      <c r="BS37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BW37" s="3">
+        <f t="shared" si="115"/>
         <v>18494.844263554252</v>
       </c>
-      <c r="BT37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BX37" s="3">
+        <f t="shared" si="115"/>
         <v>17570.102050376539</v>
       </c>
-      <c r="BU37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BY37" s="3">
+        <f t="shared" si="115"/>
         <v>16691.59694785771</v>
       </c>
-      <c r="BV37" s="3">
-        <f t="shared" si="121"/>
+      <c r="BZ37" s="3">
+        <f t="shared" si="115"/>
         <v>15857.017100464824</v>
       </c>
-      <c r="BW37" s="3">
-        <f t="shared" si="121"/>
+      <c r="CA37" s="3">
+        <f t="shared" si="115"/>
         <v>15064.166245441582</v>
       </c>
-      <c r="BX37" s="3">
-        <f t="shared" si="121"/>
+      <c r="CB37" s="3">
+        <f t="shared" si="115"/>
         <v>14310.957933169502</v>
       </c>
-      <c r="BY37" s="3">
-        <f t="shared" si="121"/>
+      <c r="CC37" s="3">
+        <f t="shared" si="115"/>
         <v>13595.410036511026</v>
       </c>
-      <c r="BZ37" s="3">
-        <f t="shared" ref="BZ37:CW37" si="122">+BY37*(1+$AX$51)</f>
+      <c r="CD37" s="3">
+        <f t="shared" ref="CD37:DA37" si="116">+CC37*(1+$BB$51)</f>
         <v>12915.639534685475</v>
       </c>
-      <c r="CA37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CE37" s="3">
+        <f t="shared" si="116"/>
         <v>12269.857557951202</v>
       </c>
-      <c r="CB37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CF37" s="3">
+        <f t="shared" si="116"/>
         <v>11656.364680053641</v>
       </c>
-      <c r="CC37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CG37" s="3">
+        <f t="shared" si="116"/>
         <v>11073.546446050957</v>
       </c>
-      <c r="CD37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CH37" s="3">
+        <f t="shared" si="116"/>
         <v>10519.869123748409</v>
       </c>
-      <c r="CE37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CI37" s="3">
+        <f t="shared" si="116"/>
         <v>9993.8756675609875</v>
       </c>
-      <c r="CF37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CJ37" s="3">
+        <f t="shared" si="116"/>
         <v>9494.1818841829372</v>
       </c>
-      <c r="CG37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CK37" s="3">
+        <f t="shared" si="116"/>
         <v>9019.47278997379</v>
       </c>
-      <c r="CH37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CL37" s="3">
+        <f t="shared" si="116"/>
         <v>8568.4991504750997</v>
       </c>
-      <c r="CI37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CM37" s="3">
+        <f t="shared" si="116"/>
         <v>8140.0741929513442</v>
       </c>
-      <c r="CJ37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CN37" s="3">
+        <f t="shared" si="116"/>
         <v>7733.0704833037771</v>
       </c>
-      <c r="CK37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CO37" s="3">
+        <f t="shared" si="116"/>
         <v>7346.416959138588</v>
       </c>
-      <c r="CL37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CP37" s="3">
+        <f t="shared" si="116"/>
         <v>6979.0961111816587</v>
       </c>
-      <c r="CM37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CQ37" s="3">
+        <f t="shared" si="116"/>
         <v>6630.1413056225756</v>
       </c>
-      <c r="CN37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CR37" s="3">
+        <f t="shared" si="116"/>
         <v>6298.6342403414465</v>
       </c>
-      <c r="CO37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CS37" s="3">
+        <f t="shared" si="116"/>
         <v>5983.7025283243738</v>
       </c>
-      <c r="CP37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CT37" s="3">
+        <f t="shared" si="116"/>
         <v>5684.5174019081551</v>
       </c>
-      <c r="CQ37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CU37" s="3">
+        <f t="shared" si="116"/>
         <v>5400.2915318127471</v>
       </c>
-      <c r="CR37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CV37" s="3">
+        <f t="shared" si="116"/>
         <v>5130.2769552221098</v>
       </c>
-      <c r="CS37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CW37" s="3">
+        <f t="shared" si="116"/>
         <v>4873.7631074610044</v>
       </c>
-      <c r="CT37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CX37" s="3">
+        <f t="shared" si="116"/>
         <v>4630.0749520879544</v>
       </c>
-      <c r="CU37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CY37" s="3">
+        <f t="shared" si="116"/>
         <v>4398.5712044835564</v>
       </c>
-      <c r="CV37" s="3">
-        <f t="shared" si="122"/>
+      <c r="CZ37" s="3">
+        <f t="shared" si="116"/>
         <v>4178.6426442593784</v>
       </c>
-      <c r="CW37" s="3">
-        <f t="shared" si="122"/>
+      <c r="DA37" s="3">
+        <f t="shared" si="116"/>
         <v>3969.7105120464093</v>
       </c>
     </row>
-    <row r="38" spans="2:101" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:105" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C38" s="9">
-        <f t="shared" ref="C38:D38" si="123">+C37/C39</f>
+        <f t="shared" ref="C38:D38" si="117">+C37/C39</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="D38" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="117"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" ref="E38:G38" si="124">+E37/E39</f>
+        <f t="shared" ref="E38:G38" si="118">+E37/E39</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="118"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="124"/>
+        <f t="shared" si="118"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="H38" s="9">
-        <f t="shared" ref="H38" si="125">+H37/H39</f>
+        <f t="shared" ref="H38" si="119">+H37/H39</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" ref="I38:J38" si="126">+I37/I39</f>
+        <f t="shared" ref="I38:J38" si="120">+I37/I39</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="J38" s="9">
-        <f t="shared" si="126"/>
+        <f t="shared" si="120"/>
         <v>2.559735283873215</v>
       </c>
       <c r="K38" s="9">
-        <f t="shared" ref="K38:L38" si="127">+K37/K39</f>
+        <f t="shared" ref="K38:L38" si="121">+K37/K39</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="L38" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="121"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="M38" s="9">
-        <f t="shared" ref="M38:R38" si="128">+M37/M39</f>
+        <f t="shared" ref="M38:R38" si="122">+M37/M39</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="N38" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>3.882006920415225</v>
       </c>
       <c r="O38" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="P38" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="Q38" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="R38" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="122"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="S38" s="9">
@@ -4960,87 +5091,91 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="T38" s="9">
-        <f t="shared" ref="T38:V38" si="129">+T37/T39</f>
+        <f t="shared" ref="T38:V38" si="123">+T37/T39</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="U38" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="123"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="V38" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="123"/>
         <v>1.7621212121212122</v>
       </c>
       <c r="W38" s="9">
-        <f t="shared" ref="W38:Z38" si="130">+W37/W39</f>
+        <f t="shared" ref="W38:Z38" si="124">+W37/W39</f>
         <v>3.1720244318181812</v>
       </c>
       <c r="X38" s="9">
-        <f t="shared" si="130"/>
-        <v>3.2121679090909105</v>
+        <f t="shared" si="124"/>
+        <v>3.6975497702909648</v>
       </c>
       <c r="Y38" s="9">
-        <f t="shared" si="130"/>
-        <v>1.8827239295454539</v>
+        <f t="shared" si="124"/>
+        <v>4.3858386974630825</v>
       </c>
       <c r="Z38" s="9">
-        <f t="shared" si="130"/>
-        <v>2.5342711772727271</v>
-      </c>
-      <c r="AG38" s="17">
-        <f>+AG37/AG39</f>
+        <f t="shared" si="124"/>
+        <v>5.0527338403041835</v>
+      </c>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AK38" s="17">
+        <f>+AK37/AK39</f>
         <v>7.5696679219445393</v>
       </c>
-      <c r="AH38" s="17">
-        <f>+AH37/AH39</f>
+      <c r="AL38" s="17">
+        <f>+AL37/AL39</f>
         <v>8.1658553546592483</v>
       </c>
-      <c r="AI38" s="17">
-        <f>+AI37/AI39</f>
+      <c r="AM38" s="17">
+        <f>+AM37/AM39</f>
         <v>10.092105263157896</v>
       </c>
-      <c r="AJ38" s="17">
-        <f t="shared" ref="AJ38" si="131">+AJ37/AJ39</f>
+      <c r="AN38" s="17">
+        <f t="shared" ref="AN38" si="125">+AN37/AN39</f>
         <v>13.770549143057012</v>
       </c>
-      <c r="AK38" s="17">
-        <f t="shared" ref="AK38" si="132">+AK37/AK39</f>
+      <c r="AO38" s="17">
+        <f t="shared" ref="AO38" si="126">+AO37/AO39</f>
         <v>14.721301354108704</v>
       </c>
-      <c r="AL38" s="17">
-        <f t="shared" ref="AL38" si="133">+AL37/AL39</f>
+      <c r="AP38" s="17">
+        <f t="shared" ref="AP38" si="127">+AP37/AP39</f>
         <v>14.281840218883325</v>
       </c>
-      <c r="AM38" s="17">
-        <f t="shared" ref="AM38" si="134">+AM37/AM39</f>
+      <c r="AQ38" s="17">
+        <f t="shared" ref="AQ38" si="128">+AQ37/AQ39</f>
         <v>13.758737024516417</v>
       </c>
-      <c r="AN38" s="17">
-        <f t="shared" ref="AN38" si="135">+AN37/AN39</f>
+      <c r="AR38" s="17">
+        <f t="shared" ref="AR38" si="129">+AR37/AR39</f>
         <v>17.124370041434684</v>
       </c>
-      <c r="AO38" s="17">
-        <f t="shared" ref="AO38" si="136">+AO37/AO39</f>
+      <c r="AS38" s="17">
+        <f t="shared" ref="AS38" si="130">+AS37/AS39</f>
         <v>19.323574607367966</v>
       </c>
-      <c r="AP38" s="17">
-        <f t="shared" ref="AP38" si="137">+AP37/AP39</f>
+      <c r="AT38" s="17">
+        <f t="shared" ref="AT38" si="131">+AT37/AT39</f>
         <v>20.981916952358937</v>
       </c>
-      <c r="AQ38" s="17">
-        <f t="shared" ref="AQ38" si="138">+AQ37/AQ39</f>
+      <c r="AU38" s="17">
+        <f t="shared" ref="AU38" si="132">+AU37/AU39</f>
         <v>22.650123987781214</v>
       </c>
-      <c r="AR38" s="17">
-        <f t="shared" ref="AR38" si="139">+AR37/AR39</f>
+      <c r="AV38" s="17">
+        <f t="shared" ref="AV38" si="133">+AV37/AV39</f>
         <v>24.333595050404021</v>
       </c>
-      <c r="AS38" s="17">
-        <f t="shared" ref="AS38" si="140">+AS37/AS39</f>
+      <c r="AW38" s="17">
+        <f t="shared" ref="AW38" si="134">+AW37/AW39</f>
         <v>26.037399400838282</v>
       </c>
     </row>
-    <row r="39" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
@@ -5109,74 +5244,75 @@
         <v>2640</v>
       </c>
       <c r="X39" s="6">
-        <f t="shared" ref="X39:Z39" si="141">+W39</f>
-        <v>2640</v>
+        <v>2612</v>
       </c>
       <c r="Y39" s="6">
-        <f t="shared" si="141"/>
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="Z39" s="6">
-        <f t="shared" si="141"/>
-        <v>2640</v>
-      </c>
-      <c r="AF39" s="3">
+        <v>2630</v>
+      </c>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AJ39" s="3">
         <f>2395.921635+509.079123</f>
         <v>2905.0007580000001</v>
       </c>
-      <c r="AG39" s="3">
+      <c r="AK39" s="3">
         <v>2921</v>
       </c>
-      <c r="AH39" s="3">
+      <c r="AL39" s="3">
         <v>2876</v>
       </c>
-      <c r="AI39" s="3">
+      <c r="AM39" s="3">
         <v>2888</v>
       </c>
-      <c r="AJ39" s="3">
+      <c r="AN39" s="3">
         <v>2859</v>
       </c>
-      <c r="AK39" s="3">
+      <c r="AO39" s="3">
         <f>AVERAGE(S39:V39)</f>
         <v>2695.5</v>
       </c>
-      <c r="AL39" s="3">
-        <f t="shared" ref="AL39:AS39" si="142">+AK39</f>
+      <c r="AP39" s="3">
+        <f t="shared" ref="AP39:AW39" si="135">+AO39</f>
         <v>2695.5</v>
       </c>
-      <c r="AM39" s="3">
-        <f t="shared" si="142"/>
+      <c r="AQ39" s="3">
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
-      <c r="AN39" s="3">
-        <f t="shared" si="142"/>
+      <c r="AR39" s="3">
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
-      <c r="AO39" s="3">
-        <f t="shared" si="142"/>
+      <c r="AS39" s="3">
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
-      <c r="AP39" s="3">
-        <f t="shared" si="142"/>
+      <c r="AT39" s="3">
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
-      <c r="AQ39" s="3">
-        <f t="shared" si="142"/>
+      <c r="AU39" s="3">
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
-      <c r="AR39" s="3">
-        <f t="shared" si="142"/>
+      <c r="AV39" s="3">
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
-      <c r="AS39" s="3">
-        <f t="shared" si="142"/>
+      <c r="AW39" s="3">
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
     </row>
-    <row r="40" spans="2:101" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:105" x14ac:dyDescent="0.15">
       <c r="S40" s="6"/>
     </row>
-    <row r="41" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
@@ -5185,23 +5321,23 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="11">
-        <f t="shared" ref="G41:K41" si="143">+G26/C26-1</f>
+        <f t="shared" ref="G41:K41" si="136">+G26/C26-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="H41" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="136"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="I41" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="136"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="J41" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="136"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="K41" s="11">
-        <f t="shared" si="143"/>
+        <f t="shared" si="136"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="L41" s="11">
@@ -5225,11 +5361,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="Q41" s="11">
-        <f t="shared" ref="Q41:R41" si="144">+Q26/M26-1</f>
+        <f t="shared" ref="Q41:R41" si="137">+Q26/M26-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="R41" s="11">
-        <f t="shared" si="144"/>
+        <f t="shared" si="137"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="S41" s="11">
@@ -5245,7 +5381,7 @@
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="V41" s="11">
-        <f t="shared" ref="V41" si="145">+V26/R26-1</f>
+        <f t="shared" ref="V41" si="138">+V26/R26-1</f>
         <v>-4.4726916337501144E-2</v>
       </c>
       <c r="W41" s="11">
@@ -5253,87 +5389,91 @@
         <v>2.6408198366060009E-2</v>
       </c>
       <c r="X41" s="11">
-        <f t="shared" ref="X41" si="146">+X26/T26-1</f>
-        <v>7.4429255429879992E-2</v>
+        <f t="shared" ref="X41" si="139">+X26/T26-1</f>
+        <v>0.11022829782804799</v>
       </c>
       <c r="Y41" s="11">
-        <f t="shared" ref="Y41" si="147">+Y26/U26-1</f>
-        <v>-3.6867287291621587E-2</v>
+        <f t="shared" ref="Y41" si="140">+Y26/U26-1</f>
+        <v>0.23208486685429741</v>
       </c>
       <c r="Z41" s="11">
-        <f t="shared" ref="Z41" si="148">+Z26/V26-1</f>
-        <v>-4.7756256800870589E-2</v>
-      </c>
-      <c r="AC41" s="18">
-        <f t="shared" ref="AC41:AG41" si="149">+AC26/AB26-1</f>
+        <f t="shared" ref="Z41" si="141">+Z26/V26-1</f>
+        <v>0.24703870666873939</v>
+      </c>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AG41" s="18">
+        <f t="shared" ref="AG41:AK41" si="142">+AG26/AF26-1</f>
         <v>0.58358739837398366</v>
       </c>
-      <c r="AD41" s="18">
-        <f t="shared" si="149"/>
+      <c r="AH41" s="18">
+        <f t="shared" si="142"/>
         <v>0.43815177282207607</v>
       </c>
-      <c r="AE41" s="18">
-        <f t="shared" si="149"/>
+      <c r="AI41" s="18">
+        <f t="shared" si="142"/>
         <v>0.54161088799643009</v>
       </c>
-      <c r="AF41" s="18">
-        <f t="shared" si="149"/>
+      <c r="AJ41" s="18">
+        <f t="shared" si="142"/>
         <v>0.47090961719371882</v>
       </c>
-      <c r="AG41" s="18">
-        <f t="shared" si="149"/>
+      <c r="AK41" s="18">
+        <f t="shared" si="142"/>
         <v>0.37352716896661997</v>
       </c>
-      <c r="AH41" s="18">
-        <f>+AH26/AG26-1</f>
+      <c r="AL41" s="18">
+        <f>+AL26/AK26-1</f>
         <v>0.26610910132884413</v>
       </c>
-      <c r="AI41" s="18">
-        <f>+AI26/AH26-1</f>
+      <c r="AM41" s="18">
+        <f>+AM26/AL26-1</f>
         <v>0.21596390228722573</v>
       </c>
-      <c r="AJ41" s="18">
-        <f>+AJ26/AI26-1</f>
+      <c r="AN41" s="18">
+        <f>+AN26/AM26-1</f>
         <v>0.37182574303495608</v>
       </c>
-      <c r="AK41" s="18">
-        <f>+AK26/AJ26-1</f>
+      <c r="AO41" s="18">
+        <f>+AO26/AN26-1</f>
         <v>-1.1193175554782941E-2</v>
       </c>
-      <c r="AL41" s="18">
-        <f t="shared" ref="AL41:AS41" si="150">+AL26/AK26-1</f>
+      <c r="AP41" s="18">
+        <f t="shared" ref="AP41:AW41" si="143">+AP26/AO26-1</f>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="AM41" s="18">
-        <f t="shared" si="150"/>
+      <c r="AQ41" s="18">
+        <f t="shared" si="143"/>
         <v>-5.0000000000000044E-2</v>
       </c>
-      <c r="AN41" s="18">
-        <f t="shared" si="150"/>
+      <c r="AR41" s="18">
+        <f t="shared" si="143"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AO41" s="18">
-        <f t="shared" si="150"/>
+      <c r="AS41" s="18">
+        <f t="shared" si="143"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AP41" s="18">
-        <f t="shared" si="150"/>
+      <c r="AT41" s="18">
+        <f t="shared" si="143"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AQ41" s="18">
-        <f t="shared" si="150"/>
+      <c r="AU41" s="18">
+        <f t="shared" si="143"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AR41" s="18">
-        <f t="shared" si="150"/>
+      <c r="AV41" s="18">
+        <f t="shared" si="143"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AS41" s="18">
-        <f t="shared" si="150"/>
+      <c r="AW41" s="18">
+        <f t="shared" si="143"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:101" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7" t="s">
         <v>95</v>
       </c>
@@ -5354,15 +5494,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="P42" s="11">
-        <f t="shared" ref="P42:R42" si="151">+P22/L22-1</f>
+        <f t="shared" ref="P42:R42" si="144">+P22/L22-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="Q42" s="11">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="R42" s="11">
-        <f t="shared" si="151"/>
+        <f t="shared" si="144"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="S42" s="11">
@@ -5374,7 +5514,7 @@
         <v>-4.3244052072422545E-2</v>
       </c>
       <c r="U42" s="11">
-        <f t="shared" ref="U42" si="152">+U22/Q22-1</f>
+        <f t="shared" ref="U42" si="145">+U22/Q22-1</f>
         <v>-2.5049641056972605E-2</v>
       </c>
       <c r="V42" s="11"/>
@@ -5382,7 +5522,7 @@
       <c r="X42" s="12"/>
       <c r="Y42" s="12"/>
     </row>
-    <row r="43" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>97</v>
       </c>
@@ -5416,7 +5556,7 @@
       <c r="X43" s="6"/>
       <c r="Y43" s="6"/>
     </row>
-    <row r="44" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>96</v>
       </c>
@@ -5452,7 +5592,7 @@
       <c r="X44" s="6"/>
       <c r="Y44" s="6"/>
     </row>
-    <row r="45" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>108</v>
       </c>
@@ -5472,7 +5612,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10">
-        <f t="shared" ref="R45" si="153">+R24/N24-1</f>
+        <f t="shared" ref="R45" si="146">+R24/N24-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="S45" s="10">
@@ -5491,24 +5631,40 @@
         <f>+V24/R24-1</f>
         <v>-0.17103762827822122</v>
       </c>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AI45" s="19">
-        <f t="shared" ref="AI45" si="154">AI24/AH24-1</f>
+      <c r="W45" s="10">
+        <f>+W24/S24-1</f>
+        <v>-0.51223021582733819</v>
+      </c>
+      <c r="X45" s="10">
+        <f>+X24/T24-1</f>
+        <v>-0.38938053097345138</v>
+      </c>
+      <c r="Y45" s="10">
+        <f>+Y24/U24-1</f>
+        <v>-0.26315789473684215</v>
+      </c>
+      <c r="Z45" s="10">
+        <f>+Z24/V24-1</f>
+        <v>0.47317744154057761</v>
+      </c>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
+      <c r="AD45" s="10"/>
+      <c r="AM45" s="19">
+        <f t="shared" ref="AM45" si="147">AM24/AL24-1</f>
         <v>1.2734530938123751</v>
       </c>
-      <c r="AJ45" s="19">
-        <f>AJ24/AI24-1</f>
+      <c r="AN45" s="19">
+        <f>AN24/AM24-1</f>
         <v>0.99648814749780512</v>
       </c>
-      <c r="AK45" s="19">
-        <f>AK24/AJ24-1</f>
+      <c r="AO45" s="19">
+        <f>AO24/AN24-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>201</v>
       </c>
@@ -5527,19 +5683,19 @@
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="10">
-        <f t="shared" ref="Q46:T46" si="155">+Q32/M32-1</f>
+        <f t="shared" ref="Q46:T46" si="148">+Q32/M32-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="R46" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="S46" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="T46" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="148"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="U46" s="10">
@@ -5547,27 +5703,31 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="V46" s="10">
-        <f t="shared" ref="V46:Z46" si="156">+V32/R32-1</f>
+        <f t="shared" ref="V46:Z46" si="149">+V32/R32-1</f>
         <v>0.18265707694395439</v>
       </c>
       <c r="W46" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="149"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="X46" s="10">
-        <f t="shared" si="156"/>
-        <v>-0.10000000000000009</v>
+        <f t="shared" si="149"/>
+        <v>-3.1430068098480923E-2</v>
       </c>
       <c r="Y46" s="10">
-        <f t="shared" si="156"/>
-        <v>-9.9999999999999978E-2</v>
+        <f t="shared" si="149"/>
+        <v>-0.13138239255540585</v>
       </c>
       <c r="Z46" s="10">
-        <f t="shared" si="156"/>
-        <v>-9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="149"/>
+        <v>-8.0206540447504304E-2</v>
+      </c>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+    </row>
+    <row r="47" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -5592,234 +5752,242 @@
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
       <c r="Z47" s="10"/>
-    </row>
-    <row r="48" spans="2:101" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+    </row>
+    <row r="48" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="10">
-        <f t="shared" ref="C48:Z48" si="157">+C28/C26</f>
+        <f t="shared" ref="C48:Z48" si="150">+C28/C26</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="D48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="E48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="F48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="G48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="I48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="J48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="K48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="L48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="M48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="N48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="O48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="P48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="Q48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="R48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="S48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="T48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="V48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="X48" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="150"/>
+        <v>0.81421294415450485</v>
+      </c>
+      <c r="Y48" s="10">
+        <f t="shared" si="150"/>
+        <v>0.81813389562467054</v>
+      </c>
+      <c r="Z48" s="10">
+        <f t="shared" si="150"/>
         <v>0.79</v>
       </c>
-      <c r="Y48" s="10">
-        <f t="shared" si="157"/>
-        <v>0.79</v>
-      </c>
-      <c r="Z48" s="10">
-        <f t="shared" si="157"/>
-        <v>0.79</v>
-      </c>
-      <c r="AG48" s="19">
-        <f t="shared" ref="AG48:AS48" si="158">+AG28/AG26</f>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
+      <c r="AD48" s="10"/>
+      <c r="AK48" s="19">
+        <f t="shared" ref="AK48:AW48" si="151">+AK28/AK26</f>
         <v>0.8324617643898421</v>
       </c>
-      <c r="AH48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AL48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81936998741106415</v>
       </c>
-      <c r="AI48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AM48" s="19">
+        <f t="shared" si="151"/>
         <v>0.80582795323678236</v>
       </c>
-      <c r="AJ48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AN48" s="19">
+        <f t="shared" si="151"/>
         <v>0.80794376277251567</v>
       </c>
-      <c r="AK48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AO48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
-      <c r="AL48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AP48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
-      <c r="AM48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AQ48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
-      <c r="AN48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AR48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81000000000000016</v>
       </c>
-      <c r="AO48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AS48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
-      <c r="AP48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AT48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
-      <c r="AQ48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AU48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
-      <c r="AR48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AV48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
-      <c r="AS48" s="19">
-        <f t="shared" si="158"/>
+      <c r="AW48" s="19">
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
     </row>
-    <row r="49" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C49" s="10">
-        <f t="shared" ref="C49:E49" si="159">+C33/C26</f>
+        <f t="shared" ref="C49:E49" si="152">+C33/C26</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="D49" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="152"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="E49" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="152"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="F49" s="10">
-        <f t="shared" ref="F49:I49" si="160">+F33/F26</f>
+        <f t="shared" ref="F49:I49" si="153">+F33/F26</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="G49" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="153"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="153"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="I49" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="153"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="J49" s="10">
-        <f t="shared" ref="J49:L49" si="161">+J33/J26</f>
+        <f t="shared" ref="J49:L49" si="154">+J33/J26</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="K49" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="L49" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="154"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="M49" s="10">
-        <f t="shared" ref="M49:P49" si="162">+M33/M26</f>
+        <f t="shared" ref="M49:P49" si="155">+M33/M26</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="N49" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="O49" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="P49" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="155"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="Q49" s="10">
-        <f t="shared" ref="Q49:T49" si="163">+Q33/Q26</f>
+        <f t="shared" ref="Q49:T49" si="156">+Q33/Q26</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="R49" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="S49" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="T49" s="10">
-        <f t="shared" si="163"/>
+        <f t="shared" si="156"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="U49" s="10">
@@ -5827,305 +5995,317 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" ref="V49:Z49" si="164">+V33/V26</f>
+        <f t="shared" ref="V49:Z49" si="157">+V33/V26</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" si="164"/>
+        <f t="shared" si="157"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="X49" s="10">
-        <f t="shared" si="164"/>
-        <v>0.346149732620321</v>
+        <f t="shared" si="157"/>
+        <v>0.35194849839057468</v>
       </c>
       <c r="Y49" s="10">
-        <f t="shared" si="164"/>
-        <v>0.23925607648059771</v>
+        <f t="shared" si="157"/>
+        <v>0.40262402624026239</v>
       </c>
       <c r="Z49" s="10">
-        <f t="shared" si="164"/>
-        <v>0.27783698543729257</v>
-      </c>
-      <c r="AG49" s="10">
-        <f t="shared" ref="AG49:AS49" si="165">+AG33/AG26</f>
+        <f t="shared" si="157"/>
+        <v>0.39030914213058771</v>
+      </c>
+      <c r="AA49" s="10"/>
+      <c r="AB49" s="10"/>
+      <c r="AC49" s="10"/>
+      <c r="AD49" s="10"/>
+      <c r="AK49" s="10">
+        <f t="shared" ref="AK49:AW49" si="158">+AK33/AK26</f>
         <v>0.44616569361366809</v>
       </c>
-      <c r="AH49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AL49" s="10">
+        <f t="shared" si="158"/>
         <v>0.41000325332050863</v>
       </c>
-      <c r="AI49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AM49" s="10">
+        <f t="shared" si="158"/>
         <v>0.3800500203571221</v>
       </c>
-      <c r="AJ49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AN49" s="10">
+        <f t="shared" si="158"/>
         <v>0.39645040660058173</v>
       </c>
-      <c r="AK49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AO49" s="10">
+        <f t="shared" si="158"/>
         <v>0.4149918959943058</v>
       </c>
-      <c r="AL49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AP49" s="10">
+        <f t="shared" si="158"/>
         <v>0.41423249807837342</v>
       </c>
-      <c r="AM49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AQ49" s="10">
+        <f t="shared" si="158"/>
         <v>0.41237889488818724</v>
       </c>
-      <c r="AN49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AR49" s="10">
+        <f t="shared" si="158"/>
         <v>0.46405230335181041</v>
       </c>
-      <c r="AO49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AS49" s="10">
+        <f t="shared" si="158"/>
         <v>0.49383403342503468</v>
       </c>
-      <c r="AP49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AT49" s="10">
+        <f t="shared" si="158"/>
         <v>0.51467112682969474</v>
       </c>
-      <c r="AQ49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AU49" s="10">
+        <f t="shared" si="158"/>
         <v>0.53343365550304611</v>
       </c>
-      <c r="AR49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AV49" s="10">
+        <f t="shared" si="158"/>
         <v>0.55036728218751607</v>
       </c>
-      <c r="AS49" s="10">
-        <f t="shared" si="165"/>
+      <c r="AW49" s="10">
+        <f t="shared" si="158"/>
         <v>0.56568713478011834</v>
       </c>
-      <c r="AW49" t="s">
+      <c r="BA49" t="s">
         <v>112</v>
       </c>
-      <c r="AX49" s="3">
-        <f>NPV(AX50,AL37:CW37)</f>
+      <c r="BB49" s="3">
+        <f>NPV(BB50,AP37:DA37)</f>
         <v>572407.49836020486</v>
       </c>
     </row>
-    <row r="50" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C50" s="10">
-        <f t="shared" ref="C50:V50" si="166">+C36/C35</f>
+        <f t="shared" ref="C50:V50" si="159">+C36/C35</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="D50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="E50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="F50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="G50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="I50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="J50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="K50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="L50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="M50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="N50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="O50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="P50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="Q50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="R50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="S50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="T50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="U50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="V50" s="10">
-        <f t="shared" si="166"/>
+        <f t="shared" si="159"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="W50" s="10">
-        <f t="shared" ref="W50:Z50" si="167">+W36/W35</f>
+        <f t="shared" ref="W50:Z50" si="160">+W36/W35</f>
         <v>0.19</v>
       </c>
       <c r="X50" s="10">
-        <f t="shared" si="167"/>
-        <v>0.19</v>
+        <f t="shared" si="160"/>
+        <v>0.13482038878437697</v>
       </c>
       <c r="Y50" s="10">
-        <f t="shared" si="167"/>
-        <v>0.19000000000000003</v>
+        <f t="shared" si="160"/>
+        <v>0.1738231098430813</v>
       </c>
       <c r="Z50" s="10">
-        <f t="shared" si="167"/>
-        <v>0.19</v>
-      </c>
-      <c r="AG50" s="19">
-        <f t="shared" ref="AG50:AS50" si="168">+AG36/AG35</f>
+        <f t="shared" si="160"/>
+        <v>0.17357299798690146</v>
+      </c>
+      <c r="AA50" s="10"/>
+      <c r="AB50" s="10"/>
+      <c r="AC50" s="10"/>
+      <c r="AD50" s="10"/>
+      <c r="AK50" s="19">
+        <f t="shared" ref="AK50:AW50" si="161">+AK36/AK35</f>
         <v>0.12814952091794488</v>
       </c>
-      <c r="AH50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AL50" s="19">
+        <f t="shared" si="161"/>
         <v>0.21222997450690997</v>
       </c>
-      <c r="AI50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AM50" s="19">
+        <f t="shared" si="161"/>
         <v>0.12157926461723931</v>
       </c>
-      <c r="AJ50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AN50" s="19">
+        <f t="shared" si="161"/>
         <v>0.16737162676592504</v>
       </c>
-      <c r="AK50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AO50" s="19">
+        <f t="shared" si="161"/>
         <v>0.18</v>
       </c>
-      <c r="AL50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AP50" s="19">
+        <f t="shared" si="161"/>
         <v>0.17999999999999997</v>
       </c>
-      <c r="AM50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AQ50" s="19">
+        <f t="shared" si="161"/>
         <v>0.18</v>
       </c>
-      <c r="AN50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AR50" s="19">
+        <f t="shared" si="161"/>
         <v>0.18</v>
       </c>
-      <c r="AO50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AS50" s="19">
+        <f t="shared" si="161"/>
         <v>0.18</v>
       </c>
-      <c r="AP50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AT50" s="19">
+        <f t="shared" si="161"/>
         <v>0.18</v>
       </c>
-      <c r="AQ50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AU50" s="19">
+        <f t="shared" si="161"/>
         <v>0.18</v>
       </c>
-      <c r="AR50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AV50" s="19">
+        <f t="shared" si="161"/>
         <v>0.18</v>
       </c>
-      <c r="AS50" s="19">
-        <f t="shared" si="168"/>
+      <c r="AW50" s="19">
+        <f t="shared" si="161"/>
         <v>0.18</v>
       </c>
-      <c r="AW50" s="3" t="s">
+      <c r="BA50" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="AX50" s="19">
+      <c r="BB50" s="19">
         <v>0.08</v>
       </c>
     </row>
-    <row r="51" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.15">
       <c r="S51" s="6"/>
-      <c r="AW51" t="s">
+      <c r="BA51" t="s">
         <v>114</v>
       </c>
-      <c r="AX51" s="19">
+      <c r="BB51" s="19">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="52" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
         <v>196</v>
       </c>
       <c r="Q52" s="6">
-        <f t="shared" ref="Q52:S52" si="169">+Q53-Q67</f>
+        <f t="shared" ref="Q52:S52" si="162">+Q53-Q67</f>
         <v>64833</v>
       </c>
       <c r="R52" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>54773</v>
       </c>
       <c r="S52" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="162"/>
         <v>50665</v>
       </c>
       <c r="T52" s="6">
-        <f t="shared" ref="T52:Z52" si="170">+T53-T67</f>
+        <f t="shared" ref="T52:Z52" si="163">+T53-T67</f>
         <v>47025</v>
       </c>
       <c r="U52" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="163"/>
         <v>38382</v>
       </c>
       <c r="V52" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="163"/>
         <v>43034</v>
       </c>
       <c r="W52" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="163"/>
         <v>51408.144499999995</v>
       </c>
       <c r="X52" s="6">
-        <f t="shared" si="170"/>
-        <v>59888.267779999995</v>
+        <f t="shared" si="163"/>
+        <v>61066.144499999995</v>
       </c>
       <c r="Y52" s="6">
-        <f t="shared" si="170"/>
-        <v>64858.658953999999</v>
+        <f t="shared" si="163"/>
+        <v>72649.144499999995</v>
       </c>
       <c r="Z52" s="6">
-        <f t="shared" si="170"/>
-        <v>71549.134861999992</v>
-      </c>
-      <c r="AW52" s="3" t="s">
+        <f t="shared" si="163"/>
+        <v>85937.834499999997</v>
+      </c>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="6"/>
+      <c r="BA52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="AX52" s="19">
+      <c r="BB52" s="19">
         <v>0.02</v>
       </c>
     </row>
-    <row r="53" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>4</v>
       </c>
@@ -6182,65 +6362,69 @@
       </c>
       <c r="X53" s="6">
         <f>+W53+X37</f>
-        <v>69810.267779999995</v>
+        <v>70988.144499999995</v>
       </c>
       <c r="Y53" s="6">
         <f>+X53+Y37</f>
-        <v>74780.658953999999</v>
+        <v>82571.144499999995</v>
       </c>
       <c r="Z53" s="6">
         <f>+Y53+Z37</f>
-        <v>81471.134861999992</v>
-      </c>
-      <c r="AJ53" s="3">
+        <v>95859.834499999997</v>
+      </c>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="6"/>
+      <c r="AN53" s="3">
         <f>+R53</f>
         <v>54773</v>
       </c>
-      <c r="AK53" s="3">
+      <c r="AO53" s="3">
         <f>+V53</f>
         <v>52956</v>
       </c>
-      <c r="AL53" s="3">
-        <f t="shared" ref="AL53:AS53" si="171">+AK53+AL37</f>
+      <c r="AP53" s="3">
+        <f t="shared" ref="AP53:AW53" si="164">+AO53+AP37</f>
         <v>91452.70031</v>
       </c>
-      <c r="AM53" s="3">
-        <f t="shared" si="171"/>
+      <c r="AQ53" s="3">
+        <f t="shared" si="164"/>
         <v>128539.37595958399</v>
       </c>
-      <c r="AN53" s="3">
-        <f t="shared" si="171"/>
+      <c r="AR53" s="3">
+        <f t="shared" si="164"/>
         <v>174698.11540627119</v>
       </c>
-      <c r="AO53" s="3">
-        <f t="shared" si="171"/>
+      <c r="AS53" s="3">
+        <f t="shared" si="164"/>
         <v>226784.81076043154</v>
       </c>
-      <c r="AP53" s="3">
-        <f t="shared" si="171"/>
+      <c r="AT53" s="3">
+        <f t="shared" si="164"/>
         <v>283341.56790551508</v>
       </c>
-      <c r="AQ53" s="3">
-        <f t="shared" si="171"/>
+      <c r="AU53" s="3">
+        <f t="shared" si="164"/>
         <v>344394.97711457935</v>
       </c>
-      <c r="AR53" s="3">
-        <f t="shared" si="171"/>
+      <c r="AV53" s="3">
+        <f t="shared" si="164"/>
         <v>409986.18257294339</v>
       </c>
-      <c r="AS53" s="3">
-        <f t="shared" si="171"/>
+      <c r="AW53" s="3">
+        <f t="shared" si="164"/>
         <v>480169.992657903</v>
       </c>
-      <c r="AW53" s="3" t="s">
+      <c r="BA53" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AX53" s="17">
-        <f>AX49/Main!M3</f>
+      <c r="BB53" s="17">
+        <f>BB49/Main!M3</f>
         <v>215.87667010339968</v>
       </c>
     </row>
-    <row r="54" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>49</v>
       </c>
@@ -6283,15 +6467,15 @@
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
       <c r="Y54" s="6"/>
-      <c r="AW54" s="3" t="s">
+      <c r="BA54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="AX54" s="19">
-        <f>AX53/Main!M2-1</f>
+      <c r="BB54" s="19">
+        <f>BB53/Main!M2-1</f>
         <v>2.7984143349522261E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
         <v>50</v>
       </c>
@@ -6335,7 +6519,7 @@
       <c r="X55" s="6"/>
       <c r="Y55" s="6"/>
     </row>
-    <row r="56" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>51</v>
       </c>
@@ -6379,7 +6563,7 @@
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
     </row>
-    <row r="57" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>52</v>
       </c>
@@ -6423,7 +6607,7 @@
       <c r="X57" s="6"/>
       <c r="Y57" s="6"/>
     </row>
-    <row r="58" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
@@ -6475,7 +6659,7 @@
       <c r="X58" s="6"/>
       <c r="Y58" s="6"/>
     </row>
-    <row r="59" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B59" s="3" t="s">
         <v>55</v>
       </c>
@@ -6519,7 +6703,7 @@
       <c r="X59" s="6"/>
       <c r="Y59" s="6"/>
     </row>
-    <row r="60" spans="2:50" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>53</v>
       </c>
@@ -6535,23 +6719,23 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6">
-        <f t="shared" ref="N60:O60" si="172">SUM(N53:N59)</f>
+        <f t="shared" ref="N60:O60" si="165">SUM(N53:N59)</f>
         <v>159316</v>
       </c>
       <c r="O60" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="165"/>
         <v>163523</v>
       </c>
       <c r="P60" s="6">
-        <f t="shared" ref="P60:Q60" si="173">SUM(P53:P59)</f>
+        <f t="shared" ref="P60:Q60" si="166">SUM(P53:P59)</f>
         <v>170609</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="166"/>
         <v>169585</v>
       </c>
       <c r="R60" s="6">
-        <f t="shared" ref="R60" si="174">SUM(R53:R59)</f>
+        <f t="shared" ref="R60" si="167">SUM(R53:R59)</f>
         <v>165987</v>
       </c>
       <c r="S60" s="6">
@@ -6571,10 +6755,10 @@
       <c r="X60" s="6"/>
       <c r="Y60" s="6"/>
     </row>
-    <row r="61" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.15">
       <c r="S61" s="6"/>
     </row>
-    <row r="62" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>56</v>
       </c>
@@ -6603,7 +6787,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="63" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>57</v>
       </c>
@@ -6632,7 +6816,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="2:50" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
         <v>58</v>
       </c>
@@ -6669,7 +6853,7 @@
         <v>15978</v>
       </c>
     </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
         <v>59</v>
       </c>
@@ -6698,7 +6882,7 @@
         <v>16036</v>
       </c>
     </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
         <v>60</v>
       </c>
@@ -6727,7 +6911,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
         <v>5</v>
       </c>
@@ -6761,8 +6945,12 @@
         <f>+Y67</f>
         <v>9922</v>
       </c>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="6"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
         <v>65</v>
       </c>
@@ -6791,7 +6979,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
         <v>64</v>
       </c>
@@ -6820,7 +7008,7 @@
         <v>62092</v>
       </c>
     </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
         <v>63</v>
       </c>
@@ -6849,7 +7037,7 @@
         <v>-5054</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
         <v>62</v>
       </c>
@@ -6878,80 +7066,80 @@
         <v>67056</v>
       </c>
     </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
         <v>61</v>
       </c>
       <c r="N72" s="6">
-        <f t="shared" ref="N72:O72" si="175">SUM(N62:N71)</f>
+        <f t="shared" ref="N72:O72" si="168">SUM(N62:N71)</f>
         <v>159316</v>
       </c>
       <c r="O72" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="168"/>
         <v>163523</v>
       </c>
       <c r="P72" s="6">
-        <f t="shared" ref="P72:Q72" si="176">SUM(P62:P71)</f>
+        <f t="shared" ref="P72:Q72" si="169">SUM(P62:P71)</f>
         <v>170609</v>
       </c>
       <c r="Q72" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="169"/>
         <v>169585</v>
       </c>
       <c r="R72" s="6">
-        <f t="shared" ref="R72:U72" si="177">SUM(R62:R71)</f>
+        <f t="shared" ref="R72:U72" si="170">SUM(R62:R71)</f>
         <v>165987</v>
       </c>
       <c r="S72" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>164218</v>
       </c>
       <c r="T72" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>169779</v>
       </c>
       <c r="U72" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="170"/>
         <v>178894</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.15">
       <c r="S73" s="6"/>
     </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
         <v>66</v>
       </c>
       <c r="O74" s="6">
-        <f t="shared" ref="O74:U74" si="178">O37</f>
+        <f t="shared" ref="O74:U74" si="171">O37</f>
         <v>9497</v>
       </c>
       <c r="P74" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>10394</v>
       </c>
       <c r="Q74" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>9194</v>
       </c>
       <c r="R74" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>10285</v>
       </c>
       <c r="S74" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>7465</v>
       </c>
       <c r="T74" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>6687</v>
       </c>
       <c r="U74" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="171"/>
         <v>4395</v>
       </c>
     </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>67</v>
       </c>
@@ -6980,7 +7168,7 @@
         <v>4395</v>
       </c>
     </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
         <v>69</v>
       </c>
@@ -7009,7 +7197,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>70</v>
       </c>
@@ -7038,7 +7226,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="78" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
         <v>71</v>
       </c>
@@ -7067,7 +7255,7 @@
         <v>-1097</v>
       </c>
     </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
         <v>55</v>
       </c>
@@ -7096,7 +7284,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
         <v>72</v>
       </c>
@@ -7129,44 +7317,44 @@
         <v>567</v>
       </c>
     </row>
-    <row r="81" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
         <v>68</v>
       </c>
       <c r="O81" s="6">
-        <f t="shared" ref="O81:U81" si="179">SUM(O75:O80)</f>
+        <f t="shared" ref="O81:U81" si="172">SUM(O75:O80)</f>
         <v>12242</v>
       </c>
       <c r="P81" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>13247</v>
       </c>
       <c r="Q81" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>14090</v>
       </c>
       <c r="R81" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>18104</v>
       </c>
       <c r="S81" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>14076</v>
       </c>
       <c r="T81" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>12197</v>
       </c>
       <c r="U81" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="172"/>
         <v>9691</v>
       </c>
     </row>
-    <row r="82" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:26" x14ac:dyDescent="0.15">
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
     </row>
-    <row r="83" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="3" t="s">
         <v>73</v>
       </c>
@@ -7213,7 +7401,7 @@
       <c r="X83" s="6"/>
       <c r="Y83" s="6"/>
     </row>
-    <row r="84" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B84" s="3" t="s">
         <v>74</v>
       </c>
@@ -7262,7 +7450,7 @@
       <c r="X84" s="6"/>
       <c r="Y84" s="6"/>
     </row>
-    <row r="85" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B85" s="3" t="s">
         <v>75</v>
       </c>
@@ -7307,7 +7495,7 @@
       <c r="X85" s="6"/>
       <c r="Y85" s="6"/>
     </row>
-    <row r="86" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B86" s="3" t="s">
         <v>76</v>
       </c>
@@ -7324,31 +7512,31 @@
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6">
-        <f t="shared" ref="O86:U86" si="180">SUM(O83:O85)</f>
+        <f t="shared" ref="O86:U86" si="173">SUM(O83:O85)</f>
         <v>-4874</v>
       </c>
       <c r="P86" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>-8195</v>
       </c>
       <c r="Q86" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>-330</v>
       </c>
       <c r="R86" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>5829</v>
       </c>
       <c r="S86" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>-4779</v>
       </c>
       <c r="T86" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>-6959</v>
       </c>
       <c r="U86" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="173"/>
         <v>-9701</v>
       </c>
       <c r="V86" s="6"/>
@@ -7356,7 +7544,7 @@
       <c r="X86" s="6"/>
       <c r="Y86" s="6"/>
     </row>
-    <row r="87" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -7381,7 +7569,7 @@
       <c r="X87" s="6"/>
       <c r="Y87" s="6"/>
     </row>
-    <row r="88" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="3" t="s">
         <v>77</v>
       </c>
@@ -7426,7 +7614,7 @@
       <c r="X88" s="6"/>
       <c r="Y88" s="6"/>
     </row>
-    <row r="89" spans="2:25" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:26" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B89" s="7" t="s">
         <v>78</v>
       </c>
@@ -7471,7 +7659,7 @@
       <c r="X89" s="8"/>
       <c r="Y89" s="8"/>
     </row>
-    <row r="90" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B90" s="3" t="s">
         <v>5</v>
       </c>
@@ -7506,7 +7694,7 @@
       <c r="X90" s="6"/>
       <c r="Y90" s="6"/>
     </row>
-    <row r="91" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B91" s="3" t="s">
         <v>55</v>
       </c>
@@ -7554,7 +7742,7 @@
       <c r="X91" s="6"/>
       <c r="Y91" s="6"/>
     </row>
-    <row r="92" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B92" s="3" t="s">
         <v>79</v>
       </c>
@@ -7571,19 +7759,19 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6">
-        <f t="shared" ref="O92:Q92" si="181">SUM(O88:O91)</f>
+        <f t="shared" ref="O92:Q92" si="174">SUM(O88:O91)</f>
         <v>-5185</v>
       </c>
       <c r="P92" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>-8549</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="174"/>
         <v>-15252</v>
       </c>
       <c r="R92" s="6">
-        <f t="shared" ref="R92" si="182">SUM(R88:R91)</f>
+        <f t="shared" ref="R92" si="175">SUM(R88:R91)</f>
         <v>-21742</v>
       </c>
       <c r="S92" s="6">
@@ -7603,7 +7791,7 @@
       <c r="X92" s="6"/>
       <c r="Y92" s="6"/>
     </row>
-    <row r="93" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
         <v>80</v>
       </c>
@@ -7632,43 +7820,43 @@
         <v>-364</v>
       </c>
     </row>
-    <row r="94" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>81</v>
       </c>
       <c r="O94" s="6">
-        <f t="shared" ref="O94:U94" si="183">+O93+O92+O86+O81</f>
+        <f t="shared" ref="O94:U94" si="176">+O93+O92+O86+O81</f>
         <v>1937</v>
       </c>
       <c r="P94" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>-3380</v>
       </c>
       <c r="Q94" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>-1707</v>
       </c>
       <c r="R94" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>2061</v>
       </c>
       <c r="S94" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>-1512</v>
       </c>
       <c r="T94" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>-1875</v>
       </c>
       <c r="U94" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="176"/>
         <v>1773</v>
       </c>
     </row>
-    <row r="95" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:26" x14ac:dyDescent="0.15">
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
@@ -7706,11 +7894,20 @@
       <c r="V96" s="6">
         <v>86000</v>
       </c>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
-    </row>
-    <row r="97" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="W96" s="6">
+        <v>77114</v>
+      </c>
+      <c r="X96" s="6">
+        <v>71469</v>
+      </c>
+      <c r="Y96" s="6">
+        <v>66185</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>67317</v>
+      </c>
+    </row>
+    <row r="97" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>200</v>
       </c>
@@ -7726,12 +7923,32 @@
         <f>+U96-T96</f>
         <v>3761</v>
       </c>
-    </row>
-    <row r="98" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="V97" s="6">
+        <f>+V96-U96</f>
+        <v>-1314</v>
+      </c>
+      <c r="W97" s="6">
+        <f>+W96-V96</f>
+        <v>-8886</v>
+      </c>
+      <c r="X97" s="6">
+        <f>+X96-W96</f>
+        <v>-5645</v>
+      </c>
+      <c r="Y97" s="6">
+        <f>+Y96-X96</f>
+        <v>-5284</v>
+      </c>
+      <c r="Z97" s="6">
+        <f>+Z96-Y96</f>
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="98" spans="2:26" x14ac:dyDescent="0.15">
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
     </row>
-    <row r="99" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>127</v>
       </c>
@@ -7740,19 +7957,19 @@
         <v>7970</v>
       </c>
       <c r="P99" s="6">
-        <f t="shared" ref="P99:S99" si="184">+P81+P83</f>
+        <f t="shared" ref="P99:S99" si="177">+P81+P83</f>
         <v>8635</v>
       </c>
       <c r="Q99" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>9776</v>
       </c>
       <c r="R99" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>12734</v>
       </c>
       <c r="S99" s="6">
-        <f t="shared" si="184"/>
+        <f t="shared" si="177"/>
         <v>8761</v>
       </c>
       <c r="T99" s="6">
@@ -7764,16 +7981,16 @@
         <v>336</v>
       </c>
     </row>
-    <row r="100" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>128</v>
       </c>
       <c r="R100" s="6">
-        <f t="shared" ref="R100:S100" si="185">SUM(O99:R99)</f>
+        <f t="shared" ref="R100:S100" si="178">SUM(O99:R99)</f>
         <v>39115</v>
       </c>
       <c r="S100" s="6">
-        <f t="shared" si="185"/>
+        <f t="shared" si="178"/>
         <v>39906</v>
       </c>
       <c r="T100" s="6">
@@ -7785,7 +8002,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="102" spans="2:25" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="3" t="s">
         <v>195</v>
       </c>
@@ -7817,7 +8034,7 @@
       <c r="X102" s="6"/>
       <c r="Y102" s="6"/>
     </row>
-    <row r="103" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
         <v>198</v>
       </c>
@@ -7839,7 +8056,7 @@
         <v>-0.14600231749710313</v>
       </c>
     </row>
-    <row r="105" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
         <v>199</v>
       </c>
@@ -7853,7 +8070,7 @@
         <v>9336</v>
       </c>
     </row>
-    <row r="106" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
         <v>203</v>
       </c>
@@ -7862,7 +8079,7 @@
         <v>0.33686945226239445</v>
       </c>
     </row>
-    <row r="108" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
         <v>204</v>
       </c>
@@ -7889,19 +8106,19 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>129</v>
       </c>
@@ -7924,7 +8141,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>11449606</v>
       </c>
@@ -7947,7 +8164,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>11449189</v>
       </c>
@@ -7970,7 +8187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>11448803</v>
       </c>
@@ -7993,7 +8210,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>11442272</v>
       </c>
@@ -8016,7 +8233,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>11441702</v>
       </c>
@@ -8036,7 +8253,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>11436793</v>
       </c>
@@ -8059,7 +8276,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>11435820</v>
       </c>
@@ -8082,7 +8299,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>11435448</v>
       </c>
@@ -8105,7 +8322,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>11431955</v>
       </c>
@@ -8128,7 +8345,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>11430398</v>
       </c>
@@ -8151,7 +8368,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>11430141</v>
       </c>
@@ -8174,7 +8391,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>11430085</v>
       </c>
@@ -8197,7 +8414,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>11425523</v>
       </c>
@@ -8220,7 +8437,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>11423621</v>
       </c>
@@ -8243,7 +8460,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>11423616</v>
       </c>
@@ -8266,7 +8483,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>11423520</v>
       </c>
@@ -8289,7 +8506,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>11423152</v>
       </c>
@@ -8309,7 +8526,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>11422669</v>
       </c>
@@ -8332,7 +8549,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>11422373</v>
       </c>
@@ -8355,7 +8572,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>11417054</v>
       </c>
@@ -8378,7 +8595,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>11416239</v>
       </c>
@@ -8401,7 +8618,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>11416075</v>
       </c>
@@ -8424,7 +8641,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>11416067</v>
       </c>
@@ -8447,7 +8664,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>11415880</v>
       </c>
@@ -8470,7 +8687,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>11415808</v>
       </c>
@@ -8493,7 +8710,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>190</v>
       </c>
@@ -8516,7 +8733,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>11412511</v>
       </c>

--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F9A83-B3E1-4CF2-858C-6400375FE959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF861C8-B166-4A55-9DAA-33C580681F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49650" yWindow="105" windowWidth="23775" windowHeight="20775" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="-40125" yWindow="645" windowWidth="31125" windowHeight="18180" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <author>tc={37B1D132-4F99-4BFA-B9DE-FA9D39796D75}</author>
     <author>tc={9BAC047B-9C13-4083-9E91-56CC4B86282A}</author>
     <author>tc={48BE0944-3BDD-4973-B1C2-88AA905BEB25}</author>
+    <author>tc={A907F4EC-7D24-4D8F-B1A6-DE693B5437EA}</author>
   </authors>
   <commentList>
     <comment ref="T31" authorId="0" shapeId="0" xr:uid="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
@@ -105,12 +106,20 @@
 Consensus 27.65B 4/26</t>
       </text>
     </comment>
+    <comment ref="AD32" authorId="7" shapeId="0" xr:uid="{A907F4EC-7D24-4D8F-B1A6-DE693B5437EA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    45-48B guidance</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="219">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -755,13 +764,25 @@
   </si>
   <si>
     <t>ROW Revenue</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -797,6 +818,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -825,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -873,10 +900,6 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -901,16 +924,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1288</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>24152</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>12390</xdr:rowOff>
+      <xdr:rowOff>71936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>1288</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>24152</xdr:colOff>
       <xdr:row>128</xdr:row>
-      <xdr:rowOff>12391</xdr:rowOff>
+      <xdr:rowOff>71937</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -925,8 +948,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16783873" y="12390"/>
-          <a:ext cx="0" cy="19677257"/>
+          <a:off x="18843547" y="71936"/>
+          <a:ext cx="0" cy="20533896"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -951,13 +974,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>40</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
+      <xdr:col>45</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
@@ -1327,6 +1350,9 @@
     <text>26.0-28.5B given Q422
 Consensus 27.65B 4/26</text>
   </threadedComment>
+  <threadedComment ref="AD32" dT="2025-01-29T20:42:20.13" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{A907F4EC-7D24-4D8F-B1A6-DE693B5437EA}">
+    <text>45-48B guidance</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1335,7 +1361,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1354,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="17">
-        <v>443</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1368,10 +1394,11 @@
         <v>2</v>
       </c>
       <c r="M3" s="3">
-        <v>2625</v>
+        <f>2180+344.487</f>
+        <v>2524.4870000000001</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1386,7 +1413,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M3*M2</f>
-        <v>1162875</v>
+        <v>1714126.673</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1396,8 +1423,13 @@
       <c r="L5" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="3">
+        <f>43852+27048+6071</f>
+        <v>76971</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -1406,8 +1438,12 @@
       <c r="L6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="3">
+        <v>28823</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
@@ -1415,16 +1451,12 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>1162875</v>
+        <v>1665978.673</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="M8">
-        <f>+M7/(47000*1.1)</f>
-        <v>22.492746615087036</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1510,13 +1542,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
-  <dimension ref="A1:DA115"/>
+  <dimension ref="A1:DF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AU43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="X25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB43" sqref="BB43"/>
+      <selection pane="bottomRight" activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1526,12 +1558,12 @@
     <col min="3" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
@@ -1616,77 +1648,90 @@
       <c r="AD2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AF2">
+      <c r="AE2" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI2" s="1"/>
+      <c r="AK2">
         <v>2013</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <v>2014</v>
       </c>
-      <c r="AH2">
+      <c r="AM2">
         <v>2015</v>
       </c>
-      <c r="AI2">
-        <f>+AH2+1</f>
+      <c r="AN2">
+        <f>+AM2+1</f>
         <v>2016</v>
       </c>
-      <c r="AJ2">
-        <f t="shared" ref="AJ2:AW2" si="0">+AI2+1</f>
+      <c r="AO2">
+        <f t="shared" ref="AO2:BB2" si="0">+AN2+1</f>
         <v>2017</v>
       </c>
-      <c r="AK2">
+      <c r="AP2">
         <f t="shared" si="0"/>
         <v>2018</v>
       </c>
-      <c r="AL2">
+      <c r="AQ2">
         <f t="shared" si="0"/>
         <v>2019</v>
       </c>
-      <c r="AM2">
+      <c r="AR2">
         <f t="shared" si="0"/>
         <v>2020</v>
       </c>
-      <c r="AN2">
+      <c r="AS2">
         <f t="shared" si="0"/>
         <v>2021</v>
       </c>
-      <c r="AO2">
+      <c r="AT2">
         <f t="shared" si="0"/>
         <v>2022</v>
       </c>
-      <c r="AP2">
+      <c r="AU2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AQ2">
+      <c r="AV2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AR2">
+      <c r="AW2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AS2">
+      <c r="AX2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AT2">
+      <c r="AY2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AU2">
+      <c r="AZ2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AV2">
+      <c r="BA2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AW2">
+      <c r="BB2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1751,8 +1796,11 @@
       <c r="AA3" s="3">
         <v>3240</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC3" s="3">
+        <v>3290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1815,7 +1863,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="5" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1884,7 +1932,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="6" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -1934,7 +1982,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>204</v>
       </c>
@@ -1947,47 +1995,47 @@
       <c r="I7" s="6"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9">
-        <f>+K27/K6</f>
+        <f t="shared" ref="K7:U7" si="1">+K27/K6</f>
         <v>42.969230769230769</v>
       </c>
       <c r="L7" s="9">
-        <f>+L27/L6</f>
+        <f t="shared" si="1"/>
         <v>45.752525252525253</v>
       </c>
       <c r="M7" s="9">
-        <f>+M27/M6</f>
+        <f t="shared" si="1"/>
         <v>50.95918367346939</v>
       </c>
       <c r="N7" s="9">
-        <f>+N27/N6</f>
+        <f t="shared" si="1"/>
         <v>67.435897435897431</v>
       </c>
       <c r="O7" s="9">
-        <f>+O27/O6</f>
+        <f t="shared" si="1"/>
         <v>61.01025641025641</v>
       </c>
       <c r="P7" s="9">
-        <f>+P27/P6</f>
+        <f t="shared" si="1"/>
         <v>68.543589743589749</v>
       </c>
       <c r="Q7" s="9">
-        <f>+Q27/Q6</f>
+        <f t="shared" si="1"/>
         <v>66.806122448979593</v>
       </c>
       <c r="R7" s="9">
-        <f>+R27/R6</f>
+        <f t="shared" si="1"/>
         <v>77.241025641025644</v>
       </c>
       <c r="S7" s="9">
-        <f>+S27/S6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T7" s="9">
-        <f>+T27/T6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U7" s="9">
-        <f>+U27/U6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V7" s="6"/>
@@ -1995,7 +2043,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2064,7 +2112,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="9" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>101</v>
       </c>
@@ -2114,7 +2162,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2139,7 +2187,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2152,61 +2200,61 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="9">
-        <f>+K32/K4</f>
+        <f t="shared" ref="K11:W11" si="2">+K32/K4</f>
         <v>5.9321070234113709</v>
       </c>
       <c r="L11" s="9">
-        <f>+L32/L4</f>
+        <f t="shared" si="2"/>
         <v>5.9512738853503189</v>
       </c>
       <c r="M11" s="9">
-        <f>+M32/M4</f>
+        <f t="shared" si="2"/>
         <v>6.6884735202492216</v>
       </c>
       <c r="N11" s="9">
-        <f>+N32/N4</f>
+        <f t="shared" si="2"/>
         <v>8.5066666666666659</v>
       </c>
       <c r="O11" s="9">
-        <f>+O32/O4</f>
+        <f t="shared" si="2"/>
         <v>7.5857971014492751</v>
       </c>
       <c r="P11" s="9">
-        <f>+P32/P4</f>
+        <f t="shared" si="2"/>
         <v>8.2840455840455842</v>
       </c>
       <c r="Q11" s="9">
-        <f>+Q32/Q4</f>
+        <f t="shared" si="2"/>
         <v>8.1033519553072626</v>
       </c>
       <c r="R11" s="9">
-        <f>+R32/R4</f>
+        <f t="shared" si="2"/>
         <v>9.3791086350974933</v>
       </c>
       <c r="S11" s="9">
-        <f>+S32/S4</f>
+        <f t="shared" si="2"/>
         <v>7.6670329670329673</v>
       </c>
       <c r="T11" s="9">
-        <f>+T32/T4</f>
+        <f t="shared" si="2"/>
         <v>7.8964383561643832</v>
       </c>
       <c r="U11" s="9">
-        <f>+U32/U4</f>
+        <f t="shared" si="2"/>
         <v>7.4700808625336927</v>
       </c>
       <c r="V11" s="9">
-        <f>+V32/V4</f>
+        <f t="shared" si="2"/>
         <v>8.6002673796791438</v>
       </c>
       <c r="W11" s="9">
-        <f>+W32/W4</f>
+        <f t="shared" si="2"/>
         <v>7.5183727034120738</v>
       </c>
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
@@ -2220,31 +2268,31 @@
       <c r="J12" s="6"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9">
-        <f t="shared" ref="L12:R12" si="1">AVERAGE(K11:L11)</f>
+        <f t="shared" ref="L12:R12" si="3">AVERAGE(K11:L11)</f>
         <v>5.9416904543808453</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.3198737027997698</v>
       </c>
       <c r="N12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5975700934579438</v>
       </c>
       <c r="O12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0462318840579705</v>
       </c>
       <c r="P12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9349213427474297</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1936987696764234</v>
       </c>
       <c r="R12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.7412302952023779</v>
       </c>
       <c r="S12" s="9">
@@ -2270,7 +2318,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:49" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
@@ -2288,15 +2336,15 @@
       <c r="N13" s="15"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16">
-        <f t="shared" ref="P13:R13" si="2">P12/L12-1</f>
+        <f t="shared" ref="P13:R13" si="4">P12/L12-1</f>
         <v>0.33546528612862403</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.29649723317200616</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.15052973354325583</v>
       </c>
       <c r="S13" s="16">
@@ -2322,7 +2370,7 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
@@ -2335,61 +2383,61 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="9">
-        <f>+K31/K4</f>
+        <f t="shared" ref="K14:W14" si="5">+K31/K4</f>
         <v>5.8327759197324411</v>
       </c>
       <c r="L14" s="9">
-        <f>+L31/L4</f>
+        <f t="shared" si="5"/>
         <v>5.834713375796178</v>
       </c>
       <c r="M14" s="9">
-        <f>+M31/M4</f>
+        <f t="shared" si="5"/>
         <v>6.6109034267912774</v>
       </c>
       <c r="N14" s="9">
-        <f>+N31/N4</f>
+        <f t="shared" si="5"/>
         <v>8.2384848484848483</v>
       </c>
       <c r="O14" s="9">
-        <f>+O31/O4</f>
+        <f t="shared" si="5"/>
         <v>7.373623188405797</v>
       </c>
       <c r="P14" s="9">
-        <f>+P31/P4</f>
+        <f t="shared" si="5"/>
         <v>8.1424501424501425</v>
       </c>
       <c r="Q14" s="9">
-        <f>+Q31/Q4</f>
+        <f t="shared" si="5"/>
         <v>7.8983240223463689</v>
       </c>
       <c r="R14" s="9">
-        <f>+R31/R4</f>
+        <f t="shared" si="5"/>
         <v>9.0916434540389979</v>
       </c>
       <c r="S14" s="9">
-        <f>+S31/S4</f>
+        <f t="shared" si="5"/>
         <v>7.4170329670329673</v>
       </c>
       <c r="T14" s="9">
-        <f>+T31/T4</f>
+        <f t="shared" si="5"/>
         <v>7.7128767123287671</v>
       </c>
       <c r="U14" s="9">
-        <f>+U31/U4</f>
+        <f t="shared" si="5"/>
         <v>7.3415094339622637</v>
       </c>
       <c r="V14" s="9">
-        <f>+V31/V4</f>
+        <f t="shared" si="5"/>
         <v>8.3566844919786103</v>
       </c>
       <c r="W14" s="9">
-        <f>+W31/W4</f>
+        <f t="shared" si="5"/>
         <v>7.3755905511811024</v>
       </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
@@ -2402,61 +2450,61 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="9">
-        <f>+K31/K3</f>
+        <f t="shared" ref="K15:W15" si="6">+K31/K3</f>
         <v>7.3898305084745761</v>
       </c>
       <c r="L15" s="9">
-        <f>+L31/L3</f>
+        <f t="shared" si="6"/>
         <v>7.4174089068825912</v>
       </c>
       <c r="M15" s="9">
-        <f>+M31/M3</f>
+        <f t="shared" si="6"/>
         <v>8.3547244094488189</v>
       </c>
       <c r="N15" s="9">
-        <f>+N31/N3</f>
+        <f t="shared" si="6"/>
         <v>10.456538461538461</v>
       </c>
       <c r="O15" s="9">
-        <f>+O31/O3</f>
+        <f t="shared" si="6"/>
         <v>9.3525735294117656</v>
       </c>
       <c r="P15" s="9">
-        <f>+P31/P3</f>
+        <f t="shared" si="6"/>
         <v>10.355072463768115</v>
       </c>
       <c r="Q15" s="9">
-        <f>+Q31/Q3</f>
+        <f t="shared" si="6"/>
         <v>10.062633451957295</v>
       </c>
       <c r="R15" s="9">
-        <f>+R31/R3</f>
+        <f t="shared" si="6"/>
         <v>11.574113475177304</v>
       </c>
       <c r="S15" s="9">
-        <f>+S31/S3</f>
+        <f t="shared" si="6"/>
         <v>9.4069686411149824</v>
       </c>
       <c r="T15" s="9">
-        <f>+T31/T3</f>
+        <f t="shared" si="6"/>
         <v>9.7750000000000004</v>
       </c>
       <c r="U15" s="9">
-        <f>+U31/U3</f>
+        <f t="shared" si="6"/>
         <v>9.2959044368600683</v>
       </c>
       <c r="V15" s="9">
-        <f>+V31/V3</f>
+        <f t="shared" si="6"/>
         <v>10.558783783783785</v>
       </c>
       <c r="W15" s="9">
-        <f>+W31/W3</f>
+        <f t="shared" si="6"/>
         <v>9.3049668874172191</v>
       </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
@@ -2470,31 +2518,31 @@
       <c r="J16" s="6"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9">
-        <f t="shared" ref="L16:R16" si="3">AVERAGE(K15:L15)</f>
+        <f t="shared" ref="L16:R16" si="7">AVERAGE(K15:L15)</f>
         <v>7.4036197076785832</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.8860666581657046</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.405631435493639</v>
       </c>
       <c r="O16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9045559954751141</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.8538229965899404</v>
       </c>
       <c r="Q16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.208852957862705</v>
       </c>
       <c r="R16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.818373463567299</v>
       </c>
       <c r="S16" s="9">
@@ -2502,11 +2550,11 @@
         <v>10.490541058146142</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" ref="T16:U16" si="4">AVERAGE(S15:T15)</f>
+        <f t="shared" ref="T16:U16" si="8">AVERAGE(S15:T15)</f>
         <v>9.5909843205574923</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>9.5354522184300343</v>
       </c>
       <c r="V16" s="9">
@@ -2520,7 +2568,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="2:49" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
@@ -2538,15 +2586,15 @@
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
       <c r="P17" s="16">
-        <f t="shared" ref="P17:R17" si="5">P16/L16-1</f>
+        <f t="shared" ref="P17:R17" si="9">P16/L16-1</f>
         <v>0.33094667009573109</v>
       </c>
       <c r="Q17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.29454307202588104</v>
       </c>
       <c r="R17" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.15020172093310546</v>
       </c>
       <c r="S17" s="16">
@@ -2572,7 +2620,7 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2597,7 +2645,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>210</v>
       </c>
@@ -2645,7 +2693,7 @@
         <v>15451</v>
       </c>
     </row>
-    <row r="20" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>211</v>
       </c>
@@ -2693,7 +2741,7 @@
         <v>8327</v>
       </c>
     </row>
-    <row r="21" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>212</v>
       </c>
@@ -2741,7 +2789,7 @@
         <v>7338</v>
       </c>
     </row>
-    <row r="22" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>213</v>
       </c>
@@ -2789,7 +2837,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="23" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2814,7 +2862,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="24" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>214</v>
       </c>
@@ -2863,7 +2911,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="25" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>107</v>
       </c>
@@ -2912,7 +2960,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="26" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
@@ -2961,7 +3009,7 @@
         <v>8404</v>
       </c>
     </row>
-    <row r="27" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
@@ -3010,7 +3058,7 @@
         <v>13646</v>
       </c>
     </row>
-    <row r="28" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3035,7 +3083,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -3110,20 +3158,26 @@
       <c r="AA29" s="3">
         <v>380</v>
       </c>
-      <c r="AK29" s="3">
+      <c r="AC29" s="3">
+        <v>434</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>519</v>
+      </c>
+      <c r="AP29" s="3">
         <v>825</v>
       </c>
-      <c r="AL29" s="3">
+      <c r="AQ29" s="3">
         <v>541</v>
       </c>
-      <c r="AM29" s="3">
+      <c r="AR29" s="3">
         <v>657</v>
       </c>
-      <c r="AN29" s="3">
+      <c r="AS29" s="3">
         <v>721</v>
       </c>
     </row>
-    <row r="30" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
@@ -3180,17 +3234,23 @@
       <c r="AA30" s="3">
         <v>440</v>
       </c>
-      <c r="AL30" s="3">
+      <c r="AC30" s="3">
+        <v>270</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>1083</v>
+      </c>
+      <c r="AQ30" s="3">
         <v>501</v>
       </c>
-      <c r="AM30" s="3">
+      <c r="AR30" s="3">
         <v>1139</v>
       </c>
-      <c r="AN30" s="3">
+      <c r="AS30" s="3">
         <v>2274</v>
       </c>
     </row>
-    <row r="31" spans="2:49" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
@@ -3223,31 +3283,31 @@
         <v>17440</v>
       </c>
       <c r="L31" s="6">
-        <f t="shared" ref="L31:T31" si="6">SUM(L24:L27)</f>
+        <f t="shared" ref="L31:R31" si="10">SUM(L24:L27)</f>
         <v>18321</v>
       </c>
       <c r="M31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>21221</v>
       </c>
       <c r="N31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>27187</v>
       </c>
       <c r="O31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>25439</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>28580</v>
       </c>
       <c r="Q31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>28276</v>
       </c>
       <c r="R31" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>32639</v>
       </c>
       <c r="S31" s="6">
@@ -3284,71 +3344,74 @@
         <v>37500</v>
       </c>
       <c r="AC31" s="6">
-        <f>+Y32*1.1</f>
-        <v>37560.600000000006</v>
+        <v>39885</v>
       </c>
       <c r="AD31" s="6">
-        <f>+Z32*1.1</f>
-        <v>44122.100000000006</v>
-      </c>
-      <c r="AF31" s="3">
+        <v>46783</v>
+      </c>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AK31" s="3">
         <v>7872</v>
       </c>
-      <c r="AG31" s="3">
+      <c r="AL31" s="3">
         <v>12466</v>
       </c>
-      <c r="AH31" s="3">
+      <c r="AM31" s="3">
         <v>17928</v>
       </c>
-      <c r="AI31" s="3">
+      <c r="AN31" s="3">
         <v>27638</v>
       </c>
-      <c r="AJ31" s="3">
+      <c r="AO31" s="3">
         <v>40653</v>
       </c>
-      <c r="AK31" s="3">
+      <c r="AP31" s="3">
         <v>55013</v>
       </c>
-      <c r="AL31" s="3">
+      <c r="AQ31" s="3">
         <v>69655</v>
       </c>
-      <c r="AM31" s="3">
+      <c r="AR31" s="3">
         <v>84169</v>
       </c>
-      <c r="AN31" s="3">
+      <c r="AS31" s="3">
         <v>114934</v>
       </c>
     </row>
-    <row r="32" spans="2:49" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" ref="C32:I32" si="7">SUM(C29:C31)</f>
+        <f t="shared" ref="C32:I32" si="11">SUM(C29:C31)</f>
         <v>11966</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13231</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13727</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16914</v>
       </c>
       <c r="G32" s="8">
-        <f t="shared" ref="G32" si="8">SUM(G29:G31)</f>
+        <f t="shared" ref="G32" si="12">SUM(G29:G31)</f>
         <v>15077</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>16886</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>17652</v>
       </c>
       <c r="J32" s="8">
@@ -3405,103 +3468,119 @@
         <v>31999</v>
       </c>
       <c r="Y32" s="8">
-        <f t="shared" ref="Y32:AD32" si="9">SUM(Y29:Y31)</f>
+        <f t="shared" ref="Y32:AD32" si="13">SUM(Y29:Y31)</f>
         <v>34146</v>
       </c>
       <c r="Z32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>40111</v>
       </c>
       <c r="AA32" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>36455</v>
       </c>
       <c r="AB32" s="8">
-        <f t="shared" si="9"/>
-        <v>37500</v>
+        <v>39071</v>
       </c>
       <c r="AC32" s="8">
-        <f t="shared" si="9"/>
-        <v>37560.600000000006</v>
+        <f>SUM(AC29:AC31)</f>
+        <v>40589</v>
       </c>
       <c r="AD32" s="8">
-        <f t="shared" si="9"/>
-        <v>44122.100000000006</v>
-      </c>
-      <c r="AF32" s="7">
-        <f t="shared" ref="AF32:AK32" si="10">SUM(AF29:AF31)</f>
+        <f t="shared" si="13"/>
+        <v>48385</v>
+      </c>
+      <c r="AE32" s="8">
+        <f>+AA32*1.1</f>
+        <v>40100.5</v>
+      </c>
+      <c r="AF32" s="8">
+        <f t="shared" ref="AF32:AH32" si="14">+AB32*1.1</f>
+        <v>42978.100000000006</v>
+      </c>
+      <c r="AG32" s="8">
+        <f t="shared" si="14"/>
+        <v>44647.9</v>
+      </c>
+      <c r="AH32" s="8">
+        <f t="shared" si="14"/>
+        <v>53223.500000000007</v>
+      </c>
+      <c r="AI32" s="8"/>
+      <c r="AK32" s="7">
+        <f t="shared" ref="AK32:AP32" si="15">SUM(AK29:AK31)</f>
         <v>7872</v>
       </c>
-      <c r="AG32" s="7">
-        <f t="shared" si="10"/>
+      <c r="AL32" s="7">
+        <f t="shared" si="15"/>
         <v>12466</v>
       </c>
-      <c r="AH32" s="7">
-        <f t="shared" si="10"/>
+      <c r="AM32" s="7">
+        <f t="shared" si="15"/>
         <v>17928</v>
       </c>
-      <c r="AI32" s="7">
-        <f t="shared" si="10"/>
+      <c r="AN32" s="7">
+        <f t="shared" si="15"/>
         <v>27638</v>
       </c>
-      <c r="AJ32" s="7">
-        <f t="shared" si="10"/>
+      <c r="AO32" s="7">
+        <f t="shared" si="15"/>
         <v>40653</v>
       </c>
-      <c r="AK32" s="7">
-        <f t="shared" si="10"/>
+      <c r="AP32" s="7">
+        <f t="shared" si="15"/>
         <v>55838</v>
       </c>
-      <c r="AL32" s="7">
-        <f>SUM(AL29:AL31)</f>
+      <c r="AQ32" s="7">
+        <f>SUM(AQ29:AQ31)</f>
         <v>70697</v>
       </c>
-      <c r="AM32" s="7">
-        <f t="shared" ref="AM32:AN32" si="11">SUM(AM29:AM31)</f>
+      <c r="AR32" s="7">
+        <f t="shared" ref="AR32:AS32" si="16">SUM(AR29:AR31)</f>
         <v>85965</v>
       </c>
-      <c r="AN32" s="7">
-        <f t="shared" si="11"/>
+      <c r="AS32" s="7">
+        <f t="shared" si="16"/>
         <v>117929</v>
       </c>
-      <c r="AO32" s="7">
+      <c r="AT32" s="7">
         <f>SUM(S32:V32)</f>
         <v>116609</v>
       </c>
-      <c r="AP32" s="7">
+      <c r="AU32" s="7">
         <f>SUM(W32:Z32)</f>
         <v>134901</v>
       </c>
-      <c r="AQ32" s="7">
+      <c r="AV32" s="7">
         <f>SUM(AA32:AD32)</f>
-        <v>155637.70000000001</v>
-      </c>
-      <c r="AR32" s="7">
-        <f>+AQ32*1.1</f>
-        <v>171201.47000000003</v>
-      </c>
-      <c r="AS32" s="7">
-        <f>+AR32*1.05</f>
-        <v>179761.54350000003</v>
-      </c>
-      <c r="AT32" s="7">
-        <f t="shared" ref="AT32:AW32" si="12">+AS32*1.03</f>
-        <v>185154.38980500004</v>
-      </c>
-      <c r="AU32" s="7">
-        <f t="shared" si="12"/>
-        <v>190709.02149915005</v>
-      </c>
-      <c r="AV32" s="7">
-        <f t="shared" si="12"/>
-        <v>196430.29214412457</v>
+        <v>164500</v>
       </c>
       <c r="AW32" s="7">
-        <f t="shared" si="12"/>
-        <v>202323.20090844831</v>
-      </c>
-    </row>
-    <row r="33" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AV32*1.1</f>
+        <v>180950.00000000003</v>
+      </c>
+      <c r="AX32" s="7">
+        <f>+AW32*1.05</f>
+        <v>189997.50000000003</v>
+      </c>
+      <c r="AY32" s="7">
+        <f t="shared" ref="AY32:BB32" si="17">+AX32*1.03</f>
+        <v>195697.42500000005</v>
+      </c>
+      <c r="AZ32" s="7">
+        <f t="shared" si="17"/>
+        <v>201568.34775000004</v>
+      </c>
+      <c r="BA32" s="7">
+        <f t="shared" si="17"/>
+        <v>207615.39818250004</v>
+      </c>
+      <c r="BB32" s="7">
+        <f t="shared" si="17"/>
+        <v>213843.86012797506</v>
+      </c>
+    </row>
+    <row r="33" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -3581,108 +3660,119 @@
       <c r="AA33" s="6">
         <v>6640</v>
       </c>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AK33" s="3">
+      <c r="AB33" s="6">
+        <v>7308</v>
+      </c>
+      <c r="AC33" s="6">
+        <v>7375</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>8839</v>
+      </c>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AP33" s="3">
         <v>9355</v>
       </c>
-      <c r="AL33" s="3">
+      <c r="AQ33" s="3">
         <v>12770</v>
       </c>
-      <c r="AM33" s="3">
+      <c r="AR33" s="3">
         <v>16692</v>
       </c>
-      <c r="AN33" s="3">
+      <c r="AS33" s="3">
         <v>22649</v>
       </c>
-      <c r="AO33" s="3">
-        <f>+AO32-AO34</f>
+      <c r="AT33" s="3">
+        <f>+AT32-AT34</f>
         <v>22155.709999999992</v>
       </c>
-      <c r="AP33" s="3">
-        <f t="shared" ref="AP33:AW33" si="13">+AP32-AP34</f>
+      <c r="AU33" s="3">
+        <f t="shared" ref="AU33:BB33" si="18">+AU32-AU34</f>
         <v>25631.189999999988</v>
       </c>
-      <c r="AQ33" s="3">
-        <f t="shared" si="13"/>
-        <v>29571.163</v>
-      </c>
-      <c r="AR33" s="3">
-        <f t="shared" si="13"/>
-        <v>32528.279299999995</v>
-      </c>
-      <c r="AS33" s="3">
-        <f t="shared" si="13"/>
-        <v>34154.693265000009</v>
-      </c>
-      <c r="AT33" s="3">
-        <f t="shared" si="13"/>
-        <v>35179.334062949987</v>
-      </c>
-      <c r="AU33" s="3">
-        <f t="shared" si="13"/>
-        <v>36234.714084838488</v>
-      </c>
       <c r="AV33" s="3">
-        <f t="shared" si="13"/>
-        <v>37321.75550738367</v>
+        <f t="shared" si="18"/>
+        <v>31255</v>
       </c>
       <c r="AW33" s="3">
-        <f t="shared" si="13"/>
-        <v>38441.408172605181</v>
-      </c>
-    </row>
-    <row r="34" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="18"/>
+        <v>34380.5</v>
+      </c>
+      <c r="AX33" s="3">
+        <f t="shared" si="18"/>
+        <v>36099.524999999994</v>
+      </c>
+      <c r="AY33" s="3">
+        <f t="shared" si="18"/>
+        <v>37182.510749999987</v>
+      </c>
+      <c r="AZ33" s="3">
+        <f t="shared" si="18"/>
+        <v>38297.986072500004</v>
+      </c>
+      <c r="BA33" s="3">
+        <f t="shared" si="18"/>
+        <v>39446.925654674997</v>
+      </c>
+      <c r="BB33" s="3">
+        <f t="shared" si="18"/>
+        <v>40630.333424315264</v>
+      </c>
+    </row>
+    <row r="34" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" ref="C34:D34" si="14">+C32-C33</f>
+        <f t="shared" ref="C34:D34" si="19">+C32-C33</f>
         <v>10039</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>11017</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" ref="E34:G34" si="15">+E32-E33</f>
+        <f t="shared" ref="E34:G34" si="20">+E32-E33</f>
         <v>11309</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>14118</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>12261</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34" si="16">+H32-H33</f>
+        <f t="shared" ref="H34" si="21">+H32-H33</f>
         <v>13579</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" ref="I34:J34" si="17">+I32-I33</f>
+        <f t="shared" ref="I34:J34" si="22">+I32-I33</f>
         <v>14497</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>17590</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" ref="K34:N34" si="18">+K32-K33</f>
+        <f t="shared" ref="K34:N34" si="23">+K32-K33</f>
         <v>14278</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>14858</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>17276</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>22862</v>
       </c>
       <c r="O34" s="6">
@@ -3690,15 +3780,15 @@
         <v>21040</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" ref="P34:R34" si="19">+P32-P33</f>
+        <f t="shared" ref="P34:R34" si="24">+P32-P33</f>
         <v>23678</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>23239</v>
       </c>
       <c r="R34" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>27323</v>
       </c>
       <c r="S34" s="6">
@@ -3730,70 +3820,84 @@
         <v>27936</v>
       </c>
       <c r="Z34" s="6">
-        <f t="shared" ref="Z34" si="20">+Z32*0.79</f>
+        <f t="shared" ref="Z34" si="25">+Z32*0.79</f>
         <v>31687.690000000002</v>
       </c>
       <c r="AA34" s="6">
         <f>+AA32-AA33</f>
         <v>29815</v>
       </c>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AK34" s="3">
-        <f>+AK32-AK33</f>
+      <c r="AB34" s="6">
+        <f>+AB32-AB33</f>
+        <v>31763</v>
+      </c>
+      <c r="AC34" s="6">
+        <f>+AC32-AC33</f>
+        <v>33214</v>
+      </c>
+      <c r="AD34" s="6">
+        <f>+AD32-AD33</f>
+        <v>39546</v>
+      </c>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="6"/>
+      <c r="AP34" s="3">
+        <f>+AP32-AP33</f>
         <v>46483</v>
       </c>
-      <c r="AL34" s="3">
-        <f>+AL32-AL33</f>
+      <c r="AQ34" s="3">
+        <f>+AQ32-AQ33</f>
         <v>57927</v>
       </c>
-      <c r="AM34" s="3">
-        <f>+AM32-AM33</f>
+      <c r="AR34" s="3">
+        <f>+AR32-AR33</f>
         <v>69273</v>
       </c>
-      <c r="AN34" s="3">
-        <f t="shared" ref="AN34" si="21">+AN32-AN33</f>
+      <c r="AS34" s="3">
+        <f t="shared" ref="AS34" si="26">+AS32-AS33</f>
         <v>95280</v>
       </c>
-      <c r="AO34" s="3">
-        <f>+AO32*0.81</f>
+      <c r="AT34" s="3">
+        <f>+AT32*0.81</f>
         <v>94453.290000000008</v>
       </c>
-      <c r="AP34" s="3">
-        <f t="shared" ref="AP34:AW34" si="22">+AP32*0.81</f>
+      <c r="AU34" s="3">
+        <f t="shared" ref="AU34:BB34" si="27">+AU32*0.81</f>
         <v>109269.81000000001</v>
       </c>
-      <c r="AQ34" s="3">
-        <f t="shared" si="22"/>
-        <v>126066.53700000001</v>
-      </c>
-      <c r="AR34" s="3">
-        <f t="shared" si="22"/>
-        <v>138673.19070000004</v>
-      </c>
-      <c r="AS34" s="3">
-        <f t="shared" si="22"/>
-        <v>145606.85023500002</v>
-      </c>
-      <c r="AT34" s="3">
-        <f t="shared" si="22"/>
-        <v>149975.05574205006</v>
-      </c>
-      <c r="AU34" s="3">
-        <f t="shared" si="22"/>
-        <v>154474.30741431157</v>
-      </c>
       <c r="AV34" s="3">
-        <f t="shared" si="22"/>
-        <v>159108.5366367409</v>
+        <f t="shared" si="27"/>
+        <v>133245</v>
       </c>
       <c r="AW34" s="3">
-        <f t="shared" si="22"/>
-        <v>163881.79273584313</v>
-      </c>
-    </row>
-    <row r="35" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="27"/>
+        <v>146569.50000000003</v>
+      </c>
+      <c r="AX34" s="3">
+        <f t="shared" si="27"/>
+        <v>153897.97500000003</v>
+      </c>
+      <c r="AY34" s="3">
+        <f t="shared" si="27"/>
+        <v>158514.91425000006</v>
+      </c>
+      <c r="AZ34" s="3">
+        <f t="shared" si="27"/>
+        <v>163270.36167750004</v>
+      </c>
+      <c r="BA34" s="3">
+        <f t="shared" si="27"/>
+        <v>168168.47252782504</v>
+      </c>
+      <c r="BB34" s="3">
+        <f t="shared" si="27"/>
+        <v>173213.52670365979</v>
+      </c>
+    </row>
+    <row r="35" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -3873,59 +3977,70 @@
       <c r="AA35" s="6">
         <v>9978</v>
       </c>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AK35" s="3">
+      <c r="AB35" s="6">
+        <v>10537</v>
+      </c>
+      <c r="AC35" s="6">
+        <v>11177</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>12180</v>
+      </c>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AP35" s="3">
         <v>10273</v>
       </c>
-      <c r="AL35" s="3">
+      <c r="AQ35" s="3">
         <v>13600</v>
       </c>
-      <c r="AM35" s="3">
+      <c r="AR35" s="3">
         <v>18447</v>
       </c>
-      <c r="AN35" s="3">
+      <c r="AS35" s="3">
         <v>24655</v>
       </c>
-      <c r="AO35" s="3">
-        <f t="shared" ref="AO35:AT35" si="23">+AN35*0.9</f>
+      <c r="AT35" s="3">
+        <f t="shared" ref="AT35:AY35" si="28">+AS35*0.9</f>
         <v>22189.5</v>
       </c>
-      <c r="AP35" s="3">
-        <f t="shared" si="23"/>
+      <c r="AU35" s="3">
+        <f t="shared" si="28"/>
         <v>19970.55</v>
       </c>
-      <c r="AQ35" s="3">
-        <f t="shared" si="23"/>
+      <c r="AV35" s="3">
+        <f t="shared" si="28"/>
         <v>17973.494999999999</v>
       </c>
-      <c r="AR35" s="3">
-        <f t="shared" si="23"/>
+      <c r="AW35" s="3">
+        <f t="shared" si="28"/>
         <v>16176.145499999999</v>
       </c>
-      <c r="AS35" s="3">
-        <f t="shared" si="23"/>
+      <c r="AX35" s="3">
+        <f t="shared" si="28"/>
         <v>14558.530949999998</v>
       </c>
-      <c r="AT35" s="3">
-        <f t="shared" si="23"/>
+      <c r="AY35" s="3">
+        <f t="shared" si="28"/>
         <v>13102.677854999998</v>
       </c>
-      <c r="AU35" s="3">
-        <f t="shared" ref="AU35:AW35" si="24">+AT35*0.9</f>
+      <c r="AZ35" s="3">
+        <f t="shared" ref="AZ35:BB35" si="29">+AY35*0.9</f>
         <v>11792.410069499998</v>
       </c>
-      <c r="AV35" s="3">
-        <f t="shared" si="24"/>
+      <c r="BA35" s="3">
+        <f t="shared" si="29"/>
         <v>10613.169062549998</v>
       </c>
-      <c r="AW35" s="3">
-        <f t="shared" si="24"/>
+      <c r="BB35" s="3">
+        <f t="shared" si="29"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
-    <row r="36" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
@@ -3990,7 +4105,7 @@
         <v>4574</v>
       </c>
       <c r="W36" s="6">
-        <f t="shared" ref="W36:W37" si="25">+S36*0.9</f>
+        <f t="shared" ref="W36:W37" si="30">+S36*0.9</f>
         <v>2980.8</v>
       </c>
       <c r="X36" s="6">
@@ -4005,59 +4120,70 @@
       <c r="AA36" s="6">
         <v>2564</v>
       </c>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AK36" s="3">
+      <c r="AB36" s="6">
+        <v>2721</v>
+      </c>
+      <c r="AC36" s="6">
+        <v>2822</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>3240</v>
+      </c>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AP36" s="3">
         <v>7846</v>
       </c>
-      <c r="AL36" s="3">
+      <c r="AQ36" s="3">
         <v>9876</v>
       </c>
-      <c r="AM36" s="3">
+      <c r="AR36" s="3">
         <v>11591</v>
       </c>
-      <c r="AN36" s="3">
+      <c r="AS36" s="3">
         <v>14043</v>
       </c>
-      <c r="AO36" s="3">
-        <f>+AN36</f>
+      <c r="AT36" s="3">
+        <f>+AS36</f>
         <v>14043</v>
       </c>
-      <c r="AP36" s="3">
-        <f t="shared" ref="AP36:AW36" si="26">+AO36</f>
+      <c r="AU36" s="3">
+        <f t="shared" ref="AU36:BB36" si="31">+AT36</f>
         <v>14043</v>
       </c>
-      <c r="AQ36" s="3">
-        <f t="shared" si="26"/>
+      <c r="AV36" s="3">
+        <f t="shared" si="31"/>
         <v>14043</v>
       </c>
-      <c r="AR36" s="3">
-        <f t="shared" si="26"/>
+      <c r="AW36" s="3">
+        <f t="shared" si="31"/>
         <v>14043</v>
       </c>
-      <c r="AS36" s="3">
-        <f t="shared" si="26"/>
+      <c r="AX36" s="3">
+        <f t="shared" si="31"/>
         <v>14043</v>
       </c>
-      <c r="AT36" s="3">
-        <f t="shared" si="26"/>
+      <c r="AY36" s="3">
+        <f t="shared" si="31"/>
         <v>14043</v>
       </c>
-      <c r="AU36" s="3">
-        <f t="shared" si="26"/>
+      <c r="AZ36" s="3">
+        <f t="shared" si="31"/>
         <v>14043</v>
       </c>
-      <c r="AV36" s="3">
-        <f t="shared" si="26"/>
+      <c r="BA36" s="3">
+        <f t="shared" si="31"/>
         <v>14043</v>
       </c>
-      <c r="AW36" s="3">
-        <f t="shared" si="26"/>
+      <c r="BB36" s="3">
+        <f t="shared" si="31"/>
         <v>14043</v>
       </c>
     </row>
-    <row r="37" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
@@ -4124,7 +4250,7 @@
         <v>3085</v>
       </c>
       <c r="W37" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>2124</v>
       </c>
       <c r="X37" s="6">
@@ -4140,125 +4266,136 @@
       <c r="AA37" s="6">
         <v>3455</v>
       </c>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AK37" s="3">
+      <c r="AB37" s="6">
+        <v>3658</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>1865</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>761</v>
+      </c>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="6"/>
+      <c r="AP37" s="3">
         <v>3451</v>
       </c>
-      <c r="AL37" s="3">
+      <c r="AQ37" s="3">
         <f>10465-5000</f>
         <v>5465</v>
       </c>
-      <c r="AM37" s="3">
+      <c r="AR37" s="3">
         <v>6564</v>
       </c>
-      <c r="AN37" s="3">
+      <c r="AS37" s="3">
         <v>9829</v>
       </c>
-      <c r="AO37" s="3">
-        <f t="shared" ref="AO37:AW37" si="27">+AN37</f>
+      <c r="AT37" s="3">
+        <f t="shared" ref="AT37:BB37" si="32">+AS37</f>
         <v>9829</v>
       </c>
-      <c r="AP37" s="3">
-        <f t="shared" si="27"/>
+      <c r="AU37" s="3">
+        <f t="shared" si="32"/>
         <v>9829</v>
       </c>
-      <c r="AQ37" s="3">
-        <f t="shared" si="27"/>
+      <c r="AV37" s="3">
+        <f t="shared" si="32"/>
         <v>9829</v>
       </c>
-      <c r="AR37" s="3">
-        <f t="shared" si="27"/>
+      <c r="AW37" s="3">
+        <f t="shared" si="32"/>
         <v>9829</v>
       </c>
-      <c r="AS37" s="3">
-        <f t="shared" si="27"/>
+      <c r="AX37" s="3">
+        <f t="shared" si="32"/>
         <v>9829</v>
       </c>
-      <c r="AT37" s="3">
-        <f t="shared" si="27"/>
+      <c r="AY37" s="3">
+        <f t="shared" si="32"/>
         <v>9829</v>
       </c>
-      <c r="AU37" s="3">
-        <f t="shared" si="27"/>
+      <c r="AZ37" s="3">
+        <f t="shared" si="32"/>
         <v>9829</v>
       </c>
-      <c r="AV37" s="3">
-        <f t="shared" si="27"/>
+      <c r="BA37" s="3">
+        <f t="shared" si="32"/>
         <v>9829</v>
       </c>
-      <c r="AW37" s="3">
-        <f t="shared" si="27"/>
+      <c r="BB37" s="3">
+        <f t="shared" si="32"/>
         <v>9829</v>
       </c>
     </row>
-    <row r="38" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" ref="C38:D38" si="28">+C37+C36+C35</f>
+        <f t="shared" ref="C38:D38" si="33">+C37+C36+C35</f>
         <v>4590</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>5154</v>
       </c>
       <c r="E38" s="6">
-        <f t="shared" ref="E38:G38" si="29">+E37+E36+E35</f>
+        <f t="shared" ref="E38:G38" si="34">+E37+E36+E35</f>
         <v>5528</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>6298</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>5944</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" ref="H38:I38" si="30">+H37+H36+H35</f>
+        <f t="shared" ref="H38:I38" si="35">+H37+H36+H35</f>
         <v>6953</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>7312</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" ref="J38:K38" si="31">+J37+J36+J35</f>
+        <f t="shared" ref="J38:K38" si="36">+J37+J36+J35</f>
         <v>8732</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>8385</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" ref="L38" si="32">+L37+L36+L35</f>
+        <f t="shared" ref="L38" si="37">+L37+L36+L35</f>
         <v>8895</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" ref="M38" si="33">+M37+M36+M35</f>
+        <f t="shared" ref="M38" si="38">+M37+M36+M35</f>
         <v>9236</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" ref="N38" si="34">+N37+N36+N35</f>
+        <f t="shared" ref="N38" si="39">+N37+N36+N35</f>
         <v>10087</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" ref="O38:R38" si="35">+O37+O36+O35</f>
+        <f t="shared" ref="O38:R38" si="40">+O37+O36+O35</f>
         <v>9662</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>11311</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>12816</v>
       </c>
       <c r="R38" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>14738</v>
       </c>
       <c r="S38" s="6">
@@ -4266,159 +4403,173 @@
         <v>13379</v>
       </c>
       <c r="T38" s="6">
-        <f t="shared" ref="T38:V38" si="36">+T37+T36+T35</f>
+        <f t="shared" ref="T38:V38" si="41">+T37+T36+T35</f>
         <v>15272</v>
       </c>
       <c r="U38" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>16334</v>
       </c>
       <c r="V38" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>17430</v>
       </c>
       <c r="W38" s="6">
-        <f t="shared" ref="W38:AA38" si="37">+W37+W36+W35</f>
+        <f t="shared" ref="W38:Z38" si="42">+W37+W36+W35</f>
         <v>12041.1</v>
       </c>
       <c r="X38" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>14792</v>
       </c>
       <c r="Y38" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>14188</v>
       </c>
       <c r="Z38" s="6">
-        <f t="shared" si="37"/>
+        <f t="shared" si="42"/>
         <v>16032</v>
       </c>
       <c r="AA38" s="6">
-        <f t="shared" si="37"/>
+        <f>+AA37+AA36+AA35</f>
         <v>15997</v>
       </c>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AK38" s="3">
-        <f>SUM(AK35:AK37)</f>
+      <c r="AB38" s="6">
+        <f>+AB37+AB36+AB35</f>
+        <v>16916</v>
+      </c>
+      <c r="AC38" s="6">
+        <f>+AC37+AC36+AC35</f>
+        <v>15864</v>
+      </c>
+      <c r="AD38" s="6">
+        <f>+AD37+AD36+AD35</f>
+        <v>16181</v>
+      </c>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AP38" s="3">
+        <f>SUM(AP35:AP37)</f>
         <v>21570</v>
       </c>
-      <c r="AL38" s="3">
-        <f>SUM(AL35:AL37)</f>
+      <c r="AQ38" s="3">
+        <f>SUM(AQ35:AQ37)</f>
         <v>28941</v>
       </c>
-      <c r="AM38" s="3">
-        <f>SUM(AM35:AM37)</f>
+      <c r="AR38" s="3">
+        <f>SUM(AR35:AR37)</f>
         <v>36602</v>
-      </c>
-      <c r="AN38" s="3">
-        <f t="shared" ref="AN38" si="38">SUM(AN35:AN37)</f>
-        <v>48527</v>
-      </c>
-      <c r="AO38" s="3">
-        <f t="shared" ref="AO38" si="39">SUM(AO35:AO37)</f>
-        <v>46061.5</v>
-      </c>
-      <c r="AP38" s="3">
-        <f t="shared" ref="AP38" si="40">SUM(AP35:AP37)</f>
-        <v>43842.55</v>
-      </c>
-      <c r="AQ38" s="3">
-        <f t="shared" ref="AQ38" si="41">SUM(AQ35:AQ37)</f>
-        <v>41845.494999999995</v>
-      </c>
-      <c r="AR38" s="3">
-        <f t="shared" ref="AR38" si="42">SUM(AR35:AR37)</f>
-        <v>40048.145499999999</v>
       </c>
       <c r="AS38" s="3">
         <f t="shared" ref="AS38" si="43">SUM(AS35:AS37)</f>
-        <v>38430.53095</v>
+        <v>48527</v>
       </c>
       <c r="AT38" s="3">
         <f t="shared" ref="AT38" si="44">SUM(AT35:AT37)</f>
-        <v>36974.677855000002</v>
+        <v>46061.5</v>
       </c>
       <c r="AU38" s="3">
         <f t="shared" ref="AU38" si="45">SUM(AU35:AU37)</f>
-        <v>35664.410069499994</v>
+        <v>43842.55</v>
       </c>
       <c r="AV38" s="3">
         <f t="shared" ref="AV38" si="46">SUM(AV35:AV37)</f>
-        <v>34485.169062549998</v>
+        <v>41845.494999999995</v>
       </c>
       <c r="AW38" s="3">
         <f t="shared" ref="AW38" si="47">SUM(AW35:AW37)</f>
+        <v>40048.145499999999</v>
+      </c>
+      <c r="AX38" s="3">
+        <f t="shared" ref="AX38" si="48">SUM(AX35:AX37)</f>
+        <v>38430.53095</v>
+      </c>
+      <c r="AY38" s="3">
+        <f t="shared" ref="AY38" si="49">SUM(AY35:AY37)</f>
+        <v>36974.677855000002</v>
+      </c>
+      <c r="AZ38" s="3">
+        <f t="shared" ref="AZ38" si="50">SUM(AZ35:AZ37)</f>
+        <v>35664.410069499994</v>
+      </c>
+      <c r="BA38" s="3">
+        <f t="shared" ref="BA38" si="51">SUM(BA35:BA37)</f>
+        <v>34485.169062549998</v>
+      </c>
+      <c r="BB38" s="3">
+        <f t="shared" ref="BB38" si="52">SUM(BB35:BB37)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
-    <row r="39" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" ref="C39:D39" si="48">+C34-C38</f>
+        <f t="shared" ref="C39:D39" si="53">+C34-C38</f>
         <v>5449</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>5863</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" ref="E39:G39" si="49">+E34-E38</f>
+        <f t="shared" ref="E39:G39" si="54">+E34-E38</f>
         <v>5781</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>7820</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>6317</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39:I39" si="50">+H34-H38</f>
+        <f t="shared" ref="H39:I39" si="55">+H34-H38</f>
         <v>6626</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>7185</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" ref="J39:K39" si="51">+J34-J38</f>
+        <f t="shared" ref="J39:K39" si="56">+J34-J38</f>
         <v>8858</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>5893</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" ref="L39" si="52">+L34-L38</f>
+        <f t="shared" ref="L39" si="57">+L34-L38</f>
         <v>5963</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" ref="M39" si="53">+M34-M38</f>
+        <f t="shared" ref="M39" si="58">+M34-M38</f>
         <v>8040</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" ref="N39" si="54">+N34-N38</f>
+        <f t="shared" ref="N39" si="59">+N34-N38</f>
         <v>12775</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" ref="O39:R39" si="55">+O34-O38</f>
+        <f t="shared" ref="O39:R39" si="60">+O34-O38</f>
         <v>11378</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>12367</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>10423</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="60"/>
         <v>12585</v>
       </c>
       <c r="S39" s="6">
@@ -4426,94 +4577,108 @@
         <v>8524</v>
       </c>
       <c r="T39" s="6">
-        <f t="shared" ref="T39:V39" si="56">+T34-T38</f>
+        <f t="shared" ref="T39:V39" si="61">+T34-T38</f>
         <v>8358</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>5664</v>
       </c>
       <c r="V39" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>6399</v>
       </c>
       <c r="W39" s="6">
-        <f t="shared" ref="W39:AA39" si="57">+W34-W38</f>
+        <f t="shared" ref="W39:Z39" si="62">+W34-W38</f>
         <v>10588.449999999999</v>
       </c>
       <c r="X39" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>11262</v>
       </c>
       <c r="Y39" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>13748</v>
       </c>
       <c r="Z39" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>15655.690000000002</v>
       </c>
       <c r="AA39" s="6">
-        <f t="shared" si="57"/>
+        <f>+AA34-AA38</f>
         <v>13818</v>
       </c>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AK39" s="3">
-        <f>AK34-AK38</f>
+      <c r="AB39" s="6">
+        <f>+AB34-AB38</f>
+        <v>14847</v>
+      </c>
+      <c r="AC39" s="6">
+        <f>+AC34-AC38</f>
+        <v>17350</v>
+      </c>
+      <c r="AD39" s="6">
+        <f>+AD34-AD38</f>
+        <v>23365</v>
+      </c>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AP39" s="3">
+        <f>AP34-AP38</f>
         <v>24913</v>
       </c>
-      <c r="AL39" s="3">
-        <f>AL34-AL38</f>
+      <c r="AQ39" s="3">
+        <f>AQ34-AQ38</f>
         <v>28986</v>
       </c>
-      <c r="AM39" s="3">
-        <f>AM34-AM38</f>
+      <c r="AR39" s="3">
+        <f>AR34-AR38</f>
         <v>32671</v>
-      </c>
-      <c r="AN39" s="3">
-        <f t="shared" ref="AN39" si="58">AN34-AN38</f>
-        <v>46753</v>
-      </c>
-      <c r="AO39" s="3">
-        <f t="shared" ref="AO39" si="59">AO34-AO38</f>
-        <v>48391.790000000008</v>
-      </c>
-      <c r="AP39" s="3">
-        <f t="shared" ref="AP39" si="60">AP34-AP38</f>
-        <v>65427.260000000009</v>
-      </c>
-      <c r="AQ39" s="3">
-        <f t="shared" ref="AQ39" si="61">AQ34-AQ38</f>
-        <v>84221.042000000016</v>
-      </c>
-      <c r="AR39" s="3">
-        <f t="shared" ref="AR39" si="62">AR34-AR38</f>
-        <v>98625.045200000037</v>
       </c>
       <c r="AS39" s="3">
         <f t="shared" ref="AS39" si="63">AS34-AS38</f>
-        <v>107176.31928500002</v>
+        <v>46753</v>
       </c>
       <c r="AT39" s="3">
         <f t="shared" ref="AT39" si="64">AT34-AT38</f>
-        <v>113000.37788705005</v>
+        <v>48391.790000000008</v>
       </c>
       <c r="AU39" s="3">
         <f t="shared" ref="AU39" si="65">AU34-AU38</f>
-        <v>118809.89734481157</v>
+        <v>65427.260000000009</v>
       </c>
       <c r="AV39" s="3">
         <f t="shared" ref="AV39" si="66">AV34-AV38</f>
-        <v>124623.3675741909</v>
+        <v>91399.505000000005</v>
       </c>
       <c r="AW39" s="3">
         <f t="shared" ref="AW39" si="67">AW34-AW38</f>
-        <v>130457.94057954813</v>
-      </c>
-    </row>
-    <row r="40" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>106521.35450000003</v>
+      </c>
+      <c r="AX39" s="3">
+        <f t="shared" ref="AX39" si="68">AX34-AX38</f>
+        <v>115467.44405000003</v>
+      </c>
+      <c r="AY39" s="3">
+        <f t="shared" ref="AY39" si="69">AY34-AY38</f>
+        <v>121540.23639500006</v>
+      </c>
+      <c r="AZ39" s="3">
+        <f t="shared" ref="AZ39" si="70">AZ34-AZ38</f>
+        <v>127605.95160800005</v>
+      </c>
+      <c r="BA39" s="3">
+        <f t="shared" ref="BA39" si="71">BA34-BA38</f>
+        <v>133683.30346527504</v>
+      </c>
+      <c r="BB39" s="3">
+        <f t="shared" ref="BB39" si="72">BB34-BB38</f>
+        <v>139789.67454736479</v>
+      </c>
+    </row>
+    <row r="40" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
@@ -4593,120 +4758,131 @@
       <c r="AA40" s="6">
         <v>365</v>
       </c>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AK40" s="3">
+      <c r="AB40" s="6">
+        <v>259</v>
+      </c>
+      <c r="AC40" s="6">
+        <v>472</v>
+      </c>
+      <c r="AD40" s="6">
+        <v>188</v>
+      </c>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AP40" s="3">
         <v>448</v>
       </c>
-      <c r="AL40" s="3">
+      <c r="AQ40" s="3">
         <v>826</v>
       </c>
-      <c r="AM40" s="3">
+      <c r="AR40" s="3">
         <v>509</v>
       </c>
-      <c r="AN40" s="3">
+      <c r="AS40" s="3">
         <v>531</v>
       </c>
-      <c r="AP40" s="3">
-        <f t="shared" ref="AP40:AW40" si="68">+AO59*$BB$58</f>
+      <c r="AU40" s="3">
+        <f t="shared" ref="AU40:BB40" si="73">+AT59*$BG$58</f>
         <v>0</v>
       </c>
-      <c r="AQ40" s="3">
-        <f t="shared" si="68"/>
+      <c r="AV40" s="3">
+        <f t="shared" si="73"/>
         <v>1073.0070640000004</v>
       </c>
-      <c r="AR40" s="3">
-        <f t="shared" si="68"/>
-        <v>2471.8294686496006</v>
-      </c>
-      <c r="AS40" s="3">
-        <f t="shared" si="68"/>
-        <v>4129.8182132154543</v>
-      </c>
-      <c r="AT40" s="3">
-        <f t="shared" si="68"/>
-        <v>5955.2388681861885</v>
-      </c>
-      <c r="AU40" s="3">
-        <f t="shared" si="68"/>
-        <v>7906.1109829720635</v>
-      </c>
-      <c r="AV40" s="3">
-        <f t="shared" si="68"/>
-        <v>9984.2535195477139</v>
-      </c>
       <c r="AW40" s="3">
-        <f t="shared" si="68"/>
-        <v>12191.818505485027</v>
-      </c>
-    </row>
-    <row r="41" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="73"/>
+        <v>2589.5562618496006</v>
+      </c>
+      <c r="AX40" s="3">
+        <f t="shared" si="73"/>
+        <v>4378.9751983439337</v>
+      </c>
+      <c r="AY40" s="3">
+        <f t="shared" si="73"/>
+        <v>6344.4564740167743</v>
+      </c>
+      <c r="AZ40" s="3">
+        <f t="shared" si="73"/>
+        <v>8441.7654370686505</v>
+      </c>
+      <c r="BA40" s="3">
+        <f t="shared" si="73"/>
+        <v>10672.947996607776</v>
+      </c>
+      <c r="BB40" s="3">
+        <f t="shared" si="73"/>
+        <v>13040.390520582656</v>
+      </c>
+    </row>
+    <row r="41" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" ref="C41:D41" si="69">+C39+C40</f>
+        <f t="shared" ref="C41:D41" si="74">+C39+C40</f>
         <v>5610</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="74"/>
         <v>5868</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" ref="E41:G41" si="70">+E39+E40</f>
+        <f t="shared" ref="E41:G41" si="75">+E39+E40</f>
         <v>5912</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>7971</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>6523</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" ref="H41" si="71">+H39+H40</f>
+        <f t="shared" ref="H41" si="76">+H39+H40</f>
         <v>6832</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" ref="I41:J41" si="72">+I39+I40</f>
+        <f t="shared" ref="I41:J41" si="77">+I39+I40</f>
         <v>7329</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>9169</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" ref="K41:R41" si="73">+K39+K40</f>
+        <f t="shared" ref="K41:R41" si="78">+K39+K40</f>
         <v>5861</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>6131</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>8133</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>13055</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>11503</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>12513</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>10565</v>
       </c>
       <c r="R41" s="6">
-        <f t="shared" si="73"/>
+        <f t="shared" si="78"/>
         <v>12702</v>
       </c>
       <c r="S41" s="6">
@@ -4714,94 +4890,108 @@
         <v>8908</v>
       </c>
       <c r="T41" s="6">
-        <f t="shared" ref="T41:AA41" si="74">+T39+T40</f>
+        <f t="shared" ref="T41:Z41" si="79">+T39+T40</f>
         <v>8186</v>
       </c>
       <c r="U41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>5576</v>
       </c>
       <c r="V41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>6149</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>10338.449999999999</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>11163</v>
       </c>
       <c r="Y41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>14020</v>
       </c>
       <c r="Z41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="79"/>
         <v>16079.690000000002</v>
       </c>
       <c r="AA41" s="6">
-        <f t="shared" si="74"/>
+        <f>+AA39+AA40</f>
         <v>14183</v>
       </c>
-      <c r="AB41" s="6"/>
-      <c r="AC41" s="6"/>
-      <c r="AD41" s="6"/>
-      <c r="AK41" s="3">
-        <f>+AK39+AK40</f>
+      <c r="AB41" s="6">
+        <f>+AB39+AB40</f>
+        <v>15106</v>
+      </c>
+      <c r="AC41" s="6">
+        <f>+AC39+AC40</f>
+        <v>17822</v>
+      </c>
+      <c r="AD41" s="6">
+        <f>+AD39+AD40</f>
+        <v>23553</v>
+      </c>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="6"/>
+      <c r="AP41" s="3">
+        <f>+AP39+AP40</f>
         <v>25361</v>
       </c>
-      <c r="AL41" s="3">
-        <f>+AL39+AL40</f>
+      <c r="AQ41" s="3">
+        <f>+AQ39+AQ40</f>
         <v>29812</v>
       </c>
-      <c r="AM41" s="3">
-        <f>+AM39+AM40</f>
+      <c r="AR41" s="3">
+        <f>+AR39+AR40</f>
         <v>33180</v>
-      </c>
-      <c r="AN41" s="3">
-        <f t="shared" ref="AN41" si="75">+AN39+AN40</f>
-        <v>47284</v>
-      </c>
-      <c r="AO41" s="3">
-        <f t="shared" ref="AO41" si="76">+AO39+AO40</f>
-        <v>48391.790000000008</v>
-      </c>
-      <c r="AP41" s="3">
-        <f t="shared" ref="AP41" si="77">+AP39+AP40</f>
-        <v>65427.260000000009</v>
-      </c>
-      <c r="AQ41" s="3">
-        <f t="shared" ref="AQ41" si="78">+AQ39+AQ40</f>
-        <v>85294.049064000021</v>
-      </c>
-      <c r="AR41" s="3">
-        <f t="shared" ref="AR41" si="79">+AR39+AR40</f>
-        <v>101096.87466864963</v>
       </c>
       <c r="AS41" s="3">
         <f t="shared" ref="AS41" si="80">+AS39+AS40</f>
-        <v>111306.13749821548</v>
+        <v>47284</v>
       </c>
       <c r="AT41" s="3">
         <f t="shared" ref="AT41" si="81">+AT39+AT40</f>
-        <v>118955.61675523625</v>
+        <v>48391.790000000008</v>
       </c>
       <c r="AU41" s="3">
         <f t="shared" ref="AU41" si="82">+AU39+AU40</f>
-        <v>126716.00832778364</v>
+        <v>65427.260000000009</v>
       </c>
       <c r="AV41" s="3">
         <f t="shared" ref="AV41" si="83">+AV39+AV40</f>
-        <v>134607.62109373862</v>
+        <v>92472.51206400001</v>
       </c>
       <c r="AW41" s="3">
         <f t="shared" ref="AW41" si="84">+AW39+AW40</f>
-        <v>142649.75908503315</v>
-      </c>
-    </row>
-    <row r="42" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>109110.91076184963</v>
+      </c>
+      <c r="AX41" s="3">
+        <f t="shared" ref="AX41" si="85">+AX39+AX40</f>
+        <v>119846.41924834397</v>
+      </c>
+      <c r="AY41" s="3">
+        <f t="shared" ref="AY41" si="86">+AY39+AY40</f>
+        <v>127884.69286901683</v>
+      </c>
+      <c r="AZ41" s="3">
+        <f t="shared" ref="AZ41" si="87">+AZ39+AZ40</f>
+        <v>136047.71704506868</v>
+      </c>
+      <c r="BA41" s="3">
+        <f t="shared" ref="BA41" si="88">+BA39+BA40</f>
+        <v>144356.25146188281</v>
+      </c>
+      <c r="BB41" s="3">
+        <f t="shared" ref="BB41" si="89">+BB39+BB40</f>
+        <v>152830.06506794743</v>
+      </c>
+    </row>
+    <row r="42" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
@@ -4867,7 +5057,7 @@
         <v>1497</v>
       </c>
       <c r="W42" s="6">
-        <f t="shared" ref="W42" si="85">+W41*0.19</f>
+        <f t="shared" ref="W42" si="90">+W41*0.19</f>
         <v>1964.3054999999997</v>
       </c>
       <c r="X42" s="6">
@@ -4882,125 +5072,136 @@
       <c r="AA42" s="6">
         <v>1814</v>
       </c>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AK42" s="3">
+      <c r="AB42" s="6">
+        <v>1641</v>
+      </c>
+      <c r="AC42" s="6">
+        <v>2134</v>
+      </c>
+      <c r="AD42" s="6">
+        <v>2715</v>
+      </c>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="6"/>
+      <c r="AP42" s="3">
         <f>3249+1</f>
         <v>3250</v>
       </c>
-      <c r="AL42" s="3">
+      <c r="AQ42" s="3">
         <v>6327</v>
       </c>
-      <c r="AM42" s="3">
+      <c r="AR42" s="3">
         <v>4034</v>
       </c>
-      <c r="AN42" s="3">
+      <c r="AS42" s="3">
         <v>7914</v>
       </c>
-      <c r="AO42" s="3">
-        <f>+AO41*0.18</f>
+      <c r="AT42" s="3">
+        <f>+AT41*0.18</f>
         <v>8710.5222000000012</v>
       </c>
-      <c r="AP42" s="3">
-        <f t="shared" ref="AP42:AW42" si="86">+AP41*0.18</f>
+      <c r="AU42" s="3">
+        <f t="shared" ref="AU42:BB42" si="91">+AU41*0.18</f>
         <v>11776.906800000001</v>
       </c>
-      <c r="AQ42" s="3">
-        <f t="shared" si="86"/>
-        <v>15352.928831520003</v>
-      </c>
-      <c r="AR42" s="3">
-        <f t="shared" si="86"/>
-        <v>18197.437440356935</v>
-      </c>
-      <c r="AS42" s="3">
-        <f t="shared" si="86"/>
-        <v>20035.104749678787</v>
-      </c>
-      <c r="AT42" s="3">
-        <f t="shared" si="86"/>
-        <v>21412.011015942524</v>
-      </c>
-      <c r="AU42" s="3">
-        <f t="shared" si="86"/>
-        <v>22808.881499001054</v>
-      </c>
       <c r="AV42" s="3">
-        <f t="shared" si="86"/>
-        <v>24229.371796872951</v>
+        <f t="shared" si="91"/>
+        <v>16645.052171520001</v>
       </c>
       <c r="AW42" s="3">
-        <f t="shared" si="86"/>
-        <v>25676.956635305967</v>
-      </c>
-    </row>
-    <row r="43" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="91"/>
+        <v>19639.963937132932</v>
+      </c>
+      <c r="AX42" s="3">
+        <f t="shared" si="91"/>
+        <v>21572.355464701915</v>
+      </c>
+      <c r="AY42" s="3">
+        <f t="shared" si="91"/>
+        <v>23019.244716423029</v>
+      </c>
+      <c r="AZ42" s="3">
+        <f t="shared" si="91"/>
+        <v>24488.589068112364</v>
+      </c>
+      <c r="BA42" s="3">
+        <f t="shared" si="91"/>
+        <v>25984.125263138907</v>
+      </c>
+      <c r="BB42" s="3">
+        <f t="shared" si="91"/>
+        <v>27509.411712230536</v>
+      </c>
+    </row>
+    <row r="43" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:D43" si="87">+C41-C42</f>
+        <f t="shared" ref="C43:D43" si="92">+C41-C42</f>
         <v>4987</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>5106</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" ref="E43:G43" si="88">+E41-E42</f>
+        <f t="shared" ref="E43:G43" si="93">+E41-E42</f>
         <v>5137</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>6882</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>4307</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" ref="H43" si="89">+H41-H42</f>
+        <f t="shared" ref="H43" si="94">+H41-H42</f>
         <v>4616</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" ref="I43:J43" si="90">+I41-I42</f>
+        <f t="shared" ref="I43:J43" si="95">+I41-I42</f>
         <v>6091</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="95"/>
         <v>7349</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43:L43" si="91">+K41-K42</f>
+        <f t="shared" ref="K43:L43" si="96">+K41-K42</f>
         <v>4902</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="96"/>
         <v>5178</v>
       </c>
       <c r="M43" s="6">
-        <f t="shared" ref="M43:R43" si="92">+M41-M42</f>
+        <f t="shared" ref="M43:R43" si="97">+M41-M42</f>
         <v>7846</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>11219</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>9497</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>10394</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>9194</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="97"/>
         <v>10285</v>
       </c>
       <c r="S43" s="6">
@@ -5008,383 +5209,397 @@
         <v>7465</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" ref="T43:V43" si="93">+T41-T42</f>
+        <f t="shared" ref="T43:V43" si="98">+T41-T42</f>
         <v>6687</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>4395</v>
       </c>
       <c r="V43" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="98"/>
         <v>4652</v>
       </c>
       <c r="W43" s="6">
-        <f t="shared" ref="W43:AA43" si="94">+W41-W42</f>
+        <f t="shared" ref="W43:AD43" si="99">+W41-W42</f>
         <v>8374.1444999999985</v>
       </c>
       <c r="X43" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>9658</v>
       </c>
       <c r="Y43" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>11583</v>
       </c>
       <c r="Z43" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>13288.690000000002</v>
       </c>
       <c r="AA43" s="6">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>12369</v>
       </c>
-      <c r="AB43" s="6"/>
-      <c r="AC43" s="6"/>
-      <c r="AD43" s="6"/>
-      <c r="AK43" s="3">
-        <f>+AK41-AK42</f>
+      <c r="AB43" s="6">
+        <f t="shared" ref="AB43" si="100">+AB41-AB42</f>
+        <v>13465</v>
+      </c>
+      <c r="AC43" s="6">
+        <f t="shared" si="99"/>
+        <v>15688</v>
+      </c>
+      <c r="AD43" s="6">
+        <f t="shared" si="99"/>
+        <v>20838</v>
+      </c>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="6"/>
+      <c r="AH43" s="6"/>
+      <c r="AI43" s="6"/>
+      <c r="AP43" s="3">
+        <f>+AP41-AP42</f>
         <v>22111</v>
       </c>
-      <c r="AL43" s="3">
-        <f>+AL41-AL42</f>
+      <c r="AQ43" s="3">
+        <f>+AQ41-AQ42</f>
         <v>23485</v>
       </c>
-      <c r="AM43" s="3">
-        <f>+AM41-AM42</f>
+      <c r="AR43" s="3">
+        <f>+AR41-AR42</f>
         <v>29146</v>
       </c>
-      <c r="AN43" s="3">
-        <f t="shared" ref="AN43" si="95">+AN41-AN42</f>
+      <c r="AS43" s="3">
+        <f t="shared" ref="AS43" si="101">+AS41-AS42</f>
         <v>39370</v>
       </c>
-      <c r="AO43" s="3">
-        <f t="shared" ref="AO43" si="96">+AO41-AO42</f>
+      <c r="AT43" s="3">
+        <f t="shared" ref="AT43" si="102">+AT41-AT42</f>
         <v>39681.267800000009</v>
       </c>
-      <c r="AP43" s="3">
-        <f t="shared" ref="AP43" si="97">+AP41-AP42</f>
+      <c r="AU43" s="3">
+        <f t="shared" ref="AU43" si="103">+AU41-AU42</f>
         <v>53650.353200000012</v>
       </c>
-      <c r="AQ43" s="3">
-        <f t="shared" ref="AQ43" si="98">+AQ41-AQ42</f>
-        <v>69941.120232480025</v>
-      </c>
-      <c r="AR43" s="3">
-        <f t="shared" ref="AR43" si="99">+AR41-AR42</f>
-        <v>82899.437228292692</v>
-      </c>
-      <c r="AS43" s="3">
-        <f t="shared" ref="AS43" si="100">+AS41-AS42</f>
-        <v>91271.032748536702</v>
-      </c>
-      <c r="AT43" s="3">
-        <f t="shared" ref="AT43" si="101">+AT41-AT42</f>
-        <v>97543.605739293722</v>
-      </c>
-      <c r="AU43" s="3">
-        <f t="shared" ref="AU43" si="102">+AU41-AU42</f>
-        <v>103907.12682878258</v>
-      </c>
       <c r="AV43" s="3">
-        <f t="shared" ref="AV43" si="103">+AV41-AV42</f>
-        <v>110378.24929686567</v>
+        <f t="shared" ref="AV43" si="104">+AV41-AV42</f>
+        <v>75827.459892480008</v>
       </c>
       <c r="AW43" s="3">
-        <f t="shared" ref="AW43" si="104">+AW41-AW42</f>
-        <v>116972.80244972718</v>
+        <f t="shared" ref="AW43" si="105">+AW41-AW42</f>
+        <v>89470.946824716695</v>
       </c>
       <c r="AX43" s="3">
-        <f t="shared" ref="AX43:CC43" si="105">+AW43*(1+$BB$57)</f>
-        <v>111124.16232724082</v>
+        <f t="shared" ref="AX43" si="106">+AX41-AX42</f>
+        <v>98274.06378364205</v>
       </c>
       <c r="AY43" s="3">
-        <f t="shared" si="105"/>
-        <v>105567.95421087877</v>
+        <f t="shared" ref="AY43" si="107">+AY41-AY42</f>
+        <v>104865.4481525938</v>
       </c>
       <c r="AZ43" s="3">
-        <f t="shared" si="105"/>
-        <v>100289.55650033483</v>
+        <f t="shared" ref="AZ43" si="108">+AZ41-AZ42</f>
+        <v>111559.12797695631</v>
       </c>
       <c r="BA43" s="3">
-        <f t="shared" si="105"/>
-        <v>95275.078675318087</v>
+        <f t="shared" ref="BA43" si="109">+BA41-BA42</f>
+        <v>118372.12619874391</v>
       </c>
       <c r="BB43" s="3">
-        <f t="shared" si="105"/>
-        <v>90511.324741552176</v>
+        <f t="shared" ref="BB43" si="110">+BB41-BB42</f>
+        <v>125320.6533557169</v>
       </c>
       <c r="BC43" s="3">
-        <f t="shared" si="105"/>
-        <v>85985.758504474565</v>
+        <f t="shared" ref="BC43:CH43" si="111">+BB43*(1+$BG$57)</f>
+        <v>119054.62068793105</v>
       </c>
       <c r="BD43" s="3">
-        <f t="shared" si="105"/>
-        <v>81686.470579250832</v>
+        <f t="shared" si="111"/>
+        <v>113101.8896535345</v>
       </c>
       <c r="BE43" s="3">
-        <f t="shared" si="105"/>
-        <v>77602.147050288288</v>
+        <f t="shared" si="111"/>
+        <v>107446.79517085777</v>
       </c>
       <c r="BF43" s="3">
-        <f t="shared" si="105"/>
-        <v>73722.039697773871</v>
+        <f t="shared" si="111"/>
+        <v>102074.45541231488</v>
       </c>
       <c r="BG43" s="3">
-        <f t="shared" si="105"/>
-        <v>70035.937712885177</v>
+        <f t="shared" si="111"/>
+        <v>96970.732641699142</v>
       </c>
       <c r="BH43" s="3">
-        <f t="shared" si="105"/>
-        <v>66534.140827240917</v>
+        <f t="shared" si="111"/>
+        <v>92122.196009614185</v>
       </c>
       <c r="BI43" s="3">
-        <f t="shared" si="105"/>
-        <v>63207.433785878871</v>
+        <f t="shared" si="111"/>
+        <v>87516.086209133471</v>
       </c>
       <c r="BJ43" s="3">
-        <f t="shared" si="105"/>
-        <v>60047.062096584923</v>
+        <f t="shared" si="111"/>
+        <v>83140.281898676796</v>
       </c>
       <c r="BK43" s="3">
-        <f t="shared" si="105"/>
-        <v>57044.708991755673</v>
+        <f t="shared" si="111"/>
+        <v>78983.267803742958</v>
       </c>
       <c r="BL43" s="3">
-        <f t="shared" si="105"/>
-        <v>54192.473542167885</v>
+        <f t="shared" si="111"/>
+        <v>75034.104413555804</v>
       </c>
       <c r="BM43" s="3">
-        <f t="shared" si="105"/>
-        <v>51482.849865059492</v>
+        <f t="shared" si="111"/>
+        <v>71282.399192878016</v>
       </c>
       <c r="BN43" s="3">
-        <f t="shared" si="105"/>
-        <v>48908.707371806515</v>
+        <f t="shared" si="111"/>
+        <v>67718.279233234105</v>
       </c>
       <c r="BO43" s="3">
-        <f t="shared" si="105"/>
-        <v>46463.272003216189</v>
+        <f t="shared" si="111"/>
+        <v>64332.365271572395</v>
       </c>
       <c r="BP43" s="3">
-        <f t="shared" si="105"/>
-        <v>44140.108403055376</v>
+        <f t="shared" si="111"/>
+        <v>61115.74700799377</v>
       </c>
       <c r="BQ43" s="3">
-        <f t="shared" si="105"/>
-        <v>41933.102982902608</v>
+        <f t="shared" si="111"/>
+        <v>58059.959657594081</v>
       </c>
       <c r="BR43" s="3">
-        <f t="shared" si="105"/>
-        <v>39836.447833757476</v>
+        <f t="shared" si="111"/>
+        <v>55156.961674714374</v>
       </c>
       <c r="BS43" s="3">
-        <f t="shared" si="105"/>
-        <v>37844.625442069599</v>
+        <f t="shared" si="111"/>
+        <v>52399.113590978654</v>
       </c>
       <c r="BT43" s="3">
-        <f t="shared" si="105"/>
-        <v>35952.394169966115</v>
+        <f t="shared" si="111"/>
+        <v>49779.15791142972</v>
       </c>
       <c r="BU43" s="3">
-        <f t="shared" si="105"/>
-        <v>34154.774461467809</v>
+        <f t="shared" si="111"/>
+        <v>47290.20001585823</v>
       </c>
       <c r="BV43" s="3">
-        <f t="shared" si="105"/>
-        <v>32447.035738394417</v>
+        <f t="shared" si="111"/>
+        <v>44925.690015065316</v>
       </c>
       <c r="BW43" s="3">
-        <f t="shared" si="105"/>
-        <v>30824.683951474693</v>
+        <f t="shared" si="111"/>
+        <v>42679.405514312049</v>
       </c>
       <c r="BX43" s="3">
-        <f t="shared" si="105"/>
-        <v>29283.449753900957</v>
+        <f t="shared" si="111"/>
+        <v>40545.435238596445</v>
       </c>
       <c r="BY43" s="3">
-        <f t="shared" si="105"/>
-        <v>27819.277266205907</v>
+        <f t="shared" si="111"/>
+        <v>38518.163476666617</v>
       </c>
       <c r="BZ43" s="3">
-        <f t="shared" si="105"/>
-        <v>26428.313402895612</v>
+        <f t="shared" si="111"/>
+        <v>36592.255302833284</v>
       </c>
       <c r="CA43" s="3">
-        <f t="shared" si="105"/>
-        <v>25106.897732750829</v>
+        <f t="shared" si="111"/>
+        <v>34762.642537691616</v>
       </c>
       <c r="CB43" s="3">
-        <f t="shared" si="105"/>
-        <v>23851.552846113285</v>
+        <f t="shared" si="111"/>
+        <v>33024.51041080703</v>
       </c>
       <c r="CC43" s="3">
-        <f t="shared" si="105"/>
-        <v>22658.975203807619</v>
+        <f t="shared" si="111"/>
+        <v>31373.284890266677</v>
       </c>
       <c r="CD43" s="3">
-        <f t="shared" ref="CD43:DA43" si="106">+CC43*(1+$BB$57)</f>
-        <v>21526.026443617237</v>
+        <f t="shared" si="111"/>
+        <v>29804.620645753341</v>
       </c>
       <c r="CE43" s="3">
-        <f t="shared" si="106"/>
-        <v>20449.725121436375</v>
+        <f t="shared" si="111"/>
+        <v>28314.389613465672</v>
       </c>
       <c r="CF43" s="3">
-        <f t="shared" si="106"/>
-        <v>19427.238865364554</v>
+        <f t="shared" si="111"/>
+        <v>26898.670132792387</v>
       </c>
       <c r="CG43" s="3">
-        <f t="shared" si="106"/>
-        <v>18455.876922096326</v>
+        <f t="shared" si="111"/>
+        <v>25553.736626152768</v>
       </c>
       <c r="CH43" s="3">
-        <f t="shared" si="106"/>
-        <v>17533.083075991508</v>
+        <f t="shared" si="111"/>
+        <v>24276.049794845127</v>
       </c>
       <c r="CI43" s="3">
-        <f t="shared" si="106"/>
-        <v>16656.428922191932</v>
+        <f t="shared" ref="CI43:DF43" si="112">+CH43*(1+$BG$57)</f>
+        <v>23062.247305102868</v>
       </c>
       <c r="CJ43" s="3">
-        <f t="shared" si="106"/>
-        <v>15823.607476082334</v>
+        <f t="shared" si="112"/>
+        <v>21909.134939847725</v>
       </c>
       <c r="CK43" s="3">
-        <f t="shared" si="106"/>
-        <v>15032.427102278216</v>
+        <f t="shared" si="112"/>
+        <v>20813.678192855339</v>
       </c>
       <c r="CL43" s="3">
-        <f t="shared" si="106"/>
-        <v>14280.805747164304</v>
+        <f t="shared" si="112"/>
+        <v>19772.994283212571</v>
       </c>
       <c r="CM43" s="3">
-        <f t="shared" si="106"/>
-        <v>13566.765459806089</v>
+        <f t="shared" si="112"/>
+        <v>18784.34456905194</v>
       </c>
       <c r="CN43" s="3">
-        <f t="shared" si="106"/>
-        <v>12888.427186815785</v>
+        <f t="shared" si="112"/>
+        <v>17845.127340599342</v>
       </c>
       <c r="CO43" s="3">
-        <f t="shared" si="106"/>
-        <v>12244.005827474995</v>
+        <f t="shared" si="112"/>
+        <v>16952.870973569374</v>
       </c>
       <c r="CP43" s="3">
-        <f t="shared" si="106"/>
-        <v>11631.805536101245</v>
+        <f t="shared" si="112"/>
+        <v>16105.227424890903</v>
       </c>
       <c r="CQ43" s="3">
-        <f t="shared" si="106"/>
-        <v>11050.215259296183</v>
+        <f t="shared" si="112"/>
+        <v>15299.966053646358</v>
       </c>
       <c r="CR43" s="3">
-        <f t="shared" si="106"/>
-        <v>10497.704496331373</v>
+        <f t="shared" si="112"/>
+        <v>14534.967750964039</v>
       </c>
       <c r="CS43" s="3">
-        <f t="shared" si="106"/>
-        <v>9972.8192715148034</v>
+        <f t="shared" si="112"/>
+        <v>13808.219363415836</v>
       </c>
       <c r="CT43" s="3">
-        <f t="shared" si="106"/>
-        <v>9474.1783079390625</v>
+        <f t="shared" si="112"/>
+        <v>13117.808395245043</v>
       </c>
       <c r="CU43" s="3">
-        <f t="shared" si="106"/>
-        <v>9000.4693925421088</v>
+        <f t="shared" si="112"/>
+        <v>12461.917975482791</v>
       </c>
       <c r="CV43" s="3">
-        <f t="shared" si="106"/>
-        <v>8550.4459229150034</v>
+        <f t="shared" si="112"/>
+        <v>11838.822076708651</v>
       </c>
       <c r="CW43" s="3">
-        <f t="shared" si="106"/>
-        <v>8122.9236267692531</v>
+        <f t="shared" si="112"/>
+        <v>11246.880972873218</v>
       </c>
       <c r="CX43" s="3">
-        <f t="shared" si="106"/>
-        <v>7716.7774454307901</v>
+        <f t="shared" si="112"/>
+        <v>10684.536924229556</v>
       </c>
       <c r="CY43" s="3">
-        <f t="shared" si="106"/>
-        <v>7330.9385731592502</v>
+        <f t="shared" si="112"/>
+        <v>10150.310078018078</v>
       </c>
       <c r="CZ43" s="3">
-        <f t="shared" si="106"/>
-        <v>6964.3916445012874</v>
+        <f t="shared" si="112"/>
+        <v>9642.7945741171734</v>
       </c>
       <c r="DA43" s="3">
-        <f t="shared" si="106"/>
-        <v>6616.1720622762223</v>
-      </c>
-    </row>
-    <row r="44" spans="2:105" x14ac:dyDescent="0.2">
+        <f t="shared" si="112"/>
+        <v>9160.6548454113145</v>
+      </c>
+      <c r="DB43" s="3">
+        <f t="shared" si="112"/>
+        <v>8702.6221031407476</v>
+      </c>
+      <c r="DC43" s="3">
+        <f t="shared" si="112"/>
+        <v>8267.4909979837103</v>
+      </c>
+      <c r="DD43" s="3">
+        <f t="shared" si="112"/>
+        <v>7854.1164480845246</v>
+      </c>
+      <c r="DE43" s="3">
+        <f t="shared" si="112"/>
+        <v>7461.4106256802979</v>
+      </c>
+      <c r="DF43" s="3">
+        <f t="shared" si="112"/>
+        <v>7088.3400943962824</v>
+      </c>
+    </row>
+    <row r="44" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:D44" si="107">+C43/C45</f>
+        <f t="shared" ref="C44:D44" si="113">+C43/C45</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" ref="E44:G44" si="108">+E43/E45</f>
+        <f t="shared" ref="E44:G44" si="114">+E43/E45</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" ref="H44" si="109">+H43/H45</f>
+        <f t="shared" ref="H44" si="115">+H43/H45</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" ref="I44:J44" si="110">+I43/I45</f>
+        <f t="shared" ref="I44:J44" si="116">+I43/I45</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>2.559735283873215</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" ref="K44:L44" si="111">+K43/K45</f>
+        <f t="shared" ref="K44:L44" si="117">+K43/K45</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" ref="M44:R44" si="112">+M43/M45</f>
+        <f t="shared" ref="M44:R44" si="118">+M43/M45</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>3.882006920415225</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="S44" s="9">
@@ -5392,94 +5607,108 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="T44" s="9">
-        <f t="shared" ref="T44:V44" si="113">+T43/T45</f>
+        <f t="shared" ref="T44:V44" si="119">+T43/T45</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="U44" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>1.7621212121212122</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" ref="W44:AA44" si="114">+W43/W45</f>
+        <f t="shared" ref="W44:AD44" si="120">+W43/W45</f>
         <v>3.1720244318181812</v>
       </c>
       <c r="X44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>3.6975497702909648</v>
       </c>
       <c r="Y44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>4.3858386974630825</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>5.0527338403041835</v>
       </c>
       <c r="AA44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="120"/>
         <v>4.7119999999999997</v>
       </c>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
-      <c r="AD44" s="9"/>
-      <c r="AK44" s="17">
-        <f>+AK43/AK45</f>
+      <c r="AB44" s="9">
+        <f t="shared" ref="AB44" si="121">+AB43/AB45</f>
+        <v>5.1590038314176248</v>
+      </c>
+      <c r="AC44" s="9">
+        <f t="shared" si="120"/>
+        <v>6.0338461538461541</v>
+      </c>
+      <c r="AD44" s="9">
+        <f t="shared" si="120"/>
+        <v>8.0176991150442483</v>
+      </c>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AP44" s="17">
+        <f>+AP43/AP45</f>
         <v>7.5696679219445393</v>
       </c>
-      <c r="AL44" s="17">
-        <f>+AL43/AL45</f>
+      <c r="AQ44" s="17">
+        <f>+AQ43/AQ45</f>
         <v>8.1658553546592483</v>
       </c>
-      <c r="AM44" s="17">
-        <f>+AM43/AM45</f>
+      <c r="AR44" s="17">
+        <f>+AR43/AR45</f>
         <v>10.092105263157896</v>
       </c>
-      <c r="AN44" s="17">
-        <f t="shared" ref="AN44" si="115">+AN43/AN45</f>
+      <c r="AS44" s="17">
+        <f t="shared" ref="AS44" si="122">+AS43/AS45</f>
         <v>13.770549143057012</v>
       </c>
-      <c r="AO44" s="17">
-        <f t="shared" ref="AO44" si="116">+AO43/AO45</f>
+      <c r="AT44" s="17">
+        <f t="shared" ref="AT44" si="123">+AT43/AT45</f>
         <v>14.721301354108704</v>
       </c>
-      <c r="AP44" s="17">
-        <f t="shared" ref="AP44" si="117">+AP43/AP45</f>
+      <c r="AU44" s="17">
+        <f t="shared" ref="AU44" si="124">+AU43/AU45</f>
         <v>19.903673975143764</v>
       </c>
-      <c r="AQ44" s="17">
-        <f t="shared" ref="AQ44" si="118">+AQ43/AQ45</f>
-        <v>25.947364211641634</v>
-      </c>
-      <c r="AR44" s="17">
-        <f t="shared" ref="AR44" si="119">+AR43/AR45</f>
-        <v>30.754753191724241</v>
-      </c>
-      <c r="AS44" s="17">
-        <f t="shared" ref="AS44" si="120">+AS43/AS45</f>
-        <v>33.860520403834798</v>
-      </c>
-      <c r="AT44" s="17">
-        <f t="shared" ref="AT44" si="121">+AT43/AT45</f>
-        <v>36.187574008270715</v>
-      </c>
-      <c r="AU44" s="17">
-        <f t="shared" ref="AU44" si="122">+AU43/AU45</f>
-        <v>38.548368328244329</v>
-      </c>
       <c r="AV44" s="17">
-        <f t="shared" ref="AV44" si="123">+AV43/AV45</f>
-        <v>40.949081542150132</v>
+        <f t="shared" ref="AV44" si="125">+AV43/AV45</f>
+        <v>28.131129620656655</v>
       </c>
       <c r="AW44" s="17">
-        <f t="shared" ref="AW44" si="124">+AW43/AW45</f>
-        <v>43.395586143471412</v>
-      </c>
-    </row>
-    <row r="45" spans="2:105" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AW44" si="126">+AW43/AW45</f>
+        <v>33.19270889434862</v>
+      </c>
+      <c r="AX44" s="17">
+        <f t="shared" ref="AX44" si="127">+AX43/AX45</f>
+        <v>36.458565677478035</v>
+      </c>
+      <c r="AY44" s="17">
+        <f t="shared" ref="AY44" si="128">+AY43/AY45</f>
+        <v>38.903894695824079</v>
+      </c>
+      <c r="AZ44" s="17">
+        <f t="shared" ref="AZ44" si="129">+AZ43/AZ45</f>
+        <v>41.387174170638588</v>
+      </c>
+      <c r="BA44" s="17">
+        <f t="shared" ref="BA44" si="130">+BA43/BA45</f>
+        <v>43.914719420791656</v>
+      </c>
+      <c r="BB44" s="17">
+        <f t="shared" ref="BB44" si="131">+BB43/BB45</f>
+        <v>46.492544372367611</v>
+      </c>
+    </row>
+    <row r="45" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
@@ -5559,66 +5788,77 @@
       <c r="AA45" s="6">
         <v>2625</v>
       </c>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AJ45" s="3">
+      <c r="AB45" s="6">
+        <v>2610</v>
+      </c>
+      <c r="AC45" s="6">
+        <v>2600</v>
+      </c>
+      <c r="AD45" s="6">
+        <v>2599</v>
+      </c>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="6"/>
+      <c r="AO45" s="3">
         <f>2395.921635+509.079123</f>
         <v>2905.0007580000001</v>
       </c>
-      <c r="AK45" s="3">
+      <c r="AP45" s="3">
         <v>2921</v>
       </c>
-      <c r="AL45" s="3">
+      <c r="AQ45" s="3">
         <v>2876</v>
       </c>
-      <c r="AM45" s="3">
+      <c r="AR45" s="3">
         <v>2888</v>
       </c>
-      <c r="AN45" s="3">
+      <c r="AS45" s="3">
         <v>2859</v>
       </c>
-      <c r="AO45" s="3">
+      <c r="AT45" s="3">
         <f>AVERAGE(S45:V45)</f>
         <v>2695.5</v>
       </c>
-      <c r="AP45" s="3">
-        <f t="shared" ref="AP45:AW45" si="125">+AO45</f>
+      <c r="AU45" s="3">
+        <f t="shared" ref="AU45:BB45" si="132">+AT45</f>
         <v>2695.5</v>
       </c>
-      <c r="AQ45" s="3">
-        <f t="shared" si="125"/>
+      <c r="AV45" s="3">
+        <f t="shared" si="132"/>
         <v>2695.5</v>
       </c>
-      <c r="AR45" s="3">
-        <f t="shared" si="125"/>
+      <c r="AW45" s="3">
+        <f t="shared" si="132"/>
         <v>2695.5</v>
       </c>
-      <c r="AS45" s="3">
-        <f t="shared" si="125"/>
+      <c r="AX45" s="3">
+        <f t="shared" si="132"/>
         <v>2695.5</v>
       </c>
-      <c r="AT45" s="3">
-        <f t="shared" si="125"/>
+      <c r="AY45" s="3">
+        <f t="shared" si="132"/>
         <v>2695.5</v>
       </c>
-      <c r="AU45" s="3">
-        <f t="shared" si="125"/>
+      <c r="AZ45" s="3">
+        <f t="shared" si="132"/>
         <v>2695.5</v>
       </c>
-      <c r="AV45" s="3">
-        <f t="shared" si="125"/>
+      <c r="BA45" s="3">
+        <f t="shared" si="132"/>
         <v>2695.5</v>
       </c>
-      <c r="AW45" s="3">
-        <f t="shared" si="125"/>
+      <c r="BB45" s="3">
+        <f t="shared" si="132"/>
         <v>2695.5</v>
       </c>
     </row>
-    <row r="46" spans="2:105" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:110" x14ac:dyDescent="0.2">
       <c r="S46" s="6"/>
     </row>
-    <row r="47" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:110" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
@@ -5627,23 +5867,23 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="11">
-        <f t="shared" ref="G47:K47" si="126">+G32/C32-1</f>
+        <f t="shared" ref="G47:K47" si="133">+G32/C32-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="I47" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="J47" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="L47" s="11">
@@ -5667,11 +5907,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" ref="Q47:R47" si="127">+Q32/M32-1</f>
+        <f t="shared" ref="Q47:R47" si="134">+Q32/M32-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="S47" s="11">
@@ -5687,7 +5927,7 @@
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" ref="V47" si="128">+V32/R32-1</f>
+        <f t="shared" ref="V47" si="135">+V32/R32-1</f>
         <v>-4.4726916337501144E-2</v>
       </c>
       <c r="W47" s="11">
@@ -5695,15 +5935,15 @@
         <v>2.6408198366060009E-2</v>
       </c>
       <c r="X47" s="11">
-        <f t="shared" ref="X47" si="129">+X32/T32-1</f>
+        <f t="shared" ref="X47" si="136">+X32/T32-1</f>
         <v>0.11022829782804799</v>
       </c>
       <c r="Y47" s="11">
-        <f t="shared" ref="Y47" si="130">+Y32/U32-1</f>
+        <f t="shared" ref="Y47" si="137">+Y32/U32-1</f>
         <v>0.23208486685429741</v>
       </c>
       <c r="Z47" s="11">
-        <f t="shared" ref="Z47:AA47" si="131">+Z32/V32-1</f>
+        <f t="shared" ref="Z47" si="138">+Z32/V32-1</f>
         <v>0.24703870666873939</v>
       </c>
       <c r="AA47" s="11">
@@ -5712,86 +5952,103 @@
       </c>
       <c r="AB47" s="11">
         <f>+AB32/X32-1</f>
-        <v>0.17191162223819489</v>
+        <v>0.2210069064658271</v>
       </c>
       <c r="AC47" s="11">
         <f>+AC32/Y32-1</f>
-        <v>0.10000000000000009</v>
+        <v>0.18868974404029748</v>
       </c>
       <c r="AD47" s="11">
         <f>+AD32/Z32-1</f>
+        <v>0.20627757971628724</v>
+      </c>
+      <c r="AE47" s="11">
+        <f>+AE32/AA32-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AG47" s="18">
-        <f t="shared" ref="AG47:AK47" si="132">+AG32/AF32-1</f>
+      <c r="AF47" s="11">
+        <f>+AF32/AB32-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AG47" s="11">
+        <f>+AG32/AC32-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AH47" s="11">
+        <f>+AH32/AD32-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AI47" s="11"/>
+      <c r="AL47" s="18">
+        <f t="shared" ref="AL47:AP47" si="139">+AL32/AK32-1</f>
         <v>0.58358739837398366</v>
       </c>
-      <c r="AH47" s="18">
-        <f t="shared" si="132"/>
+      <c r="AM47" s="18">
+        <f t="shared" si="139"/>
         <v>0.43815177282207607</v>
       </c>
-      <c r="AI47" s="18">
-        <f t="shared" si="132"/>
+      <c r="AN47" s="18">
+        <f t="shared" si="139"/>
         <v>0.54161088799643009</v>
       </c>
-      <c r="AJ47" s="18">
-        <f t="shared" si="132"/>
+      <c r="AO47" s="18">
+        <f t="shared" si="139"/>
         <v>0.47090961719371882</v>
       </c>
-      <c r="AK47" s="18">
-        <f t="shared" si="132"/>
+      <c r="AP47" s="18">
+        <f t="shared" si="139"/>
         <v>0.37352716896661997</v>
       </c>
-      <c r="AL47" s="18">
-        <f>+AL32/AK32-1</f>
+      <c r="AQ47" s="18">
+        <f>+AQ32/AP32-1</f>
         <v>0.26610910132884413</v>
       </c>
-      <c r="AM47" s="18">
-        <f>+AM32/AL32-1</f>
+      <c r="AR47" s="18">
+        <f>+AR32/AQ32-1</f>
         <v>0.21596390228722573</v>
       </c>
-      <c r="AN47" s="18">
-        <f>+AN32/AM32-1</f>
+      <c r="AS47" s="18">
+        <f>+AS32/AR32-1</f>
         <v>0.37182574303495608</v>
       </c>
-      <c r="AO47" s="18">
-        <f>+AO32/AN32-1</f>
+      <c r="AT47" s="18">
+        <f>+AT32/AS32-1</f>
         <v>-1.1193175554782941E-2</v>
       </c>
-      <c r="AP47" s="18">
-        <f t="shared" ref="AP47:AW47" si="133">+AP32/AO32-1</f>
+      <c r="AU47" s="18">
+        <f t="shared" ref="AU47:BB47" si="140">+AU32/AT32-1</f>
         <v>0.15686610810486323</v>
       </c>
-      <c r="AQ47" s="18">
-        <f t="shared" si="133"/>
-        <v>0.15371791165373128</v>
-      </c>
-      <c r="AR47" s="18">
-        <f t="shared" si="133"/>
+      <c r="AV47" s="18">
+        <f t="shared" si="140"/>
+        <v>0.21941275453851339</v>
+      </c>
+      <c r="AW47" s="18">
+        <f t="shared" si="140"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AS47" s="18">
-        <f t="shared" si="133"/>
+      <c r="AX47" s="18">
+        <f t="shared" si="140"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="AT47" s="18">
-        <f t="shared" si="133"/>
+      <c r="AY47" s="18">
+        <f t="shared" si="140"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AU47" s="18">
-        <f t="shared" si="133"/>
+      <c r="AZ47" s="18">
+        <f t="shared" si="140"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AV47" s="18">
-        <f t="shared" si="133"/>
+      <c r="BA47" s="18">
+        <f t="shared" si="140"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="AW47" s="18">
-        <f t="shared" si="133"/>
+      <c r="BB47" s="18">
+        <f t="shared" si="140"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:105" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:110" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
@@ -5812,15 +6069,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="P48" s="11">
-        <f t="shared" ref="P48:R48" si="134">+P27/L27-1</f>
+        <f t="shared" ref="P48:R48" si="141">+P27/L27-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="R48" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="141"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="S48" s="11">
@@ -5832,7 +6089,7 @@
         <v>-1</v>
       </c>
       <c r="U48" s="11">
-        <f t="shared" ref="U48" si="135">+U27/Q27-1</f>
+        <f t="shared" ref="U48" si="142">+U27/Q27-1</f>
         <v>-1</v>
       </c>
       <c r="V48" s="11"/>
@@ -5840,7 +6097,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
@@ -5874,7 +6131,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
     </row>
-    <row r="50" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
@@ -5910,7 +6167,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
     </row>
-    <row r="51" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
@@ -5930,62 +6187,67 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10">
-        <f t="shared" ref="R51" si="136">+R30/N30-1</f>
+        <f t="shared" ref="R51" si="143">+R30/N30-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" ref="S51:AA51" si="137">+S30/O30-1</f>
+        <f t="shared" ref="S51:AA51" si="144">+S30/O30-1</f>
         <v>0.30149812734082393</v>
       </c>
       <c r="T51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>0.4819672131147541</v>
       </c>
       <c r="U51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>-0.489247311827957</v>
       </c>
       <c r="V51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>-0.17103762827822122</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>-0.51223021582733819</v>
       </c>
       <c r="X51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>-0.38938053097345138</v>
       </c>
       <c r="Y51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>-0.26315789473684215</v>
       </c>
       <c r="Z51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>0.47317744154057761</v>
       </c>
       <c r="AA51" s="10">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>0.29793510324483785</v>
       </c>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
-      <c r="AM51" s="19">
-        <f t="shared" ref="AM51" si="138">AM30/AL30-1</f>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AR51" s="19">
+        <f t="shared" ref="AR51" si="145">AR30/AQ30-1</f>
         <v>1.2734530938123751</v>
       </c>
-      <c r="AN51" s="19">
-        <f>AN30/AM30-1</f>
+      <c r="AS51" s="19">
+        <f>AS30/AR30-1</f>
         <v>0.99648814749780512</v>
       </c>
-      <c r="AO51" s="19">
-        <f>AO30/AN30-1</f>
+      <c r="AT51" s="19">
+        <f>AT30/AS30-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>200</v>
       </c>
@@ -6004,19 +6266,19 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52:T52" si="139">+Q38/M38-1</f>
+        <f t="shared" ref="Q52:T52" si="146">+Q38/M38-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="R52" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="T52" s="10">
-        <f t="shared" si="139"/>
+        <f t="shared" si="146"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="U52" s="10">
@@ -6024,23 +6286,23 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" ref="V52:Z52" si="140">+V38/R38-1</f>
+        <f t="shared" ref="V52:Z52" si="147">+V38/R38-1</f>
         <v>0.18265707694395439</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="X52" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>-3.1430068098480923E-2</v>
       </c>
       <c r="Y52" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>-0.13138239255540585</v>
       </c>
       <c r="Z52" s="10">
-        <f t="shared" si="140"/>
+        <f t="shared" si="147"/>
         <v>-8.0206540447504304E-2</v>
       </c>
       <c r="AA52" s="10">
@@ -6050,8 +6312,13 @@
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
-    </row>
-    <row r="53" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10"/>
+      <c r="AI52" s="10"/>
+    </row>
+    <row r="53" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -6080,105 +6347,110 @@
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
-    </row>
-    <row r="54" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+    </row>
+    <row r="54" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="10">
-        <f t="shared" ref="C54:Z54" si="141">+C34/C32</f>
+        <f t="shared" ref="C54:Z54" si="148">+C34/C32</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="D54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="P54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="Q54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="R54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="S54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="T54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="U54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="X54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="Y54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="Z54" s="10">
-        <f t="shared" si="141"/>
+        <f t="shared" si="148"/>
         <v>0.79</v>
       </c>
       <c r="AA54" s="10">
@@ -6188,133 +6460,138 @@
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
-      <c r="AK54" s="19">
-        <f t="shared" ref="AK54:AW54" si="142">+AK34/AK32</f>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+      <c r="AP54" s="19">
+        <f t="shared" ref="AP54:BB54" si="149">+AP34/AP32</f>
         <v>0.8324617643898421</v>
       </c>
-      <c r="AL54" s="19">
-        <f t="shared" si="142"/>
+      <c r="AQ54" s="19">
+        <f t="shared" si="149"/>
         <v>0.81936998741106415</v>
       </c>
-      <c r="AM54" s="19">
-        <f t="shared" si="142"/>
+      <c r="AR54" s="19">
+        <f t="shared" si="149"/>
         <v>0.80582795323678236</v>
       </c>
-      <c r="AN54" s="19">
-        <f t="shared" si="142"/>
+      <c r="AS54" s="19">
+        <f t="shared" si="149"/>
         <v>0.80794376277251567</v>
       </c>
-      <c r="AO54" s="19">
-        <f t="shared" si="142"/>
+      <c r="AT54" s="19">
+        <f t="shared" si="149"/>
         <v>0.81</v>
       </c>
-      <c r="AP54" s="19">
-        <f t="shared" si="142"/>
+      <c r="AU54" s="19">
+        <f t="shared" si="149"/>
         <v>0.81</v>
       </c>
-      <c r="AQ54" s="19">
-        <f t="shared" si="142"/>
+      <c r="AV54" s="19">
+        <f t="shared" si="149"/>
         <v>0.81</v>
       </c>
-      <c r="AR54" s="19">
-        <f t="shared" si="142"/>
+      <c r="AW54" s="19">
+        <f t="shared" si="149"/>
         <v>0.81</v>
       </c>
-      <c r="AS54" s="19">
-        <f t="shared" si="142"/>
+      <c r="AX54" s="19">
+        <f t="shared" si="149"/>
+        <v>0.81</v>
+      </c>
+      <c r="AY54" s="19">
+        <f t="shared" si="149"/>
+        <v>0.81000000000000016</v>
+      </c>
+      <c r="AZ54" s="19">
+        <f t="shared" si="149"/>
+        <v>0.81</v>
+      </c>
+      <c r="BA54" s="19">
+        <f t="shared" si="149"/>
+        <v>0.81</v>
+      </c>
+      <c r="BB54" s="19">
+        <f t="shared" si="149"/>
         <v>0.80999999999999994</v>
       </c>
-      <c r="AT54" s="19">
-        <f t="shared" si="142"/>
-        <v>0.81000000000000016</v>
-      </c>
-      <c r="AU54" s="19">
-        <f t="shared" si="142"/>
-        <v>0.81000000000000016</v>
-      </c>
-      <c r="AV54" s="19">
-        <f t="shared" si="142"/>
-        <v>0.80999999999999994</v>
-      </c>
-      <c r="AW54" s="19">
-        <f t="shared" si="142"/>
-        <v>0.80999999999999994</v>
-      </c>
-    </row>
-    <row r="55" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" ref="C55:E55" si="143">+C39/C32</f>
+        <f t="shared" ref="C55:E55" si="150">+C39/C32</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="D55" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="143"/>
+        <f t="shared" si="150"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" ref="F55:I55" si="144">+F39/F32</f>
+        <f t="shared" ref="F55:I55" si="151">+F39/F32</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="151"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" ref="J55:L55" si="145">+J39/J32</f>
+        <f t="shared" ref="J55:L55" si="152">+J39/J32</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="152"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="152"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" ref="M55:P55" si="146">+M39/M32</f>
+        <f t="shared" ref="M55:P55" si="153">+M39/M32</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="153"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="153"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="153"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" ref="Q55:T55" si="147">+Q39/Q32</f>
+        <f t="shared" ref="Q55:T55" si="154">+Q39/Q32</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="T55" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="U55" s="10">
@@ -6322,23 +6599,23 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" ref="V55:Z55" si="148">+V39/V32</f>
+        <f t="shared" ref="V55:Z55" si="155">+V39/V32</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="X55" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.35194849839057468</v>
       </c>
       <c r="Y55" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="Z55" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>0.39030914213058771</v>
       </c>
       <c r="AA55" s="10">
@@ -6348,164 +6625,169 @@
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
-      <c r="AK55" s="10">
-        <f t="shared" ref="AK55:AW55" si="149">+AK39/AK32</f>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AP55" s="10">
+        <f t="shared" ref="AP55:BB55" si="156">+AP39/AP32</f>
         <v>0.44616569361366809</v>
       </c>
-      <c r="AL55" s="10">
-        <f t="shared" si="149"/>
+      <c r="AQ55" s="10">
+        <f t="shared" si="156"/>
         <v>0.41000325332050863</v>
       </c>
-      <c r="AM55" s="10">
-        <f t="shared" si="149"/>
+      <c r="AR55" s="10">
+        <f t="shared" si="156"/>
         <v>0.3800500203571221</v>
       </c>
-      <c r="AN55" s="10">
-        <f t="shared" si="149"/>
+      <c r="AS55" s="10">
+        <f t="shared" si="156"/>
         <v>0.39645040660058173</v>
       </c>
-      <c r="AO55" s="10">
-        <f t="shared" si="149"/>
+      <c r="AT55" s="10">
+        <f t="shared" si="156"/>
         <v>0.4149918959943058</v>
       </c>
-      <c r="AP55" s="10">
-        <f t="shared" si="149"/>
+      <c r="AU55" s="10">
+        <f t="shared" si="156"/>
         <v>0.48500203853196056</v>
       </c>
-      <c r="AQ55" s="10">
-        <f t="shared" si="149"/>
-        <v>0.54113522623374677</v>
-      </c>
-      <c r="AR55" s="10">
-        <f t="shared" si="149"/>
-        <v>0.57607592504900818</v>
-      </c>
-      <c r="AS55" s="10">
-        <f t="shared" si="149"/>
-        <v>0.59621383527450633</v>
-      </c>
-      <c r="AT55" s="10">
-        <f t="shared" si="149"/>
-        <v>0.61030353104811186</v>
-      </c>
-      <c r="AU55" s="10">
-        <f t="shared" si="149"/>
-        <v>0.62299044067687737</v>
-      </c>
       <c r="AV55" s="10">
-        <f t="shared" si="149"/>
-        <v>0.63444067721872754</v>
+        <f t="shared" si="156"/>
+        <v>0.55562009118541034</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" si="149"/>
-        <v>0.64479970657730268</v>
-      </c>
-      <c r="BA55" t="s">
+        <f t="shared" si="156"/>
+        <v>0.58867838905775083</v>
+      </c>
+      <c r="AX55" s="10">
+        <f t="shared" si="156"/>
+        <v>0.60773138620245015</v>
+      </c>
+      <c r="AY55" s="10">
+        <f t="shared" si="156"/>
+        <v>0.62106201139335393</v>
+      </c>
+      <c r="AZ55" s="10">
+        <f t="shared" si="156"/>
+        <v>0.63306542437042934</v>
+      </c>
+      <c r="BA55" s="10">
+        <f t="shared" si="156"/>
+        <v>0.64389878898945385</v>
+      </c>
+      <c r="BB55" s="10">
+        <f t="shared" si="156"/>
+        <v>0.65369973430009876</v>
+      </c>
+      <c r="BF55" t="s">
         <v>112</v>
       </c>
-      <c r="BB55" s="3">
-        <f>NPV(BB56,AP43:DA43)</f>
-        <v>963473.28822875605</v>
-      </c>
-    </row>
-    <row r="56" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BG55" s="3">
+        <f>NPV(BG56,AU43:DF43)</f>
+        <v>1030796.8647241037</v>
+      </c>
+    </row>
+    <row r="56" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="10">
-        <f t="shared" ref="C56:V56" si="150">+C42/C41</f>
+        <f t="shared" ref="C56:V56" si="157">+C42/C41</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="D56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="E56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="G56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="J56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="K56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="L56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="M56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="N56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="O56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="P56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="Q56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="R56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="S56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="T56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="U56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="V56" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="157"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" ref="W56:Z56" si="151">+W42/W41</f>
+        <f t="shared" ref="W56:Z56" si="158">+W42/W41</f>
         <v>0.19</v>
       </c>
       <c r="X56" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.13482038878437697</v>
       </c>
       <c r="Y56" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="Z56" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="158"/>
         <v>0.17357299798690146</v>
       </c>
       <c r="AA56" s="10">
@@ -6515,104 +6797,109 @@
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
-      <c r="AK56" s="19">
-        <f t="shared" ref="AK56:AW56" si="152">+AK42/AK41</f>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AP56" s="19">
+        <f t="shared" ref="AP56:BB56" si="159">+AP42/AP41</f>
         <v>0.12814952091794488</v>
       </c>
-      <c r="AL56" s="19">
-        <f t="shared" si="152"/>
+      <c r="AQ56" s="19">
+        <f t="shared" si="159"/>
         <v>0.21222997450690997</v>
       </c>
-      <c r="AM56" s="19">
-        <f t="shared" si="152"/>
+      <c r="AR56" s="19">
+        <f t="shared" si="159"/>
         <v>0.12157926461723931</v>
       </c>
-      <c r="AN56" s="19">
-        <f t="shared" si="152"/>
+      <c r="AS56" s="19">
+        <f t="shared" si="159"/>
         <v>0.16737162676592504</v>
       </c>
-      <c r="AO56" s="19">
-        <f t="shared" si="152"/>
+      <c r="AT56" s="19">
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
-      <c r="AP56" s="19">
-        <f t="shared" si="152"/>
+      <c r="AU56" s="19">
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
-      <c r="AQ56" s="19">
-        <f t="shared" si="152"/>
+      <c r="AV56" s="19">
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
-      <c r="AR56" s="19">
-        <f t="shared" si="152"/>
+      <c r="AW56" s="19">
+        <f t="shared" si="159"/>
+        <v>0.18</v>
+      </c>
+      <c r="AX56" s="19">
+        <f t="shared" si="159"/>
         <v>0.18000000000000002</v>
       </c>
-      <c r="AS56" s="19">
-        <f t="shared" si="152"/>
+      <c r="AY56" s="19">
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
-      <c r="AT56" s="19">
-        <f t="shared" si="152"/>
+      <c r="AZ56" s="19">
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
-      <c r="AU56" s="19">
-        <f t="shared" si="152"/>
+      <c r="BA56" s="19">
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
-      <c r="AV56" s="19">
-        <f t="shared" si="152"/>
+      <c r="BB56" s="19">
+        <f t="shared" si="159"/>
         <v>0.18</v>
       </c>
-      <c r="AW56" s="19">
-        <f t="shared" si="152"/>
-        <v>0.18</v>
-      </c>
-      <c r="BA56" s="3" t="s">
+      <c r="BF56" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="BB56" s="19">
+      <c r="BG56" s="19">
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:59" x14ac:dyDescent="0.2">
       <c r="S57" s="6"/>
-      <c r="BA57" t="s">
+      <c r="BF57" t="s">
         <v>114</v>
       </c>
-      <c r="BB57" s="19">
+      <c r="BG57" s="19">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>195</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" ref="Q58:S58" si="153">+Q59-Q73</f>
+        <f t="shared" ref="Q58:S58" si="160">+Q59-Q73</f>
         <v>64833</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>54773</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" si="153"/>
+        <f t="shared" si="160"/>
         <v>50665</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" ref="T58:Z58" si="154">+T59-T73</f>
+        <f t="shared" ref="T58:W58" si="161">+T59-T73</f>
         <v>47025</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>38382</v>
       </c>
       <c r="V58" s="6">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="W58" s="6">
-        <f t="shared" si="154"/>
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
       <c r="X58" s="6">
@@ -6634,14 +6921,19 @@
       <c r="AB58" s="6"/>
       <c r="AC58" s="6"/>
       <c r="AD58" s="6"/>
-      <c r="BA58" s="3" t="s">
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="6"/>
+      <c r="BF58" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="BB58" s="19">
+      <c r="BG58" s="19">
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
@@ -6700,55 +6992,60 @@
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
       <c r="AD59" s="6"/>
-      <c r="AN59" s="3">
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6"/>
+      <c r="AI59" s="6"/>
+      <c r="AS59" s="3">
         <f>+R59</f>
         <v>54773</v>
       </c>
-      <c r="AO59" s="3">
+      <c r="AT59" s="3">
         <f>+V59</f>
         <v>0</v>
       </c>
-      <c r="AP59" s="3">
-        <f t="shared" ref="AP59:AW59" si="155">+AO59+AP43</f>
+      <c r="AU59" s="3">
+        <f t="shared" ref="AU59:BB59" si="162">+AT59+AU43</f>
         <v>53650.353200000012</v>
       </c>
-      <c r="AQ59" s="3">
-        <f t="shared" si="155"/>
-        <v>123591.47343248004</v>
-      </c>
-      <c r="AR59" s="3">
-        <f t="shared" si="155"/>
-        <v>206490.91066077273</v>
-      </c>
-      <c r="AS59" s="3">
-        <f t="shared" si="155"/>
-        <v>297761.94340930943</v>
-      </c>
-      <c r="AT59" s="3">
-        <f t="shared" si="155"/>
-        <v>395305.54914860317</v>
-      </c>
-      <c r="AU59" s="3">
-        <f t="shared" si="155"/>
-        <v>499212.67597738572</v>
-      </c>
       <c r="AV59" s="3">
-        <f t="shared" si="155"/>
-        <v>609590.92527425138</v>
+        <f t="shared" si="162"/>
+        <v>129477.81309248002</v>
       </c>
       <c r="AW59" s="3">
-        <f t="shared" si="155"/>
-        <v>726563.72772397858</v>
-      </c>
-      <c r="BA59" s="3" t="s">
+        <f t="shared" si="162"/>
+        <v>218948.7599171967</v>
+      </c>
+      <c r="AX59" s="3">
+        <f t="shared" si="162"/>
+        <v>317222.82370083872</v>
+      </c>
+      <c r="AY59" s="3">
+        <f t="shared" si="162"/>
+        <v>422088.27185343252</v>
+      </c>
+      <c r="AZ59" s="3">
+        <f t="shared" si="162"/>
+        <v>533647.39983038884</v>
+      </c>
+      <c r="BA59" s="3">
+        <f t="shared" si="162"/>
+        <v>652019.52602913277</v>
+      </c>
+      <c r="BB59" s="3">
+        <f t="shared" si="162"/>
+        <v>777340.17938484973</v>
+      </c>
+      <c r="BF59" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="BB59" s="17">
-        <f>BB55/Main!M3</f>
-        <v>367.0374431347642</v>
-      </c>
-    </row>
-    <row r="60" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BG59" s="17">
+        <f>BG55/Main!M3</f>
+        <v>408.31933962191277</v>
+      </c>
+    </row>
+    <row r="60" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
@@ -6794,15 +7091,15 @@
       <c r="AA60" s="3">
         <v>13430</v>
       </c>
-      <c r="BA60" s="3" t="s">
+      <c r="BF60" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="BB60" s="19">
-        <f>BB59/Main!M2-1</f>
-        <v>-0.17147304032784605</v>
-      </c>
-    </row>
-    <row r="61" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BG60" s="19">
+        <f>BG59/Main!M2-1</f>
+        <v>-0.39864603884843475</v>
+      </c>
+    </row>
+    <row r="61" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>50</v>
       </c>
@@ -6849,7 +7146,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="62" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
@@ -6896,7 +7193,7 @@
         <v>98908</v>
       </c>
     </row>
-    <row r="63" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
@@ -6943,7 +7240,7 @@
         <v>13555</v>
       </c>
     </row>
-    <row r="64" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>54</v>
       </c>
@@ -6998,7 +7295,7 @@
         <v>20654</v>
       </c>
     </row>
-    <row r="65" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>55</v>
       </c>
@@ -7045,7 +7342,7 @@
         <v>8179</v>
       </c>
     </row>
-    <row r="66" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>53</v>
       </c>
@@ -7061,23 +7358,23 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6">
-        <f t="shared" ref="N66:O66" si="156">SUM(N59:N65)</f>
+        <f t="shared" ref="N66:O66" si="163">SUM(N59:N65)</f>
         <v>159316</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" si="156"/>
+        <f t="shared" si="163"/>
         <v>163523</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" ref="P66:Q66" si="157">SUM(P59:P65)</f>
+        <f t="shared" ref="P66:Q66" si="164">SUM(P59:P65)</f>
         <v>170609</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" si="157"/>
+        <f t="shared" si="164"/>
         <v>169585</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" ref="R66" si="158">SUM(R59:R65)</f>
+        <f t="shared" ref="R66" si="165">SUM(R59:R65)</f>
         <v>165987</v>
       </c>
       <c r="S66" s="6">
@@ -7093,34 +7390,34 @@
         <v>178894</v>
       </c>
       <c r="V66" s="6">
-        <f t="shared" ref="V66:AA66" si="159">SUM(V59:V65)</f>
+        <f t="shared" ref="V66:AA66" si="166">SUM(V59:V65)</f>
         <v>0</v>
       </c>
       <c r="W66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="Y66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="Z66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="AA66" s="6">
-        <f t="shared" si="159"/>
+        <f t="shared" si="166"/>
         <v>222844</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:35" x14ac:dyDescent="0.2">
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>56</v>
       </c>
@@ -7152,7 +7449,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>57</v>
       </c>
@@ -7184,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>58</v>
       </c>
@@ -7225,7 +7522,7 @@
         <v>19246</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>59</v>
       </c>
@@ -7257,7 +7554,7 @@
         <v>22640</v>
       </c>
     </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>60</v>
       </c>
@@ -7289,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -7314,8 +7611,13 @@
       <c r="AB73" s="6"/>
       <c r="AC73" s="6"/>
       <c r="AD73" s="6"/>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="6"/>
+    </row>
+    <row r="74" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -7348,7 +7650,7 @@
         <v>9257</v>
       </c>
     </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -7380,7 +7682,7 @@
         <v>75391</v>
       </c>
     </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>63</v>
       </c>
@@ -7412,7 +7714,7 @@
         <v>-2655</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>62</v>
       </c>
@@ -7444,84 +7746,84 @@
         <v>76793</v>
       </c>
     </row>
-    <row r="78" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>61</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" ref="N78:O78" si="160">SUM(N68:N77)</f>
+        <f t="shared" ref="N78:O78" si="167">SUM(N68:N77)</f>
         <v>159316</v>
       </c>
       <c r="O78" s="6">
-        <f t="shared" si="160"/>
+        <f t="shared" si="167"/>
         <v>163523</v>
       </c>
       <c r="P78" s="6">
-        <f t="shared" ref="P78:Q78" si="161">SUM(P68:P77)</f>
+        <f t="shared" ref="P78:Q78" si="168">SUM(P68:P77)</f>
         <v>170609</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="161"/>
+        <f t="shared" si="168"/>
         <v>169585</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:U78" si="162">SUM(R68:R77)</f>
+        <f t="shared" ref="R78:U78" si="169">SUM(R68:R77)</f>
         <v>165987</v>
       </c>
       <c r="S78" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>164218</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>169779</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="169"/>
         <v>178894</v>
       </c>
       <c r="AA78" s="6">
-        <f t="shared" ref="AA78" si="163">SUM(AA68:AA77)</f>
+        <f t="shared" ref="AA78" si="170">SUM(AA68:AA77)</f>
         <v>222844</v>
       </c>
     </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
       <c r="S79" s="6"/>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="O80" s="6">
-        <f t="shared" ref="O80:U80" si="164">O43</f>
+        <f t="shared" ref="O80:U80" si="171">O43</f>
         <v>9497</v>
       </c>
       <c r="P80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>10394</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>9194</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>10285</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>7465</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>6687</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="171"/>
         <v>4395</v>
       </c>
       <c r="AA80" s="6">
-        <f t="shared" ref="AA80" si="165">AA43</f>
+        <f t="shared" ref="AA80" si="172">AA43</f>
         <v>12369</v>
       </c>
     </row>
@@ -7728,31 +8030,31 @@
         <v>68</v>
       </c>
       <c r="O87" s="6">
-        <f t="shared" ref="O87:U87" si="166">SUM(O81:O86)</f>
+        <f t="shared" ref="O87:U87" si="173">SUM(O81:O86)</f>
         <v>12242</v>
       </c>
       <c r="P87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>13247</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>14090</v>
       </c>
       <c r="R87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>18104</v>
       </c>
       <c r="S87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>14076</v>
       </c>
       <c r="T87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>12197</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="173"/>
         <v>9691</v>
       </c>
       <c r="AA87" s="3">
@@ -7932,31 +8234,31 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6">
-        <f t="shared" ref="O92:U92" si="167">SUM(O89:O91)</f>
+        <f t="shared" ref="O92:U92" si="174">SUM(O89:O91)</f>
         <v>-4874</v>
       </c>
       <c r="P92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>-8195</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>-330</v>
       </c>
       <c r="R92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>5829</v>
       </c>
       <c r="S92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>-4779</v>
       </c>
       <c r="T92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>-6959</v>
       </c>
       <c r="U92" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="174"/>
         <v>-9701</v>
       </c>
       <c r="V92" s="6"/>
@@ -8089,38 +8391,38 @@
         <v>-15008</v>
       </c>
     </row>
-    <row r="96" spans="2:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="23" t="s">
+    <row r="96" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="24"/>
-      <c r="T96" s="24"/>
-      <c r="U96" s="24"/>
-      <c r="V96" s="24"/>
-      <c r="W96" s="24"/>
-      <c r="X96" s="24"/>
-      <c r="Y96" s="24"/>
-      <c r="AA96" s="23">
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="AA96" s="3">
         <v>-1273</v>
       </c>
     </row>
-    <row r="97" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -8158,7 +8460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>55</v>
       </c>
@@ -8210,7 +8512,7 @@
         <v>-324</v>
       </c>
     </row>
-    <row r="99" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>79</v>
       </c>
@@ -8227,19 +8529,19 @@
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6">
-        <f t="shared" ref="O99:Q99" si="168">SUM(O94:O98)</f>
+        <f t="shared" ref="O99:Q99" si="175">SUM(O94:O98)</f>
         <v>-5185</v>
       </c>
       <c r="P99" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>-8549</v>
       </c>
       <c r="Q99" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="175"/>
         <v>-15252</v>
       </c>
       <c r="R99" s="6">
-        <f t="shared" ref="R99" si="169">SUM(R94:R98)</f>
+        <f t="shared" ref="R99" si="176">SUM(R94:R98)</f>
         <v>-21742</v>
       </c>
       <c r="S99" s="6">
@@ -8263,7 +8565,7 @@
         <v>-19767</v>
       </c>
     </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -8295,36 +8597,36 @@
         <v>-288</v>
       </c>
     </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>81</v>
       </c>
       <c r="O101" s="6">
-        <f t="shared" ref="O101:U101" si="170">+O100+O99+O92+O87</f>
+        <f t="shared" ref="O101:U101" si="177">+O100+O99+O92+O87</f>
         <v>1937</v>
       </c>
       <c r="P101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>-3380</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>-1707</v>
       </c>
       <c r="R101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>2061</v>
       </c>
       <c r="S101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>-1512</v>
       </c>
       <c r="T101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>-1875</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="177"/>
         <v>1773</v>
       </c>
       <c r="AA101" s="3">
@@ -8332,10 +8634,10 @@
         <v>-9543</v>
       </c>
     </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:29" x14ac:dyDescent="0.2">
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
@@ -8388,53 +8690,56 @@
       <c r="AA103" s="3">
         <v>69329</v>
       </c>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC103" s="3">
+        <v>72404</v>
+      </c>
+    </row>
+    <row r="104" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>199</v>
       </c>
       <c r="S104" s="6">
-        <f t="shared" ref="S104:AA104" si="171">+S103-R103</f>
+        <f t="shared" ref="S104:AA104" si="178">+S103-R103</f>
         <v>5835</v>
       </c>
       <c r="T104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="178"/>
         <v>5748</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="178"/>
         <v>3761</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="178"/>
         <v>-1314</v>
       </c>
       <c r="W104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="178"/>
         <v>-8886</v>
       </c>
       <c r="X104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="178"/>
         <v>-5645</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="178"/>
         <v>-5284</v>
       </c>
       <c r="Z104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="178"/>
         <v>1132</v>
       </c>
       <c r="AA104" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="178"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:29" x14ac:dyDescent="0.2">
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>126</v>
       </c>
@@ -8443,19 +8748,19 @@
         <v>7970</v>
       </c>
       <c r="P106" s="6">
-        <f t="shared" ref="P106:S106" si="172">+P87+P89</f>
+        <f t="shared" ref="P106:S106" si="179">+P87+P89</f>
         <v>8635</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="179"/>
         <v>9776</v>
       </c>
       <c r="R106" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="179"/>
         <v>12734</v>
       </c>
       <c r="S106" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="179"/>
         <v>8761</v>
       </c>
       <c r="T106" s="6">
@@ -8467,16 +8772,16 @@
         <v>336</v>
       </c>
     </row>
-    <row r="107" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>127</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" ref="R107:S107" si="173">SUM(O106:R106)</f>
+        <f t="shared" ref="R107:S107" si="180">SUM(O106:R106)</f>
         <v>39115</v>
       </c>
       <c r="S107" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="180"/>
         <v>39906</v>
       </c>
       <c r="T107" s="6">
@@ -8488,7 +8793,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="109" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="3" t="s">
         <v>194</v>
       </c>
@@ -8520,7 +8825,7 @@
       <c r="X109" s="6"/>
       <c r="Y109" s="6"/>
     </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
         <v>197</v>
       </c>
@@ -8542,7 +8847,7 @@
         <v>-0.14600231749710313</v>
       </c>
     </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
         <v>198</v>
       </c>

--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEF861C8-B166-4A55-9DAA-33C580681F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039E7568-F85F-4901-94F0-4B62BCE623C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40125" yWindow="645" windowWidth="31125" windowHeight="18180" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="9050" yWindow="4000" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -782,7 +782,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -816,12 +816,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1364,18 +1358,18 @@
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1377,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -1401,7 +1395,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -1416,7 +1410,7 @@
         <v>1714126.673</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>125</v>
       </c>
@@ -1431,7 +1425,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -1445,7 +1439,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>6</v>
       </c>
@@ -1454,17 +1448,17 @@
         <v>1665978.673</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -1475,7 +1469,7 @@
         <v>1865.970703</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>91</v>
       </c>
@@ -1483,22 +1477,22 @@
         <v>366.55794300000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -1506,7 +1500,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>102</v>
       </c>
@@ -1514,22 +1508,22 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -1544,26 +1538,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
   <dimension ref="A1:DF115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AH33" sqref="AH33"/>
+      <selection pane="bottomRight" activeCell="AA89" sqref="AA89:AD89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="25" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="25" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
@@ -1731,7 +1725,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1800,7 +1794,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="4" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1863,7 +1857,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1932,7 +1926,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -1982,7 +1976,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>204</v>
       </c>
@@ -2043,7 +2037,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2112,7 +2106,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>101</v>
       </c>
@@ -2162,7 +2156,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2187,7 +2181,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2254,7 +2248,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
@@ -2318,7 +2312,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
@@ -2370,7 +2364,7 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
@@ -2437,7 +2431,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
@@ -2504,7 +2498,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
@@ -2568,7 +2562,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="2:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:54" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
@@ -2620,7 +2614,7 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2645,7 +2639,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>210</v>
       </c>
@@ -2693,7 +2687,7 @@
         <v>15451</v>
       </c>
     </row>
-    <row r="20" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>211</v>
       </c>
@@ -2741,7 +2735,7 @@
         <v>8327</v>
       </c>
     </row>
-    <row r="21" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>212</v>
       </c>
@@ -2789,7 +2783,7 @@
         <v>7338</v>
       </c>
     </row>
-    <row r="22" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>213</v>
       </c>
@@ -2837,7 +2831,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="23" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2862,7 +2856,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="24" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>214</v>
       </c>
@@ -2911,7 +2905,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="25" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>107</v>
       </c>
@@ -2960,7 +2954,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="26" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
@@ -3009,7 +3003,7 @@
         <v>8404</v>
       </c>
     </row>
-    <row r="27" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
@@ -3058,7 +3052,7 @@
         <v>13646</v>
       </c>
     </row>
-    <row r="28" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3083,7 +3077,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -3177,7 +3171,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="30" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
@@ -3250,7 +3244,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="31" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
@@ -3382,7 +3376,7 @@
         <v>114934</v>
       </c>
     </row>
-    <row r="32" spans="2:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:54" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
@@ -3580,7 +3574,7 @@
         <v>213843.86012797506</v>
       </c>
     </row>
-    <row r="33" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -3723,7 +3717,7 @@
         <v>40630.333424315264</v>
       </c>
     </row>
-    <row r="34" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
@@ -3897,7 +3891,7 @@
         <v>173213.52670365979</v>
       </c>
     </row>
-    <row r="35" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -4040,7 +4034,7 @@
         <v>9551.8521562949991</v>
       </c>
     </row>
-    <row r="36" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
@@ -4183,7 +4177,7 @@
         <v>14043</v>
       </c>
     </row>
-    <row r="37" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
@@ -4330,7 +4324,7 @@
         <v>9829</v>
       </c>
     </row>
-    <row r="38" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
@@ -4504,7 +4498,7 @@
         <v>33423.852156294997</v>
       </c>
     </row>
-    <row r="39" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
@@ -4678,7 +4672,7 @@
         <v>139789.67454736479</v>
       </c>
     </row>
-    <row r="40" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
@@ -4817,7 +4811,7 @@
         <v>13040.390520582656</v>
       </c>
     </row>
-    <row r="41" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
@@ -4991,7 +4985,7 @@
         <v>152830.06506794743</v>
       </c>
     </row>
-    <row r="42" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
@@ -5136,7 +5130,7 @@
         <v>27509.411712230536</v>
       </c>
     </row>
-    <row r="43" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
@@ -5534,7 +5528,7 @@
         <v>7088.3400943962824</v>
       </c>
     </row>
-    <row r="44" spans="2:110" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
@@ -5708,7 +5702,7 @@
         <v>46.492544372367611</v>
       </c>
     </row>
-    <row r="45" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
@@ -5855,10 +5849,10 @@
         <v>2695.5</v>
       </c>
     </row>
-    <row r="46" spans="2:110" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:110" x14ac:dyDescent="0.25">
       <c r="S46" s="6"/>
     </row>
-    <row r="47" spans="2:110" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:110" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
@@ -5947,56 +5941,56 @@
         <v>0.24703870666873939</v>
       </c>
       <c r="AA47" s="11">
-        <f>+AA32/W32-1</f>
+        <f t="shared" ref="AA47:AH47" si="139">+AA32/W32-1</f>
         <v>0.27264793157619138</v>
       </c>
       <c r="AB47" s="11">
-        <f>+AB32/X32-1</f>
+        <f t="shared" si="139"/>
         <v>0.2210069064658271</v>
       </c>
       <c r="AC47" s="11">
-        <f>+AC32/Y32-1</f>
+        <f t="shared" si="139"/>
         <v>0.18868974404029748</v>
       </c>
       <c r="AD47" s="11">
-        <f>+AD32/Z32-1</f>
+        <f t="shared" si="139"/>
         <v>0.20627757971628724</v>
       </c>
       <c r="AE47" s="11">
-        <f>+AE32/AA32-1</f>
+        <f t="shared" si="139"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AF47" s="11">
-        <f>+AF32/AB32-1</f>
+        <f t="shared" si="139"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AG47" s="11">
-        <f>+AG32/AC32-1</f>
+        <f t="shared" si="139"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AH47" s="11">
-        <f>+AH32/AD32-1</f>
+        <f t="shared" si="139"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AI47" s="11"/>
       <c r="AL47" s="18">
-        <f t="shared" ref="AL47:AP47" si="139">+AL32/AK32-1</f>
+        <f t="shared" ref="AL47:AP47" si="140">+AL32/AK32-1</f>
         <v>0.58358739837398366</v>
       </c>
       <c r="AM47" s="18">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.43815177282207607</v>
       </c>
       <c r="AN47" s="18">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.54161088799643009</v>
       </c>
       <c r="AO47" s="18">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.47090961719371882</v>
       </c>
       <c r="AP47" s="18">
-        <f t="shared" si="139"/>
+        <f t="shared" si="140"/>
         <v>0.37352716896661997</v>
       </c>
       <c r="AQ47" s="18">
@@ -6016,39 +6010,39 @@
         <v>-1.1193175554782941E-2</v>
       </c>
       <c r="AU47" s="18">
-        <f t="shared" ref="AU47:BB47" si="140">+AU32/AT32-1</f>
+        <f t="shared" ref="AU47:BB47" si="141">+AU32/AT32-1</f>
         <v>0.15686610810486323</v>
       </c>
       <c r="AV47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.21941275453851339</v>
       </c>
       <c r="AW47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AX47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AY47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AZ47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BA47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BB47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="141"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:110" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:110" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
@@ -6069,15 +6063,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="P48" s="11">
-        <f t="shared" ref="P48:R48" si="141">+P27/L27-1</f>
+        <f t="shared" ref="P48:R48" si="142">+P27/L27-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="R48" s="11">
-        <f t="shared" si="141"/>
+        <f t="shared" si="142"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="S48" s="11">
@@ -6089,7 +6083,7 @@
         <v>-1</v>
       </c>
       <c r="U48" s="11">
-        <f t="shared" ref="U48" si="142">+U27/Q27-1</f>
+        <f t="shared" ref="U48" si="143">+U27/Q27-1</f>
         <v>-1</v>
       </c>
       <c r="V48" s="11"/>
@@ -6097,7 +6091,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
@@ -6131,7 +6125,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
     </row>
-    <row r="50" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
@@ -6167,7 +6161,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
     </row>
-    <row r="51" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
@@ -6187,43 +6181,43 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10">
-        <f t="shared" ref="R51" si="143">+R30/N30-1</f>
+        <f t="shared" ref="R51" si="144">+R30/N30-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" ref="S51:AA51" si="144">+S30/O30-1</f>
+        <f t="shared" ref="S51:AA51" si="145">+S30/O30-1</f>
         <v>0.30149812734082393</v>
       </c>
       <c r="T51" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.4819672131147541</v>
       </c>
       <c r="U51" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-0.489247311827957</v>
       </c>
       <c r="V51" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-0.17103762827822122</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-0.51223021582733819</v>
       </c>
       <c r="X51" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-0.38938053097345138</v>
       </c>
       <c r="Y51" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-0.26315789473684215</v>
       </c>
       <c r="Z51" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.47317744154057761</v>
       </c>
       <c r="AA51" s="10">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0.29793510324483785</v>
       </c>
       <c r="AB51" s="10"/>
@@ -6235,7 +6229,7 @@
       <c r="AH51" s="10"/>
       <c r="AI51" s="10"/>
       <c r="AR51" s="19">
-        <f t="shared" ref="AR51" si="145">AR30/AQ30-1</f>
+        <f t="shared" ref="AR51" si="146">AR30/AQ30-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="AS51" s="19">
@@ -6247,7 +6241,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>200</v>
       </c>
@@ -6266,19 +6260,19 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52:T52" si="146">+Q38/M38-1</f>
+        <f t="shared" ref="Q52:T52" si="147">+Q38/M38-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="R52" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="T52" s="10">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="U52" s="10">
@@ -6286,23 +6280,23 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" ref="V52:Z52" si="147">+V38/R38-1</f>
+        <f t="shared" ref="V52:Z52" si="148">+V38/R38-1</f>
         <v>0.18265707694395439</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="X52" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-3.1430068098480923E-2</v>
       </c>
       <c r="Y52" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-0.13138239255540585</v>
       </c>
       <c r="Z52" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="148"/>
         <v>-8.0206540447504304E-2</v>
       </c>
       <c r="AA52" s="10">
@@ -6318,7 +6312,7 @@
       <c r="AH52" s="10"/>
       <c r="AI52" s="10"/>
     </row>
-    <row r="53" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -6353,104 +6347,104 @@
       <c r="AH53" s="10"/>
       <c r="AI53" s="10"/>
     </row>
-    <row r="54" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="10">
-        <f t="shared" ref="C54:Z54" si="148">+C34/C32</f>
+        <f t="shared" ref="C54:Z54" si="149">+C34/C32</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="D54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="P54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="Q54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="R54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="S54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="T54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="U54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="X54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="Y54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="Z54" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.79</v>
       </c>
       <c r="AA54" s="10">
@@ -6466,132 +6460,132 @@
       <c r="AH54" s="10"/>
       <c r="AI54" s="10"/>
       <c r="AP54" s="19">
-        <f t="shared" ref="AP54:BB54" si="149">+AP34/AP32</f>
+        <f t="shared" ref="AP54:BB54" si="150">+AP34/AP32</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="AQ54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="AR54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="AS54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="AT54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.81</v>
       </c>
       <c r="AU54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.81</v>
       </c>
       <c r="AV54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.81</v>
       </c>
       <c r="AW54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.81</v>
       </c>
       <c r="AX54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.81</v>
       </c>
       <c r="AY54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.81000000000000016</v>
       </c>
       <c r="AZ54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.81</v>
       </c>
       <c r="BA54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.81</v>
       </c>
       <c r="BB54" s="19">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="55" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" ref="C55:E55" si="150">+C39/C32</f>
+        <f t="shared" ref="C55:E55" si="151">+C39/C32</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="D55" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" ref="F55:I55" si="151">+F39/F32</f>
+        <f t="shared" ref="F55:I55" si="152">+F39/F32</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" ref="J55:L55" si="152">+J39/J32</f>
+        <f t="shared" ref="J55:L55" si="153">+J39/J32</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" ref="M55:P55" si="153">+M39/M32</f>
+        <f t="shared" ref="M55:P55" si="154">+M39/M32</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" ref="Q55:T55" si="154">+Q39/Q32</f>
+        <f t="shared" ref="Q55:T55" si="155">+Q39/Q32</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="T55" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="U55" s="10">
@@ -6599,23 +6593,23 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" ref="V55:Z55" si="155">+V39/V32</f>
+        <f t="shared" ref="V55:Z55" si="156">+V39/V32</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="X55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.35194849839057468</v>
       </c>
       <c r="Y55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="Z55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.39030914213058771</v>
       </c>
       <c r="AA55" s="10">
@@ -6631,55 +6625,55 @@
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
       <c r="AP55" s="10">
-        <f t="shared" ref="AP55:BB55" si="156">+AP39/AP32</f>
+        <f t="shared" ref="AP55:BB55" si="157">+AP39/AP32</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="AQ55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.41000325332050863</v>
       </c>
       <c r="AR55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="AS55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="AT55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.4149918959943058</v>
       </c>
       <c r="AU55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.48500203853196056</v>
       </c>
       <c r="AV55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.55562009118541034</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.58867838905775083</v>
       </c>
       <c r="AX55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.60773138620245015</v>
       </c>
       <c r="AY55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.62106201139335393</v>
       </c>
       <c r="AZ55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.63306542437042934</v>
       </c>
       <c r="BA55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.64389878898945385</v>
       </c>
       <c r="BB55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.65369973430009876</v>
       </c>
       <c r="BF55" t="s">
@@ -6690,104 +6684,104 @@
         <v>1030796.8647241037</v>
       </c>
     </row>
-    <row r="56" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="10">
-        <f t="shared" ref="C56:V56" si="157">+C42/C41</f>
+        <f t="shared" ref="C56:V56" si="158">+C42/C41</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="D56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="E56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="G56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="J56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="K56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="L56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="M56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="N56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="O56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="P56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="Q56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="R56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="S56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="T56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="U56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="V56" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" ref="W56:Z56" si="158">+W42/W41</f>
+        <f t="shared" ref="W56:Z56" si="159">+W42/W41</f>
         <v>0.19</v>
       </c>
       <c r="X56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.13482038878437697</v>
       </c>
       <c r="Y56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="Z56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.17357299798690146</v>
       </c>
       <c r="AA56" s="10">
@@ -6803,55 +6797,55 @@
       <c r="AH56" s="10"/>
       <c r="AI56" s="10"/>
       <c r="AP56" s="19">
-        <f t="shared" ref="AP56:BB56" si="159">+AP42/AP41</f>
+        <f t="shared" ref="AP56:BB56" si="160">+AP42/AP41</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="AQ56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="AR56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="AS56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="AT56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.18</v>
       </c>
       <c r="AU56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.18</v>
       </c>
       <c r="AV56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.18</v>
       </c>
       <c r="AW56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.18</v>
       </c>
       <c r="AX56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="AY56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.18</v>
       </c>
       <c r="AZ56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.18</v>
       </c>
       <c r="BA56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.18</v>
       </c>
       <c r="BB56" s="19">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.18</v>
       </c>
       <c r="BF56" s="3" t="s">
@@ -6861,7 +6855,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:59" x14ac:dyDescent="0.25">
       <c r="S57" s="6"/>
       <c r="BF57" t="s">
         <v>114</v>
@@ -6870,36 +6864,36 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="58" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>195</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" ref="Q58:S58" si="160">+Q59-Q73</f>
+        <f t="shared" ref="Q58:S58" si="161">+Q59-Q73</f>
         <v>64833</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>54773</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" si="160"/>
+        <f t="shared" si="161"/>
         <v>50665</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" ref="T58:W58" si="161">+T59-T73</f>
+        <f t="shared" ref="T58:W58" si="162">+T59-T73</f>
         <v>47025</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>38382</v>
       </c>
       <c r="V58" s="6">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="W58" s="6">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0</v>
       </c>
       <c r="X58" s="6">
@@ -6933,7 +6927,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
@@ -7006,35 +7000,35 @@
         <v>0</v>
       </c>
       <c r="AU59" s="3">
-        <f t="shared" ref="AU59:BB59" si="162">+AT59+AU43</f>
+        <f t="shared" ref="AU59:BB59" si="163">+AT59+AU43</f>
         <v>53650.353200000012</v>
       </c>
       <c r="AV59" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>129477.81309248002</v>
       </c>
       <c r="AW59" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>218948.7599171967</v>
       </c>
       <c r="AX59" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>317222.82370083872</v>
       </c>
       <c r="AY59" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>422088.27185343252</v>
       </c>
       <c r="AZ59" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>533647.39983038884</v>
       </c>
       <c r="BA59" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>652019.52602913277</v>
       </c>
       <c r="BB59" s="3">
-        <f t="shared" si="162"/>
+        <f t="shared" si="163"/>
         <v>777340.17938484973</v>
       </c>
       <c r="BF59" s="3" t="s">
@@ -7045,7 +7039,7 @@
         <v>408.31933962191277</v>
       </c>
     </row>
-    <row r="60" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
@@ -7099,7 +7093,7 @@
         <v>-0.39864603884843475</v>
       </c>
     </row>
-    <row r="61" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>50</v>
       </c>
@@ -7146,7 +7140,7 @@
         <v>3780</v>
       </c>
     </row>
-    <row r="62" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
@@ -7193,7 +7187,7 @@
         <v>98908</v>
       </c>
     </row>
-    <row r="63" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
@@ -7240,7 +7234,7 @@
         <v>13555</v>
       </c>
     </row>
-    <row r="64" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>54</v>
       </c>
@@ -7295,7 +7289,7 @@
         <v>20654</v>
       </c>
     </row>
-    <row r="65" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>55</v>
       </c>
@@ -7342,7 +7336,7 @@
         <v>8179</v>
       </c>
     </row>
-    <row r="66" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>53</v>
       </c>
@@ -7358,23 +7352,23 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6">
-        <f t="shared" ref="N66:O66" si="163">SUM(N59:N65)</f>
+        <f t="shared" ref="N66:O66" si="164">SUM(N59:N65)</f>
         <v>159316</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" si="163"/>
+        <f t="shared" si="164"/>
         <v>163523</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" ref="P66:Q66" si="164">SUM(P59:P65)</f>
+        <f t="shared" ref="P66:Q66" si="165">SUM(P59:P65)</f>
         <v>170609</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="165"/>
         <v>169585</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" ref="R66" si="165">SUM(R59:R65)</f>
+        <f t="shared" ref="R66" si="166">SUM(R59:R65)</f>
         <v>165987</v>
       </c>
       <c r="S66" s="6">
@@ -7390,34 +7384,34 @@
         <v>178894</v>
       </c>
       <c r="V66" s="6">
-        <f t="shared" ref="V66:AA66" si="166">SUM(V59:V65)</f>
+        <f t="shared" ref="V66:AA66" si="167">SUM(V59:V65)</f>
         <v>0</v>
       </c>
       <c r="W66" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Y66" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="Z66" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>0</v>
       </c>
       <c r="AA66" s="6">
-        <f t="shared" si="166"/>
+        <f t="shared" si="167"/>
         <v>222844</v>
       </c>
     </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>56</v>
       </c>
@@ -7449,7 +7443,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>57</v>
       </c>
@@ -7481,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>58</v>
       </c>
@@ -7522,7 +7516,7 @@
         <v>19246</v>
       </c>
     </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>59</v>
       </c>
@@ -7554,7 +7548,7 @@
         <v>22640</v>
       </c>
     </row>
-    <row r="72" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>60</v>
       </c>
@@ -7586,7 +7580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -7617,7 +7611,7 @@
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
     </row>
-    <row r="74" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -7650,7 +7644,7 @@
         <v>9257</v>
       </c>
     </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -7682,7 +7676,7 @@
         <v>75391</v>
       </c>
     </row>
-    <row r="76" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>63</v>
       </c>
@@ -7714,7 +7708,7 @@
         <v>-2655</v>
       </c>
     </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>62</v>
       </c>
@@ -7746,88 +7740,88 @@
         <v>76793</v>
       </c>
     </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>61</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" ref="N78:O78" si="167">SUM(N68:N77)</f>
+        <f t="shared" ref="N78:O78" si="168">SUM(N68:N77)</f>
         <v>159316</v>
       </c>
       <c r="O78" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="168"/>
         <v>163523</v>
       </c>
       <c r="P78" s="6">
-        <f t="shared" ref="P78:Q78" si="168">SUM(P68:P77)</f>
+        <f t="shared" ref="P78:Q78" si="169">SUM(P68:P77)</f>
         <v>170609</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="169"/>
         <v>169585</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:U78" si="169">SUM(R68:R77)</f>
+        <f t="shared" ref="R78:U78" si="170">SUM(R68:R77)</f>
         <v>165987</v>
       </c>
       <c r="S78" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>164218</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>169779</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="170"/>
         <v>178894</v>
       </c>
       <c r="AA78" s="6">
-        <f t="shared" ref="AA78" si="170">SUM(AA68:AA77)</f>
+        <f t="shared" ref="AA78" si="171">SUM(AA68:AA77)</f>
         <v>222844</v>
       </c>
     </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
       <c r="S79" s="6"/>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="O80" s="6">
-        <f t="shared" ref="O80:U80" si="171">O43</f>
+        <f t="shared" ref="O80:U80" si="172">O43</f>
         <v>9497</v>
       </c>
       <c r="P80" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>10394</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>9194</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>10285</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>7465</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>6687</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>4395</v>
       </c>
       <c r="AA80" s="6">
-        <f t="shared" ref="AA80" si="172">AA43</f>
+        <f t="shared" ref="AA80" si="173">AA43</f>
         <v>12369</v>
       </c>
     </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>67</v>
       </c>
@@ -7859,7 +7853,7 @@
         <v>12369</v>
       </c>
     </row>
-    <row r="82" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>69</v>
       </c>
@@ -7891,7 +7885,7 @@
         <v>3374</v>
       </c>
     </row>
-    <row r="83" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>70</v>
       </c>
@@ -7923,7 +7917,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>71</v>
       </c>
@@ -7955,7 +7949,7 @@
         <v>-456</v>
       </c>
     </row>
-    <row r="85" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>55</v>
       </c>
@@ -7988,7 +7982,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>72</v>
       </c>
@@ -8025,36 +8019,36 @@
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>68</v>
       </c>
       <c r="O87" s="6">
-        <f t="shared" ref="O87:U87" si="173">SUM(O81:O86)</f>
+        <f t="shared" ref="O87:U87" si="174">SUM(O81:O86)</f>
         <v>12242</v>
       </c>
       <c r="P87" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>13247</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>14090</v>
       </c>
       <c r="R87" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>18104</v>
       </c>
       <c r="S87" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>14076</v>
       </c>
       <c r="T87" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>12197</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="174"/>
         <v>9691</v>
       </c>
       <c r="AA87" s="3">
@@ -8062,11 +8056,11 @@
         <v>19246</v>
       </c>
     </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
     </row>
-    <row r="89" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>73</v>
       </c>
@@ -8109,14 +8103,32 @@
         <v>-9355</v>
       </c>
       <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
+      <c r="W89" s="6">
+        <v>-6823</v>
+      </c>
+      <c r="X89" s="6">
+        <v>-6134</v>
+      </c>
+      <c r="Y89" s="6">
+        <v>-6496</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>-7592</v>
+      </c>
       <c r="AA89" s="3">
         <v>-6400</v>
       </c>
-    </row>
-    <row r="90" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-8173</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-8258</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>-14425</v>
+      </c>
+    </row>
+    <row r="90" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
@@ -8169,7 +8181,7 @@
         <v>-2334</v>
       </c>
     </row>
-    <row r="91" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
@@ -8217,7 +8229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
@@ -8234,31 +8246,31 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6">
-        <f t="shared" ref="O92:U92" si="174">SUM(O89:O91)</f>
+        <f t="shared" ref="O92:U92" si="175">SUM(O89:O91)</f>
         <v>-4874</v>
       </c>
       <c r="P92" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>-8195</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>-330</v>
       </c>
       <c r="R92" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>5829</v>
       </c>
       <c r="S92" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>-4779</v>
       </c>
       <c r="T92" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>-6959</v>
       </c>
       <c r="U92" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="175"/>
         <v>-9701</v>
       </c>
       <c r="V92" s="6"/>
@@ -8270,7 +8282,7 @@
         <v>-8734</v>
       </c>
     </row>
-    <row r="93" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -8295,7 +8307,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
     </row>
-    <row r="94" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
@@ -8343,7 +8355,7 @@
         <v>-3162</v>
       </c>
     </row>
-    <row r="95" spans="2:27" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:30" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B95" s="7" t="s">
         <v>78</v>
       </c>
@@ -8391,7 +8403,7 @@
         <v>-15008</v>
       </c>
     </row>
-    <row r="96" spans="2:27" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>209</v>
       </c>
@@ -8422,7 +8434,7 @@
         <v>-1273</v>
       </c>
     </row>
-    <row r="97" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -8460,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>55</v>
       </c>
@@ -8512,7 +8524,7 @@
         <v>-324</v>
       </c>
     </row>
-    <row r="99" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>79</v>
       </c>
@@ -8529,19 +8541,19 @@
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6">
-        <f t="shared" ref="O99:Q99" si="175">SUM(O94:O98)</f>
+        <f t="shared" ref="O99:Q99" si="176">SUM(O94:O98)</f>
         <v>-5185</v>
       </c>
       <c r="P99" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-8549</v>
       </c>
       <c r="Q99" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="176"/>
         <v>-15252</v>
       </c>
       <c r="R99" s="6">
-        <f t="shared" ref="R99" si="176">SUM(R94:R98)</f>
+        <f t="shared" ref="R99" si="177">SUM(R94:R98)</f>
         <v>-21742</v>
       </c>
       <c r="S99" s="6">
@@ -8565,7 +8577,7 @@
         <v>-19767</v>
       </c>
     </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -8597,36 +8609,36 @@
         <v>-288</v>
       </c>
     </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>81</v>
       </c>
       <c r="O101" s="6">
-        <f t="shared" ref="O101:U101" si="177">+O100+O99+O92+O87</f>
+        <f t="shared" ref="O101:U101" si="178">+O100+O99+O92+O87</f>
         <v>1937</v>
       </c>
       <c r="P101" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>-3380</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>-1707</v>
       </c>
       <c r="R101" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>2061</v>
       </c>
       <c r="S101" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>-1512</v>
       </c>
       <c r="T101" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>-1875</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>1773</v>
       </c>
       <c r="AA101" s="3">
@@ -8634,10 +8646,10 @@
         <v>-9543</v>
       </c>
     </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
@@ -8694,52 +8706,52 @@
         <v>72404</v>
       </c>
     </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>199</v>
       </c>
       <c r="S104" s="6">
-        <f t="shared" ref="S104:AA104" si="178">+S103-R103</f>
+        <f t="shared" ref="S104:AA104" si="179">+S103-R103</f>
         <v>5835</v>
       </c>
       <c r="T104" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>5748</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>3761</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>-1314</v>
       </c>
       <c r="W104" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>-8886</v>
       </c>
       <c r="X104" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>-5645</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>-5284</v>
       </c>
       <c r="Z104" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>1132</v>
       </c>
       <c r="AA104" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>2012</v>
       </c>
     </row>
-    <row r="105" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:29" x14ac:dyDescent="0.25">
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>126</v>
       </c>
@@ -8748,19 +8760,19 @@
         <v>7970</v>
       </c>
       <c r="P106" s="6">
-        <f t="shared" ref="P106:S106" si="179">+P87+P89</f>
+        <f t="shared" ref="P106:S106" si="180">+P87+P89</f>
         <v>8635</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>9776</v>
       </c>
       <c r="R106" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>12734</v>
       </c>
       <c r="S106" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="180"/>
         <v>8761</v>
       </c>
       <c r="T106" s="6">
@@ -8772,16 +8784,16 @@
         <v>336</v>
       </c>
     </row>
-    <row r="107" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>127</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" ref="R107:S107" si="180">SUM(O106:R106)</f>
+        <f t="shared" ref="R107:S107" si="181">SUM(O106:R106)</f>
         <v>39115</v>
       </c>
       <c r="S107" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>39906</v>
       </c>
       <c r="T107" s="6">
@@ -8793,7 +8805,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="109" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="3" t="s">
         <v>194</v>
       </c>
@@ -8825,7 +8837,7 @@
       <c r="X109" s="6"/>
       <c r="Y109" s="6"/>
     </row>
-    <row r="110" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>197</v>
       </c>
@@ -8847,7 +8859,7 @@
         <v>-0.14600231749710313</v>
       </c>
     </row>
-    <row r="112" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>198</v>
       </c>
@@ -8861,7 +8873,7 @@
         <v>9336</v>
       </c>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>202</v>
       </c>
@@ -8870,7 +8882,7 @@
         <v>0.33686945226239445</v>
       </c>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>203</v>
       </c>
@@ -8897,19 +8909,19 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>128</v>
       </c>
@@ -8932,7 +8944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>11449606</v>
       </c>
@@ -8955,7 +8967,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>11449189</v>
       </c>
@@ -8978,7 +8990,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>11448803</v>
       </c>
@@ -9001,7 +9013,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>11442272</v>
       </c>
@@ -9024,7 +9036,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>11441702</v>
       </c>
@@ -9044,7 +9056,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>11436793</v>
       </c>
@@ -9067,7 +9079,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>11435820</v>
       </c>
@@ -9090,7 +9102,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>11435448</v>
       </c>
@@ -9113,7 +9125,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11431955</v>
       </c>
@@ -9136,7 +9148,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11430398</v>
       </c>
@@ -9159,7 +9171,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11430141</v>
       </c>
@@ -9182,7 +9194,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11430085</v>
       </c>
@@ -9205,7 +9217,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11425523</v>
       </c>
@@ -9228,7 +9240,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11423621</v>
       </c>
@@ -9251,7 +9263,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11423616</v>
       </c>
@@ -9274,7 +9286,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11423520</v>
       </c>
@@ -9297,7 +9309,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>11423152</v>
       </c>
@@ -9317,7 +9329,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11422669</v>
       </c>
@@ -9340,7 +9352,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>11422373</v>
       </c>
@@ -9363,7 +9375,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11417054</v>
       </c>
@@ -9386,7 +9398,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>11416239</v>
       </c>
@@ -9409,7 +9421,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11416075</v>
       </c>
@@ -9432,7 +9444,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>11416067</v>
       </c>
@@ -9455,7 +9467,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>11415880</v>
       </c>
@@ -9478,7 +9490,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>11415808</v>
       </c>
@@ -9501,7 +9513,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>189</v>
       </c>
@@ -9524,7 +9536,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>11412511</v>
       </c>

--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039E7568-F85F-4901-94F0-4B62BCE623C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440F9DC-CD85-4789-BAEE-29072659BCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9050" yWindow="4000" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="-26880" yWindow="2085" windowWidth="23565" windowHeight="18495" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
     <author>tc={9BAC047B-9C13-4083-9E91-56CC4B86282A}</author>
     <author>tc={48BE0944-3BDD-4973-B1C2-88AA905BEB25}</author>
     <author>tc={A907F4EC-7D24-4D8F-B1A6-DE693B5437EA}</author>
+    <author>tc={3D2F6350-1756-4982-89B0-68C8E9231F2B}</author>
   </authors>
   <commentList>
     <comment ref="T31" authorId="0" shapeId="0" xr:uid="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
@@ -114,6 +115,14 @@
     45-48B guidance</t>
       </text>
     </comment>
+    <comment ref="AE32" authorId="8" shapeId="0" xr:uid="{3D2F6350-1756-4982-89B0-68C8E9231F2B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q424: 39.5-41.8B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -782,7 +791,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -818,6 +827,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -846,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -894,6 +909,10 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -926,7 +945,7 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>24152</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>71937</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1347,6 +1366,9 @@
   <threadedComment ref="AD32" dT="2025-01-29T20:42:20.13" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{A907F4EC-7D24-4D8F-B1A6-DE693B5437EA}">
     <text>45-48B guidance</text>
   </threadedComment>
+  <threadedComment ref="AE32" dT="2025-04-04T15:54:32.49" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{3D2F6350-1756-4982-89B0-68C8E9231F2B}">
+    <text>Q424: 39.5-41.8B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1354,30 +1376,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1324B-BEE3-4317-A400-2CB53AA7AD6F}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
-    </sheetView>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L2" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="17">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -1395,7 +1415,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -1407,10 +1427,10 @@
       </c>
       <c r="M4" s="3">
         <f>+M3*M2</f>
-        <v>1714126.673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1279914.909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>125</v>
       </c>
@@ -1425,7 +1445,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -1439,26 +1459,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L7" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>1665978.673</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.3">
+        <v>1231766.909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -1469,7 +1489,7 @@
         <v>1865.970703</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="L11" t="s">
         <v>91</v>
       </c>
@@ -1477,22 +1497,22 @@
         <v>366.55794300000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -1500,7 +1520,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>102</v>
       </c>
@@ -1508,22 +1528,22 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -1536,28 +1556,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
-  <dimension ref="A1:DF115"/>
+  <dimension ref="A1:DF117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="W78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AN21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA89" sqref="AA89:AD89"/>
+      <selection pane="bottomRight" activeCell="AS51" sqref="AS51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" customWidth="1"/>
-    <col min="3" max="25" width="9.1796875" style="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
@@ -1725,7 +1745,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1790,11 +1810,17 @@
       <c r="AA3" s="3">
         <v>3240</v>
       </c>
+      <c r="AB3" s="3">
+        <v>3270</v>
+      </c>
       <c r="AC3" s="3">
         <v>3290</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="3">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1857,7 +1883,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1926,7 +1952,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -1976,7 +2002,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>204</v>
       </c>
@@ -2037,7 +2063,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2106,7 +2132,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>101</v>
       </c>
@@ -2156,7 +2182,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2181,7 +2207,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2248,7 +2274,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
@@ -2312,7 +2338,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:54" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
@@ -2364,7 +2390,7 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
@@ -2431,7 +2457,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
@@ -2498,7 +2524,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
@@ -2562,7 +2588,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="2:54" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
@@ -2614,7 +2640,7 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2639,7 +2665,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>210</v>
       </c>
@@ -2686,8 +2712,17 @@
       <c r="AA19" s="3">
         <v>15451</v>
       </c>
-    </row>
-    <row r="20" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="3">
+        <v>16593</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>17389</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>20982</v>
+      </c>
+    </row>
+    <row r="20" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>211</v>
       </c>
@@ -2734,8 +2769,17 @@
       <c r="AA20" s="3">
         <v>8327</v>
       </c>
-    </row>
-    <row r="21" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="3">
+        <v>9135</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>9358</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>11154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>212</v>
       </c>
@@ -2782,8 +2826,17 @@
       <c r="AA21" s="3">
         <v>7338</v>
       </c>
-    </row>
-    <row r="22" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="3">
+        <v>7721</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>8050</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="22" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>213</v>
       </c>
@@ -2830,8 +2883,17 @@
       <c r="AA22" s="3">
         <v>4519</v>
       </c>
-    </row>
-    <row r="23" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB22" s="3">
+        <v>4880</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>5088</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>5635</v>
+      </c>
+    </row>
+    <row r="23" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2856,7 +2918,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="24" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>214</v>
       </c>
@@ -2905,7 +2967,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="25" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>107</v>
       </c>
@@ -2954,7 +3016,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="26" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
@@ -3003,7 +3065,7 @@
         <v>8404</v>
       </c>
     </row>
-    <row r="27" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
@@ -3052,7 +3114,7 @@
         <v>13646</v>
       </c>
     </row>
-    <row r="28" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3077,7 +3139,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -3152,6 +3214,9 @@
       <c r="AA29" s="3">
         <v>380</v>
       </c>
+      <c r="AB29" s="3">
+        <v>389</v>
+      </c>
       <c r="AC29" s="3">
         <v>434</v>
       </c>
@@ -3171,7 +3236,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="30" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
@@ -3228,6 +3293,9 @@
       <c r="AA30" s="3">
         <v>440</v>
       </c>
+      <c r="AB30" s="3">
+        <v>353</v>
+      </c>
       <c r="AC30" s="3">
         <v>270</v>
       </c>
@@ -3244,7 +3312,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="31" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
@@ -3335,7 +3403,7 @@
         <v>35635</v>
       </c>
       <c r="AB31" s="6">
-        <v>37500</v>
+        <v>38329</v>
       </c>
       <c r="AC31" s="6">
         <v>39885</v>
@@ -3376,7 +3444,7 @@
         <v>114934</v>
       </c>
     </row>
-    <row r="32" spans="2:54" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
@@ -3474,6 +3542,7 @@
         <v>36455</v>
       </c>
       <c r="AB32" s="8">
+        <f>SUM(AB29:AB31)</f>
         <v>39071</v>
       </c>
       <c r="AC32" s="8">
@@ -3574,7 +3643,7 @@
         <v>213843.86012797506</v>
       </c>
     </row>
-    <row r="33" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -3717,7 +3786,7 @@
         <v>40630.333424315264</v>
       </c>
     </row>
-    <row r="34" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
@@ -3891,7 +3960,7 @@
         <v>173213.52670365979</v>
       </c>
     </row>
-    <row r="35" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -4034,7 +4103,7 @@
         <v>9551.8521562949991</v>
       </c>
     </row>
-    <row r="36" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
@@ -4177,7 +4246,7 @@
         <v>14043</v>
       </c>
     </row>
-    <row r="37" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
@@ -4324,7 +4393,7 @@
         <v>9829</v>
       </c>
     </row>
-    <row r="38" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
@@ -4498,7 +4567,7 @@
         <v>33423.852156294997</v>
       </c>
     </row>
-    <row r="39" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
@@ -4672,7 +4741,7 @@
         <v>139789.67454736479</v>
       </c>
     </row>
-    <row r="40" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
@@ -4780,38 +4849,38 @@
       </c>
       <c r="AU40" s="3">
         <f t="shared" ref="AU40:BB40" si="73">+AT59*$BG$58</f>
-        <v>0</v>
+        <v>938.78</v>
       </c>
       <c r="AV40" s="3">
         <f t="shared" si="73"/>
-        <v>1073.0070640000004</v>
+        <v>2027.1830560000003</v>
       </c>
       <c r="AW40" s="3">
         <f t="shared" si="73"/>
-        <v>2589.5562618496006</v>
+        <v>3559.3807401184004</v>
       </c>
       <c r="AX40" s="3">
         <f t="shared" si="73"/>
-        <v>4378.9751983439337</v>
+        <v>5364.704798056343</v>
       </c>
       <c r="AY40" s="3">
         <f t="shared" si="73"/>
-        <v>6344.4564740167743</v>
+        <v>7346.352039164467</v>
       </c>
       <c r="AZ40" s="3">
         <f t="shared" si="73"/>
-        <v>8441.7654370686505</v>
+        <v>9460.0920894847641</v>
       </c>
       <c r="BA40" s="3">
         <f t="shared" si="73"/>
-        <v>10672.947996607776</v>
+        <v>11707.975206123516</v>
       </c>
       <c r="BB40" s="3">
         <f t="shared" si="73"/>
-        <v>13040.390520582656</v>
-      </c>
-    </row>
-    <row r="41" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>14092.392176334453</v>
+      </c>
+    </row>
+    <row r="41" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
@@ -4954,38 +5023,38 @@
       </c>
       <c r="AU41" s="3">
         <f t="shared" ref="AU41" si="82">+AU39+AU40</f>
-        <v>65427.260000000009</v>
+        <v>66366.040000000008</v>
       </c>
       <c r="AV41" s="3">
         <f t="shared" ref="AV41" si="83">+AV39+AV40</f>
-        <v>92472.51206400001</v>
+        <v>93426.688055999999</v>
       </c>
       <c r="AW41" s="3">
         <f t="shared" ref="AW41" si="84">+AW39+AW40</f>
-        <v>109110.91076184963</v>
+        <v>110080.73524011843</v>
       </c>
       <c r="AX41" s="3">
         <f t="shared" ref="AX41" si="85">+AX39+AX40</f>
-        <v>119846.41924834397</v>
+        <v>120832.14884805637</v>
       </c>
       <c r="AY41" s="3">
         <f t="shared" ref="AY41" si="86">+AY39+AY40</f>
-        <v>127884.69286901683</v>
+        <v>128886.58843416453</v>
       </c>
       <c r="AZ41" s="3">
         <f t="shared" ref="AZ41" si="87">+AZ39+AZ40</f>
-        <v>136047.71704506868</v>
+        <v>137066.0436974848</v>
       </c>
       <c r="BA41" s="3">
         <f t="shared" ref="BA41" si="88">+BA39+BA40</f>
-        <v>144356.25146188281</v>
+        <v>145391.27867139856</v>
       </c>
       <c r="BB41" s="3">
         <f t="shared" ref="BB41" si="89">+BB39+BB40</f>
-        <v>152830.06506794743</v>
-      </c>
-    </row>
-    <row r="42" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>153882.06672369924</v>
+      </c>
+    </row>
+    <row r="42" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
@@ -5099,38 +5168,38 @@
       </c>
       <c r="AU42" s="3">
         <f t="shared" ref="AU42:BB42" si="91">+AU41*0.18</f>
-        <v>11776.906800000001</v>
+        <v>11945.887200000001</v>
       </c>
       <c r="AV42" s="3">
         <f t="shared" si="91"/>
-        <v>16645.052171520001</v>
+        <v>16816.803850079999</v>
       </c>
       <c r="AW42" s="3">
         <f t="shared" si="91"/>
-        <v>19639.963937132932</v>
+        <v>19814.532343221315</v>
       </c>
       <c r="AX42" s="3">
         <f t="shared" si="91"/>
-        <v>21572.355464701915</v>
+        <v>21749.786792650146</v>
       </c>
       <c r="AY42" s="3">
         <f t="shared" si="91"/>
-        <v>23019.244716423029</v>
+        <v>23199.585918149613</v>
       </c>
       <c r="AZ42" s="3">
         <f t="shared" si="91"/>
-        <v>24488.589068112364</v>
+        <v>24671.887865547262</v>
       </c>
       <c r="BA42" s="3">
         <f t="shared" si="91"/>
-        <v>25984.125263138907</v>
+        <v>26170.430160851738</v>
       </c>
       <c r="BB42" s="3">
         <f t="shared" si="91"/>
-        <v>27509.411712230536</v>
-      </c>
-    </row>
-    <row r="43" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27698.772010265864</v>
+      </c>
+    </row>
+    <row r="43" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
@@ -5273,262 +5342,262 @@
       </c>
       <c r="AU43" s="3">
         <f t="shared" ref="AU43" si="103">+AU41-AU42</f>
-        <v>53650.353200000012</v>
+        <v>54420.152800000011</v>
       </c>
       <c r="AV43" s="3">
         <f t="shared" ref="AV43" si="104">+AV41-AV42</f>
-        <v>75827.459892480008</v>
+        <v>76609.884205919996</v>
       </c>
       <c r="AW43" s="3">
         <f t="shared" ref="AW43" si="105">+AW41-AW42</f>
-        <v>89470.946824716695</v>
+        <v>90266.202896897114</v>
       </c>
       <c r="AX43" s="3">
         <f t="shared" ref="AX43" si="106">+AX41-AX42</f>
-        <v>98274.06378364205</v>
+        <v>99082.362055406222</v>
       </c>
       <c r="AY43" s="3">
         <f t="shared" ref="AY43" si="107">+AY41-AY42</f>
-        <v>104865.4481525938</v>
+        <v>105687.00251601491</v>
       </c>
       <c r="AZ43" s="3">
         <f t="shared" ref="AZ43" si="108">+AZ41-AZ42</f>
-        <v>111559.12797695631</v>
+        <v>112394.15583193753</v>
       </c>
       <c r="BA43" s="3">
         <f t="shared" ref="BA43" si="109">+BA41-BA42</f>
-        <v>118372.12619874391</v>
+        <v>119220.84851054681</v>
       </c>
       <c r="BB43" s="3">
         <f t="shared" ref="BB43" si="110">+BB41-BB42</f>
-        <v>125320.6533557169</v>
+        <v>126183.29471343338</v>
       </c>
       <c r="BC43" s="3">
         <f t="shared" ref="BC43:CH43" si="111">+BB43*(1+$BG$57)</f>
-        <v>119054.62068793105</v>
+        <v>119874.12997776171</v>
       </c>
       <c r="BD43" s="3">
         <f t="shared" si="111"/>
-        <v>113101.8896535345</v>
+        <v>113880.42347887362</v>
       </c>
       <c r="BE43" s="3">
         <f t="shared" si="111"/>
-        <v>107446.79517085777</v>
+        <v>108186.40230492993</v>
       </c>
       <c r="BF43" s="3">
         <f t="shared" si="111"/>
-        <v>102074.45541231488</v>
+        <v>102777.08218968342</v>
       </c>
       <c r="BG43" s="3">
         <f t="shared" si="111"/>
-        <v>96970.732641699142</v>
+        <v>97638.228080199246</v>
       </c>
       <c r="BH43" s="3">
         <f t="shared" si="111"/>
-        <v>92122.196009614185</v>
+        <v>92756.316676189279</v>
       </c>
       <c r="BI43" s="3">
         <f t="shared" si="111"/>
-        <v>87516.086209133471</v>
+        <v>88118.500842379814</v>
       </c>
       <c r="BJ43" s="3">
         <f t="shared" si="111"/>
-        <v>83140.281898676796</v>
+        <v>83712.57580026082</v>
       </c>
       <c r="BK43" s="3">
         <f t="shared" si="111"/>
-        <v>78983.267803742958</v>
+        <v>79526.947010247779</v>
       </c>
       <c r="BL43" s="3">
         <f t="shared" si="111"/>
-        <v>75034.104413555804</v>
+        <v>75550.599659735381</v>
       </c>
       <c r="BM43" s="3">
         <f t="shared" si="111"/>
-        <v>71282.399192878016</v>
+        <v>71773.069676748608</v>
       </c>
       <c r="BN43" s="3">
         <f t="shared" si="111"/>
-        <v>67718.279233234105</v>
+        <v>68184.416192911172</v>
       </c>
       <c r="BO43" s="3">
         <f t="shared" si="111"/>
-        <v>64332.365271572395</v>
+        <v>64775.195383265607</v>
       </c>
       <c r="BP43" s="3">
         <f t="shared" si="111"/>
-        <v>61115.74700799377</v>
+        <v>61536.435614102324</v>
       </c>
       <c r="BQ43" s="3">
         <f t="shared" si="111"/>
-        <v>58059.959657594081</v>
+        <v>58459.613833397205</v>
       </c>
       <c r="BR43" s="3">
         <f t="shared" si="111"/>
-        <v>55156.961674714374</v>
+        <v>55536.63314172734</v>
       </c>
       <c r="BS43" s="3">
         <f t="shared" si="111"/>
-        <v>52399.113590978654</v>
+        <v>52759.801484640971</v>
       </c>
       <c r="BT43" s="3">
         <f t="shared" si="111"/>
-        <v>49779.15791142972</v>
+        <v>50121.811410408918</v>
       </c>
       <c r="BU43" s="3">
         <f t="shared" si="111"/>
-        <v>47290.20001585823</v>
+        <v>47615.720839888469</v>
       </c>
       <c r="BV43" s="3">
         <f t="shared" si="111"/>
-        <v>44925.690015065316</v>
+        <v>45234.934797894042</v>
       </c>
       <c r="BW43" s="3">
         <f t="shared" si="111"/>
-        <v>42679.405514312049</v>
+        <v>42973.188057999338</v>
       </c>
       <c r="BX43" s="3">
         <f t="shared" si="111"/>
-        <v>40545.435238596445</v>
+        <v>40824.52865509937</v>
       </c>
       <c r="BY43" s="3">
         <f t="shared" si="111"/>
-        <v>38518.163476666617</v>
+        <v>38783.302222344399</v>
       </c>
       <c r="BZ43" s="3">
         <f t="shared" si="111"/>
-        <v>36592.255302833284</v>
+        <v>36844.137111227174</v>
       </c>
       <c r="CA43" s="3">
         <f t="shared" si="111"/>
-        <v>34762.642537691616</v>
+        <v>35001.930255665815</v>
       </c>
       <c r="CB43" s="3">
         <f t="shared" si="111"/>
-        <v>33024.51041080703</v>
+        <v>33251.833742882525</v>
       </c>
       <c r="CC43" s="3">
         <f t="shared" si="111"/>
-        <v>31373.284890266677</v>
+        <v>31589.242055738396</v>
       </c>
       <c r="CD43" s="3">
         <f t="shared" si="111"/>
-        <v>29804.620645753341</v>
+        <v>30009.779952951474</v>
       </c>
       <c r="CE43" s="3">
         <f t="shared" si="111"/>
-        <v>28314.389613465672</v>
+        <v>28509.290955303899</v>
       </c>
       <c r="CF43" s="3">
         <f t="shared" si="111"/>
-        <v>26898.670132792387</v>
+        <v>27083.826407538701</v>
       </c>
       <c r="CG43" s="3">
         <f t="shared" si="111"/>
-        <v>25553.736626152768</v>
+        <v>25729.635087161765</v>
       </c>
       <c r="CH43" s="3">
         <f t="shared" si="111"/>
-        <v>24276.049794845127</v>
+        <v>24443.153332803675</v>
       </c>
       <c r="CI43" s="3">
         <f t="shared" ref="CI43:DF43" si="112">+CH43*(1+$BG$57)</f>
-        <v>23062.247305102868</v>
+        <v>23220.99566616349</v>
       </c>
       <c r="CJ43" s="3">
         <f t="shared" si="112"/>
-        <v>21909.134939847725</v>
+        <v>22059.945882855314</v>
       </c>
       <c r="CK43" s="3">
         <f t="shared" si="112"/>
-        <v>20813.678192855339</v>
+        <v>20956.948588712548</v>
       </c>
       <c r="CL43" s="3">
         <f t="shared" si="112"/>
-        <v>19772.994283212571</v>
+        <v>19909.101159276921</v>
       </c>
       <c r="CM43" s="3">
         <f t="shared" si="112"/>
-        <v>18784.34456905194</v>
+        <v>18913.646101313076</v>
       </c>
       <c r="CN43" s="3">
         <f t="shared" si="112"/>
-        <v>17845.127340599342</v>
+        <v>17967.963796247423</v>
       </c>
       <c r="CO43" s="3">
         <f t="shared" si="112"/>
-        <v>16952.870973569374</v>
+        <v>17069.565606435051</v>
       </c>
       <c r="CP43" s="3">
         <f t="shared" si="112"/>
-        <v>16105.227424890903</v>
+        <v>16216.087326113298</v>
       </c>
       <c r="CQ43" s="3">
         <f t="shared" si="112"/>
-        <v>15299.966053646358</v>
+        <v>15405.282959807633</v>
       </c>
       <c r="CR43" s="3">
         <f t="shared" si="112"/>
-        <v>14534.967750964039</v>
+        <v>14635.01881181725</v>
       </c>
       <c r="CS43" s="3">
         <f t="shared" si="112"/>
-        <v>13808.219363415836</v>
+        <v>13903.267871226386</v>
       </c>
       <c r="CT43" s="3">
         <f t="shared" si="112"/>
-        <v>13117.808395245043</v>
+        <v>13208.104477665067</v>
       </c>
       <c r="CU43" s="3">
         <f t="shared" si="112"/>
-        <v>12461.917975482791</v>
+        <v>12547.699253781813</v>
       </c>
       <c r="CV43" s="3">
         <f t="shared" si="112"/>
-        <v>11838.822076708651</v>
+        <v>11920.314291092722</v>
       </c>
       <c r="CW43" s="3">
         <f t="shared" si="112"/>
-        <v>11246.880972873218</v>
+        <v>11324.298576538085</v>
       </c>
       <c r="CX43" s="3">
         <f t="shared" si="112"/>
-        <v>10684.536924229556</v>
+        <v>10758.083647711181</v>
       </c>
       <c r="CY43" s="3">
         <f t="shared" si="112"/>
-        <v>10150.310078018078</v>
+        <v>10220.179465325622</v>
       </c>
       <c r="CZ43" s="3">
         <f t="shared" si="112"/>
-        <v>9642.7945741171734</v>
+        <v>9709.1704920593402</v>
       </c>
       <c r="DA43" s="3">
         <f t="shared" si="112"/>
-        <v>9160.6548454113145</v>
+        <v>9223.7119674563728</v>
       </c>
       <c r="DB43" s="3">
         <f t="shared" si="112"/>
-        <v>8702.6221031407476</v>
+        <v>8762.5263690835545</v>
       </c>
       <c r="DC43" s="3">
         <f t="shared" si="112"/>
-        <v>8267.4909979837103</v>
+        <v>8324.400050629376</v>
       </c>
       <c r="DD43" s="3">
         <f t="shared" si="112"/>
-        <v>7854.1164480845246</v>
+        <v>7908.1800480979064</v>
       </c>
       <c r="DE43" s="3">
         <f t="shared" si="112"/>
-        <v>7461.4106256802979</v>
+        <v>7512.7710456930108</v>
       </c>
       <c r="DF43" s="3">
         <f t="shared" si="112"/>
-        <v>7088.3400943962824</v>
-      </c>
-    </row>
-    <row r="44" spans="2:110" x14ac:dyDescent="0.25">
+        <v>7137.1324934083596</v>
+      </c>
+    </row>
+    <row r="44" spans="2:110" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
@@ -5671,38 +5740,38 @@
       </c>
       <c r="AU44" s="17">
         <f t="shared" ref="AU44" si="124">+AU43/AU45</f>
-        <v>19.903673975143764</v>
+        <v>20.189260916342057</v>
       </c>
       <c r="AV44" s="17">
         <f t="shared" ref="AV44" si="125">+AV43/AV45</f>
-        <v>28.131129620656655</v>
+        <v>28.421400187690594</v>
       </c>
       <c r="AW44" s="17">
         <f t="shared" ref="AW44" si="126">+AW43/AW45</f>
-        <v>33.19270889434862</v>
+        <v>33.487739898681916</v>
       </c>
       <c r="AX44" s="17">
         <f t="shared" ref="AX44" si="127">+AX43/AX45</f>
-        <v>36.458565677478035</v>
+        <v>36.758435190282405</v>
       </c>
       <c r="AY44" s="17">
         <f t="shared" ref="AY44" si="128">+AY43/AY45</f>
-        <v>38.903894695824079</v>
+        <v>39.208682068638439</v>
       </c>
       <c r="AZ44" s="17">
         <f t="shared" ref="AZ44" si="129">+AZ43/AZ45</f>
-        <v>41.387174170638588</v>
+        <v>41.696960056367104</v>
       </c>
       <c r="BA44" s="17">
         <f t="shared" ref="BA44" si="130">+BA43/BA45</f>
-        <v>43.914719420791656</v>
+        <v>44.22958579504612</v>
       </c>
       <c r="BB44" s="17">
         <f t="shared" ref="BB44" si="131">+BB43/BB45</f>
-        <v>46.492544372367611</v>
-      </c>
-    </row>
-    <row r="45" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46.812574555159848</v>
+      </c>
+    </row>
+    <row r="45" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
@@ -5849,10 +5918,10 @@
         <v>2695.5</v>
       </c>
     </row>
-    <row r="46" spans="2:110" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:110" x14ac:dyDescent="0.2">
       <c r="S46" s="6"/>
     </row>
-    <row r="47" spans="2:110" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:110" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
@@ -6042,7 +6111,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:110" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:110" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
@@ -6091,7 +6160,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
@@ -6125,7 +6194,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
     </row>
-    <row r="50" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
@@ -6161,7 +6230,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
     </row>
-    <row r="51" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
@@ -6241,7 +6310,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
         <v>200</v>
       </c>
@@ -6312,7 +6381,7 @@
       <c r="AH52" s="10"/>
       <c r="AI52" s="10"/>
     </row>
-    <row r="53" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -6347,7 +6416,7 @@
       <c r="AH53" s="10"/>
       <c r="AI53" s="10"/>
     </row>
-    <row r="54" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
         <v>37</v>
       </c>
@@ -6451,141 +6520,150 @@
         <f>+AA34/AA32</f>
         <v>0.81785763269784661</v>
       </c>
-      <c r="AB54" s="10"/>
-      <c r="AC54" s="10"/>
-      <c r="AD54" s="10"/>
+      <c r="AB54" s="10">
+        <f t="shared" ref="AB54:AD54" si="150">+AB34/AB32</f>
+        <v>0.81295590079598679</v>
+      </c>
+      <c r="AC54" s="10">
+        <f t="shared" si="150"/>
+        <v>0.81830052477272164</v>
+      </c>
+      <c r="AD54" s="10">
+        <f t="shared" si="150"/>
+        <v>0.81731941717474421</v>
+      </c>
       <c r="AE54" s="10"/>
       <c r="AF54" s="10"/>
       <c r="AG54" s="10"/>
       <c r="AH54" s="10"/>
       <c r="AI54" s="10"/>
       <c r="AP54" s="19">
-        <f t="shared" ref="AP54:BB54" si="150">+AP34/AP32</f>
+        <f t="shared" ref="AP54:BB54" si="151">+AP34/AP32</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="AQ54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="AR54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="AS54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="AT54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
       <c r="AU54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
       <c r="AV54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
       <c r="AW54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
       <c r="AX54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
       <c r="AY54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.81000000000000016</v>
       </c>
       <c r="AZ54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
       <c r="BA54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.81</v>
       </c>
       <c r="BB54" s="19">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="55" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" ref="C55:E55" si="151">+C39/C32</f>
+        <f t="shared" ref="C55:E55" si="152">+C39/C32</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="D55" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" ref="F55:I55" si="152">+F39/F32</f>
+        <f t="shared" ref="F55:I55" si="153">+F39/F32</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" ref="J55:L55" si="153">+J39/J32</f>
+        <f t="shared" ref="J55:L55" si="154">+J39/J32</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" ref="M55:P55" si="154">+M39/M32</f>
+        <f t="shared" ref="M55:P55" si="155">+M39/M32</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" ref="Q55:T55" si="155">+Q39/Q32</f>
+        <f t="shared" ref="Q55:T55" si="156">+Q39/Q32</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="T55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="U55" s="10">
@@ -6593,87 +6671,96 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" ref="V55:Z55" si="156">+V39/V32</f>
+        <f t="shared" ref="V55:Z55" si="157">+V39/V32</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="X55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.35194849839057468</v>
       </c>
       <c r="Y55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="Z55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.39030914213058771</v>
       </c>
       <c r="AA55" s="10">
         <f>+AA39/AA32</f>
         <v>0.37904265532848719</v>
       </c>
-      <c r="AB55" s="10"/>
-      <c r="AC55" s="10"/>
-      <c r="AD55" s="10"/>
+      <c r="AB55" s="10">
+        <f t="shared" ref="AB55:AD55" si="158">+AB39/AB32</f>
+        <v>0.38000051188861306</v>
+      </c>
+      <c r="AC55" s="10">
+        <f t="shared" si="158"/>
+        <v>0.4274557146024785</v>
+      </c>
+      <c r="AD55" s="10">
+        <f t="shared" si="158"/>
+        <v>0.48289759222899659</v>
+      </c>
       <c r="AE55" s="10"/>
       <c r="AF55" s="10"/>
       <c r="AG55" s="10"/>
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
       <c r="AP55" s="10">
-        <f t="shared" ref="AP55:BB55" si="157">+AP39/AP32</f>
+        <f t="shared" ref="AP55:BB55" si="159">+AP39/AP32</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="AQ55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.41000325332050863</v>
       </c>
       <c r="AR55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="AS55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="AT55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.4149918959943058</v>
       </c>
       <c r="AU55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.48500203853196056</v>
       </c>
       <c r="AV55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.55562009118541034</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.58867838905775083</v>
       </c>
       <c r="AX55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.60773138620245015</v>
       </c>
       <c r="AY55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.62106201139335393</v>
       </c>
       <c r="AZ55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.63306542437042934</v>
       </c>
       <c r="BA55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.64389878898945385</v>
       </c>
       <c r="BB55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>0.65369973430009876</v>
       </c>
       <c r="BF55" t="s">
@@ -6681,171 +6768,180 @@
       </c>
       <c r="BG55" s="3">
         <f>NPV(BG56,AU43:DF43)</f>
-        <v>1030796.8647241037</v>
-      </c>
-    </row>
-    <row r="56" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1038855.7152797726</v>
+      </c>
+    </row>
+    <row r="56" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="10">
-        <f t="shared" ref="C56:V56" si="158">+C42/C41</f>
+        <f t="shared" ref="C56:V56" si="160">+C42/C41</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="D56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="E56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="G56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="J56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="K56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="L56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="M56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="N56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="O56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="P56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="Q56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="R56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="S56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="T56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="U56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="V56" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" ref="W56:Z56" si="159">+W42/W41</f>
+        <f t="shared" ref="W56:Z56" si="161">+W42/W41</f>
         <v>0.19</v>
       </c>
       <c r="X56" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>0.13482038878437697</v>
       </c>
       <c r="Y56" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="Z56" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>0.17357299798690146</v>
       </c>
       <c r="AA56" s="10">
         <f>+AA42/AA41</f>
         <v>0.12789959811041388</v>
       </c>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
+      <c r="AB56" s="10">
+        <f t="shared" ref="AB56:AD56" si="162">+AB42/AB41</f>
+        <v>0.10863233152389778</v>
+      </c>
+      <c r="AC56" s="10">
+        <f t="shared" si="162"/>
+        <v>0.11973964762652901</v>
+      </c>
+      <c r="AD56" s="10">
+        <f t="shared" si="162"/>
+        <v>0.11527193988027003</v>
+      </c>
       <c r="AE56" s="10"/>
       <c r="AF56" s="10"/>
       <c r="AG56" s="10"/>
       <c r="AH56" s="10"/>
       <c r="AI56" s="10"/>
       <c r="AP56" s="19">
-        <f t="shared" ref="AP56:BB56" si="160">+AP42/AP41</f>
+        <f t="shared" ref="AP56:BB56" si="163">+AP42/AP41</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="AQ56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="AR56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="AS56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="AT56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.18</v>
       </c>
       <c r="AU56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.18</v>
       </c>
       <c r="AV56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.18</v>
       </c>
       <c r="AW56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
+        <v>0.17999999999999997</v>
+      </c>
+      <c r="AX56" s="19">
+        <f t="shared" si="163"/>
         <v>0.18</v>
       </c>
-      <c r="AX56" s="19">
-        <f t="shared" si="160"/>
-        <v>0.18000000000000002</v>
-      </c>
       <c r="AY56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.18</v>
       </c>
       <c r="AZ56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.18</v>
       </c>
       <c r="BA56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.18</v>
       </c>
       <c r="BB56" s="19">
-        <f t="shared" si="160"/>
+        <f t="shared" si="163"/>
         <v>0.18</v>
       </c>
       <c r="BF56" s="3" t="s">
@@ -6855,7 +6951,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:59" x14ac:dyDescent="0.2">
       <c r="S57" s="6"/>
       <c r="BF57" t="s">
         <v>114</v>
@@ -6864,57 +6960,66 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="58" spans="2:59" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:59" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>195</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" ref="Q58:S58" si="161">+Q59-Q73</f>
+        <f t="shared" ref="Q58:S58" si="164">+Q59-Q73</f>
         <v>64833</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>54773</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" si="161"/>
+        <f t="shared" si="164"/>
         <v>50665</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" ref="T58:W58" si="162">+T59-T73</f>
+        <f t="shared" ref="T58:W58" si="165">+T59-T73</f>
         <v>47025</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" si="162"/>
+        <f t="shared" si="165"/>
         <v>38382</v>
       </c>
       <c r="V58" s="6">
-        <f t="shared" si="162"/>
-        <v>0</v>
+        <f t="shared" si="165"/>
+        <v>37016</v>
       </c>
       <c r="W58" s="6">
-        <f t="shared" si="162"/>
-        <v>0</v>
+        <f t="shared" si="165"/>
+        <v>33681</v>
       </c>
       <c r="X58" s="6">
         <f>+X59-X73</f>
-        <v>0</v>
+        <v>41272</v>
       </c>
       <c r="Y58" s="6">
         <f>+Y59-Y73</f>
-        <v>0</v>
+        <v>48882</v>
       </c>
       <c r="Z58" s="6">
         <f>+Z59-Z73</f>
-        <v>0</v>
+        <v>53159</v>
       </c>
       <c r="AA58" s="6">
         <f>+AA59-AA73</f>
         <v>45951</v>
       </c>
-      <c r="AB58" s="6"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="6"/>
+      <c r="AB58" s="6">
+        <f>+AB59-AB73</f>
+        <v>45898</v>
+      </c>
+      <c r="AC58" s="6">
+        <f>+AC59-AC73</f>
+        <v>48148</v>
+      </c>
+      <c r="AD58" s="6">
+        <f>+AD59-AD73</f>
+        <v>55059</v>
+      </c>
       <c r="AE58" s="6"/>
       <c r="AF58" s="6"/>
       <c r="AG58" s="6"/>
@@ -6927,7 +7032,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
@@ -6974,18 +7079,42 @@
         <f>14308+27468+6528</f>
         <v>48304</v>
       </c>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
+      <c r="V59" s="6">
+        <f>14681+26057+6201</f>
+        <v>46939</v>
+      </c>
+      <c r="W59" s="6">
+        <f>11551+25888+6167</f>
+        <v>43606</v>
+      </c>
+      <c r="X59" s="6">
+        <f>28785+24661+6208</f>
+        <v>59654</v>
+      </c>
+      <c r="Y59" s="6">
+        <f>36890+24233+6142</f>
+        <v>67265</v>
+      </c>
+      <c r="Z59" s="6">
+        <f>41862+23541+6141</f>
+        <v>71544</v>
+      </c>
       <c r="AA59" s="6">
         <f>32307+25813+6218</f>
         <v>64338</v>
       </c>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
+      <c r="AB59" s="6">
+        <f>32045+26035+6207</f>
+        <v>64287</v>
+      </c>
+      <c r="AC59" s="6">
+        <f>43852+27048+6071</f>
+        <v>76971</v>
+      </c>
+      <c r="AD59" s="6">
+        <f>43889+33926+6070</f>
+        <v>83885</v>
+      </c>
       <c r="AE59" s="6"/>
       <c r="AF59" s="6"/>
       <c r="AG59" s="6"/>
@@ -6997,49 +7126,49 @@
       </c>
       <c r="AT59" s="3">
         <f>+V59</f>
-        <v>0</v>
+        <v>46939</v>
       </c>
       <c r="AU59" s="3">
-        <f t="shared" ref="AU59:BB59" si="163">+AT59+AU43</f>
-        <v>53650.353200000012</v>
+        <f t="shared" ref="AU59:BB59" si="166">+AT59+AU43</f>
+        <v>101359.15280000001</v>
       </c>
       <c r="AV59" s="3">
-        <f t="shared" si="163"/>
-        <v>129477.81309248002</v>
+        <f t="shared" si="166"/>
+        <v>177969.03700592002</v>
       </c>
       <c r="AW59" s="3">
-        <f t="shared" si="163"/>
-        <v>218948.7599171967</v>
+        <f t="shared" si="166"/>
+        <v>268235.23990281712</v>
       </c>
       <c r="AX59" s="3">
-        <f t="shared" si="163"/>
-        <v>317222.82370083872</v>
+        <f t="shared" si="166"/>
+        <v>367317.60195822333</v>
       </c>
       <c r="AY59" s="3">
-        <f t="shared" si="163"/>
-        <v>422088.27185343252</v>
+        <f t="shared" si="166"/>
+        <v>473004.60447423824</v>
       </c>
       <c r="AZ59" s="3">
-        <f t="shared" si="163"/>
-        <v>533647.39983038884</v>
+        <f t="shared" si="166"/>
+        <v>585398.7603061758</v>
       </c>
       <c r="BA59" s="3">
-        <f t="shared" si="163"/>
-        <v>652019.52602913277</v>
+        <f t="shared" si="166"/>
+        <v>704619.60881672264</v>
       </c>
       <c r="BB59" s="3">
-        <f t="shared" si="163"/>
-        <v>777340.17938484973</v>
+        <f t="shared" si="166"/>
+        <v>830802.90353015601</v>
       </c>
       <c r="BF59" s="3" t="s">
         <v>115</v>
       </c>
       <c r="BG59" s="17">
         <f>BG55/Main!M3</f>
-        <v>408.31933962191277</v>
-      </c>
-    </row>
-    <row r="60" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>411.51161217299699</v>
+      </c>
+    </row>
+    <row r="60" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
@@ -7078,22 +7207,42 @@
       <c r="U60" s="6">
         <v>11227</v>
       </c>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
+      <c r="V60" s="6">
+        <v>13466</v>
+      </c>
+      <c r="W60" s="6">
+        <v>11044</v>
+      </c>
+      <c r="X60" s="6">
+        <v>12511</v>
+      </c>
+      <c r="Y60" s="6">
+        <v>12944</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>16169</v>
+      </c>
       <c r="AA60" s="3">
         <v>13430</v>
       </c>
+      <c r="AB60" s="3">
+        <v>14505</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>14700</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>16994</v>
+      </c>
       <c r="BF60" s="3" t="s">
         <v>116</v>
       </c>
       <c r="BG60" s="19">
         <f>BG59/Main!M2-1</f>
-        <v>-0.39864603884843475</v>
-      </c>
-    </row>
-    <row r="61" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>-0.18834001543787571</v>
+      </c>
+    </row>
+    <row r="61" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>50</v>
       </c>
@@ -7132,15 +7281,35 @@
       <c r="U61" s="6">
         <v>5312</v>
       </c>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
+      <c r="V61" s="6">
+        <v>5345</v>
+      </c>
+      <c r="W61" s="6">
+        <v>4000</v>
+      </c>
+      <c r="X61" s="6">
+        <v>3603</v>
+      </c>
+      <c r="Y61" s="6">
+        <v>4311</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>3793</v>
+      </c>
       <c r="AA61" s="3">
         <v>3780</v>
       </c>
-    </row>
-    <row r="62" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB61" s="3">
+        <v>3846</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>5467</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="62" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
@@ -7179,15 +7348,35 @@
       <c r="U62" s="6">
         <v>73738</v>
       </c>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
+      <c r="V62" s="6">
+        <v>79518</v>
+      </c>
+      <c r="W62" s="6">
+        <v>84156</v>
+      </c>
+      <c r="X62" s="6">
+        <v>87949</v>
+      </c>
+      <c r="Y62" s="6">
+        <v>91772</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>96587</v>
+      </c>
       <c r="AA62" s="3">
         <v>98908</v>
       </c>
-    </row>
-    <row r="63" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB62" s="3">
+        <v>102959</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>112162</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>121346</v>
+      </c>
+    </row>
+    <row r="63" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
@@ -7226,15 +7415,35 @@
       <c r="U63" s="6">
         <v>13641</v>
       </c>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
+      <c r="V63" s="6">
+        <v>12673</v>
+      </c>
+      <c r="W63" s="6">
+        <v>12899</v>
+      </c>
+      <c r="X63" s="6">
+        <v>12955</v>
+      </c>
+      <c r="Y63" s="6">
+        <v>13033</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>13294</v>
+      </c>
       <c r="AA63" s="3">
         <v>13555</v>
       </c>
-    </row>
-    <row r="64" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB63" s="3">
+        <v>14058</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>14812</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>14922</v>
+      </c>
+    </row>
+    <row r="64" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="3" t="s">
         <v>54</v>
       </c>
@@ -7281,15 +7490,40 @@
         <f>875+20268</f>
         <v>21143</v>
       </c>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
+      <c r="V64" s="6">
+        <f>20306+897</f>
+        <v>21203</v>
+      </c>
+      <c r="W64" s="6">
+        <f>949+20649</f>
+        <v>21598</v>
+      </c>
+      <c r="X64" s="6">
+        <f>856+20659</f>
+        <v>21515</v>
+      </c>
+      <c r="Y64" s="6">
+        <f>813+20668</f>
+        <v>21481</v>
+      </c>
+      <c r="Z64" s="3">
+        <f>788+20654</f>
+        <v>21442</v>
+      </c>
       <c r="AA64" s="3">
         <v>20654</v>
       </c>
-    </row>
-    <row r="65" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB64" s="3">
+        <v>20654</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>20654</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>20654</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="3" t="s">
         <v>55</v>
       </c>
@@ -7328,15 +7562,35 @@
       <c r="U65" s="6">
         <v>5529</v>
       </c>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
+      <c r="V65" s="6">
+        <v>6583</v>
+      </c>
+      <c r="W65" s="6">
+        <v>7188</v>
+      </c>
+      <c r="X65" s="6">
+        <v>8501</v>
+      </c>
+      <c r="Y65" s="6">
+        <v>5468</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>6794</v>
+      </c>
       <c r="AA65" s="3">
         <v>8179</v>
       </c>
-    </row>
-    <row r="66" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB65" s="3">
+        <v>9929</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>11642</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>13017</v>
+      </c>
+    </row>
+    <row r="66" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>53</v>
       </c>
@@ -7352,23 +7606,23 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6">
-        <f t="shared" ref="N66:O66" si="164">SUM(N59:N65)</f>
+        <f t="shared" ref="N66:O66" si="167">SUM(N59:N65)</f>
         <v>159316</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="167"/>
         <v>163523</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" ref="P66:Q66" si="165">SUM(P59:P65)</f>
+        <f t="shared" ref="P66:Q66" si="168">SUM(P59:P65)</f>
         <v>170609</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" si="165"/>
+        <f t="shared" si="168"/>
         <v>169585</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" ref="R66" si="166">SUM(R59:R65)</f>
+        <f t="shared" ref="R66" si="169">SUM(R59:R65)</f>
         <v>165987</v>
       </c>
       <c r="S66" s="6">
@@ -7384,34 +7638,46 @@
         <v>178894</v>
       </c>
       <c r="V66" s="6">
-        <f t="shared" ref="V66:AA66" si="167">SUM(V59:V65)</f>
-        <v>0</v>
+        <f t="shared" ref="V66:AD66" si="170">SUM(V59:V65)</f>
+        <v>185727</v>
       </c>
       <c r="W66" s="6">
-        <f t="shared" si="167"/>
-        <v>0</v>
+        <f t="shared" si="170"/>
+        <v>184491</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" si="167"/>
-        <v>0</v>
+        <f t="shared" si="170"/>
+        <v>206688</v>
       </c>
       <c r="Y66" s="6">
-        <f t="shared" si="167"/>
-        <v>0</v>
+        <f t="shared" si="170"/>
+        <v>216274</v>
       </c>
       <c r="Z66" s="6">
-        <f t="shared" si="167"/>
-        <v>0</v>
+        <f t="shared" si="170"/>
+        <v>229623</v>
       </c>
       <c r="AA66" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="170"/>
         <v>222844</v>
       </c>
-    </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB66" s="6">
+        <f t="shared" si="170"/>
+        <v>230238</v>
+      </c>
+      <c r="AC66" s="6">
+        <f t="shared" si="170"/>
+        <v>256408</v>
+      </c>
+      <c r="AD66" s="6">
+        <f t="shared" si="170"/>
+        <v>276054</v>
+      </c>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.2">
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>56</v>
       </c>
@@ -7439,11 +7705,35 @@
       <c r="U68" s="6">
         <v>3871</v>
       </c>
+      <c r="V68" s="6">
+        <v>4990</v>
+      </c>
+      <c r="W68" s="6">
+        <v>3672</v>
+      </c>
+      <c r="X68" s="6">
+        <v>3093</v>
+      </c>
+      <c r="Y68" s="6">
+        <v>4372</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>4849</v>
+      </c>
       <c r="AA68" s="6">
         <v>3785</v>
       </c>
-    </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB68" s="3">
+        <v>3173</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>7656</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>7687</v>
+      </c>
+    </row>
+    <row r="69" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>57</v>
       </c>
@@ -7471,11 +7761,35 @@
       <c r="U69" s="6">
         <v>975</v>
       </c>
+      <c r="V69" s="6">
+        <v>1117</v>
+      </c>
+      <c r="W69" s="6">
+        <v>885</v>
+      </c>
+      <c r="X69" s="6">
+        <v>772</v>
+      </c>
+      <c r="Y69" s="6">
+        <v>770</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>863</v>
+      </c>
       <c r="AA69" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>58</v>
       </c>
@@ -7511,12 +7825,44 @@
         <f>1291+14687</f>
         <v>15978</v>
       </c>
+      <c r="V70" s="6">
+        <f>1367+15301</f>
+        <v>16668</v>
+      </c>
+      <c r="W70" s="6">
+        <f>1479+16171</f>
+        <v>17650</v>
+      </c>
+      <c r="X70" s="6">
+        <f>1396+16440</f>
+        <v>17836</v>
+      </c>
+      <c r="Y70" s="6">
+        <f>1460+16374</f>
+        <v>17834</v>
+      </c>
+      <c r="Z70" s="3">
+        <f>1623+17226</f>
+        <v>18849</v>
+      </c>
       <c r="AA70" s="6">
         <f>1676+17570</f>
         <v>19246</v>
       </c>
-    </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB70" s="3">
+        <f>1917+17685</f>
+        <v>19602</v>
+      </c>
+      <c r="AC70" s="3">
+        <f>18208+2016</f>
+        <v>20224</v>
+      </c>
+      <c r="AD70" s="3">
+        <f>1942+18292</f>
+        <v>20234</v>
+      </c>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>59</v>
       </c>
@@ -7544,11 +7890,35 @@
       <c r="U71" s="6">
         <v>16036</v>
       </c>
+      <c r="V71" s="6">
+        <v>19552</v>
+      </c>
+      <c r="W71" s="6">
+        <v>19345</v>
+      </c>
+      <c r="X71" s="6">
+        <v>24660</v>
+      </c>
+      <c r="Y71" s="6">
+        <v>23929</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>24625</v>
+      </c>
       <c r="AA71" s="6">
         <v>22640</v>
       </c>
-    </row>
-    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB71" s="3">
+        <v>21914</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>23658</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>23967</v>
+      </c>
+    </row>
+    <row r="72" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>60</v>
       </c>
@@ -7576,11 +7946,27 @@
       <c r="U72" s="6">
         <v>514</v>
       </c>
+      <c r="V72" s="6">
+        <v>0</v>
+      </c>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="3"/>
       <c r="AA72" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -7594,24 +7980,40 @@
       <c r="U73" s="6">
         <v>9922</v>
       </c>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
+      <c r="V73" s="6">
+        <v>9923</v>
+      </c>
+      <c r="W73" s="6">
+        <v>9925</v>
+      </c>
+      <c r="X73" s="6">
+        <v>18382</v>
+      </c>
+      <c r="Y73" s="6">
+        <v>18383</v>
+      </c>
+      <c r="Z73" s="6">
+        <v>18385</v>
+      </c>
       <c r="AA73" s="6">
         <v>18387</v>
       </c>
-      <c r="AB73" s="6"/>
-      <c r="AC73" s="6"/>
-      <c r="AD73" s="6"/>
+      <c r="AB73" s="6">
+        <v>18389</v>
+      </c>
+      <c r="AC73" s="6">
+        <v>28823</v>
+      </c>
+      <c r="AD73" s="6">
+        <v>28826</v>
+      </c>
       <c r="AE73" s="6"/>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
     </row>
-    <row r="74" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -7638,13 +8040,40 @@
       </c>
       <c r="U74" s="6">
         <v>7504</v>
+      </c>
+      <c r="V74" s="6">
+        <v>7764</v>
+      </c>
+      <c r="W74" s="6">
+        <v>8219</v>
+      </c>
+      <c r="X74" s="6">
+        <v>7912</v>
+      </c>
+      <c r="Y74" s="6">
+        <v>8113</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>8884</v>
       </c>
       <c r="AA74" s="6">
         <f>1462+7795</f>
         <v>9257</v>
       </c>
-    </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB74" s="3">
+        <f>7897+2500</f>
+        <v>10397</v>
+      </c>
+      <c r="AC74" s="3">
+        <f>2347+9171</f>
+        <v>11518</v>
+      </c>
+      <c r="AD74" s="3">
+        <f>9987+2716</f>
+        <v>12703</v>
+      </c>
+    </row>
+    <row r="75" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -7672,11 +8101,35 @@
       <c r="U75" s="6">
         <v>62092</v>
       </c>
+      <c r="V75" s="6">
+        <v>64444</v>
+      </c>
+      <c r="W75" s="6">
+        <v>66535</v>
+      </c>
+      <c r="X75" s="6">
+        <v>69159</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>71224</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>73253</v>
+      </c>
       <c r="AA75" s="6">
         <v>75391</v>
       </c>
-    </row>
-    <row r="76" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB75" s="3">
+        <v>78270</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>80749</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>83228</v>
+      </c>
+    </row>
+    <row r="76" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>63</v>
       </c>
@@ -7704,11 +8157,35 @@
       <c r="U76" s="6">
         <v>-5054</v>
       </c>
+      <c r="V76" s="6">
+        <v>-3530</v>
+      </c>
+      <c r="W76" s="6">
+        <v>-2981</v>
+      </c>
+      <c r="X76" s="6">
+        <v>-3106</v>
+      </c>
+      <c r="Y76" s="6">
+        <v>-3556</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>-2155</v>
+      </c>
       <c r="AA76" s="6">
         <v>-2655</v>
       </c>
-    </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB76" s="3">
+        <v>-2695</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>-1192</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-3097</v>
+      </c>
+    </row>
+    <row r="77" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>62</v>
       </c>
@@ -7736,92 +8213,180 @@
       <c r="U77" s="6">
         <v>67056</v>
       </c>
+      <c r="V77" s="6">
+        <v>64799</v>
+      </c>
+      <c r="W77" s="6">
+        <v>61241</v>
+      </c>
+      <c r="X77" s="6">
+        <v>67980</v>
+      </c>
+      <c r="Y77" s="6">
+        <v>75205</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>82070</v>
+      </c>
       <c r="AA77" s="6">
         <v>76793</v>
       </c>
-    </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB77" s="6">
+        <v>81188</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>84972</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>102506</v>
+      </c>
+    </row>
+    <row r="78" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
         <v>61</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" ref="N78:O78" si="168">SUM(N68:N77)</f>
+        <f t="shared" ref="N78:O78" si="171">SUM(N68:N77)</f>
         <v>159316</v>
       </c>
       <c r="O78" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="171"/>
         <v>163523</v>
       </c>
       <c r="P78" s="6">
-        <f t="shared" ref="P78:Q78" si="169">SUM(P68:P77)</f>
+        <f t="shared" ref="P78:Q78" si="172">SUM(P68:P77)</f>
         <v>170609</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="169"/>
+        <f t="shared" si="172"/>
         <v>169585</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:U78" si="170">SUM(R68:R77)</f>
+        <f t="shared" ref="R78:U78" si="173">SUM(R68:R77)</f>
         <v>165987</v>
       </c>
       <c r="S78" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>164218</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>169779</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="173"/>
         <v>178894</v>
       </c>
+      <c r="V78" s="6">
+        <f>SUM(V68:V77)</f>
+        <v>185727</v>
+      </c>
+      <c r="W78" s="6">
+        <f>SUM(W68:W77)</f>
+        <v>184491</v>
+      </c>
+      <c r="X78" s="6">
+        <f>SUM(X68:X77)</f>
+        <v>206688</v>
+      </c>
+      <c r="Y78" s="6">
+        <f>SUM(Y68:Y77)</f>
+        <v>216274</v>
+      </c>
+      <c r="Z78" s="6">
+        <f>SUM(Z68:Z77)</f>
+        <v>229623</v>
+      </c>
       <c r="AA78" s="6">
-        <f t="shared" ref="AA78" si="171">SUM(AA68:AA77)</f>
+        <f t="shared" ref="AA78:AD78" si="174">SUM(AA68:AA77)</f>
         <v>222844</v>
       </c>
-    </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB78" s="6">
+        <f t="shared" si="174"/>
+        <v>230238</v>
+      </c>
+      <c r="AC78" s="6">
+        <f t="shared" si="174"/>
+        <v>256408</v>
+      </c>
+      <c r="AD78" s="6">
+        <f t="shared" si="174"/>
+        <v>276054</v>
+      </c>
+    </row>
+    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
       <c r="S79" s="6"/>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="O80" s="6">
-        <f t="shared" ref="O80:U80" si="172">O43</f>
+        <f t="shared" ref="O80:Z80" si="175">O43</f>
         <v>9497</v>
       </c>
       <c r="P80" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>10394</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>9194</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>10285</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>7465</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>6687</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="175"/>
         <v>4395</v>
       </c>
+      <c r="V80" s="6">
+        <f>V43</f>
+        <v>4652</v>
+      </c>
+      <c r="W80" s="6">
+        <f t="shared" si="175"/>
+        <v>8374.1444999999985</v>
+      </c>
+      <c r="X80" s="6">
+        <f t="shared" si="175"/>
+        <v>9658</v>
+      </c>
+      <c r="Y80" s="6">
+        <f t="shared" si="175"/>
+        <v>11583</v>
+      </c>
+      <c r="Z80" s="6">
+        <f t="shared" si="175"/>
+        <v>13288.690000000002</v>
+      </c>
       <c r="AA80" s="6">
-        <f t="shared" ref="AA80" si="173">AA43</f>
+        <f t="shared" ref="AA80:AD80" si="176">AA43</f>
         <v>12369</v>
       </c>
-    </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB80" s="6">
+        <f t="shared" si="176"/>
+        <v>13465</v>
+      </c>
+      <c r="AC80" s="6">
+        <f t="shared" si="176"/>
+        <v>15688</v>
+      </c>
+      <c r="AD80" s="6">
+        <f t="shared" si="176"/>
+        <v>20838</v>
+      </c>
+    </row>
+    <row r="81" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>67</v>
       </c>
@@ -7849,11 +8414,42 @@
         <f>18547-T81-S81</f>
         <v>4395</v>
       </c>
+      <c r="V81" s="6">
+        <f>23200-U81-T81-S81</f>
+        <v>4653</v>
+      </c>
+      <c r="W81" s="6">
+        <v>5709</v>
+      </c>
+      <c r="X81" s="6">
+        <f>13498-W81</f>
+        <v>7789</v>
+      </c>
+      <c r="Y81" s="6">
+        <f>25081-X81-W81</f>
+        <v>11583</v>
+      </c>
+      <c r="Z81" s="3">
+        <f>39098-Y81-X81-W81</f>
+        <v>14017</v>
+      </c>
       <c r="AA81" s="3">
         <v>12369</v>
       </c>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB81" s="3">
+        <f>25834-AA81</f>
+        <v>13465</v>
+      </c>
+      <c r="AC81" s="3">
+        <f>41522-AB81-AA81</f>
+        <v>15688</v>
+      </c>
+      <c r="AD81" s="3">
+        <f>62360-AC81-AB81-AA81</f>
+        <v>20838</v>
+      </c>
+    </row>
+    <row r="82" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>69</v>
       </c>
@@ -7881,11 +8477,42 @@
         <f>6310-T82-S82</f>
         <v>2175</v>
       </c>
+      <c r="V82" s="6">
+        <f>8686-U82-T82-S82</f>
+        <v>2376</v>
+      </c>
+      <c r="W82" s="6">
+        <v>2524</v>
+      </c>
+      <c r="X82" s="6">
+        <f>5147-W82</f>
+        <v>2623</v>
+      </c>
+      <c r="Y82" s="6">
+        <f>8006-X82-W82</f>
+        <v>2859</v>
+      </c>
+      <c r="Z82" s="3">
+        <f>11178-Y82-X82-W82</f>
+        <v>3172</v>
+      </c>
       <c r="AA82" s="3">
         <v>3374</v>
       </c>
-    </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB82" s="3">
+        <f>7011-AA82</f>
+        <v>3637</v>
+      </c>
+      <c r="AC82" s="3">
+        <f>11038-AB82-AA82</f>
+        <v>4027</v>
+      </c>
+      <c r="AD82" s="3">
+        <f>15498-AC82-AB82-AA82</f>
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="83" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>70</v>
       </c>
@@ -7913,11 +8540,42 @@
         <f>8984-T83-S83</f>
         <v>3135</v>
       </c>
+      <c r="V83" s="6">
+        <f>11992-U83-T83-S83</f>
+        <v>3008</v>
+      </c>
+      <c r="W83" s="6">
+        <v>3051</v>
+      </c>
+      <c r="X83" s="6">
+        <f>7111-W83</f>
+        <v>4060</v>
+      </c>
+      <c r="Y83" s="6">
+        <f>10603-X83-W83</f>
+        <v>3492</v>
+      </c>
+      <c r="Z83" s="3">
+        <f>14027-Y83-X83-W83</f>
+        <v>3424</v>
+      </c>
       <c r="AA83" s="3">
         <v>3562</v>
       </c>
-    </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB83" s="3">
+        <f>8178-AA83</f>
+        <v>4616</v>
+      </c>
+      <c r="AC83" s="3">
+        <f>12428-AB83-AA83</f>
+        <v>4250</v>
+      </c>
+      <c r="AD83" s="3">
+        <f>16690-AC83-AB83-AA83</f>
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="84" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>71</v>
       </c>
@@ -7945,11 +8603,42 @@
         <f>-2113-T84-S84</f>
         <v>-1097</v>
       </c>
+      <c r="V84" s="6">
+        <f>-3286-U84-T84-S84</f>
+        <v>-1173</v>
+      </c>
+      <c r="W84" s="6">
+        <v>-620</v>
+      </c>
+      <c r="X84" s="6">
+        <f>-1757-W84</f>
+        <v>-1137</v>
+      </c>
+      <c r="Y84" s="6">
+        <f>1292-X84-W84</f>
+        <v>3049</v>
+      </c>
+      <c r="Z84" s="3">
+        <f>131-Y84-X84-W84</f>
+        <v>-1161</v>
+      </c>
       <c r="AA84" s="3">
         <v>-456</v>
       </c>
-    </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB84" s="3">
+        <f>-2098-AA84</f>
+        <v>-1642</v>
+      </c>
+      <c r="AC84" s="3">
+        <f>-3406-AB84-AA84</f>
+        <v>-1308</v>
+      </c>
+      <c r="AD84" s="3">
+        <f>-4738-AC84-AB84-AA84</f>
+        <v>-1332</v>
+      </c>
+    </row>
+    <row r="85" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>55</v>
       </c>
@@ -7977,12 +8666,44 @@
         <f>413-T85-S85+71</f>
         <v>516</v>
       </c>
+      <c r="V85" s="6">
+        <f>2218+1341+463+178-U85-T85-S85</f>
+        <v>3716</v>
+      </c>
+      <c r="W85" s="6">
+        <f>770-7</f>
+        <v>763</v>
+      </c>
+      <c r="X85" s="6">
+        <f>1002-W85+204</f>
+        <v>443</v>
+      </c>
+      <c r="Y85" s="6">
+        <f>1342+278-X85-W85</f>
+        <v>414</v>
+      </c>
+      <c r="Z85" s="3">
+        <f>2432-224+635-Y85-X85-W85</f>
+        <v>1223</v>
+      </c>
       <c r="AA85" s="3">
         <f>240-66</f>
         <v>174</v>
       </c>
-    </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB85" s="3">
+        <f>280-71-AA85</f>
+        <v>35</v>
+      </c>
+      <c r="AC85" s="3">
+        <f>288-82-AB85-AA85</f>
+        <v>-3</v>
+      </c>
+      <c r="AD85" s="3">
+        <f>383+87-AC85-AB85-AA85</f>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>72</v>
       </c>
@@ -8014,53 +8735,117 @@
         <f>1930-693-160-666-12+2942-35+446-T86-S86</f>
         <v>567</v>
       </c>
+      <c r="V86" s="6">
+        <f>231+162-106+210+90+4210+886-U86-T86-S86</f>
+        <v>1931</v>
+      </c>
+      <c r="W86" s="6">
+        <f>2546+821+30-1104-240+334+184</f>
+        <v>2571</v>
+      </c>
+      <c r="X86" s="6">
+        <f>1122+767+67-1155-356+5624+33-W86</f>
+        <v>3531</v>
+      </c>
+      <c r="Y86" s="6">
+        <f>444-141+31-543-347+5702-39-X86-W86</f>
+        <v>-995</v>
+      </c>
+      <c r="Z86" s="3">
+        <f>-2399+559-80+51-271+5352+624-Y86-X86-W86</f>
+        <v>-1271</v>
+      </c>
       <c r="AA86" s="3">
         <f>2520+100-94-1112-1274+83</f>
         <v>223</v>
       </c>
-    </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB86" s="3">
+        <f>1350+16-41-862-1771+790-AA86</f>
+        <v>-741</v>
+      </c>
+      <c r="AC86" s="3">
+        <f>1493-168-70-195-1199+1691-AB86-AA86</f>
+        <v>2070</v>
+      </c>
+      <c r="AD86" s="3">
+        <f>-1485-698-270+373+323+2805-AC86-AB86-AA86</f>
+        <v>-504</v>
+      </c>
+    </row>
+    <row r="87" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>68</v>
       </c>
       <c r="O87" s="6">
-        <f t="shared" ref="O87:U87" si="174">SUM(O81:O86)</f>
+        <f t="shared" ref="O87:X87" si="177">SUM(O81:O86)</f>
         <v>12242</v>
       </c>
       <c r="P87" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>13247</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>14090</v>
       </c>
       <c r="R87" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>18104</v>
       </c>
       <c r="S87" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>14076</v>
       </c>
       <c r="T87" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>12197</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="177"/>
         <v>9691</v>
+      </c>
+      <c r="V87" s="6">
+        <f t="shared" si="177"/>
+        <v>14511</v>
+      </c>
+      <c r="W87" s="6">
+        <f t="shared" si="177"/>
+        <v>13998</v>
+      </c>
+      <c r="X87" s="6">
+        <f t="shared" si="177"/>
+        <v>17309</v>
+      </c>
+      <c r="Y87" s="6">
+        <f>SUM(Y81:Y86)</f>
+        <v>20402</v>
+      </c>
+      <c r="Z87" s="6">
+        <f>SUM(Z81:Z86)</f>
+        <v>19404</v>
       </c>
       <c r="AA87" s="3">
         <f>SUM(AA81:AA86)</f>
         <v>19246</v>
       </c>
-    </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="AB87" s="3">
+        <f>SUM(AB81:AB86)</f>
+        <v>19370</v>
+      </c>
+      <c r="AC87" s="3">
+        <f>SUM(AC81:AC86)</f>
+        <v>24724</v>
+      </c>
+      <c r="AD87" s="3">
+        <f>SUM(AD81:AD86)</f>
+        <v>27988</v>
+      </c>
+    </row>
+    <row r="88" spans="2:30" x14ac:dyDescent="0.2">
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
     </row>
-    <row r="89" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>73</v>
       </c>
@@ -8102,33 +8887,43 @@
         <f>-22388-T89-S89+190</f>
         <v>-9355</v>
       </c>
-      <c r="V89" s="6"/>
+      <c r="V89" s="6">
+        <f>-31431+245-U89-T89-S89</f>
+        <v>-8988</v>
+      </c>
       <c r="W89" s="6">
+        <f>-6842+19</f>
         <v>-6823</v>
       </c>
       <c r="X89" s="6">
+        <f>-13058-W89+101</f>
         <v>-6134</v>
       </c>
       <c r="Y89" s="6">
+        <f>-19601+148-X89-W89</f>
         <v>-6496</v>
       </c>
       <c r="Z89" s="3">
+        <f>-27266-Y89-X89-W89+221</f>
         <v>-7592</v>
       </c>
       <c r="AA89" s="3">
         <v>-6400</v>
       </c>
       <c r="AB89" s="3">
+        <f>-14573-AA89</f>
         <v>-8173</v>
       </c>
       <c r="AC89" s="3">
+        <f>-22831-AB89-AA89</f>
         <v>-8258</v>
       </c>
       <c r="AD89" s="3">
+        <f>-37256-AC89-AB89-AA89</f>
         <v>-14425</v>
       </c>
     </row>
-    <row r="90" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
@@ -8172,16 +8967,44 @@
         <f>-8885+9333+1562-T90-S90</f>
         <v>-311</v>
       </c>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
+      <c r="V90" s="6">
+        <f>-9626+11083+2075-U90-T90-S90-5</f>
+        <v>1517</v>
+      </c>
+      <c r="W90" s="6">
+        <f>-85+534-444</f>
+        <v>5</v>
+      </c>
+      <c r="X90" s="6">
+        <f>-803+2351-W90</f>
+        <v>1543</v>
+      </c>
+      <c r="Y90" s="6">
+        <f>-1810+3825-X90-W90</f>
+        <v>467</v>
+      </c>
+      <c r="Z90" s="3">
+        <f>-2982+6184-Y90-X90-W90</f>
+        <v>1187</v>
+      </c>
       <c r="AA90" s="3">
         <f>-6887+4625-72</f>
         <v>-2334</v>
       </c>
-    </row>
-    <row r="91" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB90" s="3">
+        <f>-10176+7858-AA90</f>
+        <v>16</v>
+      </c>
+      <c r="AC90" s="3">
+        <f>-14644+11972-AB90-AA90</f>
+        <v>-354</v>
+      </c>
+      <c r="AD90" s="3">
+        <f>-25542+15789-AC90-AB90-AA90</f>
+        <v>-7081</v>
+      </c>
+    </row>
+    <row r="91" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
@@ -8221,15 +9044,42 @@
         <f>-1250-1-T91-S91</f>
         <v>-35</v>
       </c>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
+      <c r="V91" s="6">
+        <f>-1312+1-U91-T91-S91</f>
+        <v>-60</v>
+      </c>
+      <c r="W91" s="6">
+        <v>75</v>
+      </c>
+      <c r="X91" s="6">
+        <f>-527-10-W91</f>
+        <v>-612</v>
+      </c>
+      <c r="Y91" s="6">
+        <f>-565-20-X91-W91</f>
+        <v>-48</v>
+      </c>
+      <c r="Z91" s="3">
+        <f>-629-23-Y91-X91-W91</f>
+        <v>-67</v>
+      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB91" s="3">
+        <f>-129-12-AA91</f>
+        <v>-141</v>
+      </c>
+      <c r="AC91" s="3">
+        <f>-261+112-AB91-AA91</f>
+        <v>-8</v>
+      </c>
+      <c r="AD91" s="3">
+        <f>-270+129-AC91-AB91-AA91</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
@@ -8246,43 +9096,71 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6">
-        <f t="shared" ref="O92:U92" si="175">SUM(O89:O91)</f>
+        <f t="shared" ref="O92:Z92" si="178">SUM(O89:O91)</f>
         <v>-4874</v>
       </c>
       <c r="P92" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>-8195</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>-330</v>
       </c>
       <c r="R92" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>5829</v>
       </c>
       <c r="S92" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>-4779</v>
       </c>
       <c r="T92" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>-6959</v>
       </c>
       <c r="U92" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="178"/>
         <v>-9701</v>
       </c>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
+      <c r="V92" s="6">
+        <f t="shared" si="178"/>
+        <v>-7531</v>
+      </c>
+      <c r="W92" s="6">
+        <f t="shared" si="178"/>
+        <v>-6743</v>
+      </c>
+      <c r="X92" s="6">
+        <f t="shared" si="178"/>
+        <v>-5203</v>
+      </c>
+      <c r="Y92" s="6">
+        <f t="shared" si="178"/>
+        <v>-6077</v>
+      </c>
+      <c r="Z92" s="6">
+        <f t="shared" si="178"/>
+        <v>-6472</v>
+      </c>
       <c r="AA92" s="3">
         <f>SUM(AA89:AA91)</f>
         <v>-8734</v>
       </c>
-    </row>
-    <row r="93" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB92" s="3">
+        <f>SUM(AB89:AB91)</f>
+        <v>-8298</v>
+      </c>
+      <c r="AC92" s="3">
+        <f>SUM(AC89:AC91)</f>
+        <v>-8620</v>
+      </c>
+      <c r="AD92" s="3">
+        <f>SUM(AD89:AD91)</f>
+        <v>-21498</v>
+      </c>
+    </row>
+    <row r="93" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -8307,7 +9185,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
     </row>
-    <row r="94" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
@@ -8347,63 +9225,117 @@
         <f>-2938-T94-S94</f>
         <v>-1011</v>
       </c>
-      <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6"/>
+      <c r="V94" s="6">
+        <f>-3595-U94-T94-S94</f>
+        <v>-657</v>
+      </c>
+      <c r="W94" s="6">
+        <v>-1009</v>
+      </c>
+      <c r="X94" s="6">
+        <f>-2701-W94</f>
+        <v>-1692</v>
+      </c>
+      <c r="Y94" s="6">
+        <f>-4789-X94-W94</f>
+        <v>-2088</v>
+      </c>
+      <c r="Z94" s="3">
+        <f>-7012-Y94-X94-W94</f>
+        <v>-2223</v>
+      </c>
       <c r="AA94" s="3">
         <v>-3162</v>
       </c>
-    </row>
-    <row r="95" spans="2:30" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B95" s="7" t="s">
+      <c r="AB94" s="3">
+        <f>-6370-AA94</f>
+        <v>-3208</v>
+      </c>
+      <c r="AC94" s="3">
+        <f>-9913-AB94-AA94</f>
+        <v>-3543</v>
+      </c>
+      <c r="AD94" s="3">
+        <f>-13770-AC94-AB94-AA94</f>
+        <v>-3857</v>
+      </c>
+    </row>
+    <row r="95" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8">
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="24"/>
+      <c r="O95" s="24">
         <v>-3939</v>
       </c>
-      <c r="P95" s="8">
+      <c r="P95" s="24">
         <f>-11018-O95</f>
         <v>-7079</v>
       </c>
-      <c r="Q95" s="8">
+      <c r="Q95" s="24">
         <f>-24476-P95-O95</f>
         <v>-13458</v>
       </c>
-      <c r="R95" s="8">
+      <c r="R95" s="24">
         <v>-20063</v>
       </c>
-      <c r="S95" s="8">
+      <c r="S95" s="24">
         <v>-9506</v>
       </c>
-      <c r="T95" s="8">
+      <c r="T95" s="24">
         <v>-5233</v>
       </c>
-      <c r="U95" s="8">
+      <c r="U95" s="24">
         <f>-21093-T95-S95</f>
         <v>-6354</v>
       </c>
-      <c r="V95" s="8"/>
-      <c r="W95" s="8"/>
-      <c r="X95" s="8"/>
-      <c r="Y95" s="8"/>
-      <c r="AA95" s="3">
+      <c r="V95" s="24">
+        <f>-27956-U95-T95-S95</f>
+        <v>-6863</v>
+      </c>
+      <c r="W95" s="24">
+        <v>-9365</v>
+      </c>
+      <c r="X95" s="24">
+        <f>-10263-W95</f>
+        <v>-898</v>
+      </c>
+      <c r="Y95" s="24">
+        <f>-13832-X95-W95</f>
+        <v>-3569</v>
+      </c>
+      <c r="Z95" s="23">
+        <f>-19774-Y95-X95-W95</f>
+        <v>-5942</v>
+      </c>
+      <c r="AA95" s="23">
         <v>-15008</v>
       </c>
-    </row>
-    <row r="96" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB95" s="23">
+        <f>-21307-AA95</f>
+        <v>-6299</v>
+      </c>
+      <c r="AC95" s="23">
+        <f>-30125-AB95-AA95</f>
+        <v>-8818</v>
+      </c>
+      <c r="AD95" s="23">
+        <f>-30125-AC95-AB95-AA95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
         <v>209</v>
       </c>
@@ -8427,14 +9359,35 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
+      <c r="W96" s="6">
+        <v>0</v>
+      </c>
+      <c r="X96" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
       <c r="AA96" s="3">
         <v>-1273</v>
       </c>
-    </row>
-    <row r="97" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB96" s="3">
+        <f>-2539-AA96</f>
+        <v>-1266</v>
+      </c>
+      <c r="AC96" s="3">
+        <f>-3802-AB96-AA96</f>
+        <v>-1263</v>
+      </c>
+      <c r="AD96" s="3">
+        <f>-5072-AC96-AB96-AA96</f>
+        <v>-1270</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -8464,15 +9417,35 @@
         <f>9921-T97-S97</f>
         <v>9921</v>
       </c>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
+      <c r="V97" s="6">
+        <v>0</v>
+      </c>
+      <c r="W97" s="6">
+        <v>0</v>
+      </c>
+      <c r="X97" s="6">
+        <v>8455</v>
+      </c>
+      <c r="Y97" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>10432</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>55</v>
       </c>
@@ -8515,16 +9488,44 @@
         <f>-615-250-101-T98-S98</f>
         <v>-409</v>
       </c>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
+      <c r="V98" s="6">
+        <f>-850+344-U98-T98-S98</f>
+        <v>460</v>
+      </c>
+      <c r="W98" s="6">
+        <f>-264+122</f>
+        <v>-142</v>
+      </c>
+      <c r="X98" s="6">
+        <f>-484-231-W98</f>
+        <v>-573</v>
+      </c>
+      <c r="Y98" s="6">
+        <f>-751-182-X98-W98</f>
+        <v>-218</v>
+      </c>
+      <c r="Z98" s="3">
+        <f>-1058-111-Y98-X98-W98</f>
+        <v>-236</v>
+      </c>
       <c r="AA98" s="3">
         <f>-315-9</f>
         <v>-324</v>
       </c>
-    </row>
-    <row r="99" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AB98" s="3">
+        <f>-614-115-AA98</f>
+        <v>-405</v>
+      </c>
+      <c r="AC98" s="3">
+        <f>-1558-350-AB98-AA98</f>
+        <v>-1179</v>
+      </c>
+      <c r="AD98" s="3">
+        <f>-1969-277-AC98-AB98-AA98</f>
+        <v>-338</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
         <v>79</v>
       </c>
@@ -8541,19 +9542,19 @@
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6">
-        <f t="shared" ref="O99:Q99" si="176">SUM(O94:O98)</f>
+        <f t="shared" ref="O99:Q99" si="179">SUM(O94:O98)</f>
         <v>-5185</v>
       </c>
       <c r="P99" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>-8549</v>
       </c>
       <c r="Q99" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="179"/>
         <v>-15252</v>
       </c>
       <c r="R99" s="6">
-        <f t="shared" ref="R99" si="177">SUM(R94:R98)</f>
+        <f t="shared" ref="R99" si="180">SUM(R94:R98)</f>
         <v>-21742</v>
       </c>
       <c r="S99" s="6">
@@ -8568,16 +9569,44 @@
         <f>SUM(U94:U98)</f>
         <v>2147</v>
       </c>
-      <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
-      <c r="Y99" s="6"/>
+      <c r="V99" s="6">
+        <f>SUM(V94:V98)</f>
+        <v>-7060</v>
+      </c>
+      <c r="W99" s="6">
+        <f>SUM(W94:W98)</f>
+        <v>-10516</v>
+      </c>
+      <c r="X99" s="6">
+        <f>SUM(X94:X98)</f>
+        <v>5292</v>
+      </c>
+      <c r="Y99" s="6">
+        <f>SUM(Y94:Y98)</f>
+        <v>-5875</v>
+      </c>
+      <c r="Z99" s="6">
+        <f>SUM(Z94:Z98)</f>
+        <v>-8401</v>
+      </c>
       <c r="AA99" s="3">
         <f>SUM(AA94:AA98)</f>
         <v>-19767</v>
       </c>
-    </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB99" s="3">
+        <f>SUM(AB94:AB98)</f>
+        <v>-11178</v>
+      </c>
+      <c r="AC99" s="3">
+        <f>SUM(AC94:AC98)</f>
+        <v>-4371</v>
+      </c>
+      <c r="AD99" s="3">
+        <f>SUM(AD94:AD98)</f>
+        <v>-5465</v>
+      </c>
+    </row>
+    <row r="100" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -8605,51 +9634,114 @@
         <f>-1063-T100-S100</f>
         <v>-364</v>
       </c>
+      <c r="V100" s="6">
+        <f>-638-U100-T100-S100</f>
+        <v>425</v>
+      </c>
+      <c r="W100" s="1">
+        <v>85</v>
+      </c>
+      <c r="X100" s="1">
+        <f>71-W100</f>
+        <v>-14</v>
+      </c>
+      <c r="Y100" s="1">
+        <f>-283-X100-W100</f>
+        <v>-354</v>
+      </c>
+      <c r="Z100">
+        <f>113-Y100-X100-W100</f>
+        <v>396</v>
+      </c>
       <c r="AA100" s="3">
         <v>-288</v>
       </c>
-    </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB100" s="3">
+        <f>-440-AA100</f>
+        <v>-152</v>
+      </c>
+      <c r="AC100" s="3">
+        <f>-72-AB100-AA100</f>
+        <v>368</v>
+      </c>
+      <c r="AD100" s="3">
+        <f>-786-AC100-AB100-AA100</f>
+        <v>-714</v>
+      </c>
+    </row>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
         <v>81</v>
       </c>
       <c r="O101" s="6">
-        <f t="shared" ref="O101:U101" si="178">+O100+O99+O92+O87</f>
+        <f t="shared" ref="O101:Z101" si="181">+O100+O99+O92+O87</f>
         <v>1937</v>
       </c>
       <c r="P101" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>-3380</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>-1707</v>
       </c>
       <c r="R101" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>2061</v>
       </c>
       <c r="S101" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>-1512</v>
       </c>
       <c r="T101" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>-1875</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="181"/>
         <v>1773</v>
+      </c>
+      <c r="V101" s="6">
+        <f>+V100+V99+V92+V87</f>
+        <v>345</v>
+      </c>
+      <c r="W101" s="6">
+        <f t="shared" si="181"/>
+        <v>-3176</v>
+      </c>
+      <c r="X101" s="6">
+        <f t="shared" si="181"/>
+        <v>17384</v>
+      </c>
+      <c r="Y101" s="6">
+        <f t="shared" si="181"/>
+        <v>8096</v>
+      </c>
+      <c r="Z101" s="6">
+        <f t="shared" si="181"/>
+        <v>4927</v>
       </c>
       <c r="AA101" s="3">
         <f>+AA100+AA99+AA92+AA87</f>
         <v>-9543</v>
       </c>
-    </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB101" s="3">
+        <f>+AB100+AB99+AB92+AB87</f>
+        <v>-258</v>
+      </c>
+      <c r="AC101" s="3">
+        <f>+AC100+AC99+AC92+AC87</f>
+        <v>12101</v>
+      </c>
+      <c r="AD101" s="3">
+        <f>+AD100+AD99+AD92+AD87</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="102" spans="2:34" x14ac:dyDescent="0.2">
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
@@ -8702,56 +9794,74 @@
       <c r="AA103" s="3">
         <v>69329</v>
       </c>
+      <c r="AB103" s="3">
+        <v>70799</v>
+      </c>
       <c r="AC103" s="3">
         <v>72404</v>
       </c>
-    </row>
-    <row r="104" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AD103" s="3">
+        <v>74067</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
         <v>199</v>
       </c>
       <c r="S104" s="6">
-        <f t="shared" ref="S104:AA104" si="179">+S103-R103</f>
+        <f t="shared" ref="S104:AD104" si="182">+S103-R103</f>
         <v>5835</v>
       </c>
       <c r="T104" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>5748</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>3761</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>-1314</v>
       </c>
       <c r="W104" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>-8886</v>
       </c>
       <c r="X104" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>-5645</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>-5284</v>
       </c>
       <c r="Z104" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>1132</v>
       </c>
       <c r="AA104" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="182"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="105" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AB104" s="6">
+        <f t="shared" si="182"/>
+        <v>1470</v>
+      </c>
+      <c r="AC104" s="6">
+        <f t="shared" si="182"/>
+        <v>1605</v>
+      </c>
+      <c r="AD104" s="6">
+        <f t="shared" si="182"/>
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="105" spans="2:34" x14ac:dyDescent="0.2">
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
         <v>126</v>
       </c>
@@ -8760,19 +9870,19 @@
         <v>7970</v>
       </c>
       <c r="P106" s="6">
-        <f t="shared" ref="P106:S106" si="180">+P87+P89</f>
+        <f t="shared" ref="P106:S106" si="183">+P87+P89</f>
         <v>8635</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>9776</v>
       </c>
       <c r="R106" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>12734</v>
       </c>
       <c r="S106" s="6">
-        <f t="shared" si="180"/>
+        <f t="shared" si="183"/>
         <v>8761</v>
       </c>
       <c r="T106" s="6">
@@ -8783,17 +9893,53 @@
         <f>+U87+U89</f>
         <v>336</v>
       </c>
-    </row>
-    <row r="107" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="V106" s="6">
+        <f>+V87+V89</f>
+        <v>5523</v>
+      </c>
+      <c r="W106" s="6">
+        <f>+W87+W89</f>
+        <v>7175</v>
+      </c>
+      <c r="X106" s="6">
+        <f>+X87+X89</f>
+        <v>11175</v>
+      </c>
+      <c r="Y106" s="6">
+        <f>+Y87+Y89</f>
+        <v>13906</v>
+      </c>
+      <c r="Z106" s="6">
+        <f>+Z87+Z89</f>
+        <v>11812</v>
+      </c>
+      <c r="AA106" s="3">
+        <f t="shared" ref="AA106:AB106" si="184">+AA87+AA89</f>
+        <v>12846</v>
+      </c>
+      <c r="AB106" s="3">
+        <f>+AB87+AB89</f>
+        <v>11197</v>
+      </c>
+      <c r="AC106" s="3">
+        <f>+AC87+AC89</f>
+        <v>16466</v>
+      </c>
+      <c r="AD106" s="3">
+        <f>+AD87+AD89</f>
+        <v>13563</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
         <v>127</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" ref="R107:S107" si="181">SUM(O106:R106)</f>
+        <f t="shared" ref="R107:S107" si="185">SUM(O106:R106)</f>
         <v>39115</v>
       </c>
       <c r="S107" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="185"/>
         <v>39906</v>
       </c>
       <c r="T107" s="6">
@@ -8804,86 +9950,232 @@
         <f>SUM(R106:U106)</f>
         <v>26500</v>
       </c>
-    </row>
-    <row r="109" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="3" t="s">
+      <c r="V107" s="6">
+        <f>SUM(S106:V106)</f>
+        <v>19289</v>
+      </c>
+      <c r="W107" s="6">
+        <f t="shared" ref="W107:AA107" si="186">SUM(T106:W106)</f>
+        <v>17703</v>
+      </c>
+      <c r="X107" s="6">
+        <f t="shared" si="186"/>
+        <v>24209</v>
+      </c>
+      <c r="Y107" s="6">
+        <f t="shared" si="186"/>
+        <v>37779</v>
+      </c>
+      <c r="Z107" s="6">
+        <f t="shared" si="186"/>
+        <v>44068</v>
+      </c>
+      <c r="AA107" s="6">
+        <f t="shared" si="186"/>
+        <v>49739</v>
+      </c>
+      <c r="AB107" s="3">
+        <f t="shared" ref="AB107:AC107" si="187">SUM(Y106:AB106)</f>
+        <v>49761</v>
+      </c>
+      <c r="AC107" s="3">
+        <f t="shared" si="187"/>
+        <v>52321</v>
+      </c>
+      <c r="AD107" s="3">
+        <f>SUM(AA106:AD106)</f>
+        <v>54072</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="R108" s="6"/>
+      <c r="S108" s="6"/>
+      <c r="T108" s="6"/>
+      <c r="U108" s="6"/>
+      <c r="V108" s="6"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6"/>
+      <c r="Z108" s="6"/>
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="3"/>
+      <c r="AC108" s="3"/>
+      <c r="AD108" s="19">
+        <f>+AD107/R107-1</f>
+        <v>0.3823852741914866</v>
+      </c>
+    </row>
+    <row r="109" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="O109" s="3">
+        <f t="shared" ref="O109:AC109" si="188">SUM(L32:O32)</f>
+        <v>94400</v>
+      </c>
+      <c r="P109" s="3">
+        <f t="shared" si="188"/>
+        <v>104790</v>
+      </c>
+      <c r="Q109" s="3">
+        <f t="shared" si="188"/>
+        <v>112330</v>
+      </c>
+      <c r="R109" s="3">
+        <f t="shared" si="188"/>
+        <v>117929</v>
+      </c>
+      <c r="S109" s="3">
+        <f t="shared" si="188"/>
+        <v>119666</v>
+      </c>
+      <c r="T109" s="3">
+        <f t="shared" si="188"/>
+        <v>119411</v>
+      </c>
+      <c r="U109" s="3">
+        <f t="shared" si="188"/>
+        <v>118115</v>
+      </c>
+      <c r="V109" s="3">
+        <f t="shared" si="188"/>
+        <v>116609</v>
+      </c>
+      <c r="W109" s="3">
+        <f t="shared" si="188"/>
+        <v>117346</v>
+      </c>
+      <c r="X109" s="3">
+        <f t="shared" si="188"/>
+        <v>120523</v>
+      </c>
+      <c r="Y109" s="3">
+        <f t="shared" si="188"/>
+        <v>126955</v>
+      </c>
+      <c r="Z109" s="3">
+        <f t="shared" si="188"/>
+        <v>134901</v>
+      </c>
+      <c r="AA109" s="3">
+        <f t="shared" si="188"/>
+        <v>142711</v>
+      </c>
+      <c r="AB109" s="3">
+        <f t="shared" si="188"/>
+        <v>149783</v>
+      </c>
+      <c r="AC109" s="3">
+        <f t="shared" si="188"/>
+        <v>156226</v>
+      </c>
+      <c r="AD109" s="3">
+        <f>SUM(AA32:AD32)</f>
+        <v>164500</v>
+      </c>
+      <c r="AE109" s="3">
+        <f t="shared" ref="AE109:AH109" si="189">SUM(AB32:AE32)</f>
+        <v>168145.5</v>
+      </c>
+      <c r="AF109" s="3">
+        <f t="shared" si="189"/>
+        <v>172052.6</v>
+      </c>
+      <c r="AG109" s="3">
+        <f t="shared" si="189"/>
+        <v>176111.5</v>
+      </c>
+      <c r="AH109" s="3">
+        <f t="shared" si="189"/>
+        <v>180950</v>
+      </c>
+    </row>
+    <row r="110" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AD110" s="19">
+        <f>+AD109/R109-1</f>
+        <v>0.39490710512257365</v>
+      </c>
+      <c r="AH110" s="19">
+        <f>+AH109/AD109-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="111" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C109" s="6"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
-      <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
-      <c r="O109" s="6"/>
-      <c r="P109" s="6"/>
-      <c r="Q109" s="6">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6">
         <v>-2631</v>
       </c>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6">
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="6"/>
+      <c r="U111" s="6">
         <v>-3672</v>
       </c>
-      <c r="V109" s="6"/>
-      <c r="W109" s="6"/>
-      <c r="X109" s="6"/>
-      <c r="Y109" s="6"/>
-    </row>
-    <row r="110" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+      <c r="V111" s="6"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="6"/>
+      <c r="Y111" s="6"/>
+    </row>
+    <row r="112" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
         <v>197</v>
       </c>
-      <c r="Q110" s="10"/>
-      <c r="R110" s="10">
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10">
         <f>SUM(Q30:R30)/SUM(M30:N30)-1</f>
         <v>1.0013947001394699</v>
       </c>
-      <c r="S110" s="10">
+      <c r="S112" s="10">
         <f>SUM(R30:S30)/SUM(N30:O30)-1</f>
         <v>0.25659472422062346</v>
       </c>
-      <c r="T110" s="10">
+      <c r="T112" s="10">
         <f>SUM(S30:T30)/SUM(O30:P30)-1</f>
         <v>0.36710369487485095</v>
       </c>
-      <c r="U110" s="10">
+      <c r="U112" s="10">
         <f>SUM(T30:U30)/SUM(P30:Q30)-1</f>
         <v>-0.14600231749710313</v>
       </c>
     </row>
-    <row r="112" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>198</v>
       </c>
-      <c r="Q112" s="6">
+      <c r="Q114" s="6">
         <v>13054</v>
       </c>
-      <c r="R112" s="6"/>
-      <c r="S112" s="6"/>
-      <c r="T112" s="6"/>
-      <c r="U112" s="6">
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="6"/>
+      <c r="U114" s="6">
         <v>9336</v>
       </c>
     </row>
-    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>202</v>
       </c>
-      <c r="U113" s="10">
-        <f>+U112/U32</f>
+      <c r="U115" s="10">
+        <f>+U114/U32</f>
         <v>0.33686945226239445</v>
       </c>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="117" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8909,19 +10201,19 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>128</v>
       </c>
@@ -8944,7 +10236,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>11449606</v>
       </c>
@@ -8967,7 +10259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>11449189</v>
       </c>
@@ -8990,7 +10282,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>11448803</v>
       </c>
@@ -9013,7 +10305,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>11442272</v>
       </c>
@@ -9036,7 +10328,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>11441702</v>
       </c>
@@ -9056,7 +10348,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>11436793</v>
       </c>
@@ -9079,7 +10371,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>11435820</v>
       </c>
@@ -9102,7 +10394,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>11435448</v>
       </c>
@@ -9125,7 +10417,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>11431955</v>
       </c>
@@ -9148,7 +10440,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>11430398</v>
       </c>
@@ -9171,7 +10463,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>11430141</v>
       </c>
@@ -9194,7 +10486,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>11430085</v>
       </c>
@@ -9217,7 +10509,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>11425523</v>
       </c>
@@ -9240,7 +10532,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>11423621</v>
       </c>
@@ -9263,7 +10555,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>11423616</v>
       </c>
@@ -9286,7 +10578,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>11423520</v>
       </c>
@@ -9309,7 +10601,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>11423152</v>
       </c>
@@ -9329,7 +10621,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>11422669</v>
       </c>
@@ -9352,7 +10644,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>11422373</v>
       </c>
@@ -9375,7 +10667,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>11417054</v>
       </c>
@@ -9398,7 +10690,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>11416239</v>
       </c>
@@ -9421,7 +10713,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>11416075</v>
       </c>
@@ -9444,7 +10736,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>11416067</v>
       </c>
@@ -9467,7 +10759,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>11415880</v>
       </c>
@@ -9490,7 +10782,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>11415808</v>
       </c>
@@ -9513,7 +10805,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>189</v>
       </c>
@@ -9536,7 +10828,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>11412511</v>
       </c>

--- a/META.xlsx
+++ b/META.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440F9DC-CD85-4789-BAEE-29072659BCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E2E2AA-6D2A-4F9A-835F-6648A1353268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26880" yWindow="2085" windowWidth="23565" windowHeight="18495" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="55560" yWindow="5870" windowWidth="21180" windowHeight="15720" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <author>tc={48BE0944-3BDD-4973-B1C2-88AA905BEB25}</author>
     <author>tc={A907F4EC-7D24-4D8F-B1A6-DE693B5437EA}</author>
     <author>tc={3D2F6350-1756-4982-89B0-68C8E9231F2B}</author>
+    <author>tc={5607579E-D033-47D3-9B2C-C24197BA8A4A}</author>
   </authors>
   <commentList>
     <comment ref="T31" authorId="0" shapeId="0" xr:uid="{FBBFA768-8F12-42F0-9C0B-EE828045336C}">
@@ -123,6 +124,14 @@
     Q424: 39.5-41.8B</t>
       </text>
     </comment>
+    <comment ref="AF32" authorId="9" shapeId="0" xr:uid="{5607579E-D033-47D3-9B2C-C24197BA8A4A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q225: 42.2-45.5B</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -861,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -909,10 +918,6 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -937,16 +942,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>24152</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37289</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>71936</xdr:rowOff>
+      <xdr:rowOff>1867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>24152</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>71937</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>37289</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>1868</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -961,8 +966,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18843547" y="71936"/>
-          <a:ext cx="0" cy="20533896"/>
+          <a:off x="20322255" y="1867"/>
+          <a:ext cx="0" cy="20538967"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -987,14 +992,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>2299</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>2299</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -1011,8 +1016,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18087975" y="0"/>
-          <a:ext cx="0" cy="8124825"/>
+          <a:off x="30784471" y="0"/>
+          <a:ext cx="0" cy="10004644"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1369,6 +1374,9 @@
   <threadedComment ref="AE32" dT="2025-04-04T15:54:32.49" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{3D2F6350-1756-4982-89B0-68C8E9231F2B}">
     <text>Q424: 39.5-41.8B</text>
   </threadedComment>
+  <threadedComment ref="AF32" dT="2025-04-30T20:23:13.01" personId="{527D12BE-C9D2-4ADE-8FA6-64C9EAF4387F}" id="{5607579E-D033-47D3-9B2C-C24197BA8A4A}">
+    <text>Q225: 42.2-45.5B</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1378,26 +1386,26 @@
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="17">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -1415,7 +1423,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -1427,10 +1435,10 @@
       </c>
       <c r="M4" s="3">
         <f>+M3*M2</f>
-        <v>1279914.909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1426335.155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>125</v>
       </c>
@@ -1445,7 +1453,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -1459,26 +1467,26 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>6</v>
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>1231766.909</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1378187.155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -1489,7 +1497,7 @@
         <v>1865.970703</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>91</v>
       </c>
@@ -1497,22 +1505,22 @@
         <v>366.55794300000002</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -1520,7 +1528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>102</v>
       </c>
@@ -1528,22 +1536,22 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -1556,28 +1564,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
-  <dimension ref="A1:DF117"/>
+  <dimension ref="A1:DF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AN21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="V98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS51" sqref="AS51"/>
+      <selection pane="bottomRight" activeCell="AD105" sqref="AD105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="25" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="25" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
@@ -1745,7 +1753,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1819,8 +1827,11 @@
       <c r="AD3" s="3">
         <v>3350</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE3" s="3">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -1883,7 +1894,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="5" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1952,7 +1963,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="6" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -2002,7 +2013,7 @@
       <c r="X6" s="6"/>
       <c r="Y6" s="6"/>
     </row>
-    <row r="7" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>204</v>
       </c>
@@ -2063,7 +2074,7 @@
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
     </row>
-    <row r="8" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2132,7 +2143,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="9" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>101</v>
       </c>
@@ -2182,7 +2193,7 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2207,7 +2218,7 @@
       <c r="X10" s="6"/>
       <c r="Y10" s="6"/>
     </row>
-    <row r="11" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2274,7 +2285,7 @@
       <c r="X11" s="6"/>
       <c r="Y11" s="6"/>
     </row>
-    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
@@ -2338,7 +2349,7 @@
       <c r="X12" s="6"/>
       <c r="Y12" s="6"/>
     </row>
-    <row r="13" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:54" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
@@ -2390,7 +2401,7 @@
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
     </row>
-    <row r="14" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
@@ -2457,7 +2468,7 @@
       <c r="X14" s="6"/>
       <c r="Y14" s="6"/>
     </row>
-    <row r="15" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
@@ -2524,7 +2535,7 @@
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
     </row>
-    <row r="16" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
@@ -2588,7 +2599,7 @@
       <c r="X16" s="6"/>
       <c r="Y16" s="6"/>
     </row>
-    <row r="17" spans="2:54" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:54" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
@@ -2640,7 +2651,7 @@
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
     </row>
-    <row r="18" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2665,7 +2676,7 @@
       <c r="X18" s="6"/>
       <c r="Y18" s="6"/>
     </row>
-    <row r="19" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>210</v>
       </c>
@@ -2722,7 +2733,7 @@
         <v>20982</v>
       </c>
     </row>
-    <row r="20" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>211</v>
       </c>
@@ -2779,7 +2790,7 @@
         <v>11154</v>
       </c>
     </row>
-    <row r="21" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>212</v>
       </c>
@@ -2836,7 +2847,7 @@
         <v>9012</v>
       </c>
     </row>
-    <row r="22" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>213</v>
       </c>
@@ -2893,7 +2904,7 @@
         <v>5635</v>
       </c>
     </row>
-    <row r="23" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -2918,7 +2929,7 @@
       <c r="X23" s="6"/>
       <c r="Y23" s="6"/>
     </row>
-    <row r="24" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>214</v>
       </c>
@@ -2967,7 +2978,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="25" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>107</v>
       </c>
@@ -3016,7 +3027,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="26" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
@@ -3065,7 +3076,7 @@
         <v>8404</v>
       </c>
     </row>
-    <row r="27" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
@@ -3114,7 +3125,7 @@
         <v>13646</v>
       </c>
     </row>
-    <row r="28" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -3139,7 +3150,7 @@
       <c r="X28" s="6"/>
       <c r="Y28" s="6"/>
     </row>
-    <row r="29" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -3223,6 +3234,9 @@
       <c r="AD29" s="3">
         <v>519</v>
       </c>
+      <c r="AE29" s="3">
+        <v>510</v>
+      </c>
       <c r="AP29" s="3">
         <v>825</v>
       </c>
@@ -3236,7 +3250,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="30" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
@@ -3302,6 +3316,9 @@
       <c r="AD30" s="3">
         <v>1083</v>
       </c>
+      <c r="AE30" s="3">
+        <v>412</v>
+      </c>
       <c r="AQ30" s="3">
         <v>501</v>
       </c>
@@ -3312,7 +3329,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="31" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:54" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
@@ -3411,7 +3428,9 @@
       <c r="AD31" s="6">
         <v>46783</v>
       </c>
-      <c r="AE31" s="6"/>
+      <c r="AE31" s="6">
+        <v>41392</v>
+      </c>
       <c r="AF31" s="6"/>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6"/>
@@ -3444,7 +3463,7 @@
         <v>114934</v>
       </c>
     </row>
-    <row r="32" spans="2:54" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:54" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
@@ -3554,8 +3573,8 @@
         <v>48385</v>
       </c>
       <c r="AE32" s="8">
-        <f>+AA32*1.1</f>
-        <v>40100.5</v>
+        <f>+AE31+AE30+AE29</f>
+        <v>42314</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" ref="AF32:AH32" si="14">+AB32*1.1</f>
@@ -3643,7 +3662,7 @@
         <v>213843.86012797506</v>
       </c>
     </row>
-    <row r="33" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -3732,7 +3751,9 @@
       <c r="AD33" s="6">
         <v>8839</v>
       </c>
-      <c r="AE33" s="6"/>
+      <c r="AE33" s="6">
+        <v>7572</v>
+      </c>
       <c r="AF33" s="6"/>
       <c r="AG33" s="6"/>
       <c r="AH33" s="6"/>
@@ -3786,7 +3807,7 @@
         <v>40630.333424315264</v>
       </c>
     </row>
-    <row r="34" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
@@ -3902,7 +3923,10 @@
         <f>+AD32-AD33</f>
         <v>39546</v>
       </c>
-      <c r="AE34" s="6"/>
+      <c r="AE34" s="6">
+        <f>+AE32-AE33</f>
+        <v>34742</v>
+      </c>
       <c r="AF34" s="6"/>
       <c r="AG34" s="6"/>
       <c r="AH34" s="6"/>
@@ -3960,7 +3984,7 @@
         <v>173213.52670365979</v>
       </c>
     </row>
-    <row r="35" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -4049,7 +4073,9 @@
       <c r="AD35" s="6">
         <v>12180</v>
       </c>
-      <c r="AE35" s="6"/>
+      <c r="AE35" s="6">
+        <v>12150</v>
+      </c>
       <c r="AF35" s="6"/>
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
@@ -4103,7 +4129,7 @@
         <v>9551.8521562949991</v>
       </c>
     </row>
-    <row r="36" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
@@ -4192,7 +4218,9 @@
       <c r="AD36" s="6">
         <v>3240</v>
       </c>
-      <c r="AE36" s="6"/>
+      <c r="AE36" s="6">
+        <v>2757</v>
+      </c>
       <c r="AF36" s="6"/>
       <c r="AG36" s="6"/>
       <c r="AH36" s="6"/>
@@ -4246,7 +4274,7 @@
         <v>14043</v>
       </c>
     </row>
-    <row r="37" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
@@ -4338,7 +4366,9 @@
       <c r="AD37" s="6">
         <v>761</v>
       </c>
-      <c r="AE37" s="6"/>
+      <c r="AE37" s="6">
+        <v>2280</v>
+      </c>
       <c r="AF37" s="6"/>
       <c r="AG37" s="6"/>
       <c r="AH37" s="6"/>
@@ -4393,7 +4423,7 @@
         <v>9829</v>
       </c>
     </row>
-    <row r="38" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
@@ -4509,10 +4539,22 @@
         <f>+AD37+AD36+AD35</f>
         <v>16181</v>
       </c>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
+      <c r="AE38" s="6">
+        <f>+AE37+AE36+AE35</f>
+        <v>17187</v>
+      </c>
+      <c r="AF38" s="6">
+        <f t="shared" ref="AF38:AH38" si="43">+AF37+AF36+AF35</f>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="6">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
       <c r="AI38" s="6"/>
       <c r="AP38" s="3">
         <f>SUM(AP35:AP37)</f>
@@ -4527,112 +4569,112 @@
         <v>36602</v>
       </c>
       <c r="AS38" s="3">
-        <f t="shared" ref="AS38" si="43">SUM(AS35:AS37)</f>
+        <f t="shared" ref="AS38" si="44">SUM(AS35:AS37)</f>
         <v>48527</v>
       </c>
       <c r="AT38" s="3">
-        <f t="shared" ref="AT38" si="44">SUM(AT35:AT37)</f>
+        <f t="shared" ref="AT38" si="45">SUM(AT35:AT37)</f>
         <v>46061.5</v>
       </c>
       <c r="AU38" s="3">
-        <f t="shared" ref="AU38" si="45">SUM(AU35:AU37)</f>
+        <f t="shared" ref="AU38" si="46">SUM(AU35:AU37)</f>
         <v>43842.55</v>
       </c>
       <c r="AV38" s="3">
-        <f t="shared" ref="AV38" si="46">SUM(AV35:AV37)</f>
+        <f t="shared" ref="AV38" si="47">SUM(AV35:AV37)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="AW38" s="3">
-        <f t="shared" ref="AW38" si="47">SUM(AW35:AW37)</f>
+        <f t="shared" ref="AW38" si="48">SUM(AW35:AW37)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="AX38" s="3">
-        <f t="shared" ref="AX38" si="48">SUM(AX35:AX37)</f>
+        <f t="shared" ref="AX38" si="49">SUM(AX35:AX37)</f>
         <v>38430.53095</v>
       </c>
       <c r="AY38" s="3">
-        <f t="shared" ref="AY38" si="49">SUM(AY35:AY37)</f>
+        <f t="shared" ref="AY38" si="50">SUM(AY35:AY37)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="AZ38" s="3">
-        <f t="shared" ref="AZ38" si="50">SUM(AZ35:AZ37)</f>
+        <f t="shared" ref="AZ38" si="51">SUM(AZ35:AZ37)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="BA38" s="3">
-        <f t="shared" ref="BA38" si="51">SUM(BA35:BA37)</f>
+        <f t="shared" ref="BA38" si="52">SUM(BA35:BA37)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="BB38" s="3">
-        <f t="shared" ref="BB38" si="52">SUM(BB35:BB37)</f>
+        <f t="shared" ref="BB38" si="53">SUM(BB35:BB37)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
-    <row r="39" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" ref="C39:D39" si="53">+C34-C38</f>
+        <f t="shared" ref="C39:D39" si="54">+C34-C38</f>
         <v>5449</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>5863</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" ref="E39:G39" si="54">+E34-E38</f>
+        <f t="shared" ref="E39:G39" si="55">+E34-E38</f>
         <v>5781</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7820</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>6317</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39:I39" si="55">+H34-H38</f>
+        <f t="shared" ref="H39:I39" si="56">+H34-H38</f>
         <v>6626</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>7185</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" ref="J39:K39" si="56">+J34-J38</f>
+        <f t="shared" ref="J39:K39" si="57">+J34-J38</f>
         <v>8858</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5893</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" ref="L39" si="57">+L34-L38</f>
+        <f t="shared" ref="L39" si="58">+L34-L38</f>
         <v>5963</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" ref="M39" si="58">+M34-M38</f>
+        <f t="shared" ref="M39" si="59">+M34-M38</f>
         <v>8040</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" ref="N39" si="59">+N34-N38</f>
+        <f t="shared" ref="N39" si="60">+N34-N38</f>
         <v>12775</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" ref="O39:R39" si="60">+O34-O38</f>
+        <f t="shared" ref="O39:R39" si="61">+O34-O38</f>
         <v>11378</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>12367</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>10423</v>
       </c>
       <c r="R39" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>12585</v>
       </c>
       <c r="S39" s="6">
@@ -4640,31 +4682,31 @@
         <v>8524</v>
       </c>
       <c r="T39" s="6">
-        <f t="shared" ref="T39:V39" si="61">+T34-T38</f>
+        <f t="shared" ref="T39:V39" si="62">+T34-T38</f>
         <v>8358</v>
       </c>
       <c r="U39" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>5664</v>
       </c>
       <c r="V39" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>6399</v>
       </c>
       <c r="W39" s="6">
-        <f t="shared" ref="W39:Z39" si="62">+W34-W38</f>
+        <f t="shared" ref="W39:Z39" si="63">+W34-W38</f>
         <v>10588.449999999999</v>
       </c>
       <c r="X39" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>11262</v>
       </c>
       <c r="Y39" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>13748</v>
       </c>
       <c r="Z39" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>15655.690000000002</v>
       </c>
       <c r="AA39" s="6">
@@ -4683,10 +4725,22 @@
         <f>+AD34-AD38</f>
         <v>23365</v>
       </c>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
+      <c r="AE39" s="6">
+        <f>+AE34-AE38</f>
+        <v>17555</v>
+      </c>
+      <c r="AF39" s="6">
+        <f t="shared" ref="AF39:AH39" si="64">+AF34-AF38</f>
+        <v>0</v>
+      </c>
+      <c r="AG39" s="6">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="6">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
       <c r="AI39" s="6"/>
       <c r="AP39" s="3">
         <f>AP34-AP38</f>
@@ -4701,47 +4755,47 @@
         <v>32671</v>
       </c>
       <c r="AS39" s="3">
-        <f t="shared" ref="AS39" si="63">AS34-AS38</f>
+        <f t="shared" ref="AS39" si="65">AS34-AS38</f>
         <v>46753</v>
       </c>
       <c r="AT39" s="3">
-        <f t="shared" ref="AT39" si="64">AT34-AT38</f>
+        <f t="shared" ref="AT39" si="66">AT34-AT38</f>
         <v>48391.790000000008</v>
       </c>
       <c r="AU39" s="3">
-        <f t="shared" ref="AU39" si="65">AU34-AU38</f>
+        <f t="shared" ref="AU39" si="67">AU34-AU38</f>
         <v>65427.260000000009</v>
       </c>
       <c r="AV39" s="3">
-        <f t="shared" ref="AV39" si="66">AV34-AV38</f>
+        <f t="shared" ref="AV39" si="68">AV34-AV38</f>
         <v>91399.505000000005</v>
       </c>
       <c r="AW39" s="3">
-        <f t="shared" ref="AW39" si="67">AW34-AW38</f>
+        <f t="shared" ref="AW39" si="69">AW34-AW38</f>
         <v>106521.35450000003</v>
       </c>
       <c r="AX39" s="3">
-        <f t="shared" ref="AX39" si="68">AX34-AX38</f>
+        <f t="shared" ref="AX39" si="70">AX34-AX38</f>
         <v>115467.44405000003</v>
       </c>
       <c r="AY39" s="3">
-        <f t="shared" ref="AY39" si="69">AY34-AY38</f>
+        <f t="shared" ref="AY39" si="71">AY34-AY38</f>
         <v>121540.23639500006</v>
       </c>
       <c r="AZ39" s="3">
-        <f t="shared" ref="AZ39" si="70">AZ34-AZ38</f>
+        <f t="shared" ref="AZ39" si="72">AZ34-AZ38</f>
         <v>127605.95160800005</v>
       </c>
       <c r="BA39" s="3">
-        <f t="shared" ref="BA39" si="71">BA34-BA38</f>
+        <f t="shared" ref="BA39" si="73">BA34-BA38</f>
         <v>133683.30346527504</v>
       </c>
       <c r="BB39" s="3">
-        <f t="shared" ref="BB39" si="72">BB34-BB38</f>
+        <f t="shared" ref="BB39" si="74">BB34-BB38</f>
         <v>139789.67454736479</v>
       </c>
     </row>
-    <row r="40" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
@@ -4830,7 +4884,9 @@
       <c r="AD40" s="6">
         <v>188</v>
       </c>
-      <c r="AE40" s="6"/>
+      <c r="AE40" s="6">
+        <v>827</v>
+      </c>
       <c r="AF40" s="6"/>
       <c r="AG40" s="6"/>
       <c r="AH40" s="6"/>
@@ -4848,104 +4904,104 @@
         <v>531</v>
       </c>
       <c r="AU40" s="3">
-        <f t="shared" ref="AU40:BB40" si="73">+AT59*$BG$58</f>
+        <f t="shared" ref="AU40:BB40" si="75">+AT59*$BG$58</f>
         <v>938.78</v>
       </c>
       <c r="AV40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>2027.1830560000003</v>
       </c>
       <c r="AW40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>3559.3807401184004</v>
       </c>
       <c r="AX40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>5364.704798056343</v>
       </c>
       <c r="AY40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>7346.352039164467</v>
       </c>
       <c r="AZ40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>9460.0920894847641</v>
       </c>
       <c r="BA40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>11707.975206123516</v>
       </c>
       <c r="BB40" s="3">
-        <f t="shared" si="73"/>
+        <f t="shared" si="75"/>
         <v>14092.392176334453</v>
       </c>
     </row>
-    <row r="41" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C41" s="6">
-        <f t="shared" ref="C41:D41" si="74">+C39+C40</f>
+        <f t="shared" ref="C41:D41" si="76">+C39+C40</f>
         <v>5610</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>5868</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" ref="E41:G41" si="75">+E39+E40</f>
+        <f t="shared" ref="E41:G41" si="77">+E39+E40</f>
         <v>5912</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>7971</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>6523</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" ref="H41" si="76">+H39+H40</f>
+        <f t="shared" ref="H41" si="78">+H39+H40</f>
         <v>6832</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" ref="I41:J41" si="77">+I39+I40</f>
+        <f t="shared" ref="I41:J41" si="79">+I39+I40</f>
         <v>7329</v>
       </c>
       <c r="J41" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>9169</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" ref="K41:R41" si="78">+K39+K40</f>
+        <f t="shared" ref="K41:R41" si="80">+K39+K40</f>
         <v>5861</v>
       </c>
       <c r="L41" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>6131</v>
       </c>
       <c r="M41" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>8133</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>13055</v>
       </c>
       <c r="O41" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>11503</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>12513</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>10565</v>
       </c>
       <c r="R41" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>12702</v>
       </c>
       <c r="S41" s="6">
@@ -4953,31 +5009,31 @@
         <v>8908</v>
       </c>
       <c r="T41" s="6">
-        <f t="shared" ref="T41:Z41" si="79">+T39+T40</f>
+        <f t="shared" ref="T41:Z41" si="81">+T39+T40</f>
         <v>8186</v>
       </c>
       <c r="U41" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>5576</v>
       </c>
       <c r="V41" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>6149</v>
       </c>
       <c r="W41" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>10338.449999999999</v>
       </c>
       <c r="X41" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>11163</v>
       </c>
       <c r="Y41" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>14020</v>
       </c>
       <c r="Z41" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>16079.690000000002</v>
       </c>
       <c r="AA41" s="6">
@@ -4996,10 +5052,22 @@
         <f>+AD39+AD40</f>
         <v>23553</v>
       </c>
-      <c r="AE41" s="6"/>
-      <c r="AF41" s="6"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
+      <c r="AE41" s="6">
+        <f>+AE39+AE40</f>
+        <v>18382</v>
+      </c>
+      <c r="AF41" s="6">
+        <f t="shared" ref="AF41:AH41" si="82">+AF39+AF40</f>
+        <v>0</v>
+      </c>
+      <c r="AG41" s="6">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="AH41" s="6">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
       <c r="AI41" s="6"/>
       <c r="AP41" s="3">
         <f>+AP39+AP40</f>
@@ -5014,47 +5082,47 @@
         <v>33180</v>
       </c>
       <c r="AS41" s="3">
-        <f t="shared" ref="AS41" si="80">+AS39+AS40</f>
+        <f t="shared" ref="AS41" si="83">+AS39+AS40</f>
         <v>47284</v>
       </c>
       <c r="AT41" s="3">
-        <f t="shared" ref="AT41" si="81">+AT39+AT40</f>
+        <f t="shared" ref="AT41" si="84">+AT39+AT40</f>
         <v>48391.790000000008</v>
       </c>
       <c r="AU41" s="3">
-        <f t="shared" ref="AU41" si="82">+AU39+AU40</f>
+        <f t="shared" ref="AU41" si="85">+AU39+AU40</f>
         <v>66366.040000000008</v>
       </c>
       <c r="AV41" s="3">
-        <f t="shared" ref="AV41" si="83">+AV39+AV40</f>
+        <f t="shared" ref="AV41" si="86">+AV39+AV40</f>
         <v>93426.688055999999</v>
       </c>
       <c r="AW41" s="3">
-        <f t="shared" ref="AW41" si="84">+AW39+AW40</f>
+        <f t="shared" ref="AW41" si="87">+AW39+AW40</f>
         <v>110080.73524011843</v>
       </c>
       <c r="AX41" s="3">
-        <f t="shared" ref="AX41" si="85">+AX39+AX40</f>
+        <f t="shared" ref="AX41" si="88">+AX39+AX40</f>
         <v>120832.14884805637</v>
       </c>
       <c r="AY41" s="3">
-        <f t="shared" ref="AY41" si="86">+AY39+AY40</f>
+        <f t="shared" ref="AY41" si="89">+AY39+AY40</f>
         <v>128886.58843416453</v>
       </c>
       <c r="AZ41" s="3">
-        <f t="shared" ref="AZ41" si="87">+AZ39+AZ40</f>
+        <f t="shared" ref="AZ41" si="90">+AZ39+AZ40</f>
         <v>137066.0436974848</v>
       </c>
       <c r="BA41" s="3">
-        <f t="shared" ref="BA41" si="88">+BA39+BA40</f>
+        <f t="shared" ref="BA41" si="91">+BA39+BA40</f>
         <v>145391.27867139856</v>
       </c>
       <c r="BB41" s="3">
-        <f t="shared" ref="BB41" si="89">+BB39+BB40</f>
+        <f t="shared" ref="BB41" si="92">+BB39+BB40</f>
         <v>153882.06672369924</v>
       </c>
     </row>
-    <row r="42" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
@@ -5120,7 +5188,7 @@
         <v>1497</v>
       </c>
       <c r="W42" s="6">
-        <f t="shared" ref="W42" si="90">+W41*0.19</f>
+        <f t="shared" ref="W42" si="93">+W41*0.19</f>
         <v>1964.3054999999997</v>
       </c>
       <c r="X42" s="6">
@@ -5144,7 +5212,9 @@
       <c r="AD42" s="6">
         <v>2715</v>
       </c>
-      <c r="AE42" s="6"/>
+      <c r="AE42" s="6">
+        <v>1738</v>
+      </c>
       <c r="AF42" s="6"/>
       <c r="AG42" s="6"/>
       <c r="AH42" s="6"/>
@@ -5167,104 +5237,104 @@
         <v>8710.5222000000012</v>
       </c>
       <c r="AU42" s="3">
-        <f t="shared" ref="AU42:BB42" si="91">+AU41*0.18</f>
+        <f t="shared" ref="AU42:BB42" si="94">+AU41*0.18</f>
         <v>11945.887200000001</v>
       </c>
       <c r="AV42" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>16816.803850079999</v>
       </c>
       <c r="AW42" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>19814.532343221315</v>
       </c>
       <c r="AX42" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>21749.786792650146</v>
       </c>
       <c r="AY42" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>23199.585918149613</v>
       </c>
       <c r="AZ42" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>24671.887865547262</v>
       </c>
       <c r="BA42" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>26170.430160851738</v>
       </c>
       <c r="BB42" s="3">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>27698.772010265864</v>
       </c>
     </row>
-    <row r="43" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C43" s="6">
-        <f t="shared" ref="C43:D43" si="92">+C41-C42</f>
+        <f t="shared" ref="C43:D43" si="95">+C41-C42</f>
         <v>4987</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>5106</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" ref="E43:G43" si="93">+E41-E42</f>
+        <f t="shared" ref="E43:G43" si="96">+E41-E42</f>
         <v>5137</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>6882</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>4307</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" ref="H43" si="94">+H41-H42</f>
+        <f t="shared" ref="H43" si="97">+H41-H42</f>
         <v>4616</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" ref="I43:J43" si="95">+I41-I42</f>
+        <f t="shared" ref="I43:J43" si="98">+I41-I42</f>
         <v>6091</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="95"/>
+        <f t="shared" si="98"/>
         <v>7349</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43:L43" si="96">+K41-K42</f>
+        <f t="shared" ref="K43:L43" si="99">+K41-K42</f>
         <v>4902</v>
       </c>
       <c r="L43" s="6">
-        <f t="shared" si="96"/>
+        <f t="shared" si="99"/>
         <v>5178</v>
       </c>
       <c r="M43" s="6">
-        <f t="shared" ref="M43:R43" si="97">+M41-M42</f>
+        <f t="shared" ref="M43:R43" si="100">+M41-M42</f>
         <v>7846</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>11219</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>9497</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>10394</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>9194</v>
       </c>
       <c r="R43" s="6">
-        <f t="shared" si="97"/>
+        <f t="shared" si="100"/>
         <v>10285</v>
       </c>
       <c r="S43" s="6">
@@ -5272,53 +5342,65 @@
         <v>7465</v>
       </c>
       <c r="T43" s="6">
-        <f t="shared" ref="T43:V43" si="98">+T41-T42</f>
+        <f t="shared" ref="T43:V43" si="101">+T41-T42</f>
         <v>6687</v>
       </c>
       <c r="U43" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>4395</v>
       </c>
       <c r="V43" s="6">
-        <f t="shared" si="98"/>
+        <f t="shared" si="101"/>
         <v>4652</v>
       </c>
       <c r="W43" s="6">
-        <f t="shared" ref="W43:AD43" si="99">+W41-W42</f>
+        <f t="shared" ref="W43:AH43" si="102">+W41-W42</f>
         <v>8374.1444999999985</v>
       </c>
       <c r="X43" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>9658</v>
       </c>
       <c r="Y43" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>11583</v>
       </c>
       <c r="Z43" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>13288.690000000002</v>
       </c>
       <c r="AA43" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>12369</v>
       </c>
       <c r="AB43" s="6">
-        <f t="shared" ref="AB43" si="100">+AB41-AB42</f>
+        <f t="shared" ref="AB43" si="103">+AB41-AB42</f>
         <v>13465</v>
       </c>
       <c r="AC43" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>15688</v>
       </c>
       <c r="AD43" s="6">
-        <f t="shared" si="99"/>
+        <f t="shared" si="102"/>
         <v>20838</v>
       </c>
-      <c r="AE43" s="6"/>
-      <c r="AF43" s="6"/>
-      <c r="AG43" s="6"/>
-      <c r="AH43" s="6"/>
+      <c r="AE43" s="6">
+        <f t="shared" si="102"/>
+        <v>16644</v>
+      </c>
+      <c r="AF43" s="6">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="6">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="6">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
       <c r="AI43" s="6"/>
       <c r="AP43" s="3">
         <f>+AP41-AP42</f>
@@ -5333,336 +5415,336 @@
         <v>29146</v>
       </c>
       <c r="AS43" s="3">
-        <f t="shared" ref="AS43" si="101">+AS41-AS42</f>
+        <f t="shared" ref="AS43" si="104">+AS41-AS42</f>
         <v>39370</v>
       </c>
       <c r="AT43" s="3">
-        <f t="shared" ref="AT43" si="102">+AT41-AT42</f>
+        <f t="shared" ref="AT43" si="105">+AT41-AT42</f>
         <v>39681.267800000009</v>
       </c>
       <c r="AU43" s="3">
-        <f t="shared" ref="AU43" si="103">+AU41-AU42</f>
+        <f t="shared" ref="AU43" si="106">+AU41-AU42</f>
         <v>54420.152800000011</v>
       </c>
       <c r="AV43" s="3">
-        <f t="shared" ref="AV43" si="104">+AV41-AV42</f>
+        <f t="shared" ref="AV43" si="107">+AV41-AV42</f>
         <v>76609.884205919996</v>
       </c>
       <c r="AW43" s="3">
-        <f t="shared" ref="AW43" si="105">+AW41-AW42</f>
+        <f t="shared" ref="AW43" si="108">+AW41-AW42</f>
         <v>90266.202896897114</v>
       </c>
       <c r="AX43" s="3">
-        <f t="shared" ref="AX43" si="106">+AX41-AX42</f>
+        <f t="shared" ref="AX43" si="109">+AX41-AX42</f>
         <v>99082.362055406222</v>
       </c>
       <c r="AY43" s="3">
-        <f t="shared" ref="AY43" si="107">+AY41-AY42</f>
+        <f t="shared" ref="AY43" si="110">+AY41-AY42</f>
         <v>105687.00251601491</v>
       </c>
       <c r="AZ43" s="3">
-        <f t="shared" ref="AZ43" si="108">+AZ41-AZ42</f>
+        <f t="shared" ref="AZ43" si="111">+AZ41-AZ42</f>
         <v>112394.15583193753</v>
       </c>
       <c r="BA43" s="3">
-        <f t="shared" ref="BA43" si="109">+BA41-BA42</f>
+        <f t="shared" ref="BA43" si="112">+BA41-BA42</f>
         <v>119220.84851054681</v>
       </c>
       <c r="BB43" s="3">
-        <f t="shared" ref="BB43" si="110">+BB41-BB42</f>
+        <f t="shared" ref="BB43" si="113">+BB41-BB42</f>
         <v>126183.29471343338</v>
       </c>
       <c r="BC43" s="3">
-        <f t="shared" ref="BC43:CH43" si="111">+BB43*(1+$BG$57)</f>
+        <f t="shared" ref="BC43:CH43" si="114">+BB43*(1+$BG$57)</f>
         <v>119874.12997776171</v>
       </c>
       <c r="BD43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>113880.42347887362</v>
       </c>
       <c r="BE43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>108186.40230492993</v>
       </c>
       <c r="BF43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>102777.08218968342</v>
       </c>
       <c r="BG43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>97638.228080199246</v>
       </c>
       <c r="BH43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>92756.316676189279</v>
       </c>
       <c r="BI43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>88118.500842379814</v>
       </c>
       <c r="BJ43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>83712.57580026082</v>
       </c>
       <c r="BK43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>79526.947010247779</v>
       </c>
       <c r="BL43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>75550.599659735381</v>
       </c>
       <c r="BM43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>71773.069676748608</v>
       </c>
       <c r="BN43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>68184.416192911172</v>
       </c>
       <c r="BO43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>64775.195383265607</v>
       </c>
       <c r="BP43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>61536.435614102324</v>
       </c>
       <c r="BQ43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>58459.613833397205</v>
       </c>
       <c r="BR43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>55536.63314172734</v>
       </c>
       <c r="BS43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>52759.801484640971</v>
       </c>
       <c r="BT43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>50121.811410408918</v>
       </c>
       <c r="BU43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>47615.720839888469</v>
       </c>
       <c r="BV43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>45234.934797894042</v>
       </c>
       <c r="BW43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>42973.188057999338</v>
       </c>
       <c r="BX43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>40824.52865509937</v>
       </c>
       <c r="BY43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>38783.302222344399</v>
       </c>
       <c r="BZ43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>36844.137111227174</v>
       </c>
       <c r="CA43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>35001.930255665815</v>
       </c>
       <c r="CB43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>33251.833742882525</v>
       </c>
       <c r="CC43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>31589.242055738396</v>
       </c>
       <c r="CD43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>30009.779952951474</v>
       </c>
       <c r="CE43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>28509.290955303899</v>
       </c>
       <c r="CF43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>27083.826407538701</v>
       </c>
       <c r="CG43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>25729.635087161765</v>
       </c>
       <c r="CH43" s="3">
-        <f t="shared" si="111"/>
+        <f t="shared" si="114"/>
         <v>24443.153332803675</v>
       </c>
       <c r="CI43" s="3">
-        <f t="shared" ref="CI43:DF43" si="112">+CH43*(1+$BG$57)</f>
+        <f t="shared" ref="CI43:DF43" si="115">+CH43*(1+$BG$57)</f>
         <v>23220.99566616349</v>
       </c>
       <c r="CJ43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>22059.945882855314</v>
       </c>
       <c r="CK43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>20956.948588712548</v>
       </c>
       <c r="CL43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>19909.101159276921</v>
       </c>
       <c r="CM43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>18913.646101313076</v>
       </c>
       <c r="CN43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>17967.963796247423</v>
       </c>
       <c r="CO43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>17069.565606435051</v>
       </c>
       <c r="CP43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>16216.087326113298</v>
       </c>
       <c r="CQ43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>15405.282959807633</v>
       </c>
       <c r="CR43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>14635.01881181725</v>
       </c>
       <c r="CS43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>13903.267871226386</v>
       </c>
       <c r="CT43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>13208.104477665067</v>
       </c>
       <c r="CU43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>12547.699253781813</v>
       </c>
       <c r="CV43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>11920.314291092722</v>
       </c>
       <c r="CW43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>11324.298576538085</v>
       </c>
       <c r="CX43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>10758.083647711181</v>
       </c>
       <c r="CY43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>10220.179465325622</v>
       </c>
       <c r="CZ43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>9709.1704920593402</v>
       </c>
       <c r="DA43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>9223.7119674563728</v>
       </c>
       <c r="DB43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>8762.5263690835545</v>
       </c>
       <c r="DC43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>8324.400050629376</v>
       </c>
       <c r="DD43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>7908.1800480979064</v>
       </c>
       <c r="DE43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>7512.7710456930108</v>
       </c>
       <c r="DF43" s="3">
-        <f t="shared" si="112"/>
+        <f t="shared" si="115"/>
         <v>7137.1324934083596</v>
       </c>
     </row>
-    <row r="44" spans="2:110" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:110" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C44" s="9">
-        <f t="shared" ref="C44:D44" si="113">+C43/C45</f>
+        <f t="shared" ref="C44:D44" si="116">+C43/C45</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="D44" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" ref="E44:G44" si="114">+E43/E45</f>
+        <f t="shared" ref="E44:G44" si="117">+E43/E45</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" ref="H44" si="115">+H43/H45</f>
+        <f t="shared" ref="H44" si="118">+H43/H45</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="I44" s="9">
-        <f t="shared" ref="I44:J44" si="116">+I43/I45</f>
+        <f t="shared" ref="I44:J44" si="119">+I43/I45</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="J44" s="9">
-        <f t="shared" si="116"/>
+        <f t="shared" si="119"/>
         <v>2.559735283873215</v>
       </c>
       <c r="K44" s="9">
-        <f t="shared" ref="K44:L44" si="117">+K43/K45</f>
+        <f t="shared" ref="K44:L44" si="120">+K43/K45</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="L44" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="120"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="M44" s="9">
-        <f t="shared" ref="M44:R44" si="118">+M43/M45</f>
+        <f t="shared" ref="M44:R44" si="121">+M43/M45</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="N44" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>3.882006920415225</v>
       </c>
       <c r="O44" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="P44" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="Q44" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="S44" s="9">
@@ -5670,50 +5752,53 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="T44" s="9">
-        <f t="shared" ref="T44:V44" si="119">+T43/T45</f>
+        <f t="shared" ref="T44:V44" si="122">+T43/T45</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="U44" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>1.7621212121212122</v>
       </c>
       <c r="W44" s="9">
-        <f t="shared" ref="W44:AD44" si="120">+W43/W45</f>
+        <f t="shared" ref="W44:AE44" si="123">+W43/W45</f>
         <v>3.1720244318181812</v>
       </c>
       <c r="X44" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>3.6975497702909648</v>
       </c>
       <c r="Y44" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>4.3858386974630825</v>
       </c>
       <c r="Z44" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>5.0527338403041835</v>
       </c>
       <c r="AA44" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>4.7119999999999997</v>
       </c>
       <c r="AB44" s="9">
-        <f t="shared" ref="AB44" si="121">+AB43/AB45</f>
+        <f t="shared" ref="AB44" si="124">+AB43/AB45</f>
         <v>5.1590038314176248</v>
       </c>
       <c r="AC44" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>6.0338461538461541</v>
       </c>
       <c r="AD44" s="9">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>8.0176991150442483</v>
       </c>
-      <c r="AE44" s="9"/>
+      <c r="AE44" s="9">
+        <f t="shared" si="123"/>
+        <v>6.4262548262548265</v>
+      </c>
       <c r="AF44" s="9"/>
       <c r="AG44" s="9"/>
       <c r="AH44" s="9"/>
@@ -5731,47 +5816,47 @@
         <v>10.092105263157896</v>
       </c>
       <c r="AS44" s="17">
-        <f t="shared" ref="AS44" si="122">+AS43/AS45</f>
+        <f t="shared" ref="AS44" si="125">+AS43/AS45</f>
         <v>13.770549143057012</v>
       </c>
       <c r="AT44" s="17">
-        <f t="shared" ref="AT44" si="123">+AT43/AT45</f>
+        <f t="shared" ref="AT44" si="126">+AT43/AT45</f>
         <v>14.721301354108704</v>
       </c>
       <c r="AU44" s="17">
-        <f t="shared" ref="AU44" si="124">+AU43/AU45</f>
+        <f t="shared" ref="AU44" si="127">+AU43/AU45</f>
         <v>20.189260916342057</v>
       </c>
       <c r="AV44" s="17">
-        <f t="shared" ref="AV44" si="125">+AV43/AV45</f>
+        <f t="shared" ref="AV44" si="128">+AV43/AV45</f>
         <v>28.421400187690594</v>
       </c>
       <c r="AW44" s="17">
-        <f t="shared" ref="AW44" si="126">+AW43/AW45</f>
+        <f t="shared" ref="AW44" si="129">+AW43/AW45</f>
         <v>33.487739898681916</v>
       </c>
       <c r="AX44" s="17">
-        <f t="shared" ref="AX44" si="127">+AX43/AX45</f>
+        <f t="shared" ref="AX44" si="130">+AX43/AX45</f>
         <v>36.758435190282405</v>
       </c>
       <c r="AY44" s="17">
-        <f t="shared" ref="AY44" si="128">+AY43/AY45</f>
+        <f t="shared" ref="AY44" si="131">+AY43/AY45</f>
         <v>39.208682068638439</v>
       </c>
       <c r="AZ44" s="17">
-        <f t="shared" ref="AZ44" si="129">+AZ43/AZ45</f>
+        <f t="shared" ref="AZ44" si="132">+AZ43/AZ45</f>
         <v>41.696960056367104</v>
       </c>
       <c r="BA44" s="17">
-        <f t="shared" ref="BA44" si="130">+BA43/BA45</f>
+        <f t="shared" ref="BA44" si="133">+BA43/BA45</f>
         <v>44.22958579504612</v>
       </c>
       <c r="BB44" s="17">
-        <f t="shared" ref="BB44" si="131">+BB43/BB45</f>
+        <f t="shared" ref="BB44" si="134">+BB43/BB45</f>
         <v>46.812574555159848</v>
       </c>
     </row>
-    <row r="45" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:110" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
@@ -5860,10 +5945,21 @@
       <c r="AD45" s="6">
         <v>2599</v>
       </c>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
+      <c r="AE45" s="6">
+        <v>2590</v>
+      </c>
+      <c r="AF45" s="6">
+        <f>+AE45</f>
+        <v>2590</v>
+      </c>
+      <c r="AG45" s="6">
+        <f>+AF45</f>
+        <v>2590</v>
+      </c>
+      <c r="AH45" s="6">
+        <f>+AG45</f>
+        <v>2590</v>
+      </c>
       <c r="AI45" s="6"/>
       <c r="AO45" s="3">
         <f>2395.921635+509.079123</f>
@@ -5886,42 +5982,42 @@
         <v>2695.5</v>
       </c>
       <c r="AU45" s="3">
-        <f t="shared" ref="AU45:BB45" si="132">+AT45</f>
+        <f t="shared" ref="AU45:BB45" si="135">+AT45</f>
         <v>2695.5</v>
       </c>
       <c r="AV45" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
       <c r="AW45" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
       <c r="AX45" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
       <c r="AY45" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
       <c r="AZ45" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
       <c r="BA45" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
       <c r="BB45" s="3">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>2695.5</v>
       </c>
     </row>
-    <row r="46" spans="2:110" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:110" x14ac:dyDescent="0.25">
       <c r="S46" s="6"/>
     </row>
-    <row r="47" spans="2:110" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:110" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
@@ -5930,23 +6026,23 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="11">
-        <f t="shared" ref="G47:K47" si="133">+G32/C32-1</f>
+        <f t="shared" ref="G47:K47" si="136">+G32/C32-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="H47" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="I47" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="J47" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="K47" s="11">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="L47" s="11">
@@ -5970,11 +6066,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" ref="Q47:R47" si="134">+Q32/M32-1</f>
+        <f t="shared" ref="Q47:R47" si="137">+Q32/M32-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="S47" s="11">
@@ -5990,7 +6086,7 @@
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" ref="V47" si="135">+V32/R32-1</f>
+        <f t="shared" ref="V47" si="138">+V32/R32-1</f>
         <v>-4.4726916337501144E-2</v>
       </c>
       <c r="W47" s="11">
@@ -5998,68 +6094,68 @@
         <v>2.6408198366060009E-2</v>
       </c>
       <c r="X47" s="11">
-        <f t="shared" ref="X47" si="136">+X32/T32-1</f>
+        <f t="shared" ref="X47" si="139">+X32/T32-1</f>
         <v>0.11022829782804799</v>
       </c>
       <c r="Y47" s="11">
-        <f t="shared" ref="Y47" si="137">+Y32/U32-1</f>
+        <f t="shared" ref="Y47" si="140">+Y32/U32-1</f>
         <v>0.23208486685429741</v>
       </c>
       <c r="Z47" s="11">
-        <f t="shared" ref="Z47" si="138">+Z32/V32-1</f>
+        <f t="shared" ref="Z47" si="141">+Z32/V32-1</f>
         <v>0.24703870666873939</v>
       </c>
       <c r="AA47" s="11">
-        <f t="shared" ref="AA47:AH47" si="139">+AA32/W32-1</f>
+        <f t="shared" ref="AA47:AH47" si="142">+AA32/W32-1</f>
         <v>0.27264793157619138</v>
       </c>
       <c r="AB47" s="11">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>0.2210069064658271</v>
       </c>
       <c r="AC47" s="11">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>0.18868974404029748</v>
       </c>
       <c r="AD47" s="11">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>0.20627757971628724</v>
       </c>
       <c r="AE47" s="11">
-        <f t="shared" si="139"/>
+        <f>+AE32/AA32-1</f>
+        <v>0.16071869428062002</v>
+      </c>
+      <c r="AF47" s="11">
+        <f t="shared" si="142"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AF47" s="11">
-        <f t="shared" si="139"/>
+      <c r="AG47" s="11">
+        <f t="shared" si="142"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AG47" s="11">
-        <f t="shared" si="139"/>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="AH47" s="11">
-        <f t="shared" si="139"/>
+        <f t="shared" si="142"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AI47" s="11"/>
       <c r="AL47" s="18">
-        <f t="shared" ref="AL47:AP47" si="140">+AL32/AK32-1</f>
+        <f t="shared" ref="AL47:AP47" si="143">+AL32/AK32-1</f>
         <v>0.58358739837398366</v>
       </c>
       <c r="AM47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.43815177282207607</v>
       </c>
       <c r="AN47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.54161088799643009</v>
       </c>
       <c r="AO47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.47090961719371882</v>
       </c>
       <c r="AP47" s="18">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>0.37352716896661997</v>
       </c>
       <c r="AQ47" s="18">
@@ -6079,39 +6175,39 @@
         <v>-1.1193175554782941E-2</v>
       </c>
       <c r="AU47" s="18">
-        <f t="shared" ref="AU47:BB47" si="141">+AU32/AT32-1</f>
+        <f t="shared" ref="AU47:BB47" si="144">+AU32/AT32-1</f>
         <v>0.15686610810486323</v>
       </c>
       <c r="AV47" s="18">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>0.21941275453851339</v>
       </c>
       <c r="AW47" s="18">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AX47" s="18">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AY47" s="18">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AZ47" s="18">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BA47" s="18">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="BB47" s="18">
-        <f t="shared" si="141"/>
+        <f t="shared" si="144"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:110" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:110" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
@@ -6132,15 +6228,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="P48" s="11">
-        <f t="shared" ref="P48:R48" si="142">+P27/L27-1</f>
+        <f t="shared" ref="P48:R48" si="145">+P27/L27-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="Q48" s="11">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="R48" s="11">
-        <f t="shared" si="142"/>
+        <f t="shared" si="145"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="S48" s="11">
@@ -6152,7 +6248,7 @@
         <v>-1</v>
       </c>
       <c r="U48" s="11">
-        <f t="shared" ref="U48" si="143">+U27/Q27-1</f>
+        <f t="shared" ref="U48" si="146">+U27/Q27-1</f>
         <v>-1</v>
       </c>
       <c r="V48" s="11"/>
@@ -6160,7 +6256,7 @@
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
     </row>
-    <row r="49" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
@@ -6194,7 +6290,7 @@
       <c r="X49" s="6"/>
       <c r="Y49" s="6"/>
     </row>
-    <row r="50" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
@@ -6230,7 +6326,7 @@
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
     </row>
-    <row r="51" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
@@ -6250,55 +6346,67 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10">
-        <f t="shared" ref="R51" si="144">+R30/N30-1</f>
+        <f t="shared" ref="R51" si="147">+R30/N30-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="S51" s="10">
-        <f t="shared" ref="S51:AA51" si="145">+S30/O30-1</f>
+        <f t="shared" ref="S51:AA51" si="148">+S30/O30-1</f>
         <v>0.30149812734082393</v>
       </c>
       <c r="T51" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>0.4819672131147541</v>
       </c>
       <c r="U51" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>-0.489247311827957</v>
       </c>
       <c r="V51" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>-0.17103762827822122</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>-0.51223021582733819</v>
       </c>
       <c r="X51" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>-0.38938053097345138</v>
       </c>
       <c r="Y51" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>-0.26315789473684215</v>
       </c>
       <c r="Z51" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>0.47317744154057761</v>
       </c>
       <c r="AA51" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="148"/>
         <v>0.29793510324483785</v>
       </c>
-      <c r="AB51" s="10"/>
-      <c r="AC51" s="10"/>
-      <c r="AD51" s="10"/>
-      <c r="AE51" s="10"/>
+      <c r="AB51" s="10">
+        <f t="shared" ref="AB51" si="149">+AB30/X30-1</f>
+        <v>0.27898550724637672</v>
+      </c>
+      <c r="AC51" s="10">
+        <f t="shared" ref="AC51" si="150">+AC30/Y30-1</f>
+        <v>0.28571428571428581</v>
+      </c>
+      <c r="AD51" s="10">
+        <f t="shared" ref="AD51" si="151">+AD30/Z30-1</f>
+        <v>1.1204481792717047E-2</v>
+      </c>
+      <c r="AE51" s="10">
+        <f t="shared" ref="AE51" si="152">+AE30/AA30-1</f>
+        <v>-6.3636363636363602E-2</v>
+      </c>
       <c r="AF51" s="10"/>
       <c r="AG51" s="10"/>
       <c r="AH51" s="10"/>
       <c r="AI51" s="10"/>
       <c r="AR51" s="19">
-        <f t="shared" ref="AR51" si="146">AR30/AQ30-1</f>
+        <f t="shared" ref="AR51" si="153">AR30/AQ30-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="AS51" s="19">
@@ -6310,7 +6418,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>200</v>
       </c>
@@ -6329,19 +6437,19 @@
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="10">
-        <f t="shared" ref="Q52:T52" si="147">+Q38/M38-1</f>
+        <f t="shared" ref="Q52:T52" si="154">+Q38/M38-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="R52" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="S52" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="T52" s="10">
-        <f t="shared" si="147"/>
+        <f t="shared" si="154"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="U52" s="10">
@@ -6349,39 +6457,51 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" ref="V52:Z52" si="148">+V38/R38-1</f>
+        <f t="shared" ref="V52:Z52" si="155">+V38/R38-1</f>
         <v>0.18265707694395439</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="X52" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-3.1430068098480923E-2</v>
       </c>
       <c r="Y52" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-0.13138239255540585</v>
       </c>
       <c r="Z52" s="10">
-        <f t="shared" si="148"/>
+        <f t="shared" si="155"/>
         <v>-8.0206540447504304E-2</v>
       </c>
       <c r="AA52" s="10">
         <f>+AA38/W38-1</f>
         <v>0.32853310744035014</v>
       </c>
-      <c r="AB52" s="10"/>
-      <c r="AC52" s="10"/>
-      <c r="AD52" s="10"/>
-      <c r="AE52" s="10"/>
+      <c r="AB52" s="10">
+        <f t="shared" ref="AB52:AE52" si="156">+AB38/X38-1</f>
+        <v>0.14359113034072468</v>
+      </c>
+      <c r="AC52" s="10">
+        <f t="shared" si="156"/>
+        <v>0.11812799548914565</v>
+      </c>
+      <c r="AD52" s="10">
+        <f t="shared" si="156"/>
+        <v>9.2939121756487886E-3</v>
+      </c>
+      <c r="AE52" s="10">
+        <f t="shared" si="156"/>
+        <v>7.4388947927736426E-2</v>
+      </c>
       <c r="AF52" s="10"/>
       <c r="AG52" s="10"/>
       <c r="AH52" s="10"/>
       <c r="AI52" s="10"/>
     </row>
-    <row r="53" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -6416,104 +6536,104 @@
       <c r="AH53" s="10"/>
       <c r="AI53" s="10"/>
     </row>
-    <row r="54" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="10">
-        <f t="shared" ref="C54:Z54" si="149">+C34/C32</f>
+        <f t="shared" ref="C54:Z54" si="157">+C34/C32</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="D54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="E54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="F54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="G54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="J54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="L54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="M54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="O54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="P54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="Q54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="R54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="S54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="T54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="U54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="V54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="X54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="Y54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="Z54" s="10">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.79</v>
       </c>
       <c r="AA54" s="10">
@@ -6521,149 +6641,152 @@
         <v>0.81785763269784661</v>
       </c>
       <c r="AB54" s="10">
-        <f t="shared" ref="AB54:AD54" si="150">+AB34/AB32</f>
+        <f t="shared" ref="AB54:AE54" si="158">+AB34/AB32</f>
         <v>0.81295590079598679</v>
       </c>
       <c r="AC54" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>0.81830052477272164</v>
       </c>
       <c r="AD54" s="10">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>0.81731941717474421</v>
       </c>
-      <c r="AE54" s="10"/>
+      <c r="AE54" s="10">
+        <f t="shared" si="158"/>
+        <v>0.82105213404546962</v>
+      </c>
       <c r="AF54" s="10"/>
       <c r="AG54" s="10"/>
       <c r="AH54" s="10"/>
       <c r="AI54" s="10"/>
       <c r="AP54" s="19">
-        <f t="shared" ref="AP54:BB54" si="151">+AP34/AP32</f>
+        <f t="shared" ref="AP54:BB54" si="159">+AP34/AP32</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="AQ54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="AR54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="AS54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="AT54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.81</v>
       </c>
       <c r="AU54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.81</v>
       </c>
       <c r="AV54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.81</v>
       </c>
       <c r="AW54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.81</v>
       </c>
       <c r="AX54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.81</v>
       </c>
       <c r="AY54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.81000000000000016</v>
       </c>
       <c r="AZ54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.81</v>
       </c>
       <c r="BA54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.81</v>
       </c>
       <c r="BB54" s="19">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="55" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C55" s="10">
-        <f t="shared" ref="C55:E55" si="152">+C39/C32</f>
+        <f t="shared" ref="C55:E55" si="160">+C39/C32</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="D55" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="160"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="E55" s="10">
-        <f t="shared" si="152"/>
+        <f t="shared" si="160"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="F55" s="10">
-        <f t="shared" ref="F55:I55" si="153">+F39/F32</f>
+        <f t="shared" ref="F55:I55" si="161">+F39/F32</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="G55" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="J55" s="10">
-        <f t="shared" ref="J55:L55" si="154">+J39/J32</f>
+        <f t="shared" ref="J55:L55" si="162">+J39/J32</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="K55" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="L55" s="10">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="M55" s="10">
-        <f t="shared" ref="M55:P55" si="155">+M39/M32</f>
+        <f t="shared" ref="M55:P55" si="163">+M39/M32</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="O55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="P55" s="10">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="Q55" s="10">
-        <f t="shared" ref="Q55:T55" si="156">+Q39/Q32</f>
+        <f t="shared" ref="Q55:T55" si="164">+Q39/Q32</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="R55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="164"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="S55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="164"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="T55" s="10">
-        <f t="shared" si="156"/>
+        <f t="shared" si="164"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="U55" s="10">
@@ -6671,23 +6794,23 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="V55" s="10">
-        <f t="shared" ref="V55:Z55" si="157">+V39/V32</f>
+        <f t="shared" ref="V55:Z55" si="165">+V39/V32</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="W55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="X55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>0.35194849839057468</v>
       </c>
       <c r="Y55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="Z55" s="10">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>0.39030914213058771</v>
       </c>
       <c r="AA55" s="10">
@@ -6695,72 +6818,75 @@
         <v>0.37904265532848719</v>
       </c>
       <c r="AB55" s="10">
-        <f t="shared" ref="AB55:AD55" si="158">+AB39/AB32</f>
+        <f t="shared" ref="AB55:AE55" si="166">+AB39/AB32</f>
         <v>0.38000051188861306</v>
       </c>
       <c r="AC55" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.4274557146024785</v>
       </c>
       <c r="AD55" s="10">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.48289759222899659</v>
       </c>
-      <c r="AE55" s="10"/>
+      <c r="AE55" s="10">
+        <f t="shared" si="166"/>
+        <v>0.41487450961856598</v>
+      </c>
       <c r="AF55" s="10"/>
       <c r="AG55" s="10"/>
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
       <c r="AP55" s="10">
-        <f t="shared" ref="AP55:BB55" si="159">+AP39/AP32</f>
+        <f t="shared" ref="AP55:BB55" si="167">+AP39/AP32</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="AQ55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.41000325332050863</v>
       </c>
       <c r="AR55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="AS55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="AT55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.4149918959943058</v>
       </c>
       <c r="AU55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.48500203853196056</v>
       </c>
       <c r="AV55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.55562009118541034</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.58867838905775083</v>
       </c>
       <c r="AX55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.60773138620245015</v>
       </c>
       <c r="AY55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.62106201139335393</v>
       </c>
       <c r="AZ55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.63306542437042934</v>
       </c>
       <c r="BA55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.64389878898945385</v>
       </c>
       <c r="BB55" s="10">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>0.65369973430009876</v>
       </c>
       <c r="BF55" t="s">
@@ -6771,104 +6897,104 @@
         <v>1038855.7152797726</v>
       </c>
     </row>
-    <row r="56" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C56" s="10">
-        <f t="shared" ref="C56:V56" si="160">+C42/C41</f>
+        <f t="shared" ref="C56:V56" si="168">+C42/C41</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="D56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="E56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="F56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="G56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="J56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="K56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="L56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="M56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="N56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="O56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="P56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="Q56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="R56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="S56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="T56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="U56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="V56" s="10">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" ref="W56:Z56" si="161">+W42/W41</f>
+        <f t="shared" ref="W56:Z56" si="169">+W42/W41</f>
         <v>0.19</v>
       </c>
       <c r="X56" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>0.13482038878437697</v>
       </c>
       <c r="Y56" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="Z56" s="10">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>0.17357299798690146</v>
       </c>
       <c r="AA56" s="10">
@@ -6876,72 +7002,75 @@
         <v>0.12789959811041388</v>
       </c>
       <c r="AB56" s="10">
-        <f t="shared" ref="AB56:AD56" si="162">+AB42/AB41</f>
+        <f t="shared" ref="AB56:AE56" si="170">+AB42/AB41</f>
         <v>0.10863233152389778</v>
       </c>
       <c r="AC56" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.11973964762652901</v>
       </c>
       <c r="AD56" s="10">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>0.11527193988027003</v>
       </c>
-      <c r="AE56" s="10"/>
+      <c r="AE56" s="10">
+        <f t="shared" si="170"/>
+        <v>9.4549015341094556E-2</v>
+      </c>
       <c r="AF56" s="10"/>
       <c r="AG56" s="10"/>
       <c r="AH56" s="10"/>
       <c r="AI56" s="10"/>
       <c r="AP56" s="19">
-        <f t="shared" ref="AP56:BB56" si="163">+AP42/AP41</f>
+        <f t="shared" ref="AP56:BB56" si="171">+AP42/AP41</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="AQ56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="AR56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="AS56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="AT56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.18</v>
       </c>
       <c r="AU56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.18</v>
       </c>
       <c r="AV56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.18</v>
       </c>
       <c r="AW56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.17999999999999997</v>
       </c>
       <c r="AX56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.18</v>
       </c>
       <c r="AY56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.18</v>
       </c>
       <c r="AZ56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.18</v>
       </c>
       <c r="BA56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.18</v>
       </c>
       <c r="BB56" s="19">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>0.18</v>
       </c>
       <c r="BF56" s="3" t="s">
@@ -6951,7 +7080,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:59" x14ac:dyDescent="0.25">
       <c r="S57" s="6"/>
       <c r="BF57" t="s">
         <v>114</v>
@@ -6960,67 +7089,70 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="58" spans="2:59" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:59" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>195</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" ref="Q58:S58" si="164">+Q59-Q73</f>
+        <f t="shared" ref="Q58:S58" si="172">+Q59-Q73</f>
         <v>64833</v>
       </c>
       <c r="R58" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="172"/>
         <v>54773</v>
       </c>
       <c r="S58" s="6">
-        <f t="shared" si="164"/>
+        <f t="shared" si="172"/>
         <v>50665</v>
       </c>
       <c r="T58" s="6">
-        <f t="shared" ref="T58:W58" si="165">+T59-T73</f>
+        <f t="shared" ref="T58:W58" si="173">+T59-T73</f>
         <v>47025</v>
       </c>
       <c r="U58" s="6">
-        <f t="shared" si="165"/>
+        <f t="shared" si="173"/>
         <v>38382</v>
       </c>
       <c r="V58" s="6">
-        <f t="shared" si="165"/>
+        <f t="shared" si="173"/>
         <v>37016</v>
       </c>
       <c r="W58" s="6">
-        <f t="shared" si="165"/>
+        <f t="shared" si="173"/>
         <v>33681</v>
       </c>
       <c r="X58" s="6">
-        <f>+X59-X73</f>
+        <f t="shared" ref="X58:AE58" si="174">+X59-X73</f>
         <v>41272</v>
       </c>
       <c r="Y58" s="6">
-        <f>+Y59-Y73</f>
+        <f t="shared" si="174"/>
         <v>48882</v>
       </c>
       <c r="Z58" s="6">
-        <f>+Z59-Z73</f>
+        <f t="shared" si="174"/>
         <v>53159</v>
       </c>
       <c r="AA58" s="6">
-        <f>+AA59-AA73</f>
+        <f t="shared" si="174"/>
         <v>45951</v>
       </c>
       <c r="AB58" s="6">
-        <f>+AB59-AB73</f>
+        <f t="shared" si="174"/>
         <v>45898</v>
       </c>
       <c r="AC58" s="6">
-        <f>+AC59-AC73</f>
+        <f t="shared" si="174"/>
         <v>48148</v>
       </c>
       <c r="AD58" s="6">
-        <f>+AD59-AD73</f>
+        <f t="shared" si="174"/>
         <v>55059</v>
       </c>
-      <c r="AE58" s="6"/>
+      <c r="AE58" s="6">
+        <f t="shared" si="174"/>
+        <v>47569</v>
+      </c>
       <c r="AF58" s="6"/>
       <c r="AG58" s="6"/>
       <c r="AH58" s="6"/>
@@ -7032,7 +7164,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
@@ -7115,7 +7247,10 @@
         <f>43889+33926+6070</f>
         <v>83885</v>
       </c>
-      <c r="AE59" s="6"/>
+      <c r="AE59" s="6">
+        <f>28750+41480+6168</f>
+        <v>76398</v>
+      </c>
       <c r="AF59" s="6"/>
       <c r="AG59" s="6"/>
       <c r="AH59" s="6"/>
@@ -7129,35 +7264,35 @@
         <v>46939</v>
       </c>
       <c r="AU59" s="3">
-        <f t="shared" ref="AU59:BB59" si="166">+AT59+AU43</f>
+        <f t="shared" ref="AU59:BB59" si="175">+AT59+AU43</f>
         <v>101359.15280000001</v>
       </c>
       <c r="AV59" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>177969.03700592002</v>
       </c>
       <c r="AW59" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>268235.23990281712</v>
       </c>
       <c r="AX59" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>367317.60195822333</v>
       </c>
       <c r="AY59" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>473004.60447423824</v>
       </c>
       <c r="AZ59" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>585398.7603061758</v>
       </c>
       <c r="BA59" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>704619.60881672264</v>
       </c>
       <c r="BB59" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="175"/>
         <v>830802.90353015601</v>
       </c>
       <c r="BF59" s="3" t="s">
@@ -7168,7 +7303,7 @@
         <v>411.51161217299699</v>
       </c>
     </row>
-    <row r="60" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
@@ -7234,15 +7369,18 @@
       <c r="AD60" s="3">
         <v>16994</v>
       </c>
+      <c r="AE60" s="3">
+        <v>14514</v>
+      </c>
       <c r="BF60" s="3" t="s">
         <v>116</v>
       </c>
       <c r="BG60" s="19">
         <f>BG59/Main!M2-1</f>
-        <v>-0.18834001543787571</v>
-      </c>
-    </row>
-    <row r="61" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>-0.27166086341062479</v>
+      </c>
+    </row>
+    <row r="61" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>50</v>
       </c>
@@ -7308,8 +7446,11 @@
       <c r="AD61" s="3">
         <v>5236</v>
       </c>
-    </row>
-    <row r="62" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="62" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
@@ -7375,8 +7516,11 @@
       <c r="AD62" s="3">
         <v>121346</v>
       </c>
-    </row>
-    <row r="63" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>133567</v>
+      </c>
+    </row>
+    <row r="63" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
@@ -7442,8 +7586,11 @@
       <c r="AD63" s="3">
         <v>14922</v>
       </c>
-    </row>
-    <row r="64" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>15505</v>
+      </c>
+    </row>
+    <row r="64" spans="2:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>54</v>
       </c>
@@ -7522,8 +7669,11 @@
       <c r="AD64" s="3">
         <v>20654</v>
       </c>
-    </row>
-    <row r="65" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>20654</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>55</v>
       </c>
@@ -7589,8 +7739,11 @@
       <c r="AD65" s="3">
         <v>13017</v>
       </c>
-    </row>
-    <row r="66" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>14092</v>
+      </c>
+    </row>
+    <row r="66" spans="2:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>53</v>
       </c>
@@ -7606,23 +7759,23 @@
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6">
-        <f t="shared" ref="N66:O66" si="167">SUM(N59:N65)</f>
+        <f t="shared" ref="N66:O66" si="176">SUM(N59:N65)</f>
         <v>159316</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" si="167"/>
+        <f t="shared" si="176"/>
         <v>163523</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" ref="P66:Q66" si="168">SUM(P59:P65)</f>
+        <f t="shared" ref="P66:Q66" si="177">SUM(P59:P65)</f>
         <v>170609</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" si="168"/>
+        <f t="shared" si="177"/>
         <v>169585</v>
       </c>
       <c r="R66" s="6">
-        <f t="shared" ref="R66" si="169">SUM(R59:R65)</f>
+        <f t="shared" ref="R66" si="178">SUM(R59:R65)</f>
         <v>165987</v>
       </c>
       <c r="S66" s="6">
@@ -7638,46 +7791,50 @@
         <v>178894</v>
       </c>
       <c r="V66" s="6">
-        <f t="shared" ref="V66:AD66" si="170">SUM(V59:V65)</f>
+        <f t="shared" ref="V66:AE66" si="179">SUM(V59:V65)</f>
         <v>185727</v>
       </c>
       <c r="W66" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>184491</v>
       </c>
       <c r="X66" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>206688</v>
       </c>
       <c r="Y66" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>216274</v>
       </c>
       <c r="Z66" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>229623</v>
       </c>
       <c r="AA66" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>222844</v>
       </c>
       <c r="AB66" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>230238</v>
       </c>
       <c r="AC66" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>256408</v>
       </c>
       <c r="AD66" s="6">
-        <f t="shared" si="170"/>
+        <f t="shared" si="179"/>
         <v>276054</v>
       </c>
-    </row>
-    <row r="67" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE66" s="6">
+        <f t="shared" si="179"/>
+        <v>280213</v>
+      </c>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
       <c r="S67" s="6"/>
     </row>
-    <row r="68" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>56</v>
       </c>
@@ -7732,8 +7889,11 @@
       <c r="AD68" s="3">
         <v>7687</v>
       </c>
-    </row>
-    <row r="69" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>57</v>
       </c>
@@ -7788,8 +7948,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>58</v>
       </c>
@@ -7861,8 +8024,12 @@
         <f>1942+18292</f>
         <v>20234</v>
       </c>
-    </row>
-    <row r="71" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <f>1976+18714</f>
+        <v>20690</v>
+      </c>
+    </row>
+    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>59</v>
       </c>
@@ -7917,8 +8084,11 @@
       <c r="AD71" s="3">
         <v>23967</v>
       </c>
-    </row>
-    <row r="72" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>23402</v>
+      </c>
+    </row>
+    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>60</v>
       </c>
@@ -7965,8 +8135,11 @@
       <c r="AD72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -8007,13 +8180,15 @@
       <c r="AD73" s="6">
         <v>28826</v>
       </c>
-      <c r="AE73" s="6"/>
+      <c r="AE73" s="6">
+        <v>28829</v>
+      </c>
       <c r="AF73" s="6"/>
       <c r="AG73" s="6"/>
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
     </row>
-    <row r="74" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -8072,8 +8247,12 @@
         <f>9987+2716</f>
         <v>12703</v>
       </c>
-    </row>
-    <row r="75" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <f>10991+2760</f>
+        <v>13751</v>
+      </c>
+    </row>
+    <row r="75" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -8128,8 +8307,11 @@
       <c r="AD75" s="3">
         <v>83228</v>
       </c>
-    </row>
-    <row r="76" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>85568</v>
+      </c>
+    </row>
+    <row r="76" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>63</v>
       </c>
@@ -8184,8 +8366,11 @@
       <c r="AD76" s="3">
         <v>-3097</v>
       </c>
-    </row>
-    <row r="77" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-1865</v>
+      </c>
+    </row>
+    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>62</v>
       </c>
@@ -8240,41 +8425,44 @@
       <c r="AD77" s="3">
         <v>102506</v>
       </c>
-    </row>
-    <row r="78" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>101326</v>
+      </c>
+    </row>
+    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>61</v>
       </c>
       <c r="N78" s="6">
-        <f t="shared" ref="N78:O78" si="171">SUM(N68:N77)</f>
+        <f t="shared" ref="N78:O78" si="180">SUM(N68:N77)</f>
         <v>159316</v>
       </c>
       <c r="O78" s="6">
-        <f t="shared" si="171"/>
+        <f t="shared" si="180"/>
         <v>163523</v>
       </c>
       <c r="P78" s="6">
-        <f t="shared" ref="P78:Q78" si="172">SUM(P68:P77)</f>
+        <f t="shared" ref="P78:Q78" si="181">SUM(P68:P77)</f>
         <v>170609</v>
       </c>
       <c r="Q78" s="6">
-        <f t="shared" si="172"/>
+        <f t="shared" si="181"/>
         <v>169585</v>
       </c>
       <c r="R78" s="6">
-        <f t="shared" ref="R78:U78" si="173">SUM(R68:R77)</f>
+        <f t="shared" ref="R78:U78" si="182">SUM(R68:R77)</f>
         <v>165987</v>
       </c>
       <c r="S78" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>164218</v>
       </c>
       <c r="T78" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>169779</v>
       </c>
       <c r="U78" s="6">
-        <f t="shared" si="173"/>
+        <f t="shared" si="182"/>
         <v>178894</v>
       </c>
       <c r="V78" s="6">
@@ -8298,55 +8486,59 @@
         <v>229623</v>
       </c>
       <c r="AA78" s="6">
-        <f t="shared" ref="AA78:AD78" si="174">SUM(AA68:AA77)</f>
+        <f t="shared" ref="AA78:AE78" si="183">SUM(AA68:AA77)</f>
         <v>222844</v>
       </c>
       <c r="AB78" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="183"/>
         <v>230238</v>
       </c>
       <c r="AC78" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="183"/>
         <v>256408</v>
       </c>
       <c r="AD78" s="6">
-        <f t="shared" si="174"/>
+        <f t="shared" si="183"/>
         <v>276054</v>
       </c>
-    </row>
-    <row r="79" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="AE78" s="6">
+        <f t="shared" si="183"/>
+        <v>280213</v>
+      </c>
+    </row>
+    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
       <c r="S79" s="6"/>
     </row>
-    <row r="80" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="O80" s="6">
-        <f t="shared" ref="O80:Z80" si="175">O43</f>
+        <f t="shared" ref="O80:Z80" si="184">O43</f>
         <v>9497</v>
       </c>
       <c r="P80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>10394</v>
       </c>
       <c r="Q80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>9194</v>
       </c>
       <c r="R80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>10285</v>
       </c>
       <c r="S80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>7465</v>
       </c>
       <c r="T80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>6687</v>
       </c>
       <c r="U80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>4395</v>
       </c>
       <c r="V80" s="6">
@@ -8354,39 +8546,43 @@
         <v>4652</v>
       </c>
       <c r="W80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>8374.1444999999985</v>
       </c>
       <c r="X80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>9658</v>
       </c>
       <c r="Y80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>11583</v>
       </c>
       <c r="Z80" s="6">
-        <f t="shared" si="175"/>
+        <f t="shared" si="184"/>
         <v>13288.690000000002</v>
       </c>
       <c r="AA80" s="6">
-        <f t="shared" ref="AA80:AD80" si="176">AA43</f>
+        <f t="shared" ref="AA80:AE80" si="185">AA43</f>
         <v>12369</v>
       </c>
       <c r="AB80" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>13465</v>
       </c>
       <c r="AC80" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>15688</v>
       </c>
       <c r="AD80" s="6">
-        <f t="shared" si="176"/>
+        <f t="shared" si="185"/>
         <v>20838</v>
       </c>
-    </row>
-    <row r="81" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE80" s="6">
+        <f t="shared" si="185"/>
+        <v>16644</v>
+      </c>
+    </row>
+    <row r="81" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>67</v>
       </c>
@@ -8448,8 +8644,11 @@
         <f>62360-AC81-AB81-AA81</f>
         <v>20838</v>
       </c>
-    </row>
-    <row r="82" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>16644</v>
+      </c>
+    </row>
+    <row r="82" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>69</v>
       </c>
@@ -8511,8 +8710,11 @@
         <f>15498-AC82-AB82-AA82</f>
         <v>4460</v>
       </c>
-    </row>
-    <row r="83" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="83" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>70</v>
       </c>
@@ -8574,8 +8776,11 @@
         <f>16690-AC83-AB83-AA83</f>
         <v>4262</v>
       </c>
-    </row>
-    <row r="84" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="84" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>71</v>
       </c>
@@ -8637,8 +8842,11 @@
         <f>-4738-AC84-AB84-AA84</f>
         <v>-1332</v>
       </c>
-    </row>
-    <row r="85" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>-993</v>
+      </c>
+    </row>
+    <row r="85" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>55</v>
       </c>
@@ -8702,8 +8910,11 @@
         <f>383+87-AC85-AB85-AA85</f>
         <v>264</v>
       </c>
-    </row>
-    <row r="86" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>-231</v>
+      </c>
+    </row>
+    <row r="86" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>72</v>
       </c>
@@ -8771,81 +8982,89 @@
         <f>-1485-698-270+373+323+2805-AC86-AB86-AA86</f>
         <v>-504</v>
       </c>
-    </row>
-    <row r="87" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <f>2804+360-52-1034-2231+712</f>
+        <v>559</v>
+      </c>
+    </row>
+    <row r="87" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>68</v>
       </c>
       <c r="O87" s="6">
-        <f t="shared" ref="O87:X87" si="177">SUM(O81:O86)</f>
+        <f t="shared" ref="O87:X87" si="186">SUM(O81:O86)</f>
         <v>12242</v>
       </c>
       <c r="P87" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>13247</v>
       </c>
       <c r="Q87" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>14090</v>
       </c>
       <c r="R87" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>18104</v>
       </c>
       <c r="S87" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>14076</v>
       </c>
       <c r="T87" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>12197</v>
       </c>
       <c r="U87" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>9691</v>
       </c>
       <c r="V87" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>14511</v>
       </c>
       <c r="W87" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>13998</v>
       </c>
       <c r="X87" s="6">
-        <f t="shared" si="177"/>
+        <f t="shared" si="186"/>
         <v>17309</v>
       </c>
       <c r="Y87" s="6">
-        <f>SUM(Y81:Y86)</f>
+        <f t="shared" ref="Y87:AE87" si="187">SUM(Y81:Y86)</f>
         <v>20402</v>
       </c>
       <c r="Z87" s="6">
-        <f>SUM(Z81:Z86)</f>
+        <f t="shared" si="187"/>
         <v>19404</v>
       </c>
       <c r="AA87" s="3">
-        <f>SUM(AA81:AA86)</f>
+        <f t="shared" si="187"/>
         <v>19246</v>
       </c>
       <c r="AB87" s="3">
-        <f>SUM(AB81:AB86)</f>
+        <f t="shared" si="187"/>
         <v>19370</v>
       </c>
       <c r="AC87" s="3">
-        <f>SUM(AC81:AC86)</f>
+        <f t="shared" si="187"/>
         <v>24724</v>
       </c>
       <c r="AD87" s="3">
-        <f>SUM(AD81:AD86)</f>
+        <f t="shared" si="187"/>
         <v>27988</v>
       </c>
-    </row>
-    <row r="88" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <f t="shared" si="187"/>
+        <v>24026</v>
+      </c>
+    </row>
+    <row r="88" spans="2:31" x14ac:dyDescent="0.25">
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
     </row>
-    <row r="89" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>73</v>
       </c>
@@ -8922,8 +9141,11 @@
         <f>-37256-AC89-AB89-AA89</f>
         <v>-14425</v>
       </c>
-    </row>
-    <row r="90" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>-12941</v>
+      </c>
+    </row>
+    <row r="90" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
@@ -9003,8 +9225,12 @@
         <f>-25542+15789-AC90-AB90-AA90</f>
         <v>-7081</v>
       </c>
-    </row>
-    <row r="91" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3">
+        <f>-11763+4784-90</f>
+        <v>-7069</v>
+      </c>
+    </row>
+    <row r="91" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
@@ -9078,8 +9304,11 @@
         <f>-270+129-AC91-AB91-AA91</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
@@ -9096,51 +9325,51 @@
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6">
-        <f t="shared" ref="O92:Z92" si="178">SUM(O89:O91)</f>
+        <f t="shared" ref="O92:Z92" si="188">SUM(O89:O91)</f>
         <v>-4874</v>
       </c>
       <c r="P92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-8195</v>
       </c>
       <c r="Q92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-330</v>
       </c>
       <c r="R92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>5829</v>
       </c>
       <c r="S92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-4779</v>
       </c>
       <c r="T92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-6959</v>
       </c>
       <c r="U92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-9701</v>
       </c>
       <c r="V92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-7531</v>
       </c>
       <c r="W92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-6743</v>
       </c>
       <c r="X92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-5203</v>
       </c>
       <c r="Y92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-6077</v>
       </c>
       <c r="Z92" s="6">
-        <f t="shared" si="178"/>
+        <f t="shared" si="188"/>
         <v>-6472</v>
       </c>
       <c r="AA92" s="3">
@@ -9159,8 +9388,12 @@
         <f>SUM(AD89:AD91)</f>
         <v>-21498</v>
       </c>
-    </row>
-    <row r="93" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <f>SUM(AE89:AE91)</f>
+        <v>-20010</v>
+      </c>
+    </row>
+    <row r="93" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -9185,7 +9418,7 @@
       <c r="X93" s="6"/>
       <c r="Y93" s="6"/>
     </row>
-    <row r="94" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
@@ -9259,83 +9492,89 @@
         <f>-13770-AC94-AB94-AA94</f>
         <v>-3857</v>
       </c>
-    </row>
-    <row r="95" spans="2:30" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="23" t="s">
+      <c r="AE94" s="3">
+        <v>-4883</v>
+      </c>
+    </row>
+    <row r="95" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="24">
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6">
         <v>-3939</v>
       </c>
-      <c r="P95" s="24">
+      <c r="P95" s="6">
         <f>-11018-O95</f>
         <v>-7079</v>
       </c>
-      <c r="Q95" s="24">
+      <c r="Q95" s="6">
         <f>-24476-P95-O95</f>
         <v>-13458</v>
       </c>
-      <c r="R95" s="24">
+      <c r="R95" s="6">
         <v>-20063</v>
       </c>
-      <c r="S95" s="24">
+      <c r="S95" s="6">
         <v>-9506</v>
       </c>
-      <c r="T95" s="24">
+      <c r="T95" s="6">
         <v>-5233</v>
       </c>
-      <c r="U95" s="24">
+      <c r="U95" s="6">
         <f>-21093-T95-S95</f>
         <v>-6354</v>
       </c>
-      <c r="V95" s="24">
+      <c r="V95" s="6">
         <f>-27956-U95-T95-S95</f>
         <v>-6863</v>
       </c>
-      <c r="W95" s="24">
+      <c r="W95" s="6">
         <v>-9365</v>
       </c>
-      <c r="X95" s="24">
+      <c r="X95" s="6">
         <f>-10263-W95</f>
         <v>-898</v>
       </c>
-      <c r="Y95" s="24">
+      <c r="Y95" s="6">
         <f>-13832-X95-W95</f>
         <v>-3569</v>
       </c>
-      <c r="Z95" s="23">
+      <c r="Z95" s="3">
         <f>-19774-Y95-X95-W95</f>
         <v>-5942</v>
       </c>
-      <c r="AA95" s="23">
+      <c r="AA95" s="3">
         <v>-15008</v>
       </c>
-      <c r="AB95" s="23">
+      <c r="AB95" s="3">
         <f>-21307-AA95</f>
         <v>-6299</v>
       </c>
-      <c r="AC95" s="23">
+      <c r="AC95" s="3">
         <f>-30125-AB95-AA95</f>
         <v>-8818</v>
       </c>
-      <c r="AD95" s="23">
+      <c r="AD95" s="3">
         <f>-30125-AC95-AB95-AA95</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:30" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3">
+        <v>-12754</v>
+      </c>
+    </row>
+    <row r="96" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>209</v>
       </c>
@@ -9386,8 +9625,11 @@
         <f>-5072-AC96-AB96-AA96</f>
         <v>-1270</v>
       </c>
-    </row>
-    <row r="97" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>-1329</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -9444,8 +9686,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>55</v>
       </c>
@@ -9524,8 +9769,12 @@
         <f>-1969-277-AC98-AB98-AA98</f>
         <v>-338</v>
       </c>
-    </row>
-    <row r="99" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <f>-751+222</f>
+        <v>-529</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>79</v>
       </c>
@@ -9542,71 +9791,75 @@
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6">
-        <f t="shared" ref="O99:Q99" si="179">SUM(O94:O98)</f>
+        <f t="shared" ref="O99:Q99" si="189">SUM(O94:O98)</f>
         <v>-5185</v>
       </c>
       <c r="P99" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>-8549</v>
       </c>
       <c r="Q99" s="6">
-        <f t="shared" si="179"/>
+        <f t="shared" si="189"/>
         <v>-15252</v>
       </c>
       <c r="R99" s="6">
-        <f t="shared" ref="R99" si="180">SUM(R94:R98)</f>
+        <f t="shared" ref="R99" si="190">SUM(R94:R98)</f>
         <v>-21742</v>
       </c>
       <c r="S99" s="6">
-        <f>SUM(S94:S98)</f>
+        <f t="shared" ref="S99:AE99" si="191">SUM(S94:S98)</f>
         <v>-10660</v>
       </c>
       <c r="T99" s="6">
-        <f>SUM(T94:T98)</f>
+        <f t="shared" si="191"/>
         <v>-6563</v>
       </c>
       <c r="U99" s="6">
-        <f>SUM(U94:U98)</f>
+        <f t="shared" si="191"/>
         <v>2147</v>
       </c>
       <c r="V99" s="6">
-        <f>SUM(V94:V98)</f>
+        <f t="shared" si="191"/>
         <v>-7060</v>
       </c>
       <c r="W99" s="6">
-        <f>SUM(W94:W98)</f>
+        <f t="shared" si="191"/>
         <v>-10516</v>
       </c>
       <c r="X99" s="6">
-        <f>SUM(X94:X98)</f>
+        <f t="shared" si="191"/>
         <v>5292</v>
       </c>
       <c r="Y99" s="6">
-        <f>SUM(Y94:Y98)</f>
+        <f t="shared" si="191"/>
         <v>-5875</v>
       </c>
       <c r="Z99" s="6">
-        <f>SUM(Z94:Z98)</f>
+        <f t="shared" si="191"/>
         <v>-8401</v>
       </c>
       <c r="AA99" s="3">
-        <f>SUM(AA94:AA98)</f>
+        <f t="shared" si="191"/>
         <v>-19767</v>
       </c>
       <c r="AB99" s="3">
-        <f>SUM(AB94:AB98)</f>
+        <f t="shared" si="191"/>
         <v>-11178</v>
       </c>
       <c r="AC99" s="3">
-        <f>SUM(AC94:AC98)</f>
+        <f t="shared" si="191"/>
         <v>-4371</v>
       </c>
       <c r="AD99" s="3">
-        <f>SUM(AD94:AD98)</f>
+        <f t="shared" si="191"/>
         <v>-5465</v>
       </c>
-    </row>
-    <row r="100" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <f t="shared" si="191"/>
+        <v>-19495</v>
+      </c>
+    </row>
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -9668,37 +9921,40 @@
         <f>-786-AC100-AB100-AA100</f>
         <v>-714</v>
       </c>
-    </row>
-    <row r="101" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>81</v>
       </c>
       <c r="O101" s="6">
-        <f t="shared" ref="O101:Z101" si="181">+O100+O99+O92+O87</f>
+        <f t="shared" ref="O101:Z101" si="192">+O100+O99+O92+O87</f>
         <v>1937</v>
       </c>
       <c r="P101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>-3380</v>
       </c>
       <c r="Q101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>-1707</v>
       </c>
       <c r="R101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>2061</v>
       </c>
       <c r="S101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>-1512</v>
       </c>
       <c r="T101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>-1875</v>
       </c>
       <c r="U101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>1773</v>
       </c>
       <c r="V101" s="6">
@@ -9706,19 +9962,19 @@
         <v>345</v>
       </c>
       <c r="W101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>-3176</v>
       </c>
       <c r="X101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>17384</v>
       </c>
       <c r="Y101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>8096</v>
       </c>
       <c r="Z101" s="6">
-        <f t="shared" si="181"/>
+        <f t="shared" si="192"/>
         <v>4927</v>
       </c>
       <c r="AA101" s="3">
@@ -9737,11 +9993,15 @@
         <f>+AD100+AD99+AD92+AD87</f>
         <v>311</v>
       </c>
-    </row>
-    <row r="102" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <f>+AE100+AE99+AE92+AE87</f>
+        <v>-15367</v>
+      </c>
+    </row>
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="S102" s="6"/>
     </row>
-    <row r="103" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
@@ -9803,65 +10063,72 @@
       <c r="AD103" s="3">
         <v>74067</v>
       </c>
-    </row>
-    <row r="104" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AE103" s="3">
+        <v>76834</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>199</v>
       </c>
       <c r="S104" s="6">
-        <f t="shared" ref="S104:AD104" si="182">+S103-R103</f>
+        <f t="shared" ref="S104:AE104" si="193">+S103-R103</f>
         <v>5835</v>
       </c>
       <c r="T104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>5748</v>
       </c>
       <c r="U104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>3761</v>
       </c>
       <c r="V104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>-1314</v>
       </c>
       <c r="W104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>-8886</v>
       </c>
       <c r="X104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>-5645</v>
       </c>
       <c r="Y104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>-5284</v>
       </c>
       <c r="Z104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>1132</v>
       </c>
       <c r="AA104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>2012</v>
       </c>
       <c r="AB104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>1470</v>
       </c>
       <c r="AC104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>1605</v>
       </c>
       <c r="AD104" s="6">
-        <f t="shared" si="182"/>
+        <f t="shared" si="193"/>
         <v>1663</v>
       </c>
-    </row>
-    <row r="105" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AE104" s="6">
+        <f t="shared" si="193"/>
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
     </row>
-    <row r="106" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>126</v>
       </c>
@@ -9870,51 +10137,51 @@
         <v>7970</v>
       </c>
       <c r="P106" s="6">
-        <f t="shared" ref="P106:S106" si="183">+P87+P89</f>
+        <f t="shared" ref="P106:S106" si="194">+P87+P89</f>
         <v>8635</v>
       </c>
       <c r="Q106" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="194"/>
         <v>9776</v>
       </c>
       <c r="R106" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="194"/>
         <v>12734</v>
       </c>
       <c r="S106" s="6">
-        <f t="shared" si="183"/>
+        <f t="shared" si="194"/>
         <v>8761</v>
       </c>
       <c r="T106" s="6">
-        <f>+T87+T89</f>
+        <f t="shared" ref="T106:Z106" si="195">+T87+T89</f>
         <v>4669</v>
       </c>
       <c r="U106" s="6">
-        <f>+U87+U89</f>
+        <f t="shared" si="195"/>
         <v>336</v>
       </c>
       <c r="V106" s="6">
-        <f>+V87+V89</f>
+        <f t="shared" si="195"/>
         <v>5523</v>
       </c>
       <c r="W106" s="6">
-        <f>+W87+W89</f>
+        <f t="shared" si="195"/>
         <v>7175</v>
       </c>
       <c r="X106" s="6">
-        <f>+X87+X89</f>
+        <f t="shared" si="195"/>
         <v>11175</v>
       </c>
       <c r="Y106" s="6">
-        <f>+Y87+Y89</f>
+        <f t="shared" si="195"/>
         <v>13906</v>
       </c>
       <c r="Z106" s="6">
-        <f>+Z87+Z89</f>
+        <f t="shared" si="195"/>
         <v>11812</v>
       </c>
       <c r="AA106" s="3">
-        <f t="shared" ref="AA106:AB106" si="184">+AA87+AA89</f>
+        <f t="shared" ref="AA106" si="196">+AA87+AA89</f>
         <v>12846</v>
       </c>
       <c r="AB106" s="3">
@@ -9929,17 +10196,21 @@
         <f>+AD87+AD89</f>
         <v>13563</v>
       </c>
-    </row>
-    <row r="107" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AE106" s="3">
+        <f>+AE87+AE89</f>
+        <v>11085</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>127</v>
       </c>
       <c r="R107" s="6">
-        <f t="shared" ref="R107:S107" si="185">SUM(O106:R106)</f>
+        <f t="shared" ref="R107:S107" si="197">SUM(O106:R106)</f>
         <v>39115</v>
       </c>
       <c r="S107" s="6">
-        <f t="shared" si="185"/>
+        <f t="shared" si="197"/>
         <v>39906</v>
       </c>
       <c r="T107" s="6">
@@ -9955,39 +10226,43 @@
         <v>19289</v>
       </c>
       <c r="W107" s="6">
-        <f t="shared" ref="W107:AA107" si="186">SUM(T106:W106)</f>
+        <f t="shared" ref="W107:AA107" si="198">SUM(T106:W106)</f>
         <v>17703</v>
       </c>
       <c r="X107" s="6">
-        <f t="shared" si="186"/>
+        <f t="shared" si="198"/>
         <v>24209</v>
       </c>
       <c r="Y107" s="6">
-        <f t="shared" si="186"/>
+        <f t="shared" si="198"/>
         <v>37779</v>
       </c>
       <c r="Z107" s="6">
-        <f t="shared" si="186"/>
+        <f t="shared" si="198"/>
         <v>44068</v>
       </c>
       <c r="AA107" s="6">
-        <f t="shared" si="186"/>
+        <f t="shared" si="198"/>
         <v>49739</v>
       </c>
       <c r="AB107" s="3">
-        <f t="shared" ref="AB107:AC107" si="187">SUM(Y106:AB106)</f>
+        <f t="shared" ref="AB107:AC107" si="199">SUM(Y106:AB106)</f>
         <v>49761</v>
       </c>
       <c r="AC107" s="3">
-        <f t="shared" si="187"/>
+        <f t="shared" si="199"/>
         <v>52321</v>
       </c>
       <c r="AD107" s="3">
         <f>SUM(AA106:AD106)</f>
         <v>54072</v>
       </c>
-    </row>
-    <row r="108" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AE107" s="3">
+        <f>SUM(AB106:AE106)</f>
+        <v>52311</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
       <c r="R108" s="6"/>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
@@ -10004,178 +10279,193 @@
         <f>+AD107/R107-1</f>
         <v>0.3823852741914866</v>
       </c>
-    </row>
-    <row r="109" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="O109" s="3">
-        <f t="shared" ref="O109:AC109" si="188">SUM(L32:O32)</f>
+      <c r="AE108" s="19">
+        <f>+AE107/S107-1</f>
+        <v>0.3108555104495565</v>
+      </c>
+    </row>
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="R109" s="6"/>
+      <c r="S109" s="6"/>
+      <c r="T109" s="6"/>
+      <c r="U109" s="6"/>
+      <c r="V109" s="6"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6"/>
+      <c r="Z109" s="6"/>
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="3"/>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="19"/>
+      <c r="AE109" s="19"/>
+    </row>
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="O110" s="3">
+        <f t="shared" ref="O110:AC110" si="200">SUM(L32:O32)</f>
         <v>94400</v>
       </c>
-      <c r="P109" s="3">
-        <f t="shared" si="188"/>
+      <c r="P110" s="3">
+        <f t="shared" si="200"/>
         <v>104790</v>
       </c>
-      <c r="Q109" s="3">
-        <f t="shared" si="188"/>
+      <c r="Q110" s="3">
+        <f t="shared" si="200"/>
         <v>112330</v>
       </c>
-      <c r="R109" s="3">
-        <f t="shared" si="188"/>
+      <c r="R110" s="3">
+        <f t="shared" si="200"/>
         <v>117929</v>
       </c>
-      <c r="S109" s="3">
-        <f t="shared" si="188"/>
+      <c r="S110" s="3">
+        <f t="shared" si="200"/>
         <v>119666</v>
       </c>
-      <c r="T109" s="3">
-        <f t="shared" si="188"/>
+      <c r="T110" s="3">
+        <f t="shared" si="200"/>
         <v>119411</v>
       </c>
-      <c r="U109" s="3">
-        <f t="shared" si="188"/>
+      <c r="U110" s="3">
+        <f t="shared" si="200"/>
         <v>118115</v>
       </c>
-      <c r="V109" s="3">
-        <f t="shared" si="188"/>
+      <c r="V110" s="3">
+        <f t="shared" si="200"/>
         <v>116609</v>
       </c>
-      <c r="W109" s="3">
-        <f t="shared" si="188"/>
+      <c r="W110" s="3">
+        <f t="shared" si="200"/>
         <v>117346</v>
       </c>
-      <c r="X109" s="3">
-        <f t="shared" si="188"/>
+      <c r="X110" s="3">
+        <f t="shared" si="200"/>
         <v>120523</v>
       </c>
-      <c r="Y109" s="3">
-        <f t="shared" si="188"/>
+      <c r="Y110" s="3">
+        <f t="shared" si="200"/>
         <v>126955</v>
       </c>
-      <c r="Z109" s="3">
-        <f t="shared" si="188"/>
+      <c r="Z110" s="3">
+        <f t="shared" si="200"/>
         <v>134901</v>
       </c>
-      <c r="AA109" s="3">
-        <f t="shared" si="188"/>
+      <c r="AA110" s="3">
+        <f t="shared" si="200"/>
         <v>142711</v>
       </c>
-      <c r="AB109" s="3">
-        <f t="shared" si="188"/>
+      <c r="AB110" s="3">
+        <f t="shared" si="200"/>
         <v>149783</v>
       </c>
-      <c r="AC109" s="3">
-        <f t="shared" si="188"/>
+      <c r="AC110" s="3">
+        <f t="shared" si="200"/>
         <v>156226</v>
       </c>
-      <c r="AD109" s="3">
+      <c r="AD110" s="3">
         <f>SUM(AA32:AD32)</f>
         <v>164500</v>
       </c>
-      <c r="AE109" s="3">
-        <f t="shared" ref="AE109:AH109" si="189">SUM(AB32:AE32)</f>
-        <v>168145.5</v>
-      </c>
-      <c r="AF109" s="3">
-        <f t="shared" si="189"/>
-        <v>172052.6</v>
-      </c>
-      <c r="AG109" s="3">
-        <f t="shared" si="189"/>
-        <v>176111.5</v>
-      </c>
-      <c r="AH109" s="3">
-        <f t="shared" si="189"/>
-        <v>180950</v>
-      </c>
-    </row>
-    <row r="110" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD110" s="19">
-        <f>+AD109/R109-1</f>
-        <v>0.39490710512257365</v>
-      </c>
-      <c r="AH110" s="19">
-        <f>+AH109/AD109-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-    </row>
-    <row r="111" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
+      <c r="AE110" s="3">
+        <f>SUM(AB32:AE32)</f>
+        <v>170359</v>
+      </c>
+      <c r="AF110" s="3">
+        <f>SUM(AC32:AF32)</f>
+        <v>174266.1</v>
+      </c>
+      <c r="AG110" s="3">
+        <f>SUM(AD32:AG32)</f>
+        <v>178325</v>
+      </c>
+      <c r="AH110" s="3">
+        <f>SUM(AE32:AH32)</f>
+        <v>183163.5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AD111" s="19"/>
+      <c r="AE111" s="19"/>
+      <c r="AH111" s="19"/>
+    </row>
+    <row r="112" spans="2:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
-      <c r="O111" s="6"/>
-      <c r="P111" s="6"/>
-      <c r="Q111" s="6">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6">
         <v>-2631</v>
       </c>
-      <c r="R111" s="6"/>
-      <c r="S111" s="6"/>
-      <c r="T111" s="6"/>
-      <c r="U111" s="6">
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="6"/>
+      <c r="U112" s="6">
         <v>-3672</v>
       </c>
-      <c r="V111" s="6"/>
-      <c r="W111" s="6"/>
-      <c r="X111" s="6"/>
-      <c r="Y111" s="6"/>
-    </row>
-    <row r="112" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B112" t="s">
+      <c r="V112" s="6"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="6"/>
+    </row>
+    <row r="113" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
         <v>197</v>
       </c>
-      <c r="Q112" s="10"/>
-      <c r="R112" s="10">
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10">
         <f>SUM(Q30:R30)/SUM(M30:N30)-1</f>
         <v>1.0013947001394699</v>
       </c>
-      <c r="S112" s="10">
+      <c r="S113" s="10">
         <f>SUM(R30:S30)/SUM(N30:O30)-1</f>
         <v>0.25659472422062346</v>
       </c>
-      <c r="T112" s="10">
+      <c r="T113" s="10">
         <f>SUM(S30:T30)/SUM(O30:P30)-1</f>
         <v>0.36710369487485095</v>
       </c>
-      <c r="U112" s="10">
+      <c r="U113" s="10">
         <f>SUM(T30:U30)/SUM(P30:Q30)-1</f>
         <v>-0.14600231749710313</v>
       </c>
     </row>
-    <row r="114" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="115" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>198</v>
       </c>
-      <c r="Q114" s="6">
+      <c r="Q115" s="6">
         <v>13054</v>
       </c>
-      <c r="R114" s="6"/>
-      <c r="S114" s="6"/>
-      <c r="T114" s="6"/>
-      <c r="U114" s="6">
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="6"/>
+      <c r="U115" s="6">
         <v>9336</v>
       </c>
     </row>
-    <row r="115" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="116" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
         <v>202</v>
       </c>
-      <c r="U115" s="10">
-        <f>+U114/U32</f>
+      <c r="U116" s="10">
+        <f>+U115/U32</f>
         <v>0.33686945226239445</v>
       </c>
     </row>
-    <row r="117" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
+    <row r="118" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
         <v>203</v>
       </c>
     </row>
@@ -10201,19 +10491,19 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>128</v>
       </c>
@@ -10236,7 +10526,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>11449606</v>
       </c>
@@ -10259,7 +10549,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>11449189</v>
       </c>
@@ -10282,7 +10572,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>11448803</v>
       </c>
@@ -10305,7 +10595,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>11442272</v>
       </c>
@@ -10328,7 +10618,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>11441702</v>
       </c>
@@ -10348,7 +10638,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>11436793</v>
       </c>
@@ -10371,7 +10661,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>11435820</v>
       </c>
@@ -10394,7 +10684,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>11435448</v>
       </c>
@@ -10417,7 +10707,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11431955</v>
       </c>
@@ -10440,7 +10730,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11430398</v>
       </c>
@@ -10463,7 +10753,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11430141</v>
       </c>
@@ -10486,7 +10776,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11430085</v>
       </c>
@@ -10509,7 +10799,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11425523</v>
       </c>
@@ -10532,7 +10822,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11423621</v>
       </c>
@@ -10555,7 +10845,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11423616</v>
       </c>
@@ -10578,7 +10868,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11423520</v>
       </c>
@@ -10601,7 +10891,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>11423152</v>
       </c>
@@ -10621,7 +10911,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11422669</v>
       </c>
@@ -10644,7 +10934,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>11422373</v>
       </c>
@@ -10667,7 +10957,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11417054</v>
       </c>
@@ -10690,7 +10980,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>11416239</v>
       </c>
@@ -10713,7 +11003,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11416075</v>
       </c>
@@ -10736,7 +11026,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>11416067</v>
       </c>
@@ -10759,7 +11049,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>11415880</v>
       </c>
@@ -10782,7 +11072,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>11415808</v>
       </c>
@@ -10805,7 +11095,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>189</v>
       </c>
@@ -10828,7 +11118,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>11412511</v>
       </c>

--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293DFA33-C9CB-4887-95AC-7B4ACE5175A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F5C174-961F-4F61-89EB-DFE6D25E9746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51675" yWindow="1125" windowWidth="33525" windowHeight="15900" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="53300" yWindow="4680" windowWidth="20880" windowHeight="17090" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1497,18 +1497,18 @@
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
         <v>1</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1426335.155</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>125</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
         <v>6</v>
       </c>
@@ -1587,17 +1587,17 @@
         <v>1378187.155</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>1865.970703</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L11" t="s">
         <v>91</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>366.55794300000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>255</v>
       </c>
@@ -1624,22 +1624,22 @@
         <v>38169</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>92</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>102</v>
       </c>
@@ -1655,27 +1655,27 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L20" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>94</v>
       </c>
@@ -1690,27 +1690,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
   <dimension ref="A1:EY118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BU19" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CN25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CI32" sqref="CI32"/>
+      <selection pane="bottomRight" activeCell="CN32" sqref="CN32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="38" width="8.85546875" style="1"/>
-    <col min="39" max="61" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.81640625" customWidth="1"/>
+    <col min="3" max="38" width="8.81640625" style="1"/>
+    <col min="39" max="61" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>251</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>3430</v>
       </c>
     </row>
-    <row r="4" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="5" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="6" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>101</v>
       </c>
@@ -2452,7 +2452,7 @@
       <c r="BH6" s="6"/>
       <c r="BI6" s="6"/>
     </row>
-    <row r="7" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>204</v>
       </c>
@@ -2549,7 +2549,7 @@
       <c r="BH7" s="6"/>
       <c r="BI7" s="6"/>
     </row>
-    <row r="8" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="9" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>101</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -2863,7 +2863,7 @@
       <c r="BH10" s="6"/>
       <c r="BI10" s="6"/>
     </row>
-    <row r="11" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>98</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="BH11" s="6"/>
       <c r="BI11" s="6"/>
     </row>
-    <row r="12" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>99</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="BH12" s="6"/>
       <c r="BI12" s="6"/>
     </row>
-    <row r="13" spans="1:99" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:99" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>100</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="BH13" s="14"/>
       <c r="BI13" s="14"/>
     </row>
-    <row r="14" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>84</v>
       </c>
@@ -3257,7 +3257,7 @@
       <c r="BH14" s="6"/>
       <c r="BI14" s="6"/>
     </row>
-    <row r="15" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="BH15" s="6"/>
       <c r="BI15" s="6"/>
     </row>
-    <row r="16" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>99</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="BH16" s="6"/>
       <c r="BI16" s="6"/>
     </row>
-    <row r="17" spans="2:99" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:99" s="13" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>100</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="BH17" s="14"/>
       <c r="BI17" s="14"/>
     </row>
-    <row r="18" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -3609,7 +3609,7 @@
       <c r="BH18" s="6"/>
       <c r="BI18" s="6"/>
     </row>
-    <row r="19" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>210</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>20982</v>
       </c>
     </row>
-    <row r="20" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>211</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>11154</v>
       </c>
     </row>
-    <row r="21" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>212</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>9012</v>
       </c>
     </row>
-    <row r="22" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>213</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>5635</v>
       </c>
     </row>
-    <row r="23" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -4042,7 +4042,7 @@
       <c r="BH23" s="6"/>
       <c r="BI23" s="6"/>
     </row>
-    <row r="24" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>214</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>4093</v>
       </c>
     </row>
-    <row r="25" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>107</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>10312</v>
       </c>
     </row>
-    <row r="26" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>104</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>8404</v>
       </c>
     </row>
-    <row r="27" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>13646</v>
       </c>
     </row>
-    <row r="28" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
@@ -4443,7 +4443,7 @@
       <c r="BH28" s="6"/>
       <c r="BI28" s="6"/>
     </row>
-    <row r="29" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="30" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>83</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="31" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>82</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>160632</v>
       </c>
     </row>
-    <row r="32" spans="2:99" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:99" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>213843.86012797506</v>
       </c>
     </row>
-    <row r="33" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>36</v>
       </c>
@@ -5517,6 +5517,21 @@
       <c r="CC33" s="3">
         <v>1364</v>
       </c>
+      <c r="CD33" s="3">
+        <v>1875</v>
+      </c>
+      <c r="CE33" s="3">
+        <v>2153</v>
+      </c>
+      <c r="CF33" s="3">
+        <v>2867</v>
+      </c>
+      <c r="CG33" s="3">
+        <v>3789</v>
+      </c>
+      <c r="CH33" s="3">
+        <v>5454</v>
+      </c>
       <c r="CI33" s="3">
         <v>9355</v>
       </c>
@@ -5566,7 +5581,7 @@
         <v>40630.333424315264</v>
       </c>
     </row>
-    <row r="34" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>37</v>
       </c>
@@ -5786,6 +5801,26 @@
         <f t="shared" si="38"/>
         <v>3725</v>
       </c>
+      <c r="CD34" s="3">
+        <f>+CD32-CD33</f>
+        <v>5997</v>
+      </c>
+      <c r="CE34" s="3">
+        <f>+CE32-CE33</f>
+        <v>10313</v>
+      </c>
+      <c r="CF34" s="3">
+        <f>+CF32-CF33</f>
+        <v>15061</v>
+      </c>
+      <c r="CG34" s="3">
+        <f>+CG32-CG33</f>
+        <v>23849</v>
+      </c>
+      <c r="CH34" s="3">
+        <f>+CH32-CH33</f>
+        <v>35199</v>
+      </c>
       <c r="CI34" s="3">
         <f>+CI32-CI33</f>
         <v>46483</v>
@@ -5839,7 +5874,7 @@
         <v>173213.52670365979</v>
       </c>
     </row>
-    <row r="35" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>38</v>
       </c>
@@ -6013,6 +6048,21 @@
       <c r="CC35" s="3">
         <v>1399</v>
       </c>
+      <c r="CD35" s="3">
+        <v>1415</v>
+      </c>
+      <c r="CE35" s="3">
+        <v>2666</v>
+      </c>
+      <c r="CF35" s="3">
+        <v>4816</v>
+      </c>
+      <c r="CG35" s="3">
+        <v>5919</v>
+      </c>
+      <c r="CH35" s="3">
+        <v>7754</v>
+      </c>
       <c r="CI35" s="3">
         <v>10273</v>
       </c>
@@ -6062,7 +6112,7 @@
         <v>9551.8521562949991</v>
       </c>
     </row>
-    <row r="36" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
@@ -6236,6 +6286,21 @@
       <c r="CC36" s="3">
         <v>896</v>
       </c>
+      <c r="CD36" s="3">
+        <v>997</v>
+      </c>
+      <c r="CE36" s="3">
+        <v>1680</v>
+      </c>
+      <c r="CF36" s="3">
+        <v>2725</v>
+      </c>
+      <c r="CG36" s="3">
+        <v>3772</v>
+      </c>
+      <c r="CH36" s="3">
+        <v>4725</v>
+      </c>
       <c r="CI36" s="3">
         <v>7846</v>
       </c>
@@ -6285,7 +6350,7 @@
         <v>14043</v>
       </c>
     </row>
-    <row r="37" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>39</v>
       </c>
@@ -6462,6 +6527,21 @@
       <c r="CC37" s="3">
         <v>892</v>
       </c>
+      <c r="CD37" s="3">
+        <v>781</v>
+      </c>
+      <c r="CE37" s="3">
+        <v>973</v>
+      </c>
+      <c r="CF37" s="3">
+        <v>1295</v>
+      </c>
+      <c r="CG37" s="3">
+        <v>1731</v>
+      </c>
+      <c r="CH37" s="3">
+        <v>2517</v>
+      </c>
       <c r="CI37" s="3">
         <v>3451</v>
       </c>
@@ -6512,7 +6592,7 @@
         <v>9829</v>
       </c>
     </row>
-    <row r="38" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
@@ -6741,6 +6821,26 @@
         <f t="shared" si="63"/>
         <v>3187</v>
       </c>
+      <c r="CD38" s="6">
+        <f t="shared" ref="CD38:CH38" si="64">+CD37+CD36+CD35</f>
+        <v>3193</v>
+      </c>
+      <c r="CE38" s="6">
+        <f t="shared" si="64"/>
+        <v>5319</v>
+      </c>
+      <c r="CF38" s="6">
+        <f t="shared" si="64"/>
+        <v>8836</v>
+      </c>
+      <c r="CG38" s="6">
+        <f t="shared" si="64"/>
+        <v>11422</v>
+      </c>
+      <c r="CH38" s="6">
+        <f t="shared" si="64"/>
+        <v>14996</v>
+      </c>
       <c r="CI38" s="3">
         <f>SUM(CI35:CI37)</f>
         <v>21570</v>
@@ -6754,47 +6854,47 @@
         <v>36602</v>
       </c>
       <c r="CL38" s="3">
-        <f t="shared" ref="CL38" si="64">SUM(CL35:CL37)</f>
+        <f t="shared" ref="CL38" si="65">SUM(CL35:CL37)</f>
         <v>48527</v>
       </c>
       <c r="CM38" s="3">
-        <f t="shared" ref="CM38" si="65">SUM(CM35:CM37)</f>
+        <f t="shared" ref="CM38" si="66">SUM(CM35:CM37)</f>
         <v>46061.5</v>
       </c>
       <c r="CN38" s="3">
-        <f t="shared" ref="CN38" si="66">SUM(CN35:CN37)</f>
+        <f t="shared" ref="CN38" si="67">SUM(CN35:CN37)</f>
         <v>43842.55</v>
       </c>
       <c r="CO38" s="3">
-        <f t="shared" ref="CO38" si="67">SUM(CO35:CO37)</f>
+        <f t="shared" ref="CO38" si="68">SUM(CO35:CO37)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="CP38" s="3">
-        <f t="shared" ref="CP38" si="68">SUM(CP35:CP37)</f>
+        <f t="shared" ref="CP38" si="69">SUM(CP35:CP37)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="CQ38" s="3">
-        <f t="shared" ref="CQ38" si="69">SUM(CQ35:CQ37)</f>
+        <f t="shared" ref="CQ38" si="70">SUM(CQ35:CQ37)</f>
         <v>38430.53095</v>
       </c>
       <c r="CR38" s="3">
-        <f t="shared" ref="CR38" si="70">SUM(CR35:CR37)</f>
+        <f t="shared" ref="CR38" si="71">SUM(CR35:CR37)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="CS38" s="3">
-        <f t="shared" ref="CS38" si="71">SUM(CS35:CS37)</f>
+        <f t="shared" ref="CS38" si="72">SUM(CS35:CS37)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="CT38" s="3">
-        <f t="shared" ref="CT38" si="72">SUM(CT35:CT37)</f>
+        <f t="shared" ref="CT38" si="73">SUM(CT35:CT37)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="CU38" s="3">
-        <f t="shared" ref="CU38" si="73">SUM(CU35:CU37)</f>
+        <f t="shared" ref="CU38" si="74">SUM(CU35:CU37)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
-    <row r="39" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
@@ -6803,47 +6903,47 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
-        <f t="shared" ref="G39" si="74">+G34-G38</f>
+        <f t="shared" ref="G39" si="75">+G34-G38</f>
         <v>162</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39" si="75">+H34-H38</f>
+        <f t="shared" ref="H39" si="76">+H34-H38</f>
         <v>219</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" ref="I39" si="76">+I34-I38</f>
+        <f t="shared" ref="I39" si="77">+I34-I38</f>
         <v>216</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" ref="J39:Q39" si="77">+J34-J38</f>
+        <f t="shared" ref="J39:Q39" si="78">+J34-J38</f>
         <v>437</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>388</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>407</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>414</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>548</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>381</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-743</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>377</v>
       </c>
       <c r="R39" s="6">
@@ -6871,67 +6971,67 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
       <c r="AM39" s="6">
-        <f t="shared" ref="AM39:AN39" si="78">+AM34-AM38</f>
+        <f t="shared" ref="AM39:AN39" si="79">+AM34-AM38</f>
         <v>5449</v>
       </c>
       <c r="AN39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5863</v>
       </c>
       <c r="AO39" s="6">
-        <f t="shared" ref="AO39:AQ39" si="79">+AO34-AO38</f>
+        <f t="shared" ref="AO39:AQ39" si="80">+AO34-AO38</f>
         <v>5781</v>
       </c>
       <c r="AP39" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7820</v>
       </c>
       <c r="AQ39" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>6317</v>
       </c>
       <c r="AR39" s="6">
-        <f t="shared" ref="AR39:AS39" si="80">+AR34-AR38</f>
+        <f t="shared" ref="AR39:AS39" si="81">+AR34-AR38</f>
         <v>6626</v>
       </c>
       <c r="AS39" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7185</v>
       </c>
       <c r="AT39" s="6">
-        <f t="shared" ref="AT39:AU39" si="81">+AT34-AT38</f>
+        <f t="shared" ref="AT39:AU39" si="82">+AT34-AT38</f>
         <v>8858</v>
       </c>
       <c r="AU39" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5893</v>
       </c>
       <c r="AV39" s="6">
-        <f t="shared" ref="AV39" si="82">+AV34-AV38</f>
+        <f t="shared" ref="AV39" si="83">+AV34-AV38</f>
         <v>5963</v>
       </c>
       <c r="AW39" s="6">
-        <f t="shared" ref="AW39" si="83">+AW34-AW38</f>
+        <f t="shared" ref="AW39" si="84">+AW34-AW38</f>
         <v>8040</v>
       </c>
       <c r="AX39" s="6">
-        <f t="shared" ref="AX39" si="84">+AX34-AX38</f>
+        <f t="shared" ref="AX39" si="85">+AX34-AX38</f>
         <v>12775</v>
       </c>
       <c r="AY39" s="6">
-        <f t="shared" ref="AY39:BB39" si="85">+AY34-AY38</f>
+        <f t="shared" ref="AY39:BB39" si="86">+AY34-AY38</f>
         <v>11378</v>
       </c>
       <c r="AZ39" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>12367</v>
       </c>
       <c r="BA39" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>10423</v>
       </c>
       <c r="BB39" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>12585</v>
       </c>
       <c r="BC39" s="6">
@@ -6939,31 +7039,31 @@
         <v>8524</v>
       </c>
       <c r="BD39" s="6">
-        <f t="shared" ref="BD39:BF39" si="86">+BD34-BD38</f>
+        <f t="shared" ref="BD39:BF39" si="87">+BD34-BD38</f>
         <v>8358</v>
       </c>
       <c r="BE39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>5664</v>
       </c>
       <c r="BF39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>6399</v>
       </c>
       <c r="BG39" s="6">
-        <f t="shared" ref="BG39:BJ39" si="87">+BG34-BG38</f>
+        <f t="shared" ref="BG39:BJ39" si="88">+BG34-BG38</f>
         <v>10588.449999999999</v>
       </c>
       <c r="BH39" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>11262</v>
       </c>
       <c r="BI39" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>13748</v>
       </c>
       <c r="BJ39" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>15655.690000000002</v>
       </c>
       <c r="BK39" s="6">
@@ -6987,41 +7087,61 @@
         <v>17555</v>
       </c>
       <c r="BP39" s="6">
-        <f t="shared" ref="BP39:BR39" si="88">+BP34-BP38</f>
+        <f t="shared" ref="BP39:BR39" si="89">+BP34-BP38</f>
         <v>0</v>
       </c>
       <c r="BQ39" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BR39" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0</v>
       </c>
       <c r="BS39" s="6"/>
       <c r="BX39" s="6">
-        <f t="shared" ref="BX39:BY39" si="89">+BX34-BX38</f>
+        <f t="shared" ref="BX39:BY39" si="90">+BX34-BX38</f>
         <v>-124</v>
       </c>
       <c r="BY39" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-55</v>
       </c>
       <c r="BZ39" s="6">
-        <f t="shared" ref="BZ39:CA39" si="90">+BZ34-BZ38</f>
+        <f t="shared" ref="BZ39:CA39" si="91">+BZ34-BZ38</f>
         <v>262</v>
       </c>
       <c r="CA39" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1032</v>
       </c>
       <c r="CB39" s="6">
-        <f t="shared" ref="CB39:CC39" si="91">+CB34-CB38</f>
+        <f t="shared" ref="CB39:CC39" si="92">+CB34-CB38</f>
         <v>1756</v>
       </c>
       <c r="CC39" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>538</v>
+      </c>
+      <c r="CD39" s="6">
+        <f t="shared" ref="CD39:CH39" si="93">+CD34-CD38</f>
+        <v>2804</v>
+      </c>
+      <c r="CE39" s="6">
+        <f t="shared" si="93"/>
+        <v>4994</v>
+      </c>
+      <c r="CF39" s="6">
+        <f t="shared" si="93"/>
+        <v>6225</v>
+      </c>
+      <c r="CG39" s="6">
+        <f t="shared" si="93"/>
+        <v>12427</v>
+      </c>
+      <c r="CH39" s="6">
+        <f t="shared" si="93"/>
+        <v>20203</v>
       </c>
       <c r="CI39" s="3">
         <f>CI34-CI38</f>
@@ -7036,47 +7156,47 @@
         <v>32671</v>
       </c>
       <c r="CL39" s="3">
-        <f t="shared" ref="CL39" si="92">CL34-CL38</f>
+        <f t="shared" ref="CL39" si="94">CL34-CL38</f>
         <v>46753</v>
       </c>
       <c r="CM39" s="3">
-        <f t="shared" ref="CM39" si="93">CM34-CM38</f>
+        <f t="shared" ref="CM39" si="95">CM34-CM38</f>
         <v>48391.790000000008</v>
       </c>
       <c r="CN39" s="3">
-        <f t="shared" ref="CN39" si="94">CN34-CN38</f>
+        <f t="shared" ref="CN39" si="96">CN34-CN38</f>
         <v>65427.260000000009</v>
       </c>
       <c r="CO39" s="3">
-        <f t="shared" ref="CO39" si="95">CO34-CO38</f>
+        <f t="shared" ref="CO39" si="97">CO34-CO38</f>
         <v>91399.505000000005</v>
       </c>
       <c r="CP39" s="3">
-        <f t="shared" ref="CP39" si="96">CP34-CP38</f>
+        <f t="shared" ref="CP39" si="98">CP34-CP38</f>
         <v>106521.35450000003</v>
       </c>
       <c r="CQ39" s="3">
-        <f t="shared" ref="CQ39" si="97">CQ34-CQ38</f>
+        <f t="shared" ref="CQ39" si="99">CQ34-CQ38</f>
         <v>115467.44405000003</v>
       </c>
       <c r="CR39" s="3">
-        <f t="shared" ref="CR39" si="98">CR34-CR38</f>
+        <f t="shared" ref="CR39" si="100">CR34-CR38</f>
         <v>121540.23639500006</v>
       </c>
       <c r="CS39" s="3">
-        <f t="shared" ref="CS39" si="99">CS34-CS38</f>
+        <f t="shared" ref="CS39" si="101">CS34-CS38</f>
         <v>127605.95160800005</v>
       </c>
       <c r="CT39" s="3">
-        <f t="shared" ref="CT39" si="100">CT34-CT38</f>
+        <f t="shared" ref="CT39" si="102">CT34-CT38</f>
         <v>133683.30346527504</v>
       </c>
       <c r="CU39" s="3">
-        <f t="shared" ref="CU39" si="101">CU34-CU38</f>
+        <f t="shared" ref="CU39" si="103">CU34-CU38</f>
         <v>139789.67454736479</v>
       </c>
     </row>
-    <row r="40" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>43</v>
       </c>
@@ -7220,6 +7340,21 @@
         <f>-51+7</f>
         <v>-44</v>
       </c>
+      <c r="CD40" s="3">
+        <v>-50</v>
+      </c>
+      <c r="CE40" s="3">
+        <v>-84</v>
+      </c>
+      <c r="CF40" s="3">
+        <v>-31</v>
+      </c>
+      <c r="CG40" s="3">
+        <v>91</v>
+      </c>
+      <c r="CH40" s="3">
+        <v>391</v>
+      </c>
       <c r="CI40" s="3">
         <v>448</v>
       </c>
@@ -7233,39 +7368,39 @@
         <v>531</v>
       </c>
       <c r="CN40" s="3">
-        <f t="shared" ref="CN40:CU40" si="102">+CM59*$CZ$58</f>
+        <f t="shared" ref="CN40:CU40" si="104">+CM59*$CZ$58</f>
         <v>938.78</v>
       </c>
       <c r="CO40" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>2027.1830560000003</v>
       </c>
       <c r="CP40" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>3559.3807401184004</v>
       </c>
       <c r="CQ40" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>5364.704798056343</v>
       </c>
       <c r="CR40" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>7346.352039164467</v>
       </c>
       <c r="CS40" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>9460.0920894847641</v>
       </c>
       <c r="CT40" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>11707.975206123516</v>
       </c>
       <c r="CU40" s="3">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>14092.392176334453</v>
       </c>
     </row>
-    <row r="41" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>44</v>
       </c>
@@ -7306,67 +7441,67 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6">
-        <f t="shared" ref="AM41:AN41" si="103">+AM39+AM40</f>
+        <f t="shared" ref="AM41:AN41" si="105">+AM39+AM40</f>
         <v>5610</v>
       </c>
       <c r="AN41" s="6">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>5868</v>
       </c>
       <c r="AO41" s="6">
-        <f t="shared" ref="AO41:AQ41" si="104">+AO39+AO40</f>
+        <f t="shared" ref="AO41:AQ41" si="106">+AO39+AO40</f>
         <v>5912</v>
       </c>
       <c r="AP41" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>7971</v>
       </c>
       <c r="AQ41" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>6523</v>
       </c>
       <c r="AR41" s="6">
-        <f t="shared" ref="AR41" si="105">+AR39+AR40</f>
+        <f t="shared" ref="AR41" si="107">+AR39+AR40</f>
         <v>6832</v>
       </c>
       <c r="AS41" s="6">
-        <f t="shared" ref="AS41:AT41" si="106">+AS39+AS40</f>
+        <f t="shared" ref="AS41:AT41" si="108">+AS39+AS40</f>
         <v>7329</v>
       </c>
       <c r="AT41" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>9169</v>
       </c>
       <c r="AU41" s="6">
-        <f t="shared" ref="AU41:BB41" si="107">+AU39+AU40</f>
+        <f t="shared" ref="AU41:BB41" si="109">+AU39+AU40</f>
         <v>5861</v>
       </c>
       <c r="AV41" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>6131</v>
       </c>
       <c r="AW41" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>8133</v>
       </c>
       <c r="AX41" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>13055</v>
       </c>
       <c r="AY41" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>11503</v>
       </c>
       <c r="AZ41" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>12513</v>
       </c>
       <c r="BA41" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>10565</v>
       </c>
       <c r="BB41" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>12702</v>
       </c>
       <c r="BC41" s="6">
@@ -7374,31 +7509,31 @@
         <v>8908</v>
       </c>
       <c r="BD41" s="6">
-        <f t="shared" ref="BD41:BJ41" si="108">+BD39+BD40</f>
+        <f t="shared" ref="BD41:BJ41" si="110">+BD39+BD40</f>
         <v>8186</v>
       </c>
       <c r="BE41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>5576</v>
       </c>
       <c r="BF41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>6149</v>
       </c>
       <c r="BG41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>10338.449999999999</v>
       </c>
       <c r="BH41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>11163</v>
       </c>
       <c r="BI41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>14020</v>
       </c>
       <c r="BJ41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>16079.690000000002</v>
       </c>
       <c r="BK41" s="6">
@@ -7422,28 +7557,28 @@
         <v>18382</v>
       </c>
       <c r="BP41" s="6">
-        <f t="shared" ref="BP41:BR41" si="109">+BP39+BP40</f>
+        <f t="shared" ref="BP41:BR41" si="111">+BP39+BP40</f>
         <v>0</v>
       </c>
       <c r="BQ41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="BR41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="BS41" s="6"/>
       <c r="BX41" s="3">
-        <f t="shared" ref="BX41" si="110">+BX39+BX40</f>
+        <f t="shared" ref="BX41" si="112">+BX39+BX40</f>
         <v>-124</v>
       </c>
       <c r="BY41" s="3">
-        <f t="shared" ref="BY41" si="111">+BY39+BY40</f>
+        <f t="shared" ref="BY41" si="113">+BY39+BY40</f>
         <v>-55</v>
       </c>
       <c r="BZ41" s="3">
-        <f t="shared" ref="BZ41" si="112">+BZ39+BZ40</f>
+        <f t="shared" ref="BZ41" si="114">+BZ39+BZ40</f>
         <v>262</v>
       </c>
       <c r="CA41" s="3">
@@ -7458,6 +7593,26 @@
         <f>+CC39+CC40</f>
         <v>494</v>
       </c>
+      <c r="CD41" s="3">
+        <f>+CD39+CD40</f>
+        <v>2754</v>
+      </c>
+      <c r="CE41" s="3">
+        <f>+CE39+CE40</f>
+        <v>4910</v>
+      </c>
+      <c r="CF41" s="3">
+        <f>+CF39+CF40</f>
+        <v>6194</v>
+      </c>
+      <c r="CG41" s="3">
+        <f>+CG39+CG40</f>
+        <v>12518</v>
+      </c>
+      <c r="CH41" s="3">
+        <f>+CH39+CH40</f>
+        <v>20594</v>
+      </c>
       <c r="CI41" s="3">
         <f>+CI39+CI40</f>
         <v>25361</v>
@@ -7471,47 +7626,47 @@
         <v>33180</v>
       </c>
       <c r="CL41" s="3">
-        <f t="shared" ref="CL41" si="113">+CL39+CL40</f>
+        <f t="shared" ref="CL41" si="115">+CL39+CL40</f>
         <v>47284</v>
       </c>
       <c r="CM41" s="3">
-        <f t="shared" ref="CM41" si="114">+CM39+CM40</f>
+        <f t="shared" ref="CM41" si="116">+CM39+CM40</f>
         <v>48391.790000000008</v>
       </c>
       <c r="CN41" s="3">
-        <f t="shared" ref="CN41" si="115">+CN39+CN40</f>
+        <f t="shared" ref="CN41" si="117">+CN39+CN40</f>
         <v>66366.040000000008</v>
       </c>
       <c r="CO41" s="3">
-        <f t="shared" ref="CO41" si="116">+CO39+CO40</f>
+        <f t="shared" ref="CO41" si="118">+CO39+CO40</f>
         <v>93426.688055999999</v>
       </c>
       <c r="CP41" s="3">
-        <f t="shared" ref="CP41" si="117">+CP39+CP40</f>
+        <f t="shared" ref="CP41" si="119">+CP39+CP40</f>
         <v>110080.73524011843</v>
       </c>
       <c r="CQ41" s="3">
-        <f t="shared" ref="CQ41" si="118">+CQ39+CQ40</f>
+        <f t="shared" ref="CQ41" si="120">+CQ39+CQ40</f>
         <v>120832.14884805637</v>
       </c>
       <c r="CR41" s="3">
-        <f t="shared" ref="CR41" si="119">+CR39+CR40</f>
+        <f t="shared" ref="CR41" si="121">+CR39+CR40</f>
         <v>128886.58843416453</v>
       </c>
       <c r="CS41" s="3">
-        <f t="shared" ref="CS41" si="120">+CS39+CS40</f>
+        <f t="shared" ref="CS41" si="122">+CS39+CS40</f>
         <v>137066.0436974848</v>
       </c>
       <c r="CT41" s="3">
-        <f t="shared" ref="CT41" si="121">+CT39+CT40</f>
+        <f t="shared" ref="CT41" si="123">+CT39+CT40</f>
         <v>145391.27867139856</v>
       </c>
       <c r="CU41" s="3">
-        <f t="shared" ref="CU41" si="122">+CU39+CU40</f>
+        <f t="shared" ref="CU41" si="124">+CU39+CU40</f>
         <v>153882.06672369924</v>
       </c>
     </row>
-    <row r="42" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
@@ -7613,7 +7768,7 @@
         <v>1497</v>
       </c>
       <c r="BG42" s="6">
-        <f t="shared" ref="BG42" si="123">+BG41*0.19</f>
+        <f t="shared" ref="BG42" si="125">+BG41*0.19</f>
         <v>1964.3054999999997</v>
       </c>
       <c r="BH42" s="6">
@@ -7653,6 +7808,21 @@
       <c r="CC42" s="3">
         <v>441</v>
       </c>
+      <c r="CD42" s="3">
+        <v>1254</v>
+      </c>
+      <c r="CE42" s="3">
+        <v>1970</v>
+      </c>
+      <c r="CF42" s="3">
+        <v>2506</v>
+      </c>
+      <c r="CG42" s="3">
+        <v>2301</v>
+      </c>
+      <c r="CH42" s="3">
+        <v>4660</v>
+      </c>
       <c r="CI42" s="3">
         <f>3249+1</f>
         <v>3250</v>
@@ -7671,39 +7841,39 @@
         <v>8710.5222000000012</v>
       </c>
       <c r="CN42" s="3">
-        <f t="shared" ref="CN42:CU42" si="124">+CN41*0.18</f>
+        <f t="shared" ref="CN42:CU42" si="126">+CN41*0.18</f>
         <v>11945.887200000001</v>
       </c>
       <c r="CO42" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>16816.803850079999</v>
       </c>
       <c r="CP42" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>19814.532343221315</v>
       </c>
       <c r="CQ42" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>21749.786792650146</v>
       </c>
       <c r="CR42" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>23199.585918149613</v>
       </c>
       <c r="CS42" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>24671.887865547262</v>
       </c>
       <c r="CT42" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>26170.430160851738</v>
       </c>
       <c r="CU42" s="3">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>27698.772010265864</v>
       </c>
     </row>
-    <row r="43" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>46</v>
       </c>
@@ -7744,67 +7914,67 @@
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="6">
-        <f t="shared" ref="AM43:AN43" si="125">+AM41-AM42</f>
+        <f t="shared" ref="AM43:AN43" si="127">+AM41-AM42</f>
         <v>4987</v>
       </c>
       <c r="AN43" s="6">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>5106</v>
       </c>
       <c r="AO43" s="6">
-        <f t="shared" ref="AO43:AQ43" si="126">+AO41-AO42</f>
+        <f t="shared" ref="AO43:AQ43" si="128">+AO41-AO42</f>
         <v>5137</v>
       </c>
       <c r="AP43" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>6882</v>
       </c>
       <c r="AQ43" s="6">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>4307</v>
       </c>
       <c r="AR43" s="6">
-        <f t="shared" ref="AR43" si="127">+AR41-AR42</f>
+        <f t="shared" ref="AR43" si="129">+AR41-AR42</f>
         <v>4616</v>
       </c>
       <c r="AS43" s="6">
-        <f t="shared" ref="AS43:AT43" si="128">+AS41-AS42</f>
+        <f t="shared" ref="AS43:AT43" si="130">+AS41-AS42</f>
         <v>6091</v>
       </c>
       <c r="AT43" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>7349</v>
       </c>
       <c r="AU43" s="6">
-        <f t="shared" ref="AU43:AV43" si="129">+AU41-AU42</f>
+        <f t="shared" ref="AU43:AV43" si="131">+AU41-AU42</f>
         <v>4902</v>
       </c>
       <c r="AV43" s="6">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>5178</v>
       </c>
       <c r="AW43" s="6">
-        <f t="shared" ref="AW43:BB43" si="130">+AW41-AW42</f>
+        <f t="shared" ref="AW43:BB43" si="132">+AW41-AW42</f>
         <v>7846</v>
       </c>
       <c r="AX43" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>11219</v>
       </c>
       <c r="AY43" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>9497</v>
       </c>
       <c r="AZ43" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>10394</v>
       </c>
       <c r="BA43" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>9194</v>
       </c>
       <c r="BB43" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>10285</v>
       </c>
       <c r="BC43" s="6">
@@ -7812,72 +7982,72 @@
         <v>7465</v>
       </c>
       <c r="BD43" s="6">
-        <f t="shared" ref="BD43:BF43" si="131">+BD41-BD42</f>
+        <f t="shared" ref="BD43:BF43" si="133">+BD41-BD42</f>
         <v>6687</v>
       </c>
       <c r="BE43" s="6">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>4395</v>
       </c>
       <c r="BF43" s="6">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>4652</v>
       </c>
       <c r="BG43" s="6">
-        <f t="shared" ref="BG43:BR43" si="132">+BG41-BG42</f>
+        <f t="shared" ref="BG43:BR43" si="134">+BG41-BG42</f>
         <v>8374.1444999999985</v>
       </c>
       <c r="BH43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>9658</v>
       </c>
       <c r="BI43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>11583</v>
       </c>
       <c r="BJ43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>13288.690000000002</v>
       </c>
       <c r="BK43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>12369</v>
       </c>
       <c r="BL43" s="6">
-        <f t="shared" ref="BL43" si="133">+BL41-BL42</f>
+        <f t="shared" ref="BL43" si="135">+BL41-BL42</f>
         <v>13465</v>
       </c>
       <c r="BM43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>15688</v>
       </c>
       <c r="BN43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>20838</v>
       </c>
       <c r="BO43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>16644</v>
       </c>
       <c r="BP43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="BQ43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="BR43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="BS43" s="6"/>
       <c r="BX43" s="3">
-        <f t="shared" ref="BX43:BY43" si="134">+BX41-BX42</f>
+        <f t="shared" ref="BX43:BY43" si="136">+BX41-BX42</f>
         <v>-124</v>
       </c>
       <c r="BY43" s="3">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>-55</v>
       </c>
       <c r="BZ43" s="3">
@@ -7896,6 +8066,26 @@
         <f>+CC41-CC42</f>
         <v>53</v>
       </c>
+      <c r="CD43" s="3">
+        <f>+CD41-CD42</f>
+        <v>1500</v>
+      </c>
+      <c r="CE43" s="3">
+        <f>+CE41-CE42</f>
+        <v>2940</v>
+      </c>
+      <c r="CF43" s="3">
+        <f>+CF41-CF42</f>
+        <v>3688</v>
+      </c>
+      <c r="CG43" s="3">
+        <f>+CG41-CG42</f>
+        <v>10217</v>
+      </c>
+      <c r="CH43" s="3">
+        <f>+CH41-CH42</f>
+        <v>15934</v>
+      </c>
       <c r="CI43" s="3">
         <f>+CI41-CI42</f>
         <v>22111</v>
@@ -7909,271 +8099,271 @@
         <v>29146</v>
       </c>
       <c r="CL43" s="3">
-        <f t="shared" ref="CL43" si="135">+CL41-CL42</f>
+        <f t="shared" ref="CL43" si="137">+CL41-CL42</f>
         <v>39370</v>
       </c>
       <c r="CM43" s="3">
-        <f t="shared" ref="CM43" si="136">+CM41-CM42</f>
+        <f t="shared" ref="CM43" si="138">+CM41-CM42</f>
         <v>39681.267800000009</v>
       </c>
       <c r="CN43" s="3">
-        <f t="shared" ref="CN43" si="137">+CN41-CN42</f>
+        <f t="shared" ref="CN43" si="139">+CN41-CN42</f>
         <v>54420.152800000011</v>
       </c>
       <c r="CO43" s="3">
-        <f t="shared" ref="CO43" si="138">+CO41-CO42</f>
+        <f t="shared" ref="CO43" si="140">+CO41-CO42</f>
         <v>76609.884205919996</v>
       </c>
       <c r="CP43" s="3">
-        <f t="shared" ref="CP43" si="139">+CP41-CP42</f>
+        <f t="shared" ref="CP43" si="141">+CP41-CP42</f>
         <v>90266.202896897114</v>
       </c>
       <c r="CQ43" s="3">
-        <f t="shared" ref="CQ43" si="140">+CQ41-CQ42</f>
+        <f t="shared" ref="CQ43" si="142">+CQ41-CQ42</f>
         <v>99082.362055406222</v>
       </c>
       <c r="CR43" s="3">
-        <f t="shared" ref="CR43" si="141">+CR41-CR42</f>
+        <f t="shared" ref="CR43" si="143">+CR41-CR42</f>
         <v>105687.00251601491</v>
       </c>
       <c r="CS43" s="3">
-        <f t="shared" ref="CS43" si="142">+CS41-CS42</f>
+        <f t="shared" ref="CS43" si="144">+CS41-CS42</f>
         <v>112394.15583193753</v>
       </c>
       <c r="CT43" s="3">
-        <f t="shared" ref="CT43" si="143">+CT41-CT42</f>
+        <f t="shared" ref="CT43" si="145">+CT41-CT42</f>
         <v>119220.84851054681</v>
       </c>
       <c r="CU43" s="3">
-        <f t="shared" ref="CU43" si="144">+CU41-CU42</f>
+        <f t="shared" ref="CU43" si="146">+CU41-CU42</f>
         <v>126183.29471343338</v>
       </c>
       <c r="CV43" s="3">
-        <f t="shared" ref="CV43:EA43" si="145">+CU43*(1+$CZ$57)</f>
+        <f t="shared" ref="CV43:EA43" si="147">+CU43*(1+$CZ$57)</f>
         <v>119874.12997776171</v>
       </c>
       <c r="CW43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>113880.42347887362</v>
       </c>
       <c r="CX43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>108186.40230492993</v>
       </c>
       <c r="CY43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>102777.08218968342</v>
       </c>
       <c r="CZ43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>97638.228080199246</v>
       </c>
       <c r="DA43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>92756.316676189279</v>
       </c>
       <c r="DB43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>88118.500842379814</v>
       </c>
       <c r="DC43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>83712.57580026082</v>
       </c>
       <c r="DD43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>79526.947010247779</v>
       </c>
       <c r="DE43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>75550.599659735381</v>
       </c>
       <c r="DF43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>71773.069676748608</v>
       </c>
       <c r="DG43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>68184.416192911172</v>
       </c>
       <c r="DH43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>64775.195383265607</v>
       </c>
       <c r="DI43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>61536.435614102324</v>
       </c>
       <c r="DJ43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>58459.613833397205</v>
       </c>
       <c r="DK43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>55536.63314172734</v>
       </c>
       <c r="DL43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>52759.801484640971</v>
       </c>
       <c r="DM43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>50121.811410408918</v>
       </c>
       <c r="DN43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>47615.720839888469</v>
       </c>
       <c r="DO43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>45234.934797894042</v>
       </c>
       <c r="DP43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>42973.188057999338</v>
       </c>
       <c r="DQ43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>40824.52865509937</v>
       </c>
       <c r="DR43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>38783.302222344399</v>
       </c>
       <c r="DS43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>36844.137111227174</v>
       </c>
       <c r="DT43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>35001.930255665815</v>
       </c>
       <c r="DU43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>33251.833742882525</v>
       </c>
       <c r="DV43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>31589.242055738396</v>
       </c>
       <c r="DW43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>30009.779952951474</v>
       </c>
       <c r="DX43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>28509.290955303899</v>
       </c>
       <c r="DY43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>27083.826407538701</v>
       </c>
       <c r="DZ43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>25729.635087161765</v>
       </c>
       <c r="EA43" s="3">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>24443.153332803675</v>
       </c>
       <c r="EB43" s="3">
-        <f t="shared" ref="EB43:EY43" si="146">+EA43*(1+$CZ$57)</f>
+        <f t="shared" ref="EB43:EY43" si="148">+EA43*(1+$CZ$57)</f>
         <v>23220.99566616349</v>
       </c>
       <c r="EC43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>22059.945882855314</v>
       </c>
       <c r="ED43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>20956.948588712548</v>
       </c>
       <c r="EE43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>19909.101159276921</v>
       </c>
       <c r="EF43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>18913.646101313076</v>
       </c>
       <c r="EG43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>17967.963796247423</v>
       </c>
       <c r="EH43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>17069.565606435051</v>
       </c>
       <c r="EI43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>16216.087326113298</v>
       </c>
       <c r="EJ43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>15405.282959807633</v>
       </c>
       <c r="EK43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>14635.01881181725</v>
       </c>
       <c r="EL43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>13903.267871226386</v>
       </c>
       <c r="EM43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>13208.104477665067</v>
       </c>
       <c r="EN43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>12547.699253781813</v>
       </c>
       <c r="EO43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>11920.314291092722</v>
       </c>
       <c r="EP43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>11324.298576538085</v>
       </c>
       <c r="EQ43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>10758.083647711181</v>
       </c>
       <c r="ER43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>10220.179465325622</v>
       </c>
       <c r="ES43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>9709.1704920593402</v>
       </c>
       <c r="ET43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>9223.7119674563728</v>
       </c>
       <c r="EU43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>8762.5263690835545</v>
       </c>
       <c r="EV43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>8324.400050629376</v>
       </c>
       <c r="EW43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>7908.1800480979064</v>
       </c>
       <c r="EX43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>7512.7710456930108</v>
       </c>
       <c r="EY43" s="3">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>7137.1324934083596</v>
       </c>
     </row>
-    <row r="44" spans="2:155" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:155" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>47</v>
       </c>
@@ -8214,67 +8404,67 @@
       <c r="AK44" s="9"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9">
-        <f t="shared" ref="AM44:AN44" si="147">+AM43/AM45</f>
+        <f t="shared" ref="AM44:AN44" si="149">+AM43/AM45</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="AN44" s="9">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="AO44" s="9">
-        <f t="shared" ref="AO44:AQ44" si="148">+AO43/AO45</f>
+        <f t="shared" ref="AO44:AQ44" si="150">+AO43/AO45</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="AP44" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="AQ44" s="9">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="AR44" s="9">
-        <f t="shared" ref="AR44" si="149">+AR43/AR45</f>
+        <f t="shared" ref="AR44" si="151">+AR43/AR45</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="AS44" s="9">
-        <f t="shared" ref="AS44:AT44" si="150">+AS43/AS45</f>
+        <f t="shared" ref="AS44:AT44" si="152">+AS43/AS45</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="AT44" s="9">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>2.559735283873215</v>
       </c>
       <c r="AU44" s="9">
-        <f t="shared" ref="AU44:AV44" si="151">+AU43/AU45</f>
+        <f t="shared" ref="AU44:AV44" si="153">+AU43/AU45</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="AV44" s="9">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="AW44" s="9">
-        <f t="shared" ref="AW44:BB44" si="152">+AW43/AW45</f>
+        <f t="shared" ref="AW44:BB44" si="154">+AW43/AW45</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="AX44" s="9">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>3.882006920415225</v>
       </c>
       <c r="AY44" s="9">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="AZ44" s="9">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="BA44" s="9">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="BB44" s="9">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="BC44" s="9">
@@ -8282,51 +8472,51 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="BD44" s="9">
-        <f t="shared" ref="BD44:BF44" si="153">+BD43/BD45</f>
+        <f t="shared" ref="BD44:BF44" si="155">+BD43/BD45</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="BE44" s="9">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="BF44" s="9">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>1.7621212121212122</v>
       </c>
       <c r="BG44" s="9">
-        <f t="shared" ref="BG44:BO44" si="154">+BG43/BG45</f>
+        <f t="shared" ref="BG44:BO44" si="156">+BG43/BG45</f>
         <v>3.1720244318181812</v>
       </c>
       <c r="BH44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>3.6975497702909648</v>
       </c>
       <c r="BI44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>4.3858386974630825</v>
       </c>
       <c r="BJ44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>5.0527338403041835</v>
       </c>
       <c r="BK44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>4.7119999999999997</v>
       </c>
       <c r="BL44" s="9">
-        <f t="shared" ref="BL44" si="155">+BL43/BL45</f>
+        <f t="shared" ref="BL44" si="157">+BL43/BL45</f>
         <v>5.1590038314176248</v>
       </c>
       <c r="BM44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>6.0338461538461541</v>
       </c>
       <c r="BN44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>8.0176991150442483</v>
       </c>
       <c r="BO44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>6.4262548262548265</v>
       </c>
       <c r="BP44" s="9"/>
@@ -8346,6 +8536,26 @@
         <f>+CC43/CC45</f>
         <v>2.4469067405355493E-2</v>
       </c>
+      <c r="CD44" s="17">
+        <f>+CD43/CD45</f>
+        <v>0.59594755661501786</v>
+      </c>
+      <c r="CE44" s="17">
+        <f>+CE43/CE45</f>
+        <v>1.1036036036036037</v>
+      </c>
+      <c r="CF44" s="17">
+        <f>+CF43/CF45</f>
+        <v>1.2926743778478795</v>
+      </c>
+      <c r="CG44" s="17">
+        <f>+CG43/CG45</f>
+        <v>3.4929914529914532</v>
+      </c>
+      <c r="CH44" s="17">
+        <f>+CH43/CH45</f>
+        <v>5.4850243863516397</v>
+      </c>
       <c r="CI44" s="17">
         <f>+CI43/CI45</f>
         <v>7.5696679219445393</v>
@@ -8359,47 +8569,47 @@
         <v>10.092105263157896</v>
       </c>
       <c r="CL44" s="17">
-        <f t="shared" ref="CL44" si="156">+CL43/CL45</f>
+        <f t="shared" ref="CL44" si="158">+CL43/CL45</f>
         <v>13.770549143057012</v>
       </c>
       <c r="CM44" s="17">
-        <f t="shared" ref="CM44" si="157">+CM43/CM45</f>
+        <f t="shared" ref="CM44" si="159">+CM43/CM45</f>
         <v>14.721301354108704</v>
       </c>
       <c r="CN44" s="17">
-        <f t="shared" ref="CN44" si="158">+CN43/CN45</f>
+        <f t="shared" ref="CN44" si="160">+CN43/CN45</f>
         <v>20.189260916342057</v>
       </c>
       <c r="CO44" s="17">
-        <f t="shared" ref="CO44" si="159">+CO43/CO45</f>
+        <f t="shared" ref="CO44" si="161">+CO43/CO45</f>
         <v>28.421400187690594</v>
       </c>
       <c r="CP44" s="17">
-        <f t="shared" ref="CP44" si="160">+CP43/CP45</f>
+        <f t="shared" ref="CP44" si="162">+CP43/CP45</f>
         <v>33.487739898681916</v>
       </c>
       <c r="CQ44" s="17">
-        <f t="shared" ref="CQ44" si="161">+CQ43/CQ45</f>
+        <f t="shared" ref="CQ44" si="163">+CQ43/CQ45</f>
         <v>36.758435190282405</v>
       </c>
       <c r="CR44" s="17">
-        <f t="shared" ref="CR44" si="162">+CR43/CR45</f>
+        <f t="shared" ref="CR44" si="164">+CR43/CR45</f>
         <v>39.208682068638439</v>
       </c>
       <c r="CS44" s="17">
-        <f t="shared" ref="CS44" si="163">+CS43/CS45</f>
+        <f t="shared" ref="CS44" si="165">+CS43/CS45</f>
         <v>41.696960056367104</v>
       </c>
       <c r="CT44" s="17">
-        <f t="shared" ref="CT44" si="164">+CT43/CT45</f>
+        <f t="shared" ref="CT44" si="166">+CT43/CT45</f>
         <v>44.22958579504612</v>
       </c>
       <c r="CU44" s="17">
-        <f t="shared" ref="CU44" si="165">+CU43/CU45</f>
+        <f t="shared" ref="CU44" si="167">+CU43/CU45</f>
         <v>46.812574555159848</v>
       </c>
     </row>
-    <row r="45" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
@@ -8549,6 +8759,18 @@
       <c r="CC45" s="3">
         <v>2166</v>
       </c>
+      <c r="CD45" s="3">
+        <v>2517</v>
+      </c>
+      <c r="CE45" s="3">
+        <v>2664</v>
+      </c>
+      <c r="CF45" s="3">
+        <v>2853</v>
+      </c>
+      <c r="CG45" s="3">
+        <v>2925</v>
+      </c>
       <c r="CH45" s="3">
         <f>2395.921635+509.079123</f>
         <v>2905.0007580000001</v>
@@ -8570,42 +8792,42 @@
         <v>2695.5</v>
       </c>
       <c r="CN45" s="3">
-        <f t="shared" ref="CN45:CU45" si="166">+CM45</f>
+        <f t="shared" ref="CN45:CU45" si="168">+CM45</f>
         <v>2695.5</v>
       </c>
       <c r="CO45" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>2695.5</v>
       </c>
       <c r="CP45" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>2695.5</v>
       </c>
       <c r="CQ45" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>2695.5</v>
       </c>
       <c r="CR45" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>2695.5</v>
       </c>
       <c r="CS45" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>2695.5</v>
       </c>
       <c r="CT45" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>2695.5</v>
       </c>
       <c r="CU45" s="3">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>2695.5</v>
       </c>
     </row>
-    <row r="46" spans="2:155" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:155" x14ac:dyDescent="0.25">
       <c r="BC46" s="6"/>
     </row>
-    <row r="47" spans="2:155" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:155" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
@@ -8650,23 +8872,23 @@
       <c r="AO47" s="12"/>
       <c r="AP47" s="12"/>
       <c r="AQ47" s="11">
-        <f t="shared" ref="AQ47:AU47" si="167">+AQ32/AM32-1</f>
+        <f t="shared" ref="AQ47:AU47" si="169">+AQ32/AM32-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="AR47" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="AS47" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="AT47" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="AU47" s="11">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="AV47" s="11">
@@ -8690,11 +8912,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="BA47" s="11">
-        <f t="shared" ref="BA47:BB47" si="168">+BA32/AW32-1</f>
+        <f t="shared" ref="BA47:BB47" si="170">+BA32/AW32-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="BB47" s="11">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="BC47" s="11">
@@ -8710,7 +8932,7 @@
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="BF47" s="11">
-        <f t="shared" ref="BF47" si="169">+BF32/BB32-1</f>
+        <f t="shared" ref="BF47" si="171">+BF32/BB32-1</f>
         <v>-4.4726916337501144E-2</v>
       </c>
       <c r="BG47" s="11">
@@ -8718,31 +8940,31 @@
         <v>2.6408198366060009E-2</v>
       </c>
       <c r="BH47" s="11">
-        <f t="shared" ref="BH47" si="170">+BH32/BD32-1</f>
+        <f t="shared" ref="BH47" si="172">+BH32/BD32-1</f>
         <v>0.11022829782804799</v>
       </c>
       <c r="BI47" s="11">
-        <f t="shared" ref="BI47" si="171">+BI32/BE32-1</f>
+        <f t="shared" ref="BI47" si="173">+BI32/BE32-1</f>
         <v>0.23208486685429741</v>
       </c>
       <c r="BJ47" s="11">
-        <f t="shared" ref="BJ47" si="172">+BJ32/BF32-1</f>
+        <f t="shared" ref="BJ47" si="174">+BJ32/BF32-1</f>
         <v>0.24703870666873939</v>
       </c>
       <c r="BK47" s="11">
-        <f t="shared" ref="BK47:BR47" si="173">+BK32/BG32-1</f>
+        <f t="shared" ref="BK47:BR47" si="175">+BK32/BG32-1</f>
         <v>0.27264793157619138</v>
       </c>
       <c r="BL47" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.2210069064658271</v>
       </c>
       <c r="BM47" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.18868974404029748</v>
       </c>
       <c r="BN47" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.20627757971628724</v>
       </c>
       <c r="BO47" s="11">
@@ -8750,72 +8972,72 @@
         <v>0.16071869428062002</v>
       </c>
       <c r="BP47" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BQ47" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BR47" s="11">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="BS47" s="11"/>
       <c r="BV47" s="18">
-        <f t="shared" ref="BV47:CH47" si="174">+BV32/BU32-1</f>
+        <f t="shared" ref="BV47:CH47" si="176">+BV32/BU32-1</f>
         <v>22.560209424083769</v>
       </c>
       <c r="BW47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>4.333333333333333</v>
       </c>
       <c r="BX47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>2.1875</v>
       </c>
       <c r="BY47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="BZ47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>1.8566176470588234</v>
       </c>
       <c r="CA47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>1.5405405405405403</v>
       </c>
       <c r="CB47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.87993920972644379</v>
       </c>
       <c r="CC47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.37132848288870934</v>
       </c>
       <c r="CD47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.5468657889565729</v>
       </c>
       <c r="CE47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.58358739837398366</v>
       </c>
       <c r="CF47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.43815177282207607</v>
       </c>
       <c r="CG47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.54161088799643009</v>
       </c>
       <c r="CH47" s="18">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>0.47090961719371882</v>
       </c>
       <c r="CI47" s="18">
-        <f t="shared" ref="CI47" si="175">+CI32/CH32-1</f>
+        <f t="shared" ref="CI47" si="177">+CI32/CH32-1</f>
         <v>0.37352716896661997</v>
       </c>
       <c r="CJ47" s="18">
@@ -8835,39 +9057,39 @@
         <v>-1.1193175554782941E-2</v>
       </c>
       <c r="CN47" s="18">
-        <f t="shared" ref="CN47:CU47" si="176">+CN32/CM32-1</f>
+        <f t="shared" ref="CN47:CU47" si="178">+CN32/CM32-1</f>
         <v>0.15686610810486323</v>
       </c>
       <c r="CO47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.21941275453851339</v>
       </c>
       <c r="CP47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="CQ47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CR47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CS47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CT47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="CU47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:155" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:155" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>95</v>
       </c>
@@ -8924,15 +9146,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="AZ48" s="11">
-        <f t="shared" ref="AZ48:BB48" si="177">+AZ27/AV27-1</f>
+        <f t="shared" ref="AZ48:BB48" si="179">+AZ27/AV27-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="BA48" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="BB48" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="BC48" s="11">
@@ -8944,7 +9166,7 @@
         <v>-1</v>
       </c>
       <c r="BE48" s="11">
-        <f t="shared" ref="BE48" si="178">+BE27/BA27-1</f>
+        <f t="shared" ref="BE48" si="180">+BE27/BA27-1</f>
         <v>-1</v>
       </c>
       <c r="BF48" s="11"/>
@@ -8952,7 +9174,7 @@
       <c r="BH48" s="12"/>
       <c r="BI48" s="12"/>
     </row>
-    <row r="49" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>97</v>
       </c>
@@ -9022,7 +9244,7 @@
       <c r="BH49" s="6"/>
       <c r="BI49" s="6"/>
     </row>
-    <row r="50" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
@@ -9094,7 +9316,7 @@
       <c r="BH50" s="6"/>
       <c r="BI50" s="6"/>
     </row>
-    <row r="51" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>108</v>
       </c>
@@ -9150,59 +9372,59 @@
       <c r="AZ51" s="10"/>
       <c r="BA51" s="10"/>
       <c r="BB51" s="10">
-        <f t="shared" ref="BB51" si="179">+BB30/AX30-1</f>
+        <f t="shared" ref="BB51" si="181">+BB30/AX30-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="BC51" s="10">
-        <f t="shared" ref="BC51:BK51" si="180">+BC30/AY30-1</f>
+        <f t="shared" ref="BC51:BK51" si="182">+BC30/AY30-1</f>
         <v>0.30149812734082393</v>
       </c>
       <c r="BD51" s="10">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.4819672131147541</v>
       </c>
       <c r="BE51" s="10">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>-0.489247311827957</v>
       </c>
       <c r="BF51" s="10">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>-0.17103762827822122</v>
       </c>
       <c r="BG51" s="10">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>-0.51223021582733819</v>
       </c>
       <c r="BH51" s="10">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>-0.38938053097345138</v>
       </c>
       <c r="BI51" s="10">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>-0.26315789473684215</v>
       </c>
       <c r="BJ51" s="10">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.47317744154057761</v>
       </c>
       <c r="BK51" s="10">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.29793510324483785</v>
       </c>
       <c r="BL51" s="10">
-        <f t="shared" ref="BL51" si="181">+BL30/BH30-1</f>
+        <f t="shared" ref="BL51" si="183">+BL30/BH30-1</f>
         <v>0.27898550724637672</v>
       </c>
       <c r="BM51" s="10">
-        <f t="shared" ref="BM51" si="182">+BM30/BI30-1</f>
+        <f t="shared" ref="BM51" si="184">+BM30/BI30-1</f>
         <v>0.28571428571428581</v>
       </c>
       <c r="BN51" s="10">
-        <f t="shared" ref="BN51" si="183">+BN30/BJ30-1</f>
+        <f t="shared" ref="BN51" si="185">+BN30/BJ30-1</f>
         <v>1.1204481792717047E-2</v>
       </c>
       <c r="BO51" s="10">
-        <f t="shared" ref="BO51" si="184">+BO30/BK30-1</f>
+        <f t="shared" ref="BO51" si="186">+BO30/BK30-1</f>
         <v>-6.3636363636363602E-2</v>
       </c>
       <c r="BP51" s="10"/>
@@ -9210,7 +9432,7 @@
       <c r="BR51" s="10"/>
       <c r="BS51" s="10"/>
       <c r="CK51" s="19">
-        <f t="shared" ref="CK51" si="185">CK30/CJ30-1</f>
+        <f t="shared" ref="CK51" si="187">CK30/CJ30-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="CL51" s="19">
@@ -9222,7 +9444,7 @@
         <v>-5.0571679859278795E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>200</v>
       </c>
@@ -9277,19 +9499,19 @@
       <c r="AY52" s="6"/>
       <c r="AZ52" s="6"/>
       <c r="BA52" s="10">
-        <f t="shared" ref="BA52:BD52" si="186">+BA38/AW38-1</f>
+        <f t="shared" ref="BA52:BD52" si="188">+BA38/AW38-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="BB52" s="10">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="BC52" s="10">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="BD52" s="10">
-        <f t="shared" si="186"/>
+        <f t="shared" si="188"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="BE52" s="10">
@@ -9297,23 +9519,23 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="BF52" s="10">
-        <f t="shared" ref="BF52:BJ52" si="187">+BF38/BB38-1</f>
+        <f t="shared" ref="BF52:BJ52" si="189">+BF38/BB38-1</f>
         <v>0.18265707694395439</v>
       </c>
       <c r="BG52" s="10">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BH52" s="10">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>-3.1430068098480923E-2</v>
       </c>
       <c r="BI52" s="10">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>-0.13138239255540585</v>
       </c>
       <c r="BJ52" s="10">
-        <f t="shared" si="187"/>
+        <f t="shared" si="189"/>
         <v>-8.0206540447504304E-2</v>
       </c>
       <c r="BK52" s="10">
@@ -9321,19 +9543,19 @@
         <v>0.32853310744035014</v>
       </c>
       <c r="BL52" s="10">
-        <f t="shared" ref="BL52:BO52" si="188">+BL38/BH38-1</f>
+        <f t="shared" ref="BL52:BO52" si="190">+BL38/BH38-1</f>
         <v>0.14359113034072468</v>
       </c>
       <c r="BM52" s="10">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.11812799548914565</v>
       </c>
       <c r="BN52" s="10">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>9.2939121756487886E-3</v>
       </c>
       <c r="BO52" s="10">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>7.4388947927736426E-2</v>
       </c>
       <c r="BP52" s="10"/>
@@ -9341,7 +9563,7 @@
       <c r="BR52" s="10"/>
       <c r="BS52" s="10"/>
     </row>
-    <row r="53" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -9412,7 +9634,7 @@
       <c r="BR53" s="10"/>
       <c r="BS53" s="10"/>
     </row>
-    <row r="54" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>37</v>
       </c>
@@ -9453,99 +9675,99 @@
       <c r="AK54" s="10"/>
       <c r="AL54" s="10"/>
       <c r="AM54" s="10">
-        <f t="shared" ref="AM54:BJ54" si="189">+AM34/AM32</f>
+        <f t="shared" ref="AM54:BJ54" si="191">+AM34/AM32</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="AN54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="AO54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="AP54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="AQ54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="AR54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="AS54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="AT54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="AU54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="AV54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="AW54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="AX54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="AY54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="AZ54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="BA54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="BB54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="BC54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="BD54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="BE54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="BF54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="BG54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="BH54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="BI54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="BJ54" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.79</v>
       </c>
       <c r="BK54" s="10">
@@ -9553,19 +9775,19 @@
         <v>0.81785763269784661</v>
       </c>
       <c r="BL54" s="10">
-        <f t="shared" ref="BL54:BO54" si="190">+BL34/BL32</f>
+        <f t="shared" ref="BL54:BO54" si="192">+BL34/BL32</f>
         <v>0.81295590079598679</v>
       </c>
       <c r="BM54" s="10">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.81830052477272164</v>
       </c>
       <c r="BN54" s="10">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.81731941717474421</v>
       </c>
       <c r="BO54" s="10">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.82105213404546962</v>
       </c>
       <c r="BP54" s="10"/>
@@ -9573,59 +9795,59 @@
       <c r="BR54" s="10"/>
       <c r="BS54" s="10"/>
       <c r="CI54" s="19">
-        <f t="shared" ref="CI54:CU54" si="191">+CI34/CI32</f>
+        <f t="shared" ref="CI54:CU54" si="193">+CI34/CI32</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="CJ54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="CK54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="CL54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="CM54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.81</v>
       </c>
       <c r="CN54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.81</v>
       </c>
       <c r="CO54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.81</v>
       </c>
       <c r="CP54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.81</v>
       </c>
       <c r="CQ54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.81</v>
       </c>
       <c r="CR54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.81000000000000016</v>
       </c>
       <c r="CS54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.81</v>
       </c>
       <c r="CT54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.81</v>
       </c>
       <c r="CU54" s="19">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="55" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>201</v>
       </c>
@@ -9666,75 +9888,75 @@
       <c r="AK55" s="10"/>
       <c r="AL55" s="10"/>
       <c r="AM55" s="10">
-        <f t="shared" ref="AM55:AO55" si="192">+AM39/AM32</f>
+        <f t="shared" ref="AM55:AO55" si="194">+AM39/AM32</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="AN55" s="10">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="AO55" s="10">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="AP55" s="10">
-        <f t="shared" ref="AP55:AS55" si="193">+AP39/AP32</f>
+        <f t="shared" ref="AP55:AS55" si="195">+AP39/AP32</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="AQ55" s="10">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="AR55" s="10">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="AS55" s="10">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="AT55" s="10">
-        <f t="shared" ref="AT55:AV55" si="194">+AT39/AT32</f>
+        <f t="shared" ref="AT55:AV55" si="196">+AT39/AT32</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="AU55" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="AV55" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="196"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" ref="AW55:AZ55" si="195">+AW39/AW32</f>
+        <f t="shared" ref="AW55:AZ55" si="197">+AW39/AW32</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="AX55" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="AY55" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="AZ55" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="197"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="BA55" s="10">
-        <f t="shared" ref="BA55:BD55" si="196">+BA39/BA32</f>
+        <f t="shared" ref="BA55:BD55" si="198">+BA39/BA32</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="BB55" s="10">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="BC55" s="10">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="BD55" s="10">
-        <f t="shared" si="196"/>
+        <f t="shared" si="198"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="BE55" s="10">
@@ -9742,23 +9964,23 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="BF55" s="10">
-        <f t="shared" ref="BF55:BJ55" si="197">+BF39/BF32</f>
+        <f t="shared" ref="BF55:BJ55" si="199">+BF39/BF32</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="BG55" s="10">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="BH55" s="10">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>0.35194849839057468</v>
       </c>
       <c r="BI55" s="10">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="BJ55" s="10">
-        <f t="shared" si="197"/>
+        <f t="shared" si="199"/>
         <v>0.39030914213058771</v>
       </c>
       <c r="BK55" s="10">
@@ -9766,19 +9988,19 @@
         <v>0.37904265532848719</v>
       </c>
       <c r="BL55" s="10">
-        <f t="shared" ref="BL55:BO55" si="198">+BL39/BL32</f>
+        <f t="shared" ref="BL55:BO55" si="200">+BL39/BL32</f>
         <v>0.38000051188861306</v>
       </c>
       <c r="BM55" s="10">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>0.4274557146024785</v>
       </c>
       <c r="BN55" s="10">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>0.48289759222899659</v>
       </c>
       <c r="BO55" s="10">
-        <f t="shared" si="198"/>
+        <f t="shared" si="200"/>
         <v>0.41487450961856598</v>
       </c>
       <c r="BP55" s="10"/>
@@ -9786,55 +10008,55 @@
       <c r="BR55" s="10"/>
       <c r="BS55" s="10"/>
       <c r="CI55" s="10">
-        <f t="shared" ref="CI55:CU55" si="199">+CI39/CI32</f>
+        <f t="shared" ref="CI55:CU55" si="201">+CI39/CI32</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="CJ55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.41000325332050863</v>
       </c>
       <c r="CK55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="CL55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="CM55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.4149918959943058</v>
       </c>
       <c r="CN55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.48500203853196056</v>
       </c>
       <c r="CO55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.55562009118541034</v>
       </c>
       <c r="CP55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.58867838905775083</v>
       </c>
       <c r="CQ55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.60773138620245015</v>
       </c>
       <c r="CR55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.62106201139335393</v>
       </c>
       <c r="CS55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.63306542437042934</v>
       </c>
       <c r="CT55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.64389878898945385</v>
       </c>
       <c r="CU55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="201"/>
         <v>0.65369973430009876</v>
       </c>
       <c r="CY55" t="s">
@@ -9845,7 +10067,7 @@
         <v>1038855.7152797726</v>
       </c>
     </row>
-    <row r="56" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
@@ -9886,99 +10108,99 @@
       <c r="AK56" s="10"/>
       <c r="AL56" s="10"/>
       <c r="AM56" s="10">
-        <f t="shared" ref="AM56:BF56" si="200">+AM42/AM41</f>
+        <f t="shared" ref="AM56:BF56" si="202">+AM42/AM41</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="AN56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="AO56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="AP56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="AQ56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="AR56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="AS56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="AT56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="AU56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="AV56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="AW56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="AX56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="AY56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="AZ56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="BA56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="BB56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="BC56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="BD56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="BE56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="BF56" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="202"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="BG56" s="10">
-        <f t="shared" ref="BG56:BJ56" si="201">+BG42/BG41</f>
+        <f t="shared" ref="BG56:BJ56" si="203">+BG42/BG41</f>
         <v>0.19</v>
       </c>
       <c r="BH56" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0.13482038878437697</v>
       </c>
       <c r="BI56" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="BJ56" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="203"/>
         <v>0.17357299798690146</v>
       </c>
       <c r="BK56" s="10">
@@ -9986,19 +10208,19 @@
         <v>0.12789959811041388</v>
       </c>
       <c r="BL56" s="10">
-        <f t="shared" ref="BL56:BO56" si="202">+BL42/BL41</f>
+        <f t="shared" ref="BL56:BO56" si="204">+BL42/BL41</f>
         <v>0.10863233152389778</v>
       </c>
       <c r="BM56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>0.11973964762652901</v>
       </c>
       <c r="BN56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>0.11527193988027003</v>
       </c>
       <c r="BO56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="204"/>
         <v>9.4549015341094556E-2</v>
       </c>
       <c r="BP56" s="10"/>
@@ -10006,55 +10228,55 @@
       <c r="BR56" s="10"/>
       <c r="BS56" s="10"/>
       <c r="CI56" s="19">
-        <f t="shared" ref="CI56:CU56" si="203">+CI42/CI41</f>
+        <f t="shared" ref="CI56:CU56" si="205">+CI42/CI41</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="CJ56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="CK56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="CL56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="CM56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.18</v>
       </c>
       <c r="CN56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.18</v>
       </c>
       <c r="CO56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.18</v>
       </c>
       <c r="CP56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.17999999999999997</v>
       </c>
       <c r="CQ56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.18</v>
       </c>
       <c r="CR56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.18</v>
       </c>
       <c r="CS56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.18</v>
       </c>
       <c r="CT56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.18</v>
       </c>
       <c r="CU56" s="19">
-        <f t="shared" si="203"/>
+        <f t="shared" si="205"/>
         <v>0.18</v>
       </c>
       <c r="CY56" s="3" t="s">
@@ -10064,7 +10286,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="57" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:104" x14ac:dyDescent="0.25">
       <c r="BC57" s="6"/>
       <c r="CY57" t="s">
         <v>114</v>
@@ -10073,68 +10295,68 @@
         <v>-0.05</v>
       </c>
     </row>
-    <row r="58" spans="2:104" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:104" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>195</v>
       </c>
       <c r="BA58" s="6">
-        <f t="shared" ref="BA58:BC58" si="204">+BA59-BA73</f>
+        <f t="shared" ref="BA58:BC58" si="206">+BA59-BA73</f>
         <v>64833</v>
       </c>
       <c r="BB58" s="6">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>54773</v>
       </c>
       <c r="BC58" s="6">
-        <f t="shared" si="204"/>
+        <f t="shared" si="206"/>
         <v>50665</v>
       </c>
       <c r="BD58" s="6">
-        <f t="shared" ref="BD58:BG58" si="205">+BD59-BD73</f>
+        <f t="shared" ref="BD58:BG58" si="207">+BD59-BD73</f>
         <v>47025</v>
       </c>
       <c r="BE58" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>38382</v>
       </c>
       <c r="BF58" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>37016</v>
       </c>
       <c r="BG58" s="6">
-        <f t="shared" si="205"/>
+        <f t="shared" si="207"/>
         <v>33681</v>
       </c>
       <c r="BH58" s="6">
-        <f t="shared" ref="BH58:BO58" si="206">+BH59-BH73</f>
+        <f t="shared" ref="BH58:BO58" si="208">+BH59-BH73</f>
         <v>41272</v>
       </c>
       <c r="BI58" s="6">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>48882</v>
       </c>
       <c r="BJ58" s="6">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>53159</v>
       </c>
       <c r="BK58" s="6">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>45951</v>
       </c>
       <c r="BL58" s="6">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>45898</v>
       </c>
       <c r="BM58" s="6">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>48148</v>
       </c>
       <c r="BN58" s="6">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>55059</v>
       </c>
       <c r="BO58" s="6">
-        <f t="shared" si="206"/>
+        <f t="shared" si="208"/>
         <v>47569</v>
       </c>
       <c r="BP58" s="6"/>
@@ -10148,7 +10370,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="59" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
         <v>4</v>
       </c>
@@ -10284,35 +10506,35 @@
         <v>46939</v>
       </c>
       <c r="CN59" s="3">
-        <f t="shared" ref="CN59:CU59" si="207">+CM59+CN43</f>
+        <f t="shared" ref="CN59:CU59" si="209">+CM59+CN43</f>
         <v>101359.15280000001</v>
       </c>
       <c r="CO59" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>177969.03700592002</v>
       </c>
       <c r="CP59" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>268235.23990281712</v>
       </c>
       <c r="CQ59" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>367317.60195822333</v>
       </c>
       <c r="CR59" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>473004.60447423824</v>
       </c>
       <c r="CS59" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>585398.7603061758</v>
       </c>
       <c r="CT59" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>704619.60881672264</v>
       </c>
       <c r="CU59" s="3">
-        <f t="shared" si="207"/>
+        <f t="shared" si="209"/>
         <v>830802.90353015601</v>
       </c>
       <c r="CY59" s="3" t="s">
@@ -10323,7 +10545,7 @@
         <v>411.51161217299699</v>
       </c>
     </row>
-    <row r="60" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>49</v>
       </c>
@@ -10436,7 +10658,7 @@
         <v>-0.27166086341062479</v>
       </c>
     </row>
-    <row r="61" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>50</v>
       </c>
@@ -10542,7 +10764,7 @@
         <v>5483</v>
       </c>
     </row>
-    <row r="62" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>51</v>
       </c>
@@ -10648,7 +10870,7 @@
         <v>133567</v>
       </c>
     </row>
-    <row r="63" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>52</v>
       </c>
@@ -10754,7 +10976,7 @@
         <v>15505</v>
       </c>
     </row>
-    <row r="64" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>54</v>
       </c>
@@ -10873,7 +11095,7 @@
         <v>20654</v>
       </c>
     </row>
-    <row r="65" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>55</v>
       </c>
@@ -10979,7 +11201,7 @@
         <v>14092</v>
       </c>
     </row>
-    <row r="66" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>53</v>
       </c>
@@ -11031,23 +11253,23 @@
       <c r="AV66" s="6"/>
       <c r="AW66" s="6"/>
       <c r="AX66" s="6">
-        <f t="shared" ref="AX66:AY66" si="208">SUM(AX59:AX65)</f>
+        <f t="shared" ref="AX66:AY66" si="210">SUM(AX59:AX65)</f>
         <v>159316</v>
       </c>
       <c r="AY66" s="6">
-        <f t="shared" si="208"/>
+        <f t="shared" si="210"/>
         <v>163523</v>
       </c>
       <c r="AZ66" s="6">
-        <f t="shared" ref="AZ66:BA66" si="209">SUM(AZ59:AZ65)</f>
+        <f t="shared" ref="AZ66:BA66" si="211">SUM(AZ59:AZ65)</f>
         <v>170609</v>
       </c>
       <c r="BA66" s="6">
-        <f t="shared" si="209"/>
+        <f t="shared" si="211"/>
         <v>169585</v>
       </c>
       <c r="BB66" s="6">
-        <f t="shared" ref="BB66" si="210">SUM(BB59:BB65)</f>
+        <f t="shared" ref="BB66" si="212">SUM(BB59:BB65)</f>
         <v>165987</v>
       </c>
       <c r="BC66" s="6">
@@ -11063,50 +11285,50 @@
         <v>178894</v>
       </c>
       <c r="BF66" s="6">
-        <f t="shared" ref="BF66:BO66" si="211">SUM(BF59:BF65)</f>
+        <f t="shared" ref="BF66:BO66" si="213">SUM(BF59:BF65)</f>
         <v>185727</v>
       </c>
       <c r="BG66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>184491</v>
       </c>
       <c r="BH66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>206688</v>
       </c>
       <c r="BI66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>216274</v>
       </c>
       <c r="BJ66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>229623</v>
       </c>
       <c r="BK66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>222844</v>
       </c>
       <c r="BL66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>230238</v>
       </c>
       <c r="BM66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>256408</v>
       </c>
       <c r="BN66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>276054</v>
       </c>
       <c r="BO66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="213"/>
         <v>280213</v>
       </c>
     </row>
-    <row r="67" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:71" x14ac:dyDescent="0.25">
       <c r="BC67" s="6"/>
     </row>
-    <row r="68" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>56</v>
       </c>
@@ -11165,7 +11387,7 @@
         <v>8512</v>
       </c>
     </row>
-    <row r="69" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>57</v>
       </c>
@@ -11224,7 +11446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>58</v>
       </c>
@@ -11301,7 +11523,7 @@
         <v>20690</v>
       </c>
     </row>
-    <row r="71" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>59</v>
       </c>
@@ -11360,7 +11582,7 @@
         <v>23402</v>
       </c>
     </row>
-    <row r="72" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>60</v>
       </c>
@@ -11411,7 +11633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -11460,7 +11682,7 @@
       <c r="BR73" s="6"/>
       <c r="BS73" s="6"/>
     </row>
-    <row r="74" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>65</v>
       </c>
@@ -11524,7 +11746,7 @@
         <v>13751</v>
       </c>
     </row>
-    <row r="75" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>64</v>
       </c>
@@ -11583,7 +11805,7 @@
         <v>85568</v>
       </c>
     </row>
-    <row r="76" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>63</v>
       </c>
@@ -11642,7 +11864,7 @@
         <v>-1865</v>
       </c>
     </row>
-    <row r="77" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>62</v>
       </c>
@@ -11701,40 +11923,40 @@
         <v>101326</v>
       </c>
     </row>
-    <row r="78" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>61</v>
       </c>
       <c r="AX78" s="6">
-        <f t="shared" ref="AX78:AY78" si="212">SUM(AX68:AX77)</f>
+        <f t="shared" ref="AX78:AY78" si="214">SUM(AX68:AX77)</f>
         <v>159316</v>
       </c>
       <c r="AY78" s="6">
-        <f t="shared" si="212"/>
+        <f t="shared" si="214"/>
         <v>163523</v>
       </c>
       <c r="AZ78" s="6">
-        <f t="shared" ref="AZ78:BA78" si="213">SUM(AZ68:AZ77)</f>
+        <f t="shared" ref="AZ78:BA78" si="215">SUM(AZ68:AZ77)</f>
         <v>170609</v>
       </c>
       <c r="BA78" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="215"/>
         <v>169585</v>
       </c>
       <c r="BB78" s="6">
-        <f t="shared" ref="BB78:BE78" si="214">SUM(BB68:BB77)</f>
+        <f t="shared" ref="BB78:BE78" si="216">SUM(BB68:BB77)</f>
         <v>165987</v>
       </c>
       <c r="BC78" s="6">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>164218</v>
       </c>
       <c r="BD78" s="6">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>169779</v>
       </c>
       <c r="BE78" s="6">
-        <f t="shared" si="214"/>
+        <f t="shared" si="216"/>
         <v>178894</v>
       </c>
       <c r="BF78" s="6">
@@ -11758,59 +11980,59 @@
         <v>229623</v>
       </c>
       <c r="BK78" s="6">
-        <f t="shared" ref="BK78:BO78" si="215">SUM(BK68:BK77)</f>
+        <f t="shared" ref="BK78:BO78" si="217">SUM(BK68:BK77)</f>
         <v>222844</v>
       </c>
       <c r="BL78" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>230238</v>
       </c>
       <c r="BM78" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>256408</v>
       </c>
       <c r="BN78" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>276054</v>
       </c>
       <c r="BO78" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="217"/>
         <v>280213</v>
       </c>
     </row>
-    <row r="79" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:71" x14ac:dyDescent="0.25">
       <c r="BC79" s="6"/>
     </row>
-    <row r="80" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>66</v>
       </c>
       <c r="AY80" s="6">
-        <f t="shared" ref="AY80:BJ80" si="216">AY43</f>
+        <f t="shared" ref="AY80:BJ80" si="218">AY43</f>
         <v>9497</v>
       </c>
       <c r="AZ80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>10394</v>
       </c>
       <c r="BA80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>9194</v>
       </c>
       <c r="BB80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>10285</v>
       </c>
       <c r="BC80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>7465</v>
       </c>
       <c r="BD80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>6687</v>
       </c>
       <c r="BE80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>4395</v>
       </c>
       <c r="BF80" s="6">
@@ -11818,43 +12040,43 @@
         <v>4652</v>
       </c>
       <c r="BG80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>8374.1444999999985</v>
       </c>
       <c r="BH80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>9658</v>
       </c>
       <c r="BI80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>11583</v>
       </c>
       <c r="BJ80" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="218"/>
         <v>13288.690000000002</v>
       </c>
       <c r="BK80" s="6">
-        <f t="shared" ref="BK80:BO80" si="217">BK43</f>
+        <f t="shared" ref="BK80:BO80" si="219">BK43</f>
         <v>12369</v>
       </c>
       <c r="BL80" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>13465</v>
       </c>
       <c r="BM80" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>15688</v>
       </c>
       <c r="BN80" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>20838</v>
       </c>
       <c r="BO80" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="219"/>
         <v>16644</v>
       </c>
     </row>
-    <row r="81" spans="2:81" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>67</v>
       </c>
@@ -11920,7 +12142,7 @@
         <v>16644</v>
       </c>
     </row>
-    <row r="82" spans="2:81" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>69</v>
       </c>
@@ -11986,7 +12208,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="83" spans="2:81" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>70</v>
       </c>
@@ -12052,7 +12274,7 @@
         <v>4147</v>
       </c>
     </row>
-    <row r="84" spans="2:81" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>71</v>
       </c>
@@ -12118,7 +12340,7 @@
         <v>-993</v>
       </c>
     </row>
-    <row r="85" spans="2:81" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>55</v>
       </c>
@@ -12186,7 +12408,7 @@
         <v>-231</v>
       </c>
     </row>
-    <row r="86" spans="2:81" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>72</v>
       </c>
@@ -12259,76 +12481,76 @@
         <v>559</v>
       </c>
     </row>
-    <row r="87" spans="2:81" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:81" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>68</v>
       </c>
       <c r="AY87" s="6">
-        <f t="shared" ref="AY87:BH87" si="218">SUM(AY81:AY86)</f>
+        <f t="shared" ref="AY87:BH87" si="220">SUM(AY81:AY86)</f>
         <v>12242</v>
       </c>
       <c r="AZ87" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>13247</v>
       </c>
       <c r="BA87" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>14090</v>
       </c>
       <c r="BB87" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>18104</v>
       </c>
       <c r="BC87" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>14076</v>
       </c>
       <c r="BD87" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>12197</v>
       </c>
       <c r="BE87" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>9691</v>
       </c>
       <c r="BF87" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>14511</v>
       </c>
       <c r="BG87" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>13998</v>
       </c>
       <c r="BH87" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="220"/>
         <v>17309</v>
       </c>
       <c r="BI87" s="6">
-        <f t="shared" ref="BI87:BO87" si="219">SUM(BI81:BI86)</f>
+        <f t="shared" ref="BI87:BO87" si="221">SUM(BI81:BI86)</f>
         <v>20402</v>
       </c>
       <c r="BJ87" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>19404</v>
       </c>
       <c r="BK87" s="3">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>19246</v>
       </c>
       <c r="BL87" s="3">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>19370</v>
       </c>
       <c r="BM87" s="3">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>24724</v>
       </c>
       <c r="BN87" s="3">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>27988</v>
       </c>
       <c r="BO87" s="3">
-        <f t="shared" si="219"/>
+        <f t="shared" si="221"/>
         <v>24026</v>
       </c>
       <c r="CA87" s="3">
@@ -12341,11 +12563,11 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="88" spans="2:81" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:81" x14ac:dyDescent="0.25">
       <c r="BC88" s="6"/>
       <c r="BD88" s="6"/>
     </row>
-    <row r="89" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>73</v>
       </c>
@@ -12462,7 +12684,7 @@
         <v>-12941</v>
       </c>
     </row>
-    <row r="90" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>74</v>
       </c>
@@ -12583,7 +12805,7 @@
         <v>-7069</v>
       </c>
     </row>
-    <row r="91" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>75</v>
       </c>
@@ -12697,7 +12919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>76</v>
       </c>
@@ -12750,51 +12972,51 @@
       <c r="AW92" s="6"/>
       <c r="AX92" s="6"/>
       <c r="AY92" s="6">
-        <f t="shared" ref="AY92:BJ92" si="220">SUM(AY89:AY91)</f>
+        <f t="shared" ref="AY92:BJ92" si="222">SUM(AY89:AY91)</f>
         <v>-4874</v>
       </c>
       <c r="AZ92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-8195</v>
       </c>
       <c r="BA92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-330</v>
       </c>
       <c r="BB92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>5829</v>
       </c>
       <c r="BC92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-4779</v>
       </c>
       <c r="BD92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-6959</v>
       </c>
       <c r="BE92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-9701</v>
       </c>
       <c r="BF92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-7531</v>
       </c>
       <c r="BG92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-6743</v>
       </c>
       <c r="BH92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-5203</v>
       </c>
       <c r="BI92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-6077</v>
       </c>
       <c r="BJ92" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="222"/>
         <v>-6472</v>
       </c>
       <c r="BK92" s="3">
@@ -12818,7 +13040,7 @@
         <v>-20010</v>
       </c>
     </row>
-    <row r="93" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
@@ -12879,7 +13101,7 @@
       <c r="BH93" s="6"/>
       <c r="BI93" s="6"/>
     </row>
-    <row r="94" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>77</v>
       </c>
@@ -12993,7 +13215,7 @@
         <v>-4883</v>
       </c>
     </row>
-    <row r="95" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>78</v>
       </c>
@@ -13107,7 +13329,7 @@
         <v>-12754</v>
       </c>
     </row>
-    <row r="96" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>209</v>
       </c>
@@ -13198,7 +13420,7 @@
         <v>-1329</v>
       </c>
     </row>
-    <row r="97" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -13295,7 +13517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>55</v>
       </c>
@@ -13415,7 +13637,7 @@
         <v>-529</v>
       </c>
     </row>
-    <row r="99" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>79</v>
       </c>
@@ -13468,75 +13690,75 @@
       <c r="AW99" s="6"/>
       <c r="AX99" s="6"/>
       <c r="AY99" s="6">
-        <f t="shared" ref="AY99:BA99" si="221">SUM(AY94:AY98)</f>
+        <f t="shared" ref="AY99:BA99" si="223">SUM(AY94:AY98)</f>
         <v>-5185</v>
       </c>
       <c r="AZ99" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>-8549</v>
       </c>
       <c r="BA99" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="223"/>
         <v>-15252</v>
       </c>
       <c r="BB99" s="6">
-        <f t="shared" ref="BB99" si="222">SUM(BB94:BB98)</f>
+        <f t="shared" ref="BB99" si="224">SUM(BB94:BB98)</f>
         <v>-21742</v>
       </c>
       <c r="BC99" s="6">
-        <f t="shared" ref="BC99:BO99" si="223">SUM(BC94:BC98)</f>
+        <f t="shared" ref="BC99:BO99" si="225">SUM(BC94:BC98)</f>
         <v>-10660</v>
       </c>
       <c r="BD99" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-6563</v>
       </c>
       <c r="BE99" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>2147</v>
       </c>
       <c r="BF99" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-7060</v>
       </c>
       <c r="BG99" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-10516</v>
       </c>
       <c r="BH99" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>5292</v>
       </c>
       <c r="BI99" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-5875</v>
       </c>
       <c r="BJ99" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-8401</v>
       </c>
       <c r="BK99" s="3">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-19767</v>
       </c>
       <c r="BL99" s="3">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-11178</v>
       </c>
       <c r="BM99" s="3">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-4371</v>
       </c>
       <c r="BN99" s="3">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-5465</v>
       </c>
       <c r="BO99" s="3">
-        <f t="shared" si="223"/>
+        <f t="shared" si="225"/>
         <v>-19495</v>
       </c>
     </row>
-    <row r="100" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>80</v>
       </c>
@@ -13602,36 +13824,36 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>81</v>
       </c>
       <c r="AY101" s="6">
-        <f t="shared" ref="AY101:BJ101" si="224">+AY100+AY99+AY92+AY87</f>
+        <f t="shared" ref="AY101:BJ101" si="226">+AY100+AY99+AY92+AY87</f>
         <v>1937</v>
       </c>
       <c r="AZ101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>-3380</v>
       </c>
       <c r="BA101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>-1707</v>
       </c>
       <c r="BB101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>2061</v>
       </c>
       <c r="BC101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>-1512</v>
       </c>
       <c r="BD101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>-1875</v>
       </c>
       <c r="BE101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>1773</v>
       </c>
       <c r="BF101" s="6">
@@ -13639,19 +13861,19 @@
         <v>345</v>
       </c>
       <c r="BG101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>-3176</v>
       </c>
       <c r="BH101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>17384</v>
       </c>
       <c r="BI101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>8096</v>
       </c>
       <c r="BJ101" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="226"/>
         <v>4927</v>
       </c>
       <c r="BK101" s="3">
@@ -13675,10 +13897,10 @@
         <v>-15367</v>
       </c>
     </row>
-    <row r="102" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:70" x14ac:dyDescent="0.25">
       <c r="BC102" s="6"/>
     </row>
-    <row r="103" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
         <v>35</v>
       </c>
@@ -13780,68 +14002,68 @@
         <v>76834</v>
       </c>
     </row>
-    <row r="104" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>199</v>
       </c>
       <c r="BC104" s="6">
-        <f t="shared" ref="BC104:BO104" si="225">+BC103-BB103</f>
+        <f t="shared" ref="BC104:BO104" si="227">+BC103-BB103</f>
         <v>5835</v>
       </c>
       <c r="BD104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>5748</v>
       </c>
       <c r="BE104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>3761</v>
       </c>
       <c r="BF104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-1314</v>
       </c>
       <c r="BG104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-8886</v>
       </c>
       <c r="BH104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-5645</v>
       </c>
       <c r="BI104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>-5284</v>
       </c>
       <c r="BJ104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>1132</v>
       </c>
       <c r="BK104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>2012</v>
       </c>
       <c r="BL104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>1470</v>
       </c>
       <c r="BM104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>1605</v>
       </c>
       <c r="BN104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>1663</v>
       </c>
       <c r="BO104" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="227"/>
         <v>2767</v>
       </c>
     </row>
-    <row r="105" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:70" x14ac:dyDescent="0.25">
       <c r="BC105" s="6"/>
       <c r="BD105" s="6"/>
     </row>
-    <row r="106" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>126</v>
       </c>
@@ -13850,51 +14072,51 @@
         <v>7970</v>
       </c>
       <c r="AZ106" s="6">
-        <f t="shared" ref="AZ106:BC106" si="226">+AZ87+AZ89</f>
+        <f t="shared" ref="AZ106:BC106" si="228">+AZ87+AZ89</f>
         <v>8635</v>
       </c>
       <c r="BA106" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>9776</v>
       </c>
       <c r="BB106" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>12734</v>
       </c>
       <c r="BC106" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="228"/>
         <v>8761</v>
       </c>
       <c r="BD106" s="6">
-        <f t="shared" ref="BD106:BJ106" si="227">+BD87+BD89</f>
+        <f t="shared" ref="BD106:BJ106" si="229">+BD87+BD89</f>
         <v>4669</v>
       </c>
       <c r="BE106" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>336</v>
       </c>
       <c r="BF106" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>5523</v>
       </c>
       <c r="BG106" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>7175</v>
       </c>
       <c r="BH106" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>11175</v>
       </c>
       <c r="BI106" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>13906</v>
       </c>
       <c r="BJ106" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="229"/>
         <v>11812</v>
       </c>
       <c r="BK106" s="3">
-        <f t="shared" ref="BK106" si="228">+BK87+BK89</f>
+        <f t="shared" ref="BK106" si="230">+BK87+BK89</f>
         <v>12846</v>
       </c>
       <c r="BL106" s="3">
@@ -13914,16 +14136,16 @@
         <v>11085</v>
       </c>
     </row>
-    <row r="107" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>127</v>
       </c>
       <c r="BB107" s="6">
-        <f t="shared" ref="BB107:BC107" si="229">SUM(AY106:BB106)</f>
+        <f t="shared" ref="BB107:BC107" si="231">SUM(AY106:BB106)</f>
         <v>39115</v>
       </c>
       <c r="BC107" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="231"/>
         <v>39906</v>
       </c>
       <c r="BD107" s="6">
@@ -13939,31 +14161,31 @@
         <v>19289</v>
       </c>
       <c r="BG107" s="6">
-        <f t="shared" ref="BG107:BK107" si="230">SUM(BD106:BG106)</f>
+        <f t="shared" ref="BG107:BK107" si="232">SUM(BD106:BG106)</f>
         <v>17703</v>
       </c>
       <c r="BH107" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>24209</v>
       </c>
       <c r="BI107" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>37779</v>
       </c>
       <c r="BJ107" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>44068</v>
       </c>
       <c r="BK107" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="232"/>
         <v>49739</v>
       </c>
       <c r="BL107" s="3">
-        <f t="shared" ref="BL107:BM107" si="231">SUM(BI106:BL106)</f>
+        <f t="shared" ref="BL107:BM107" si="233">SUM(BI106:BL106)</f>
         <v>49761</v>
       </c>
       <c r="BM107" s="3">
-        <f t="shared" si="231"/>
+        <f t="shared" si="233"/>
         <v>52321</v>
       </c>
       <c r="BN107" s="3">
@@ -13975,7 +14197,7 @@
         <v>52311</v>
       </c>
     </row>
-    <row r="108" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:70" x14ac:dyDescent="0.25">
       <c r="BB108" s="6"/>
       <c r="BC108" s="6"/>
       <c r="BD108" s="6"/>
@@ -13997,7 +14219,7 @@
         <v>0.3108555104495565</v>
       </c>
     </row>
-    <row r="109" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:70" x14ac:dyDescent="0.25">
       <c r="BB109" s="6"/>
       <c r="BC109" s="6"/>
       <c r="BD109" s="6"/>
@@ -14013,65 +14235,65 @@
       <c r="BN109" s="19"/>
       <c r="BO109" s="19"/>
     </row>
-    <row r="110" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:70" x14ac:dyDescent="0.25">
       <c r="AY110" s="3">
-        <f t="shared" ref="AY110:BM110" si="232">SUM(AV32:AY32)</f>
+        <f t="shared" ref="AY110:BM110" si="234">SUM(AV32:AY32)</f>
         <v>94400</v>
       </c>
       <c r="AZ110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>104790</v>
       </c>
       <c r="BA110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>112330</v>
       </c>
       <c r="BB110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>117929</v>
       </c>
       <c r="BC110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>119666</v>
       </c>
       <c r="BD110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>119411</v>
       </c>
       <c r="BE110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>118115</v>
       </c>
       <c r="BF110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>116609</v>
       </c>
       <c r="BG110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>117346</v>
       </c>
       <c r="BH110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>120523</v>
       </c>
       <c r="BI110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>126955</v>
       </c>
       <c r="BJ110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>134901</v>
       </c>
       <c r="BK110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>142711</v>
       </c>
       <c r="BL110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>149783</v>
       </c>
       <c r="BM110" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="234"/>
         <v>156226</v>
       </c>
       <c r="BN110" s="3">
@@ -14095,12 +14317,12 @@
         <v>183163.5</v>
       </c>
     </row>
-    <row r="111" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:70" x14ac:dyDescent="0.25">
       <c r="BN111" s="19"/>
       <c r="BO111" s="19"/>
       <c r="BR111" s="19"/>
     </row>
-    <row r="112" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
         <v>194</v>
       </c>
@@ -14168,7 +14390,7 @@
       <c r="BH112" s="6"/>
       <c r="BI112" s="6"/>
     </row>
-    <row r="113" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>197</v>
       </c>
@@ -14190,7 +14412,7 @@
         <v>-0.14600231749710313</v>
       </c>
     </row>
-    <row r="115" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>198</v>
       </c>
@@ -14204,7 +14426,7 @@
         <v>9336</v>
       </c>
     </row>
-    <row r="116" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>202</v>
       </c>
@@ -14213,7 +14435,7 @@
         <v>0.33686945226239445</v>
       </c>
     </row>
-    <row r="118" spans="2:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:57" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>203</v>
       </c>
@@ -14240,19 +14462,19 @@
       <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>128</v>
       </c>
@@ -14275,7 +14497,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>11449606</v>
       </c>
@@ -14298,7 +14520,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>11449189</v>
       </c>
@@ -14321,7 +14543,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>11448803</v>
       </c>
@@ -14344,7 +14566,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>11442272</v>
       </c>
@@ -14367,7 +14589,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>11441702</v>
       </c>
@@ -14387,7 +14609,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>11436793</v>
       </c>
@@ -14410,7 +14632,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>11435820</v>
       </c>
@@ -14433,7 +14655,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>11435448</v>
       </c>
@@ -14456,7 +14678,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11431955</v>
       </c>
@@ -14479,7 +14701,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11430398</v>
       </c>
@@ -14502,7 +14724,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11430141</v>
       </c>
@@ -14525,7 +14747,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11430085</v>
       </c>
@@ -14548,7 +14770,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11425523</v>
       </c>
@@ -14571,7 +14793,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>11423621</v>
       </c>
@@ -14594,7 +14816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>11423616</v>
       </c>
@@ -14617,7 +14839,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>11423520</v>
       </c>
@@ -14640,7 +14862,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>11423152</v>
       </c>
@@ -14660,7 +14882,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>11422669</v>
       </c>
@@ -14683,7 +14905,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>11422373</v>
       </c>
@@ -14706,7 +14928,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>11417054</v>
       </c>
@@ -14729,7 +14951,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>11416239</v>
       </c>
@@ -14752,7 +14974,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>11416075</v>
       </c>
@@ -14775,7 +14997,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>11416067</v>
       </c>
@@ -14798,7 +15020,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>11415880</v>
       </c>
@@ -14821,7 +15043,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>11415808</v>
       </c>
@@ -14844,7 +15066,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>189</v>
       </c>
@@ -14867,7 +15089,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>11412511</v>
       </c>

--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F5C174-961F-4F61-89EB-DFE6D25E9746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F9648F-F61E-429E-8E3F-79009C8C6ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53300" yWindow="4680" windowWidth="20880" windowHeight="17090" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="42150" yWindow="2920" windowWidth="22230" windowHeight="14240" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="258">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -908,6 +908,9 @@
   </si>
   <si>
     <t>Instagram 4/2012 - 23m shares, $300m cash.</t>
+  </si>
+  <si>
+    <t>TTM Revenue</t>
   </si>
 </sst>
 </file>
@@ -1493,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E1324B-BEE3-4317-A400-2CB53AA7AD6F}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="17">
-        <v>565</v>
+        <v>722</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1527,11 +1530,10 @@
         <v>2</v>
       </c>
       <c r="M3" s="3">
-        <f>2180+344.487</f>
-        <v>2524.4870000000001</v>
+        <v>2590</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1546,7 +1548,7 @@
       </c>
       <c r="M4" s="3">
         <f>+M3*M2</f>
-        <v>1426335.155</v>
+        <v>1869980</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1557,11 +1559,10 @@
         <v>4</v>
       </c>
       <c r="M5" s="3">
-        <f>43852+27048+6071</f>
-        <v>76971</v>
+        <v>76398</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1572,10 +1573,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="3">
-        <v>28823</v>
+        <v>28829</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1584,7 +1585,7 @@
       </c>
       <c r="M7" s="3">
         <f>+M4-M5+M6</f>
-        <v>1378187.155</v>
+        <v>1822411</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.3">
@@ -1690,11 +1691,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3C87D1C-8B34-4AB7-86D4-BE833131478C}">
   <dimension ref="A1:EY118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CN25" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CJ23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CN32" sqref="CN32"/>
+      <selection pane="bottomRight" activeCell="CQ29" sqref="CQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5222,48 +5223,48 @@
         <v>42314</v>
       </c>
       <c r="BP32" s="8">
-        <f t="shared" ref="BP32:BR32" si="23">+BL32*1.1</f>
-        <v>42978.100000000006</v>
+        <f>+BL32*1.12</f>
+        <v>43759.520000000004</v>
       </c>
       <c r="BQ32" s="8">
-        <f t="shared" si="23"/>
-        <v>44647.9</v>
+        <f>+BM32*1.12</f>
+        <v>45459.680000000008</v>
       </c>
       <c r="BR32" s="8">
-        <f t="shared" si="23"/>
-        <v>53223.500000000007</v>
+        <f>+BN32*1.12</f>
+        <v>54191.200000000004</v>
       </c>
       <c r="BS32" s="8"/>
       <c r="BU32" s="7">
-        <f t="shared" ref="BU32:BW32" si="24">SUM(BU29:BU31)</f>
+        <f t="shared" ref="BU32:BW32" si="23">SUM(BU29:BU31)</f>
         <v>0.38200000000000001</v>
       </c>
       <c r="BV32" s="7">
+        <f t="shared" si="23"/>
+        <v>9</v>
+      </c>
+      <c r="BW32" s="7">
+        <f t="shared" si="23"/>
+        <v>48</v>
+      </c>
+      <c r="BX32" s="7">
+        <f t="shared" ref="BX32:CB32" si="24">SUM(BX29:BX31)</f>
+        <v>153</v>
+      </c>
+      <c r="BY32" s="7">
         <f t="shared" si="24"/>
-        <v>9</v>
-      </c>
-      <c r="BW32" s="7">
+        <v>272</v>
+      </c>
+      <c r="BZ32" s="7">
         <f t="shared" si="24"/>
-        <v>48</v>
-      </c>
-      <c r="BX32" s="7">
-        <f t="shared" ref="BX32:CB32" si="25">SUM(BX29:BX31)</f>
-        <v>153</v>
-      </c>
-      <c r="BY32" s="7">
-        <f t="shared" si="25"/>
-        <v>272</v>
-      </c>
-      <c r="BZ32" s="7">
-        <f t="shared" si="25"/>
         <v>777</v>
       </c>
       <c r="CA32" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>1974</v>
       </c>
       <c r="CB32" s="7">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>3711</v>
       </c>
       <c r="CC32" s="7">
@@ -5271,27 +5272,27 @@
         <v>5089</v>
       </c>
       <c r="CD32" s="7">
-        <f t="shared" ref="CD32:CI32" si="26">SUM(CD29:CD31)</f>
+        <f t="shared" ref="CD32:CI32" si="25">SUM(CD29:CD31)</f>
         <v>7872</v>
       </c>
       <c r="CE32" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>12466</v>
       </c>
       <c r="CF32" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>17928</v>
       </c>
       <c r="CG32" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>27638</v>
       </c>
       <c r="CH32" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>40653</v>
       </c>
       <c r="CI32" s="7">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>55838</v>
       </c>
       <c r="CJ32" s="7">
@@ -5299,11 +5300,11 @@
         <v>70697</v>
       </c>
       <c r="CK32" s="7">
-        <f t="shared" ref="CK32:CL32" si="27">SUM(CK29:CK31)</f>
+        <f t="shared" ref="CK32:CL32" si="26">SUM(CK29:CK31)</f>
         <v>85965</v>
       </c>
       <c r="CL32" s="7">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>117929</v>
       </c>
       <c r="CM32" s="7">
@@ -5319,28 +5320,28 @@
         <v>164500</v>
       </c>
       <c r="CP32" s="7">
-        <f>+CO32*1.1</f>
-        <v>180950.00000000003</v>
+        <f>SUM(BO32:BR32)</f>
+        <v>185724.40000000002</v>
       </c>
       <c r="CQ32" s="7">
-        <f>+CP32*1.05</f>
-        <v>189997.50000000003</v>
+        <f>+CP32*1.1</f>
+        <v>204296.84000000005</v>
       </c>
       <c r="CR32" s="7">
-        <f t="shared" ref="CR32:CU32" si="28">+CQ32*1.03</f>
-        <v>195697.42500000005</v>
+        <f>+CQ32*1.08</f>
+        <v>220640.58720000007</v>
       </c>
       <c r="CS32" s="7">
-        <f t="shared" si="28"/>
-        <v>201568.34775000004</v>
+        <f>+CR32*1.08</f>
+        <v>238291.83417600009</v>
       </c>
       <c r="CT32" s="7">
-        <f t="shared" si="28"/>
-        <v>207615.39818250004</v>
+        <f>+CS32*1.05</f>
+        <v>250206.42588480012</v>
       </c>
       <c r="CU32" s="7">
-        <f t="shared" si="28"/>
-        <v>213843.86012797506</v>
+        <f>+CT32*1.05</f>
+        <v>262716.74717904016</v>
       </c>
     </row>
     <row r="33" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5495,9 +5496,18 @@
       <c r="BO33" s="6">
         <v>7572</v>
       </c>
-      <c r="BP33" s="6"/>
-      <c r="BQ33" s="6"/>
-      <c r="BR33" s="6"/>
+      <c r="BP33" s="6">
+        <f>+BP32-BP34</f>
+        <v>7439.1183999999994</v>
+      </c>
+      <c r="BQ33" s="6">
+        <f>+BQ32-BQ34</f>
+        <v>7728.1456000000035</v>
+      </c>
+      <c r="BR33" s="6">
+        <f>+BR32-BR34</f>
+        <v>9212.5040000000008</v>
+      </c>
       <c r="BS33" s="6"/>
       <c r="BX33" s="3">
         <v>41</v>
@@ -5549,36 +5559,36 @@
         <v>22155.709999999992</v>
       </c>
       <c r="CN33" s="3">
-        <f t="shared" ref="CN33:CU33" si="29">+CN32-CN34</f>
+        <f t="shared" ref="CN33:CU33" si="27">+CN32-CN34</f>
         <v>25631.189999999988</v>
       </c>
       <c r="CO33" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>31255</v>
       </c>
       <c r="CP33" s="3">
-        <f t="shared" si="29"/>
-        <v>34380.5</v>
+        <f t="shared" si="27"/>
+        <v>35287.635999999999</v>
       </c>
       <c r="CQ33" s="3">
-        <f t="shared" si="29"/>
-        <v>36099.524999999994</v>
+        <f t="shared" si="27"/>
+        <v>38816.399600000004</v>
       </c>
       <c r="CR33" s="3">
-        <f t="shared" si="29"/>
-        <v>37182.510749999987</v>
+        <f t="shared" si="27"/>
+        <v>41921.711567999999</v>
       </c>
       <c r="CS33" s="3">
-        <f t="shared" si="29"/>
-        <v>38297.986072500004</v>
+        <f t="shared" si="27"/>
+        <v>45275.448493439995</v>
       </c>
       <c r="CT33" s="3">
-        <f t="shared" si="29"/>
-        <v>39446.925654674997</v>
+        <f t="shared" si="27"/>
+        <v>47539.220918111998</v>
       </c>
       <c r="CU33" s="3">
-        <f t="shared" si="29"/>
-        <v>40630.333424315264</v>
+        <f t="shared" si="27"/>
+        <v>49916.181964017625</v>
       </c>
     </row>
     <row r="34" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5602,31 +5612,31 @@
         <v>336</v>
       </c>
       <c r="J34" s="6">
-        <f t="shared" ref="J34:P34" si="30">+J32-J33</f>
+        <f t="shared" ref="J34:P34" si="28">+J32-J33</f>
         <v>581</v>
       </c>
       <c r="K34" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>564</v>
       </c>
       <c r="L34" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>685</v>
       </c>
       <c r="M34" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>718</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>884</v>
       </c>
       <c r="O34" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>781</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>817</v>
       </c>
       <c r="Q34" s="6">
@@ -5658,51 +5668,51 @@
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
       <c r="AM34" s="6">
-        <f t="shared" ref="AM34:AN34" si="31">+AM32-AM33</f>
+        <f t="shared" ref="AM34:AN34" si="29">+AM32-AM33</f>
         <v>10039</v>
       </c>
       <c r="AN34" s="6">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>11017</v>
       </c>
       <c r="AO34" s="6">
-        <f t="shared" ref="AO34:AQ34" si="32">+AO32-AO33</f>
+        <f t="shared" ref="AO34:AQ34" si="30">+AO32-AO33</f>
         <v>11309</v>
       </c>
       <c r="AP34" s="6">
+        <f t="shared" si="30"/>
+        <v>14118</v>
+      </c>
+      <c r="AQ34" s="6">
+        <f t="shared" si="30"/>
+        <v>12261</v>
+      </c>
+      <c r="AR34" s="6">
+        <f t="shared" ref="AR34" si="31">+AR32-AR33</f>
+        <v>13579</v>
+      </c>
+      <c r="AS34" s="6">
+        <f t="shared" ref="AS34:AT34" si="32">+AS32-AS33</f>
+        <v>14497</v>
+      </c>
+      <c r="AT34" s="6">
         <f t="shared" si="32"/>
-        <v>14118</v>
-      </c>
-      <c r="AQ34" s="6">
-        <f t="shared" si="32"/>
-        <v>12261</v>
-      </c>
-      <c r="AR34" s="6">
-        <f t="shared" ref="AR34" si="33">+AR32-AR33</f>
-        <v>13579</v>
-      </c>
-      <c r="AS34" s="6">
-        <f t="shared" ref="AS34:AT34" si="34">+AS32-AS33</f>
-        <v>14497</v>
-      </c>
-      <c r="AT34" s="6">
-        <f t="shared" si="34"/>
         <v>17590</v>
       </c>
       <c r="AU34" s="6">
-        <f t="shared" ref="AU34:AX34" si="35">+AU32-AU33</f>
+        <f t="shared" ref="AU34:AX34" si="33">+AU32-AU33</f>
         <v>14278</v>
       </c>
       <c r="AV34" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>14858</v>
       </c>
       <c r="AW34" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>17276</v>
       </c>
       <c r="AX34" s="6">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>22862</v>
       </c>
       <c r="AY34" s="6">
@@ -5710,15 +5720,15 @@
         <v>21040</v>
       </c>
       <c r="AZ34" s="6">
-        <f t="shared" ref="AZ34:BB34" si="36">+AZ32-AZ33</f>
+        <f t="shared" ref="AZ34:BB34" si="34">+AZ32-AZ33</f>
         <v>23678</v>
       </c>
       <c r="BA34" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>23239</v>
       </c>
       <c r="BB34" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>27323</v>
       </c>
       <c r="BC34" s="6">
@@ -5750,7 +5760,7 @@
         <v>27936</v>
       </c>
       <c r="BJ34" s="6">
-        <f t="shared" ref="BJ34" si="37">+BJ32*0.79</f>
+        <f t="shared" ref="BJ34" si="35">+BJ32*0.79</f>
         <v>31687.690000000002</v>
       </c>
       <c r="BK34" s="6">
@@ -5773,68 +5783,77 @@
         <f>+BO32-BO33</f>
         <v>34742</v>
       </c>
-      <c r="BP34" s="6"/>
-      <c r="BQ34" s="6"/>
-      <c r="BR34" s="6"/>
+      <c r="BP34" s="6">
+        <f>+BP32*0.83</f>
+        <v>36320.401600000005</v>
+      </c>
+      <c r="BQ34" s="6">
+        <f>+BQ32*0.83</f>
+        <v>37731.534400000004</v>
+      </c>
+      <c r="BR34" s="6">
+        <f>+BR32*0.83</f>
+        <v>44978.696000000004</v>
+      </c>
       <c r="BS34" s="6"/>
       <c r="BX34" s="3">
-        <f t="shared" ref="BX34:CC34" si="38">+BX32-BX33</f>
+        <f t="shared" ref="BX34:CC34" si="36">+BX32-BX33</f>
         <v>112</v>
       </c>
       <c r="BY34" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>148</v>
       </c>
       <c r="BZ34" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>554</v>
       </c>
       <c r="CA34" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1481</v>
       </c>
       <c r="CB34" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>2851</v>
       </c>
       <c r="CC34" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>3725</v>
       </c>
       <c r="CD34" s="3">
-        <f>+CD32-CD33</f>
+        <f t="shared" ref="CD34:CK34" si="37">+CD32-CD33</f>
         <v>5997</v>
       </c>
       <c r="CE34" s="3">
-        <f>+CE32-CE33</f>
+        <f t="shared" si="37"/>
         <v>10313</v>
       </c>
       <c r="CF34" s="3">
-        <f>+CF32-CF33</f>
+        <f t="shared" si="37"/>
         <v>15061</v>
       </c>
       <c r="CG34" s="3">
-        <f>+CG32-CG33</f>
+        <f t="shared" si="37"/>
         <v>23849</v>
       </c>
       <c r="CH34" s="3">
-        <f>+CH32-CH33</f>
+        <f t="shared" si="37"/>
         <v>35199</v>
       </c>
       <c r="CI34" s="3">
-        <f>+CI32-CI33</f>
+        <f t="shared" si="37"/>
         <v>46483</v>
       </c>
       <c r="CJ34" s="3">
-        <f>+CJ32-CJ33</f>
+        <f t="shared" si="37"/>
         <v>57927</v>
       </c>
       <c r="CK34" s="3">
-        <f>+CK32-CK33</f>
+        <f t="shared" si="37"/>
         <v>69273</v>
       </c>
       <c r="CL34" s="3">
-        <f t="shared" ref="CL34" si="39">+CL32-CL33</f>
+        <f t="shared" ref="CL34" si="38">+CL32-CL33</f>
         <v>95280</v>
       </c>
       <c r="CM34" s="3">
@@ -5842,36 +5861,36 @@
         <v>94453.290000000008</v>
       </c>
       <c r="CN34" s="3">
-        <f t="shared" ref="CN34:CU34" si="40">+CN32*0.81</f>
+        <f t="shared" ref="CN34:CU34" si="39">+CN32*0.81</f>
         <v>109269.81000000001</v>
       </c>
       <c r="CO34" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="39"/>
         <v>133245</v>
       </c>
       <c r="CP34" s="3">
-        <f t="shared" si="40"/>
-        <v>146569.50000000003</v>
+        <f t="shared" si="39"/>
+        <v>150436.76400000002</v>
       </c>
       <c r="CQ34" s="3">
-        <f t="shared" si="40"/>
-        <v>153897.97500000003</v>
+        <f t="shared" si="39"/>
+        <v>165480.44040000005</v>
       </c>
       <c r="CR34" s="3">
-        <f t="shared" si="40"/>
-        <v>158514.91425000006</v>
+        <f t="shared" si="39"/>
+        <v>178718.87563200007</v>
       </c>
       <c r="CS34" s="3">
-        <f t="shared" si="40"/>
-        <v>163270.36167750004</v>
+        <f t="shared" si="39"/>
+        <v>193016.3856825601</v>
       </c>
       <c r="CT34" s="3">
-        <f t="shared" si="40"/>
-        <v>168168.47252782504</v>
+        <f t="shared" si="39"/>
+        <v>202667.20496668812</v>
       </c>
       <c r="CU34" s="3">
-        <f t="shared" si="40"/>
-        <v>173213.52670365979</v>
+        <f t="shared" si="39"/>
+        <v>212800.56521502254</v>
       </c>
     </row>
     <row r="35" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6026,9 +6045,18 @@
       <c r="BO35" s="6">
         <v>12150</v>
       </c>
-      <c r="BP35" s="6"/>
-      <c r="BQ35" s="6"/>
-      <c r="BR35" s="6"/>
+      <c r="BP35" s="6">
+        <f>+BL35</f>
+        <v>10537</v>
+      </c>
+      <c r="BQ35" s="6">
+        <f>+BM35</f>
+        <v>11177</v>
+      </c>
+      <c r="BR35" s="6">
+        <f>+BN35</f>
+        <v>12180</v>
+      </c>
       <c r="BS35" s="6"/>
       <c r="BX35" s="3">
         <v>32</v>
@@ -6076,39 +6104,39 @@
         <v>24655</v>
       </c>
       <c r="CM35" s="3">
-        <f t="shared" ref="CM35:CR35" si="41">+CL35*0.9</f>
+        <f t="shared" ref="CM35:CR35" si="40">+CL35*0.9</f>
         <v>22189.5</v>
       </c>
       <c r="CN35" s="3">
+        <f t="shared" si="40"/>
+        <v>19970.55</v>
+      </c>
+      <c r="CO35" s="3">
+        <f t="shared" si="40"/>
+        <v>17973.494999999999</v>
+      </c>
+      <c r="CP35" s="3">
+        <f t="shared" si="40"/>
+        <v>16176.145499999999</v>
+      </c>
+      <c r="CQ35" s="3">
+        <f t="shared" si="40"/>
+        <v>14558.530949999998</v>
+      </c>
+      <c r="CR35" s="3">
+        <f t="shared" si="40"/>
+        <v>13102.677854999998</v>
+      </c>
+      <c r="CS35" s="3">
+        <f t="shared" ref="CS35:CU35" si="41">+CR35*0.9</f>
+        <v>11792.410069499998</v>
+      </c>
+      <c r="CT35" s="3">
         <f t="shared" si="41"/>
-        <v>19970.55</v>
-      </c>
-      <c r="CO35" s="3">
+        <v>10613.169062549998</v>
+      </c>
+      <c r="CU35" s="3">
         <f t="shared" si="41"/>
-        <v>17973.494999999999</v>
-      </c>
-      <c r="CP35" s="3">
-        <f t="shared" si="41"/>
-        <v>16176.145499999999</v>
-      </c>
-      <c r="CQ35" s="3">
-        <f t="shared" si="41"/>
-        <v>14558.530949999998</v>
-      </c>
-      <c r="CR35" s="3">
-        <f t="shared" si="41"/>
-        <v>13102.677854999998</v>
-      </c>
-      <c r="CS35" s="3">
-        <f t="shared" ref="CS35:CU35" si="42">+CR35*0.9</f>
-        <v>11792.410069499998</v>
-      </c>
-      <c r="CT35" s="3">
-        <f t="shared" si="42"/>
-        <v>10613.169062549998</v>
-      </c>
-      <c r="CU35" s="3">
-        <f t="shared" si="42"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
@@ -6237,7 +6265,7 @@
         <v>4574</v>
       </c>
       <c r="BG36" s="6">
-        <f t="shared" ref="BG36:BG37" si="43">+BC36*0.9</f>
+        <f t="shared" ref="BG36:BG37" si="42">+BC36*0.9</f>
         <v>2980.8</v>
       </c>
       <c r="BH36" s="6">
@@ -6264,9 +6292,18 @@
       <c r="BO36" s="6">
         <v>2757</v>
       </c>
-      <c r="BP36" s="6"/>
-      <c r="BQ36" s="6"/>
-      <c r="BR36" s="6"/>
+      <c r="BP36" s="6">
+        <f>+BL36</f>
+        <v>2721</v>
+      </c>
+      <c r="BQ36" s="6">
+        <f>+BM36</f>
+        <v>2822</v>
+      </c>
+      <c r="BR36" s="6">
+        <f>+BN36</f>
+        <v>3240</v>
+      </c>
       <c r="BS36" s="6"/>
       <c r="BX36" s="3">
         <v>81</v>
@@ -6318,35 +6355,35 @@
         <v>14043</v>
       </c>
       <c r="CN36" s="3">
-        <f t="shared" ref="CN36:CU36" si="44">+CM36</f>
+        <f t="shared" ref="CN36:CU36" si="43">+CM36</f>
         <v>14043</v>
       </c>
       <c r="CO36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>14043</v>
       </c>
       <c r="CP36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>14043</v>
       </c>
       <c r="CQ36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>14043</v>
       </c>
       <c r="CR36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>14043</v>
       </c>
       <c r="CS36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>14043</v>
       </c>
       <c r="CT36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>14043</v>
       </c>
       <c r="CU36" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="43"/>
         <v>14043</v>
       </c>
     </row>
@@ -6477,7 +6514,7 @@
         <v>3085</v>
       </c>
       <c r="BG37" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>2124</v>
       </c>
       <c r="BH37" s="6">
@@ -6499,15 +6536,24 @@
       <c r="BM37" s="6">
         <v>1865</v>
       </c>
-      <c r="BN37" s="6">
+      <c r="BN37" s="21">
         <v>761</v>
       </c>
       <c r="BO37" s="6">
         <v>2280</v>
       </c>
-      <c r="BP37" s="6"/>
-      <c r="BQ37" s="6"/>
-      <c r="BR37" s="6"/>
+      <c r="BP37" s="6">
+        <f>+BL37</f>
+        <v>3658</v>
+      </c>
+      <c r="BQ37" s="6">
+        <f>+BM37</f>
+        <v>1865</v>
+      </c>
+      <c r="BR37" s="6">
+        <f>+BQ37</f>
+        <v>1865</v>
+      </c>
       <c r="BS37" s="6"/>
       <c r="BX37" s="3">
         <v>123</v>
@@ -6556,39 +6602,39 @@
         <v>9829</v>
       </c>
       <c r="CM37" s="3">
-        <f t="shared" ref="CM37:CU37" si="45">+CL37</f>
+        <f t="shared" ref="CM37:CU37" si="44">+CL37</f>
         <v>9829</v>
       </c>
       <c r="CN37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>9829</v>
       </c>
       <c r="CO37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>9829</v>
       </c>
       <c r="CP37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>9829</v>
       </c>
       <c r="CQ37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>9829</v>
       </c>
       <c r="CR37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>9829</v>
       </c>
       <c r="CS37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>9829</v>
       </c>
       <c r="CT37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>9829</v>
       </c>
       <c r="CU37" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="44"/>
         <v>9829</v>
       </c>
     </row>
@@ -6601,47 +6647,47 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6">
-        <f t="shared" ref="G38" si="46">SUM(G35:G37)</f>
+        <f t="shared" ref="G38" si="45">SUM(G35:G37)</f>
         <v>83</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" ref="H38" si="47">SUM(H35:H37)</f>
+        <f t="shared" ref="H38" si="46">SUM(H35:H37)</f>
         <v>102</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" ref="I38" si="48">SUM(I35:I37)</f>
+        <f t="shared" ref="I38" si="47">SUM(I35:I37)</f>
         <v>120</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" ref="J38:Q38" si="49">SUM(J35:J37)</f>
+        <f t="shared" ref="J38:Q38" si="48">SUM(J35:J37)</f>
         <v>144</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>176</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>278</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>304</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>336</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>400</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1560</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>563</v>
       </c>
       <c r="R38" s="6">
@@ -6669,67 +6715,67 @@
       <c r="AK38" s="6"/>
       <c r="AL38" s="6"/>
       <c r="AM38" s="6">
-        <f t="shared" ref="AM38:AN38" si="50">+AM37+AM36+AM35</f>
+        <f t="shared" ref="AM38:AN38" si="49">+AM37+AM36+AM35</f>
         <v>4590</v>
       </c>
       <c r="AN38" s="6">
+        <f t="shared" si="49"/>
+        <v>5154</v>
+      </c>
+      <c r="AO38" s="6">
+        <f t="shared" ref="AO38:AQ38" si="50">+AO37+AO36+AO35</f>
+        <v>5528</v>
+      </c>
+      <c r="AP38" s="6">
         <f t="shared" si="50"/>
-        <v>5154</v>
-      </c>
-      <c r="AO38" s="6">
-        <f t="shared" ref="AO38:AQ38" si="51">+AO37+AO36+AO35</f>
-        <v>5528</v>
-      </c>
-      <c r="AP38" s="6">
+        <v>6298</v>
+      </c>
+      <c r="AQ38" s="6">
+        <f t="shared" si="50"/>
+        <v>5944</v>
+      </c>
+      <c r="AR38" s="6">
+        <f t="shared" ref="AR38:AS38" si="51">+AR37+AR36+AR35</f>
+        <v>6953</v>
+      </c>
+      <c r="AS38" s="6">
         <f t="shared" si="51"/>
-        <v>6298</v>
-      </c>
-      <c r="AQ38" s="6">
-        <f t="shared" si="51"/>
-        <v>5944</v>
-      </c>
-      <c r="AR38" s="6">
-        <f t="shared" ref="AR38:AS38" si="52">+AR37+AR36+AR35</f>
-        <v>6953</v>
-      </c>
-      <c r="AS38" s="6">
+        <v>7312</v>
+      </c>
+      <c r="AT38" s="6">
+        <f t="shared" ref="AT38:AU38" si="52">+AT37+AT36+AT35</f>
+        <v>8732</v>
+      </c>
+      <c r="AU38" s="6">
         <f t="shared" si="52"/>
-        <v>7312</v>
-      </c>
-      <c r="AT38" s="6">
-        <f t="shared" ref="AT38:AU38" si="53">+AT37+AT36+AT35</f>
-        <v>8732</v>
-      </c>
-      <c r="AU38" s="6">
-        <f t="shared" si="53"/>
         <v>8385</v>
       </c>
       <c r="AV38" s="6">
-        <f t="shared" ref="AV38" si="54">+AV37+AV36+AV35</f>
+        <f t="shared" ref="AV38" si="53">+AV37+AV36+AV35</f>
         <v>8895</v>
       </c>
       <c r="AW38" s="6">
-        <f t="shared" ref="AW38" si="55">+AW37+AW36+AW35</f>
+        <f t="shared" ref="AW38" si="54">+AW37+AW36+AW35</f>
         <v>9236</v>
       </c>
       <c r="AX38" s="6">
-        <f t="shared" ref="AX38" si="56">+AX37+AX36+AX35</f>
+        <f t="shared" ref="AX38" si="55">+AX37+AX36+AX35</f>
         <v>10087</v>
       </c>
       <c r="AY38" s="6">
-        <f t="shared" ref="AY38:BB38" si="57">+AY37+AY36+AY35</f>
+        <f t="shared" ref="AY38:BB38" si="56">+AY37+AY36+AY35</f>
         <v>9662</v>
       </c>
       <c r="AZ38" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>11311</v>
       </c>
       <c r="BA38" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>12816</v>
       </c>
       <c r="BB38" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="56"/>
         <v>14738</v>
       </c>
       <c r="BC38" s="6">
@@ -6737,31 +6783,31 @@
         <v>13379</v>
       </c>
       <c r="BD38" s="6">
-        <f t="shared" ref="BD38:BF38" si="58">+BD37+BD36+BD35</f>
+        <f t="shared" ref="BD38:BF38" si="57">+BD37+BD36+BD35</f>
         <v>15272</v>
       </c>
       <c r="BE38" s="6">
+        <f t="shared" si="57"/>
+        <v>16334</v>
+      </c>
+      <c r="BF38" s="6">
+        <f t="shared" si="57"/>
+        <v>17430</v>
+      </c>
+      <c r="BG38" s="6">
+        <f t="shared" ref="BG38:BJ38" si="58">+BG37+BG36+BG35</f>
+        <v>12041.1</v>
+      </c>
+      <c r="BH38" s="6">
         <f t="shared" si="58"/>
-        <v>16334</v>
-      </c>
-      <c r="BF38" s="6">
+        <v>14792</v>
+      </c>
+      <c r="BI38" s="6">
         <f t="shared" si="58"/>
-        <v>17430</v>
-      </c>
-      <c r="BG38" s="6">
-        <f t="shared" ref="BG38:BJ38" si="59">+BG37+BG36+BG35</f>
-        <v>12041.1</v>
-      </c>
-      <c r="BH38" s="6">
-        <f t="shared" si="59"/>
-        <v>14792</v>
-      </c>
-      <c r="BI38" s="6">
-        <f t="shared" si="59"/>
         <v>14188</v>
       </c>
       <c r="BJ38" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="58"/>
         <v>16032</v>
       </c>
       <c r="BK38" s="6">
@@ -6785,60 +6831,60 @@
         <v>17187</v>
       </c>
       <c r="BP38" s="6">
-        <f t="shared" ref="BP38:BR38" si="60">+BP37+BP36+BP35</f>
-        <v>0</v>
+        <f t="shared" ref="BP38:BR38" si="59">+BP37+BP36+BP35</f>
+        <v>16916</v>
       </c>
       <c r="BQ38" s="6">
-        <f t="shared" si="60"/>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>15864</v>
       </c>
       <c r="BR38" s="6">
-        <f t="shared" si="60"/>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>17285</v>
       </c>
       <c r="BS38" s="6"/>
       <c r="BX38" s="6">
-        <f t="shared" ref="BX38:BY38" si="61">+BX37+BX36+BX35</f>
+        <f t="shared" ref="BX38:BY38" si="60">+BX37+BX36+BX35</f>
         <v>236</v>
       </c>
       <c r="BY38" s="6">
+        <f t="shared" si="60"/>
+        <v>203</v>
+      </c>
+      <c r="BZ38" s="6">
+        <f t="shared" ref="BZ38:CA38" si="61">+BZ37+BZ36+BZ35</f>
+        <v>292</v>
+      </c>
+      <c r="CA38" s="6">
         <f t="shared" si="61"/>
-        <v>203</v>
-      </c>
-      <c r="BZ38" s="6">
-        <f t="shared" ref="BZ38:CA38" si="62">+BZ37+BZ36+BZ35</f>
-        <v>292</v>
-      </c>
-      <c r="CA38" s="6">
+        <v>449</v>
+      </c>
+      <c r="CB38" s="6">
+        <f t="shared" ref="CB38:CC38" si="62">+CB37+CB36+CB35</f>
+        <v>1095</v>
+      </c>
+      <c r="CC38" s="6">
         <f t="shared" si="62"/>
-        <v>449</v>
-      </c>
-      <c r="CB38" s="6">
-        <f t="shared" ref="CB38:CC38" si="63">+CB37+CB36+CB35</f>
-        <v>1095</v>
-      </c>
-      <c r="CC38" s="6">
+        <v>3187</v>
+      </c>
+      <c r="CD38" s="6">
+        <f t="shared" ref="CD38:CH38" si="63">+CD37+CD36+CD35</f>
+        <v>3193</v>
+      </c>
+      <c r="CE38" s="6">
         <f t="shared" si="63"/>
-        <v>3187</v>
-      </c>
-      <c r="CD38" s="6">
-        <f t="shared" ref="CD38:CH38" si="64">+CD37+CD36+CD35</f>
-        <v>3193</v>
-      </c>
-      <c r="CE38" s="6">
-        <f t="shared" si="64"/>
         <v>5319</v>
       </c>
       <c r="CF38" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>8836</v>
       </c>
       <c r="CG38" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>11422</v>
       </c>
       <c r="CH38" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="63"/>
         <v>14996</v>
       </c>
       <c r="CI38" s="3">
@@ -6854,43 +6900,43 @@
         <v>36602</v>
       </c>
       <c r="CL38" s="3">
-        <f t="shared" ref="CL38" si="65">SUM(CL35:CL37)</f>
+        <f t="shared" ref="CL38" si="64">SUM(CL35:CL37)</f>
         <v>48527</v>
       </c>
       <c r="CM38" s="3">
-        <f t="shared" ref="CM38" si="66">SUM(CM35:CM37)</f>
+        <f t="shared" ref="CM38" si="65">SUM(CM35:CM37)</f>
         <v>46061.5</v>
       </c>
       <c r="CN38" s="3">
-        <f t="shared" ref="CN38" si="67">SUM(CN35:CN37)</f>
+        <f t="shared" ref="CN38" si="66">SUM(CN35:CN37)</f>
         <v>43842.55</v>
       </c>
       <c r="CO38" s="3">
-        <f t="shared" ref="CO38" si="68">SUM(CO35:CO37)</f>
+        <f t="shared" ref="CO38" si="67">SUM(CO35:CO37)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="CP38" s="3">
-        <f t="shared" ref="CP38" si="69">SUM(CP35:CP37)</f>
+        <f t="shared" ref="CP38" si="68">SUM(CP35:CP37)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="CQ38" s="3">
-        <f t="shared" ref="CQ38" si="70">SUM(CQ35:CQ37)</f>
+        <f t="shared" ref="CQ38" si="69">SUM(CQ35:CQ37)</f>
         <v>38430.53095</v>
       </c>
       <c r="CR38" s="3">
-        <f t="shared" ref="CR38" si="71">SUM(CR35:CR37)</f>
+        <f t="shared" ref="CR38" si="70">SUM(CR35:CR37)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="CS38" s="3">
-        <f t="shared" ref="CS38" si="72">SUM(CS35:CS37)</f>
+        <f t="shared" ref="CS38" si="71">SUM(CS35:CS37)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="CT38" s="3">
-        <f t="shared" ref="CT38" si="73">SUM(CT35:CT37)</f>
+        <f t="shared" ref="CT38" si="72">SUM(CT35:CT37)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="CU38" s="3">
-        <f t="shared" ref="CU38" si="74">SUM(CU35:CU37)</f>
+        <f t="shared" ref="CU38" si="73">SUM(CU35:CU37)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
@@ -6903,47 +6949,47 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
-        <f t="shared" ref="G39" si="75">+G34-G38</f>
+        <f t="shared" ref="G39" si="74">+G34-G38</f>
         <v>162</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39" si="76">+H34-H38</f>
+        <f t="shared" ref="H39" si="75">+H34-H38</f>
         <v>219</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" ref="I39" si="77">+I34-I38</f>
+        <f t="shared" ref="I39" si="76">+I34-I38</f>
         <v>216</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" ref="J39:Q39" si="78">+J34-J38</f>
+        <f t="shared" ref="J39:Q39" si="77">+J34-J38</f>
         <v>437</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>388</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>407</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>414</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>548</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>381</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>-743</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="77"/>
         <v>377</v>
       </c>
       <c r="R39" s="6">
@@ -6971,67 +7017,67 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
       <c r="AM39" s="6">
-        <f t="shared" ref="AM39:AN39" si="79">+AM34-AM38</f>
+        <f t="shared" ref="AM39:AN39" si="78">+AM34-AM38</f>
         <v>5449</v>
       </c>
       <c r="AN39" s="6">
+        <f t="shared" si="78"/>
+        <v>5863</v>
+      </c>
+      <c r="AO39" s="6">
+        <f t="shared" ref="AO39:AQ39" si="79">+AO34-AO38</f>
+        <v>5781</v>
+      </c>
+      <c r="AP39" s="6">
         <f t="shared" si="79"/>
-        <v>5863</v>
-      </c>
-      <c r="AO39" s="6">
-        <f t="shared" ref="AO39:AQ39" si="80">+AO34-AO38</f>
-        <v>5781</v>
-      </c>
-      <c r="AP39" s="6">
+        <v>7820</v>
+      </c>
+      <c r="AQ39" s="6">
+        <f t="shared" si="79"/>
+        <v>6317</v>
+      </c>
+      <c r="AR39" s="6">
+        <f t="shared" ref="AR39:AS39" si="80">+AR34-AR38</f>
+        <v>6626</v>
+      </c>
+      <c r="AS39" s="6">
         <f t="shared" si="80"/>
-        <v>7820</v>
-      </c>
-      <c r="AQ39" s="6">
-        <f t="shared" si="80"/>
-        <v>6317</v>
-      </c>
-      <c r="AR39" s="6">
-        <f t="shared" ref="AR39:AS39" si="81">+AR34-AR38</f>
-        <v>6626</v>
-      </c>
-      <c r="AS39" s="6">
+        <v>7185</v>
+      </c>
+      <c r="AT39" s="6">
+        <f t="shared" ref="AT39:AU39" si="81">+AT34-AT38</f>
+        <v>8858</v>
+      </c>
+      <c r="AU39" s="6">
         <f t="shared" si="81"/>
-        <v>7185</v>
-      </c>
-      <c r="AT39" s="6">
-        <f t="shared" ref="AT39:AU39" si="82">+AT34-AT38</f>
-        <v>8858</v>
-      </c>
-      <c r="AU39" s="6">
-        <f t="shared" si="82"/>
         <v>5893</v>
       </c>
       <c r="AV39" s="6">
-        <f t="shared" ref="AV39" si="83">+AV34-AV38</f>
+        <f t="shared" ref="AV39" si="82">+AV34-AV38</f>
         <v>5963</v>
       </c>
       <c r="AW39" s="6">
-        <f t="shared" ref="AW39" si="84">+AW34-AW38</f>
+        <f t="shared" ref="AW39" si="83">+AW34-AW38</f>
         <v>8040</v>
       </c>
       <c r="AX39" s="6">
-        <f t="shared" ref="AX39" si="85">+AX34-AX38</f>
+        <f t="shared" ref="AX39" si="84">+AX34-AX38</f>
         <v>12775</v>
       </c>
       <c r="AY39" s="6">
-        <f t="shared" ref="AY39:BB39" si="86">+AY34-AY38</f>
+        <f t="shared" ref="AY39:BB39" si="85">+AY34-AY38</f>
         <v>11378</v>
       </c>
       <c r="AZ39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>12367</v>
       </c>
       <c r="BA39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>10423</v>
       </c>
       <c r="BB39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>12585</v>
       </c>
       <c r="BC39" s="6">
@@ -7039,31 +7085,31 @@
         <v>8524</v>
       </c>
       <c r="BD39" s="6">
-        <f t="shared" ref="BD39:BF39" si="87">+BD34-BD38</f>
+        <f t="shared" ref="BD39:BF39" si="86">+BD34-BD38</f>
         <v>8358</v>
       </c>
       <c r="BE39" s="6">
+        <f t="shared" si="86"/>
+        <v>5664</v>
+      </c>
+      <c r="BF39" s="6">
+        <f t="shared" si="86"/>
+        <v>6399</v>
+      </c>
+      <c r="BG39" s="6">
+        <f t="shared" ref="BG39:BJ39" si="87">+BG34-BG38</f>
+        <v>10588.449999999999</v>
+      </c>
+      <c r="BH39" s="6">
         <f t="shared" si="87"/>
-        <v>5664</v>
-      </c>
-      <c r="BF39" s="6">
+        <v>11262</v>
+      </c>
+      <c r="BI39" s="6">
         <f t="shared" si="87"/>
-        <v>6399</v>
-      </c>
-      <c r="BG39" s="6">
-        <f t="shared" ref="BG39:BJ39" si="88">+BG34-BG38</f>
-        <v>10588.449999999999</v>
-      </c>
-      <c r="BH39" s="6">
-        <f t="shared" si="88"/>
-        <v>11262</v>
-      </c>
-      <c r="BI39" s="6">
-        <f t="shared" si="88"/>
         <v>13748</v>
       </c>
       <c r="BJ39" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>15655.690000000002</v>
       </c>
       <c r="BK39" s="6">
@@ -7087,60 +7133,60 @@
         <v>17555</v>
       </c>
       <c r="BP39" s="6">
-        <f t="shared" ref="BP39:BR39" si="89">+BP34-BP38</f>
-        <v>0</v>
+        <f t="shared" ref="BP39:BR39" si="88">+BP34-BP38</f>
+        <v>19404.401600000005</v>
       </c>
       <c r="BQ39" s="6">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>21867.534400000004</v>
       </c>
       <c r="BR39" s="6">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>27693.696000000004</v>
       </c>
       <c r="BS39" s="6"/>
       <c r="BX39" s="6">
-        <f t="shared" ref="BX39:BY39" si="90">+BX34-BX38</f>
+        <f t="shared" ref="BX39:BY39" si="89">+BX34-BX38</f>
         <v>-124</v>
       </c>
       <c r="BY39" s="6">
+        <f t="shared" si="89"/>
+        <v>-55</v>
+      </c>
+      <c r="BZ39" s="6">
+        <f t="shared" ref="BZ39:CA39" si="90">+BZ34-BZ38</f>
+        <v>262</v>
+      </c>
+      <c r="CA39" s="6">
         <f t="shared" si="90"/>
-        <v>-55</v>
-      </c>
-      <c r="BZ39" s="6">
-        <f t="shared" ref="BZ39:CA39" si="91">+BZ34-BZ38</f>
-        <v>262</v>
-      </c>
-      <c r="CA39" s="6">
+        <v>1032</v>
+      </c>
+      <c r="CB39" s="6">
+        <f t="shared" ref="CB39:CC39" si="91">+CB34-CB38</f>
+        <v>1756</v>
+      </c>
+      <c r="CC39" s="6">
         <f t="shared" si="91"/>
-        <v>1032</v>
-      </c>
-      <c r="CB39" s="6">
-        <f t="shared" ref="CB39:CC39" si="92">+CB34-CB38</f>
-        <v>1756</v>
-      </c>
-      <c r="CC39" s="6">
+        <v>538</v>
+      </c>
+      <c r="CD39" s="6">
+        <f t="shared" ref="CD39:CH39" si="92">+CD34-CD38</f>
+        <v>2804</v>
+      </c>
+      <c r="CE39" s="6">
         <f t="shared" si="92"/>
-        <v>538</v>
-      </c>
-      <c r="CD39" s="6">
-        <f t="shared" ref="CD39:CH39" si="93">+CD34-CD38</f>
-        <v>2804</v>
-      </c>
-      <c r="CE39" s="6">
-        <f t="shared" si="93"/>
         <v>4994</v>
       </c>
       <c r="CF39" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>6225</v>
       </c>
       <c r="CG39" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>12427</v>
       </c>
       <c r="CH39" s="6">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>20203</v>
       </c>
       <c r="CI39" s="3">
@@ -7156,44 +7202,44 @@
         <v>32671</v>
       </c>
       <c r="CL39" s="3">
-        <f t="shared" ref="CL39" si="94">CL34-CL38</f>
+        <f t="shared" ref="CL39" si="93">CL34-CL38</f>
         <v>46753</v>
       </c>
       <c r="CM39" s="3">
-        <f t="shared" ref="CM39" si="95">CM34-CM38</f>
+        <f t="shared" ref="CM39" si="94">CM34-CM38</f>
         <v>48391.790000000008</v>
       </c>
       <c r="CN39" s="3">
-        <f t="shared" ref="CN39" si="96">CN34-CN38</f>
+        <f t="shared" ref="CN39" si="95">CN34-CN38</f>
         <v>65427.260000000009</v>
       </c>
       <c r="CO39" s="3">
-        <f t="shared" ref="CO39" si="97">CO34-CO38</f>
+        <f t="shared" ref="CO39" si="96">CO34-CO38</f>
         <v>91399.505000000005</v>
       </c>
       <c r="CP39" s="3">
-        <f t="shared" ref="CP39" si="98">CP34-CP38</f>
-        <v>106521.35450000003</v>
+        <f t="shared" ref="CP39" si="97">CP34-CP38</f>
+        <v>110388.61850000003</v>
       </c>
       <c r="CQ39" s="3">
-        <f t="shared" ref="CQ39" si="99">CQ34-CQ38</f>
-        <v>115467.44405000003</v>
+        <f t="shared" ref="CQ39" si="98">CQ34-CQ38</f>
+        <v>127049.90945000005</v>
       </c>
       <c r="CR39" s="3">
-        <f t="shared" ref="CR39" si="100">CR34-CR38</f>
-        <v>121540.23639500006</v>
+        <f t="shared" ref="CR39" si="99">CR34-CR38</f>
+        <v>141744.19777700008</v>
       </c>
       <c r="CS39" s="3">
-        <f t="shared" ref="CS39" si="101">CS34-CS38</f>
-        <v>127605.95160800005</v>
+        <f t="shared" ref="CS39" si="100">CS34-CS38</f>
+        <v>157351.97561306012</v>
       </c>
       <c r="CT39" s="3">
-        <f t="shared" ref="CT39" si="102">CT34-CT38</f>
-        <v>133683.30346527504</v>
+        <f t="shared" ref="CT39" si="101">CT34-CT38</f>
+        <v>168182.03590413812</v>
       </c>
       <c r="CU39" s="3">
-        <f t="shared" ref="CU39" si="103">CU34-CU38</f>
-        <v>139789.67454736479</v>
+        <f t="shared" ref="CU39" si="102">CU34-CU38</f>
+        <v>179376.71305872753</v>
       </c>
     </row>
     <row r="40" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7368,36 +7414,36 @@
         <v>531</v>
       </c>
       <c r="CN40" s="3">
-        <f t="shared" ref="CN40:CU40" si="104">+CM59*$CZ$58</f>
+        <f t="shared" ref="CN40:CU40" si="103">+CM59*$CZ$58</f>
         <v>938.78</v>
       </c>
       <c r="CO40" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>2027.1830560000003</v>
       </c>
       <c r="CP40" s="3">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>3559.3807401184004</v>
       </c>
       <c r="CQ40" s="3">
-        <f t="shared" si="104"/>
-        <v>5364.704798056343</v>
+        <f t="shared" si="103"/>
+        <v>5428.1279276563428</v>
       </c>
       <c r="CR40" s="3">
-        <f t="shared" si="104"/>
-        <v>7346.352039164467</v>
+        <f t="shared" si="103"/>
+        <v>7600.767740649907</v>
       </c>
       <c r="CS40" s="3">
-        <f t="shared" si="104"/>
-        <v>9460.0920894847641</v>
+        <f t="shared" si="103"/>
+        <v>10050.025175139366</v>
       </c>
       <c r="CT40" s="3">
-        <f t="shared" si="104"/>
-        <v>11707.975206123516</v>
+        <f t="shared" si="103"/>
+        <v>12795.417988065838</v>
       </c>
       <c r="CU40" s="3">
-        <f t="shared" si="104"/>
-        <v>14092.392176334453</v>
+        <f t="shared" si="103"/>
+        <v>15763.448231897983</v>
       </c>
     </row>
     <row r="41" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7441,67 +7487,67 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6">
-        <f t="shared" ref="AM41:AN41" si="105">+AM39+AM40</f>
+        <f t="shared" ref="AM41:AN41" si="104">+AM39+AM40</f>
         <v>5610</v>
       </c>
       <c r="AN41" s="6">
+        <f t="shared" si="104"/>
+        <v>5868</v>
+      </c>
+      <c r="AO41" s="6">
+        <f t="shared" ref="AO41:AQ41" si="105">+AO39+AO40</f>
+        <v>5912</v>
+      </c>
+      <c r="AP41" s="6">
         <f t="shared" si="105"/>
-        <v>5868</v>
-      </c>
-      <c r="AO41" s="6">
-        <f t="shared" ref="AO41:AQ41" si="106">+AO39+AO40</f>
-        <v>5912</v>
-      </c>
-      <c r="AP41" s="6">
-        <f t="shared" si="106"/>
         <v>7971</v>
       </c>
       <c r="AQ41" s="6">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>6523</v>
       </c>
       <c r="AR41" s="6">
-        <f t="shared" ref="AR41" si="107">+AR39+AR40</f>
+        <f t="shared" ref="AR41" si="106">+AR39+AR40</f>
         <v>6832</v>
       </c>
       <c r="AS41" s="6">
-        <f t="shared" ref="AS41:AT41" si="108">+AS39+AS40</f>
+        <f t="shared" ref="AS41:AT41" si="107">+AS39+AS40</f>
         <v>7329</v>
       </c>
       <c r="AT41" s="6">
+        <f t="shared" si="107"/>
+        <v>9169</v>
+      </c>
+      <c r="AU41" s="6">
+        <f t="shared" ref="AU41:BB41" si="108">+AU39+AU40</f>
+        <v>5861</v>
+      </c>
+      <c r="AV41" s="6">
         <f t="shared" si="108"/>
-        <v>9169</v>
-      </c>
-      <c r="AU41" s="6">
-        <f t="shared" ref="AU41:BB41" si="109">+AU39+AU40</f>
-        <v>5861</v>
-      </c>
-      <c r="AV41" s="6">
-        <f t="shared" si="109"/>
         <v>6131</v>
       </c>
       <c r="AW41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>8133</v>
       </c>
       <c r="AX41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>13055</v>
       </c>
       <c r="AY41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>11503</v>
       </c>
       <c r="AZ41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>12513</v>
       </c>
       <c r="BA41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>10565</v>
       </c>
       <c r="BB41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>12702</v>
       </c>
       <c r="BC41" s="6">
@@ -7509,31 +7555,31 @@
         <v>8908</v>
       </c>
       <c r="BD41" s="6">
-        <f t="shared" ref="BD41:BJ41" si="110">+BD39+BD40</f>
+        <f t="shared" ref="BD41:BJ41" si="109">+BD39+BD40</f>
         <v>8186</v>
       </c>
       <c r="BE41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>5576</v>
       </c>
       <c r="BF41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>6149</v>
       </c>
       <c r="BG41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>10338.449999999999</v>
       </c>
       <c r="BH41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>11163</v>
       </c>
       <c r="BI41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>14020</v>
       </c>
       <c r="BJ41" s="6">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>16079.690000000002</v>
       </c>
       <c r="BK41" s="6">
@@ -7557,72 +7603,72 @@
         <v>18382</v>
       </c>
       <c r="BP41" s="6">
-        <f t="shared" ref="BP41:BR41" si="111">+BP39+BP40</f>
-        <v>0</v>
+        <f t="shared" ref="BP41:BR41" si="110">+BP39+BP40</f>
+        <v>19404.401600000005</v>
       </c>
       <c r="BQ41" s="6">
-        <f t="shared" si="111"/>
-        <v>0</v>
+        <f t="shared" si="110"/>
+        <v>21867.534400000004</v>
       </c>
       <c r="BR41" s="6">
-        <f t="shared" si="111"/>
-        <v>0</v>
+        <f t="shared" si="110"/>
+        <v>27693.696000000004</v>
       </c>
       <c r="BS41" s="6"/>
       <c r="BX41" s="3">
-        <f t="shared" ref="BX41" si="112">+BX39+BX40</f>
+        <f t="shared" ref="BX41" si="111">+BX39+BX40</f>
         <v>-124</v>
       </c>
       <c r="BY41" s="3">
-        <f t="shared" ref="BY41" si="113">+BY39+BY40</f>
+        <f t="shared" ref="BY41" si="112">+BY39+BY40</f>
         <v>-55</v>
       </c>
       <c r="BZ41" s="3">
-        <f t="shared" ref="BZ41" si="114">+BZ39+BZ40</f>
+        <f t="shared" ref="BZ41" si="113">+BZ39+BZ40</f>
         <v>262</v>
       </c>
       <c r="CA41" s="3">
-        <f>+CA39+CA40</f>
+        <f t="shared" ref="CA41:CK41" si="114">+CA39+CA40</f>
         <v>1008</v>
       </c>
       <c r="CB41" s="3">
-        <f>+CB39+CB40</f>
+        <f t="shared" si="114"/>
         <v>1695</v>
       </c>
       <c r="CC41" s="3">
-        <f>+CC39+CC40</f>
+        <f t="shared" si="114"/>
         <v>494</v>
       </c>
       <c r="CD41" s="3">
-        <f>+CD39+CD40</f>
+        <f t="shared" si="114"/>
         <v>2754</v>
       </c>
       <c r="CE41" s="3">
-        <f>+CE39+CE40</f>
+        <f t="shared" si="114"/>
         <v>4910</v>
       </c>
       <c r="CF41" s="3">
-        <f>+CF39+CF40</f>
+        <f t="shared" si="114"/>
         <v>6194</v>
       </c>
       <c r="CG41" s="3">
-        <f>+CG39+CG40</f>
+        <f t="shared" si="114"/>
         <v>12518</v>
       </c>
       <c r="CH41" s="3">
-        <f>+CH39+CH40</f>
+        <f t="shared" si="114"/>
         <v>20594</v>
       </c>
       <c r="CI41" s="3">
-        <f>+CI39+CI40</f>
+        <f t="shared" si="114"/>
         <v>25361</v>
       </c>
       <c r="CJ41" s="3">
-        <f>+CJ39+CJ40</f>
+        <f t="shared" si="114"/>
         <v>29812</v>
       </c>
       <c r="CK41" s="3">
-        <f>+CK39+CK40</f>
+        <f t="shared" si="114"/>
         <v>33180</v>
       </c>
       <c r="CL41" s="3">
@@ -7643,27 +7689,27 @@
       </c>
       <c r="CP41" s="3">
         <f t="shared" ref="CP41" si="119">+CP39+CP40</f>
-        <v>110080.73524011843</v>
+        <v>113947.99924011843</v>
       </c>
       <c r="CQ41" s="3">
         <f t="shared" ref="CQ41" si="120">+CQ39+CQ40</f>
-        <v>120832.14884805637</v>
+        <v>132478.03737765638</v>
       </c>
       <c r="CR41" s="3">
         <f t="shared" ref="CR41" si="121">+CR39+CR40</f>
-        <v>128886.58843416453</v>
+        <v>149344.96551764998</v>
       </c>
       <c r="CS41" s="3">
         <f t="shared" ref="CS41" si="122">+CS39+CS40</f>
-        <v>137066.0436974848</v>
+        <v>167402.00078819948</v>
       </c>
       <c r="CT41" s="3">
         <f t="shared" ref="CT41" si="123">+CT39+CT40</f>
-        <v>145391.27867139856</v>
+        <v>180977.45389220395</v>
       </c>
       <c r="CU41" s="3">
         <f t="shared" ref="CU41" si="124">+CU39+CU40</f>
-        <v>153882.06672369924</v>
+        <v>195140.16129062552</v>
       </c>
     </row>
     <row r="42" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7850,27 +7896,27 @@
       </c>
       <c r="CP42" s="3">
         <f t="shared" si="126"/>
-        <v>19814.532343221315</v>
+        <v>20510.639863221317</v>
       </c>
       <c r="CQ42" s="3">
         <f t="shared" si="126"/>
-        <v>21749.786792650146</v>
+        <v>23846.046727978148</v>
       </c>
       <c r="CR42" s="3">
         <f t="shared" si="126"/>
-        <v>23199.585918149613</v>
+        <v>26882.093793176995</v>
       </c>
       <c r="CS42" s="3">
         <f t="shared" si="126"/>
-        <v>24671.887865547262</v>
+        <v>30132.360141875906</v>
       </c>
       <c r="CT42" s="3">
         <f t="shared" si="126"/>
-        <v>26170.430160851738</v>
+        <v>32575.941700596712</v>
       </c>
       <c r="CU42" s="3">
         <f t="shared" si="126"/>
-        <v>27698.772010265864</v>
+        <v>35125.229032312593</v>
       </c>
     </row>
     <row r="43" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8031,15 +8077,15 @@
       </c>
       <c r="BP43" s="6">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>19404.401600000005</v>
       </c>
       <c r="BQ43" s="6">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>21867.534400000004</v>
       </c>
       <c r="BR43" s="6">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>27693.696000000004</v>
       </c>
       <c r="BS43" s="6"/>
       <c r="BX43" s="3">
@@ -8051,316 +8097,316 @@
         <v>-55</v>
       </c>
       <c r="BZ43" s="3">
-        <f>+BZ41-BZ42</f>
+        <f t="shared" ref="BZ43:CK43" si="137">+BZ41-BZ42</f>
         <v>262</v>
       </c>
       <c r="CA43" s="3">
-        <f>+CA41-CA42</f>
+        <f t="shared" si="137"/>
         <v>606</v>
       </c>
       <c r="CB43" s="3">
-        <f>+CB41-CB42</f>
+        <f t="shared" si="137"/>
         <v>1000</v>
       </c>
       <c r="CC43" s="3">
-        <f>+CC41-CC42</f>
+        <f t="shared" si="137"/>
         <v>53</v>
       </c>
       <c r="CD43" s="3">
-        <f>+CD41-CD42</f>
+        <f t="shared" si="137"/>
         <v>1500</v>
       </c>
       <c r="CE43" s="3">
-        <f>+CE41-CE42</f>
+        <f t="shared" si="137"/>
         <v>2940</v>
       </c>
       <c r="CF43" s="3">
-        <f>+CF41-CF42</f>
+        <f t="shared" si="137"/>
         <v>3688</v>
       </c>
       <c r="CG43" s="3">
-        <f>+CG41-CG42</f>
+        <f t="shared" si="137"/>
         <v>10217</v>
       </c>
       <c r="CH43" s="3">
-        <f>+CH41-CH42</f>
+        <f t="shared" si="137"/>
         <v>15934</v>
       </c>
       <c r="CI43" s="3">
-        <f>+CI41-CI42</f>
+        <f t="shared" si="137"/>
         <v>22111</v>
       </c>
       <c r="CJ43" s="3">
-        <f>+CJ41-CJ42</f>
+        <f t="shared" si="137"/>
         <v>23485</v>
       </c>
       <c r="CK43" s="3">
-        <f>+CK41-CK42</f>
+        <f t="shared" si="137"/>
         <v>29146</v>
       </c>
       <c r="CL43" s="3">
-        <f t="shared" ref="CL43" si="137">+CL41-CL42</f>
+        <f t="shared" ref="CL43" si="138">+CL41-CL42</f>
         <v>39370</v>
       </c>
       <c r="CM43" s="3">
-        <f t="shared" ref="CM43" si="138">+CM41-CM42</f>
+        <f t="shared" ref="CM43" si="139">+CM41-CM42</f>
         <v>39681.267800000009</v>
       </c>
       <c r="CN43" s="3">
-        <f t="shared" ref="CN43" si="139">+CN41-CN42</f>
+        <f t="shared" ref="CN43" si="140">+CN41-CN42</f>
         <v>54420.152800000011</v>
       </c>
       <c r="CO43" s="3">
-        <f t="shared" ref="CO43" si="140">+CO41-CO42</f>
+        <f t="shared" ref="CO43" si="141">+CO41-CO42</f>
         <v>76609.884205919996</v>
       </c>
       <c r="CP43" s="3">
-        <f t="shared" ref="CP43" si="141">+CP41-CP42</f>
-        <v>90266.202896897114</v>
+        <f t="shared" ref="CP43" si="142">+CP41-CP42</f>
+        <v>93437.359376897104</v>
       </c>
       <c r="CQ43" s="3">
-        <f t="shared" ref="CQ43" si="142">+CQ41-CQ42</f>
-        <v>99082.362055406222</v>
+        <f t="shared" ref="CQ43" si="143">+CQ41-CQ42</f>
+        <v>108631.99064967824</v>
       </c>
       <c r="CR43" s="3">
-        <f t="shared" ref="CR43" si="143">+CR41-CR42</f>
-        <v>105687.00251601491</v>
+        <f t="shared" ref="CR43" si="144">+CR41-CR42</f>
+        <v>122462.87172447299</v>
       </c>
       <c r="CS43" s="3">
-        <f t="shared" ref="CS43" si="144">+CS41-CS42</f>
-        <v>112394.15583193753</v>
+        <f t="shared" ref="CS43" si="145">+CS41-CS42</f>
+        <v>137269.64064632356</v>
       </c>
       <c r="CT43" s="3">
-        <f t="shared" ref="CT43" si="145">+CT41-CT42</f>
-        <v>119220.84851054681</v>
+        <f t="shared" ref="CT43" si="146">+CT41-CT42</f>
+        <v>148401.51219160724</v>
       </c>
       <c r="CU43" s="3">
-        <f t="shared" ref="CU43" si="146">+CU41-CU42</f>
-        <v>126183.29471343338</v>
+        <f t="shared" ref="CU43" si="147">+CU41-CU42</f>
+        <v>160014.93225831294</v>
       </c>
       <c r="CV43" s="3">
-        <f t="shared" ref="CV43:EA43" si="147">+CU43*(1+$CZ$57)</f>
-        <v>119874.12997776171</v>
+        <f t="shared" ref="CV43:EA43" si="148">+CU43*(1+$CZ$57)</f>
+        <v>160014.93225831294</v>
       </c>
       <c r="CW43" s="3">
-        <f t="shared" si="147"/>
-        <v>113880.42347887362</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="CX43" s="3">
-        <f t="shared" si="147"/>
-        <v>108186.40230492993</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="CY43" s="3">
-        <f t="shared" si="147"/>
-        <v>102777.08218968342</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="CZ43" s="3">
-        <f t="shared" si="147"/>
-        <v>97638.228080199246</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DA43" s="3">
-        <f t="shared" si="147"/>
-        <v>92756.316676189279</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DB43" s="3">
-        <f t="shared" si="147"/>
-        <v>88118.500842379814</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DC43" s="3">
-        <f t="shared" si="147"/>
-        <v>83712.57580026082</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DD43" s="3">
-        <f t="shared" si="147"/>
-        <v>79526.947010247779</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DE43" s="3">
-        <f t="shared" si="147"/>
-        <v>75550.599659735381</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DF43" s="3">
-        <f t="shared" si="147"/>
-        <v>71773.069676748608</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DG43" s="3">
-        <f t="shared" si="147"/>
-        <v>68184.416192911172</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DH43" s="3">
-        <f t="shared" si="147"/>
-        <v>64775.195383265607</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DI43" s="3">
-        <f t="shared" si="147"/>
-        <v>61536.435614102324</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DJ43" s="3">
-        <f t="shared" si="147"/>
-        <v>58459.613833397205</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DK43" s="3">
-        <f t="shared" si="147"/>
-        <v>55536.63314172734</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DL43" s="3">
-        <f t="shared" si="147"/>
-        <v>52759.801484640971</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DM43" s="3">
-        <f t="shared" si="147"/>
-        <v>50121.811410408918</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DN43" s="3">
-        <f t="shared" si="147"/>
-        <v>47615.720839888469</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DO43" s="3">
-        <f t="shared" si="147"/>
-        <v>45234.934797894042</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DP43" s="3">
-        <f t="shared" si="147"/>
-        <v>42973.188057999338</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DQ43" s="3">
-        <f t="shared" si="147"/>
-        <v>40824.52865509937</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DR43" s="3">
-        <f t="shared" si="147"/>
-        <v>38783.302222344399</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DS43" s="3">
-        <f t="shared" si="147"/>
-        <v>36844.137111227174</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DT43" s="3">
-        <f t="shared" si="147"/>
-        <v>35001.930255665815</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DU43" s="3">
-        <f t="shared" si="147"/>
-        <v>33251.833742882525</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DV43" s="3">
-        <f t="shared" si="147"/>
-        <v>31589.242055738396</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DW43" s="3">
-        <f t="shared" si="147"/>
-        <v>30009.779952951474</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DX43" s="3">
-        <f t="shared" si="147"/>
-        <v>28509.290955303899</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DY43" s="3">
-        <f t="shared" si="147"/>
-        <v>27083.826407538701</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="DZ43" s="3">
-        <f t="shared" si="147"/>
-        <v>25729.635087161765</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EA43" s="3">
-        <f t="shared" si="147"/>
-        <v>24443.153332803675</v>
+        <f t="shared" si="148"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EB43" s="3">
-        <f t="shared" ref="EB43:EY43" si="148">+EA43*(1+$CZ$57)</f>
-        <v>23220.99566616349</v>
+        <f t="shared" ref="EB43:EY43" si="149">+EA43*(1+$CZ$57)</f>
+        <v>160014.93225831294</v>
       </c>
       <c r="EC43" s="3">
-        <f t="shared" si="148"/>
-        <v>22059.945882855314</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="ED43" s="3">
-        <f t="shared" si="148"/>
-        <v>20956.948588712548</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EE43" s="3">
-        <f t="shared" si="148"/>
-        <v>19909.101159276921</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EF43" s="3">
-        <f t="shared" si="148"/>
-        <v>18913.646101313076</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EG43" s="3">
-        <f t="shared" si="148"/>
-        <v>17967.963796247423</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EH43" s="3">
-        <f t="shared" si="148"/>
-        <v>17069.565606435051</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EI43" s="3">
-        <f t="shared" si="148"/>
-        <v>16216.087326113298</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EJ43" s="3">
-        <f t="shared" si="148"/>
-        <v>15405.282959807633</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EK43" s="3">
-        <f t="shared" si="148"/>
-        <v>14635.01881181725</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EL43" s="3">
-        <f t="shared" si="148"/>
-        <v>13903.267871226386</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EM43" s="3">
-        <f t="shared" si="148"/>
-        <v>13208.104477665067</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EN43" s="3">
-        <f t="shared" si="148"/>
-        <v>12547.699253781813</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EO43" s="3">
-        <f t="shared" si="148"/>
-        <v>11920.314291092722</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EP43" s="3">
-        <f t="shared" si="148"/>
-        <v>11324.298576538085</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EQ43" s="3">
-        <f t="shared" si="148"/>
-        <v>10758.083647711181</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="ER43" s="3">
-        <f t="shared" si="148"/>
-        <v>10220.179465325622</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="ES43" s="3">
-        <f t="shared" si="148"/>
-        <v>9709.1704920593402</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="ET43" s="3">
-        <f t="shared" si="148"/>
-        <v>9223.7119674563728</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EU43" s="3">
-        <f t="shared" si="148"/>
-        <v>8762.5263690835545</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EV43" s="3">
-        <f t="shared" si="148"/>
-        <v>8324.400050629376</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EW43" s="3">
-        <f t="shared" si="148"/>
-        <v>7908.1800480979064</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EX43" s="3">
-        <f t="shared" si="148"/>
-        <v>7512.7710456930108</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
       <c r="EY43" s="3">
-        <f t="shared" si="148"/>
-        <v>7137.1324934083596</v>
+        <f t="shared" si="149"/>
+        <v>160014.93225831294</v>
       </c>
     </row>
     <row r="44" spans="2:155" x14ac:dyDescent="0.25">
@@ -8404,67 +8450,67 @@
       <c r="AK44" s="9"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9">
-        <f t="shared" ref="AM44:AN44" si="149">+AM43/AM45</f>
+        <f t="shared" ref="AM44:AN44" si="150">+AM43/AM45</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="AN44" s="9">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="AO44" s="9">
-        <f t="shared" ref="AO44:AQ44" si="150">+AO43/AO45</f>
+        <f t="shared" ref="AO44:AQ44" si="151">+AO43/AO45</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="AP44" s="9">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="AQ44" s="9">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="AR44" s="9">
-        <f t="shared" ref="AR44" si="151">+AR43/AR45</f>
+        <f t="shared" ref="AR44" si="152">+AR43/AR45</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="AS44" s="9">
-        <f t="shared" ref="AS44:AT44" si="152">+AS43/AS45</f>
+        <f t="shared" ref="AS44:AT44" si="153">+AS43/AS45</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="AT44" s="9">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>2.559735283873215</v>
       </c>
       <c r="AU44" s="9">
-        <f t="shared" ref="AU44:AV44" si="153">+AU43/AU45</f>
+        <f t="shared" ref="AU44:AV44" si="154">+AU43/AU45</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="AV44" s="9">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="AW44" s="9">
-        <f t="shared" ref="AW44:BB44" si="154">+AW43/AW45</f>
+        <f t="shared" ref="AW44:BB44" si="155">+AW43/AW45</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="AX44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>3.882006920415225</v>
       </c>
       <c r="AY44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="AZ44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="BA44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="BB44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="BC44" s="9">
@@ -8472,51 +8518,51 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="BD44" s="9">
-        <f t="shared" ref="BD44:BF44" si="155">+BD43/BD45</f>
+        <f t="shared" ref="BD44:BF44" si="156">+BD43/BD45</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="BE44" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="BF44" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1.7621212121212122</v>
       </c>
       <c r="BG44" s="9">
-        <f t="shared" ref="BG44:BO44" si="156">+BG43/BG45</f>
+        <f t="shared" ref="BG44:BO44" si="157">+BG43/BG45</f>
         <v>3.1720244318181812</v>
       </c>
       <c r="BH44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.6975497702909648</v>
       </c>
       <c r="BI44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>4.3858386974630825</v>
       </c>
       <c r="BJ44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>5.0527338403041835</v>
       </c>
       <c r="BK44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>4.7119999999999997</v>
       </c>
       <c r="BL44" s="9">
-        <f t="shared" ref="BL44" si="157">+BL43/BL45</f>
+        <f t="shared" ref="BL44" si="158">+BL43/BL45</f>
         <v>5.1590038314176248</v>
       </c>
       <c r="BM44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>6.0338461538461541</v>
       </c>
       <c r="BN44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>8.0176991150442483</v>
       </c>
       <c r="BO44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>6.4262548262548265</v>
       </c>
       <c r="BP44" s="9"/>
@@ -8525,88 +8571,88 @@
       <c r="BS44" s="9"/>
       <c r="BZ44" s="17"/>
       <c r="CA44" s="17">
-        <f>+CA43/CA45</f>
+        <f t="shared" ref="CA44:CK44" si="159">+CA43/CA45</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="CB44" s="17">
-        <f>+CB43/CB45</f>
+        <f t="shared" si="159"/>
         <v>0.66312997347480107</v>
       </c>
       <c r="CC44" s="17">
-        <f>+CC43/CC45</f>
+        <f t="shared" si="159"/>
         <v>2.4469067405355493E-2</v>
       </c>
       <c r="CD44" s="17">
-        <f>+CD43/CD45</f>
+        <f t="shared" si="159"/>
         <v>0.59594755661501786</v>
       </c>
       <c r="CE44" s="17">
-        <f>+CE43/CE45</f>
+        <f t="shared" si="159"/>
         <v>1.1036036036036037</v>
       </c>
       <c r="CF44" s="17">
-        <f>+CF43/CF45</f>
+        <f t="shared" si="159"/>
         <v>1.2926743778478795</v>
       </c>
       <c r="CG44" s="17">
-        <f>+CG43/CG45</f>
+        <f t="shared" si="159"/>
         <v>3.4929914529914532</v>
       </c>
       <c r="CH44" s="17">
-        <f>+CH43/CH45</f>
+        <f t="shared" si="159"/>
         <v>5.4850243863516397</v>
       </c>
       <c r="CI44" s="17">
-        <f>+CI43/CI45</f>
+        <f t="shared" si="159"/>
         <v>7.5696679219445393</v>
       </c>
       <c r="CJ44" s="17">
-        <f>+CJ43/CJ45</f>
+        <f t="shared" si="159"/>
         <v>8.1658553546592483</v>
       </c>
       <c r="CK44" s="17">
-        <f>+CK43/CK45</f>
+        <f t="shared" si="159"/>
         <v>10.092105263157896</v>
       </c>
       <c r="CL44" s="17">
-        <f t="shared" ref="CL44" si="158">+CL43/CL45</f>
+        <f t="shared" ref="CL44" si="160">+CL43/CL45</f>
         <v>13.770549143057012</v>
       </c>
       <c r="CM44" s="17">
-        <f t="shared" ref="CM44" si="159">+CM43/CM45</f>
+        <f t="shared" ref="CM44" si="161">+CM43/CM45</f>
         <v>14.721301354108704</v>
       </c>
       <c r="CN44" s="17">
-        <f t="shared" ref="CN44" si="160">+CN43/CN45</f>
+        <f t="shared" ref="CN44" si="162">+CN43/CN45</f>
         <v>20.189260916342057</v>
       </c>
       <c r="CO44" s="17">
-        <f t="shared" ref="CO44" si="161">+CO43/CO45</f>
-        <v>28.421400187690594</v>
+        <f t="shared" ref="CO44" si="163">+CO43/CO45</f>
+        <v>29.369324978309372</v>
       </c>
       <c r="CP44" s="17">
-        <f t="shared" ref="CP44" si="162">+CP43/CP45</f>
-        <v>33.487739898681916</v>
+        <f t="shared" ref="CP44" si="164">+CP43/CP45</f>
+        <v>35.820340953382058</v>
       </c>
       <c r="CQ44" s="17">
-        <f t="shared" ref="CQ44" si="163">+CQ43/CQ45</f>
-        <v>36.758435190282405</v>
+        <f t="shared" ref="CQ44" si="165">+CQ43/CQ45</f>
+        <v>41.645386486363137</v>
       </c>
       <c r="CR44" s="17">
-        <f t="shared" ref="CR44" si="164">+CR43/CR45</f>
-        <v>39.208682068638439</v>
+        <f t="shared" ref="CR44" si="166">+CR43/CR45</f>
+        <v>46.947621899357102</v>
       </c>
       <c r="CS44" s="17">
-        <f t="shared" ref="CS44" si="165">+CS43/CS45</f>
-        <v>41.696960056367104</v>
+        <f t="shared" ref="CS44" si="167">+CS43/CS45</f>
+        <v>52.62397571260248</v>
       </c>
       <c r="CT44" s="17">
-        <f t="shared" ref="CT44" si="166">+CT43/CT45</f>
-        <v>44.22958579504612</v>
+        <f t="shared" ref="CT44" si="168">+CT43/CT45</f>
+        <v>56.89151320360638</v>
       </c>
       <c r="CU44" s="17">
-        <f t="shared" ref="CU44" si="167">+CU43/CU45</f>
-        <v>46.812574555159848</v>
+        <f t="shared" ref="CU44" si="169">+CU43/CU45</f>
+        <v>61.343658140047133</v>
       </c>
     </row>
     <row r="45" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8792,36 +8838,36 @@
         <v>2695.5</v>
       </c>
       <c r="CN45" s="3">
-        <f t="shared" ref="CN45:CU45" si="168">+CM45</f>
+        <f t="shared" ref="CN45:CU45" si="170">+CM45</f>
         <v>2695.5</v>
       </c>
       <c r="CO45" s="3">
-        <f t="shared" si="168"/>
-        <v>2695.5</v>
+        <f>AVERAGE(BK45:BN45)</f>
+        <v>2608.5</v>
       </c>
       <c r="CP45" s="3">
-        <f t="shared" si="168"/>
-        <v>2695.5</v>
+        <f t="shared" si="170"/>
+        <v>2608.5</v>
       </c>
       <c r="CQ45" s="3">
-        <f t="shared" si="168"/>
-        <v>2695.5</v>
+        <f t="shared" si="170"/>
+        <v>2608.5</v>
       </c>
       <c r="CR45" s="3">
-        <f t="shared" si="168"/>
-        <v>2695.5</v>
+        <f t="shared" si="170"/>
+        <v>2608.5</v>
       </c>
       <c r="CS45" s="3">
-        <f t="shared" si="168"/>
-        <v>2695.5</v>
+        <f t="shared" si="170"/>
+        <v>2608.5</v>
       </c>
       <c r="CT45" s="3">
-        <f t="shared" si="168"/>
-        <v>2695.5</v>
+        <f t="shared" si="170"/>
+        <v>2608.5</v>
       </c>
       <c r="CU45" s="3">
-        <f t="shared" si="168"/>
-        <v>2695.5</v>
+        <f t="shared" si="170"/>
+        <v>2608.5</v>
       </c>
     </row>
     <row r="46" spans="2:155" x14ac:dyDescent="0.25">
@@ -8872,23 +8918,23 @@
       <c r="AO47" s="12"/>
       <c r="AP47" s="12"/>
       <c r="AQ47" s="11">
-        <f t="shared" ref="AQ47:AU47" si="169">+AQ32/AM32-1</f>
+        <f t="shared" ref="AQ47:AU47" si="171">+AQ32/AM32-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="AR47" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="AS47" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="AT47" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="AU47" s="11">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="AV47" s="11">
@@ -8912,11 +8958,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="BA47" s="11">
-        <f t="shared" ref="BA47:BB47" si="170">+BA32/AW32-1</f>
+        <f t="shared" ref="BA47:BB47" si="172">+BA32/AW32-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="BB47" s="11">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="BC47" s="11">
@@ -8932,7 +8978,7 @@
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="BF47" s="11">
-        <f t="shared" ref="BF47" si="171">+BF32/BB32-1</f>
+        <f t="shared" ref="BF47" si="173">+BF32/BB32-1</f>
         <v>-4.4726916337501144E-2</v>
       </c>
       <c r="BG47" s="11">
@@ -8940,31 +8986,31 @@
         <v>2.6408198366060009E-2</v>
       </c>
       <c r="BH47" s="11">
-        <f t="shared" ref="BH47" si="172">+BH32/BD32-1</f>
+        <f t="shared" ref="BH47" si="174">+BH32/BD32-1</f>
         <v>0.11022829782804799</v>
       </c>
       <c r="BI47" s="11">
-        <f t="shared" ref="BI47" si="173">+BI32/BE32-1</f>
+        <f t="shared" ref="BI47" si="175">+BI32/BE32-1</f>
         <v>0.23208486685429741</v>
       </c>
       <c r="BJ47" s="11">
-        <f t="shared" ref="BJ47" si="174">+BJ32/BF32-1</f>
+        <f t="shared" ref="BJ47" si="176">+BJ32/BF32-1</f>
         <v>0.24703870666873939</v>
       </c>
       <c r="BK47" s="11">
-        <f t="shared" ref="BK47:BR47" si="175">+BK32/BG32-1</f>
+        <f t="shared" ref="BK47:BR47" si="177">+BK32/BG32-1</f>
         <v>0.27264793157619138</v>
       </c>
       <c r="BL47" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.2210069064658271</v>
       </c>
       <c r="BM47" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.18868974404029748</v>
       </c>
       <c r="BN47" s="11">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>0.20627757971628724</v>
       </c>
       <c r="BO47" s="11">
@@ -8972,72 +9018,72 @@
         <v>0.16071869428062002</v>
       </c>
       <c r="BP47" s="11">
-        <f t="shared" si="175"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="177"/>
+        <v>0.12000000000000011</v>
       </c>
       <c r="BQ47" s="11">
-        <f t="shared" si="175"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="177"/>
+        <v>0.12000000000000011</v>
       </c>
       <c r="BR47" s="11">
-        <f t="shared" si="175"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="177"/>
+        <v>0.12000000000000011</v>
       </c>
       <c r="BS47" s="11"/>
       <c r="BV47" s="18">
-        <f t="shared" ref="BV47:CH47" si="176">+BV32/BU32-1</f>
+        <f t="shared" ref="BV47:CH47" si="178">+BV32/BU32-1</f>
         <v>22.560209424083769</v>
       </c>
       <c r="BW47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>4.333333333333333</v>
       </c>
       <c r="BX47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>2.1875</v>
       </c>
       <c r="BY47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="BZ47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1.8566176470588234</v>
       </c>
       <c r="CA47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1.5405405405405403</v>
       </c>
       <c r="CB47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.87993920972644379</v>
       </c>
       <c r="CC47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.37132848288870934</v>
       </c>
       <c r="CD47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.5468657889565729</v>
       </c>
       <c r="CE47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.58358739837398366</v>
       </c>
       <c r="CF47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.43815177282207607</v>
       </c>
       <c r="CG47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.54161088799643009</v>
       </c>
       <c r="CH47" s="18">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>0.47090961719371882</v>
       </c>
       <c r="CI47" s="18">
-        <f t="shared" ref="CI47" si="177">+CI32/CH32-1</f>
+        <f t="shared" ref="CI47" si="179">+CI32/CH32-1</f>
         <v>0.37352716896661997</v>
       </c>
       <c r="CJ47" s="18">
@@ -9057,36 +9103,36 @@
         <v>-1.1193175554782941E-2</v>
       </c>
       <c r="CN47" s="18">
-        <f t="shared" ref="CN47:CU47" si="178">+CN32/CM32-1</f>
+        <f t="shared" ref="CN47:CU47" si="180">+CN32/CM32-1</f>
         <v>0.15686610810486323</v>
       </c>
       <c r="CO47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0.21941275453851339</v>
       </c>
       <c r="CP47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
+        <v>0.12902370820668718</v>
+      </c>
+      <c r="CQ47" s="18">
+        <f t="shared" si="180"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="CQ47" s="18">
-        <f t="shared" si="178"/>
+      <c r="CR47" s="18">
+        <f t="shared" si="180"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="CS47" s="18">
+        <f t="shared" si="180"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="CT47" s="18">
+        <f t="shared" si="180"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="CR47" s="18">
-        <f t="shared" si="178"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="CS47" s="18">
-        <f t="shared" si="178"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="CT47" s="18">
-        <f t="shared" si="178"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
       <c r="CU47" s="18">
-        <f t="shared" si="178"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="180"/>
+        <v>5.0000000000000044E-2</v>
       </c>
     </row>
     <row r="48" spans="2:155" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
@@ -9146,15 +9192,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="AZ48" s="11">
-        <f t="shared" ref="AZ48:BB48" si="179">+AZ27/AV27-1</f>
+        <f t="shared" ref="AZ48:BB48" si="181">+AZ27/AV27-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="BA48" s="11">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="BB48" s="11">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="BC48" s="11">
@@ -9166,7 +9212,7 @@
         <v>-1</v>
       </c>
       <c r="BE48" s="11">
-        <f t="shared" ref="BE48" si="180">+BE27/BA27-1</f>
+        <f t="shared" ref="BE48" si="182">+BE27/BA27-1</f>
         <v>-1</v>
       </c>
       <c r="BF48" s="11"/>
@@ -9372,67 +9418,76 @@
       <c r="AZ51" s="10"/>
       <c r="BA51" s="10"/>
       <c r="BB51" s="10">
-        <f t="shared" ref="BB51" si="181">+BB30/AX30-1</f>
+        <f t="shared" ref="BB51" si="183">+BB30/AX30-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="BC51" s="10">
-        <f t="shared" ref="BC51:BK51" si="182">+BC30/AY30-1</f>
+        <f t="shared" ref="BC51:BK51" si="184">+BC30/AY30-1</f>
         <v>0.30149812734082393</v>
       </c>
       <c r="BD51" s="10">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.4819672131147541</v>
       </c>
       <c r="BE51" s="10">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>-0.489247311827957</v>
       </c>
       <c r="BF51" s="10">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>-0.17103762827822122</v>
       </c>
       <c r="BG51" s="10">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>-0.51223021582733819</v>
       </c>
       <c r="BH51" s="10">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>-0.38938053097345138</v>
       </c>
       <c r="BI51" s="10">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>-0.26315789473684215</v>
       </c>
       <c r="BJ51" s="10">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.47317744154057761</v>
       </c>
       <c r="BK51" s="10">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>0.29793510324483785</v>
       </c>
       <c r="BL51" s="10">
-        <f t="shared" ref="BL51" si="183">+BL30/BH30-1</f>
+        <f t="shared" ref="BL51" si="185">+BL30/BH30-1</f>
         <v>0.27898550724637672</v>
       </c>
       <c r="BM51" s="10">
-        <f t="shared" ref="BM51" si="184">+BM30/BI30-1</f>
+        <f t="shared" ref="BM51" si="186">+BM30/BI30-1</f>
         <v>0.28571428571428581</v>
       </c>
       <c r="BN51" s="10">
-        <f t="shared" ref="BN51" si="185">+BN30/BJ30-1</f>
+        <f t="shared" ref="BN51" si="187">+BN30/BJ30-1</f>
         <v>1.1204481792717047E-2</v>
       </c>
       <c r="BO51" s="10">
-        <f t="shared" ref="BO51" si="186">+BO30/BK30-1</f>
+        <f t="shared" ref="BO51" si="188">+BO30/BK30-1</f>
         <v>-6.3636363636363602E-2</v>
       </c>
-      <c r="BP51" s="10"/>
-      <c r="BQ51" s="10"/>
-      <c r="BR51" s="10"/>
+      <c r="BP51" s="10">
+        <f t="shared" ref="BP51" si="189">+BP30/BL30-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BQ51" s="10">
+        <f t="shared" ref="BQ51" si="190">+BQ30/BM30-1</f>
+        <v>-1</v>
+      </c>
+      <c r="BR51" s="10">
+        <f t="shared" ref="BR51" si="191">+BR30/BN30-1</f>
+        <v>-1</v>
+      </c>
       <c r="BS51" s="10"/>
       <c r="CK51" s="19">
-        <f t="shared" ref="CK51" si="187">CK30/CJ30-1</f>
+        <f t="shared" ref="CK51" si="192">CK30/CJ30-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="CL51" s="19">
@@ -9499,19 +9554,19 @@
       <c r="AY52" s="6"/>
       <c r="AZ52" s="6"/>
       <c r="BA52" s="10">
-        <f t="shared" ref="BA52:BD52" si="188">+BA38/AW38-1</f>
+        <f t="shared" ref="BA52:BD52" si="193">+BA38/AW38-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="BB52" s="10">
-        <f t="shared" si="188"/>
+        <f t="shared" si="193"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="BC52" s="10">
-        <f t="shared" si="188"/>
+        <f t="shared" si="193"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="BD52" s="10">
-        <f t="shared" si="188"/>
+        <f t="shared" si="193"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="BE52" s="10">
@@ -9519,23 +9574,23 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="BF52" s="10">
-        <f t="shared" ref="BF52:BJ52" si="189">+BF38/BB38-1</f>
+        <f t="shared" ref="BF52:BJ52" si="194">+BF38/BB38-1</f>
         <v>0.18265707694395439</v>
       </c>
       <c r="BG52" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BH52" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-3.1430068098480923E-2</v>
       </c>
       <c r="BI52" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-0.13138239255540585</v>
       </c>
       <c r="BJ52" s="10">
-        <f t="shared" si="189"/>
+        <f t="shared" si="194"/>
         <v>-8.0206540447504304E-2</v>
       </c>
       <c r="BK52" s="10">
@@ -9543,24 +9598,33 @@
         <v>0.32853310744035014</v>
       </c>
       <c r="BL52" s="10">
-        <f t="shared" ref="BL52:BO52" si="190">+BL38/BH38-1</f>
+        <f t="shared" ref="BL52:BO52" si="195">+BL38/BH38-1</f>
         <v>0.14359113034072468</v>
       </c>
       <c r="BM52" s="10">
-        <f t="shared" si="190"/>
+        <f t="shared" si="195"/>
         <v>0.11812799548914565</v>
       </c>
       <c r="BN52" s="10">
-        <f t="shared" si="190"/>
+        <f t="shared" si="195"/>
         <v>9.2939121756487886E-3</v>
       </c>
       <c r="BO52" s="10">
-        <f t="shared" si="190"/>
+        <f t="shared" si="195"/>
         <v>7.4388947927736426E-2</v>
       </c>
-      <c r="BP52" s="10"/>
-      <c r="BQ52" s="10"/>
-      <c r="BR52" s="10"/>
+      <c r="BP52" s="10">
+        <f t="shared" ref="BP52" si="196">+BP38/BL38-1</f>
+        <v>0</v>
+      </c>
+      <c r="BQ52" s="10">
+        <f t="shared" ref="BQ52" si="197">+BQ38/BM38-1</f>
+        <v>0</v>
+      </c>
+      <c r="BR52" s="10">
+        <f t="shared" ref="BR52" si="198">+BR38/BN38-1</f>
+        <v>6.8228168839997494E-2</v>
+      </c>
       <c r="BS52" s="10"/>
     </row>
     <row r="53" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9675,99 +9739,99 @@
       <c r="AK54" s="10"/>
       <c r="AL54" s="10"/>
       <c r="AM54" s="10">
-        <f t="shared" ref="AM54:BJ54" si="191">+AM34/AM32</f>
+        <f t="shared" ref="AM54:BJ54" si="199">+AM34/AM32</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="AN54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="AO54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="AP54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="AQ54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="AR54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="AS54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="AT54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="AU54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="AV54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="AW54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="AX54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="AY54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="AZ54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="BA54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="BB54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="BC54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="BD54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="BE54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="BF54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="BG54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="BH54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="BI54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="BJ54" s="10">
-        <f t="shared" si="191"/>
+        <f t="shared" si="199"/>
         <v>0.79</v>
       </c>
       <c r="BK54" s="10">
@@ -9775,76 +9839,85 @@
         <v>0.81785763269784661</v>
       </c>
       <c r="BL54" s="10">
-        <f t="shared" ref="BL54:BO54" si="192">+BL34/BL32</f>
+        <f t="shared" ref="BL54:BO54" si="200">+BL34/BL32</f>
         <v>0.81295590079598679</v>
       </c>
       <c r="BM54" s="10">
-        <f t="shared" si="192"/>
+        <f t="shared" si="200"/>
         <v>0.81830052477272164</v>
       </c>
       <c r="BN54" s="10">
-        <f t="shared" si="192"/>
+        <f t="shared" si="200"/>
         <v>0.81731941717474421</v>
       </c>
       <c r="BO54" s="10">
-        <f t="shared" si="192"/>
+        <f t="shared" si="200"/>
         <v>0.82105213404546962</v>
       </c>
-      <c r="BP54" s="10"/>
-      <c r="BQ54" s="10"/>
-      <c r="BR54" s="10"/>
+      <c r="BP54" s="10">
+        <f t="shared" ref="BP54:BR54" si="201">+BP34/BP32</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="BQ54" s="10">
+        <f t="shared" si="201"/>
+        <v>0.83</v>
+      </c>
+      <c r="BR54" s="10">
+        <f t="shared" si="201"/>
+        <v>0.83</v>
+      </c>
       <c r="BS54" s="10"/>
       <c r="CI54" s="19">
-        <f t="shared" ref="CI54:CU54" si="193">+CI34/CI32</f>
+        <f t="shared" ref="CI54:CU54" si="202">+CI34/CI32</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="CJ54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="CK54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="CL54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="CM54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.81</v>
       </c>
       <c r="CN54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.81</v>
       </c>
       <c r="CO54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.81</v>
       </c>
       <c r="CP54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.81</v>
       </c>
       <c r="CQ54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.81</v>
       </c>
       <c r="CR54" s="19">
-        <f t="shared" si="193"/>
-        <v>0.81000000000000016</v>
+        <f t="shared" si="202"/>
+        <v>0.81</v>
       </c>
       <c r="CS54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.81</v>
       </c>
       <c r="CT54" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="202"/>
         <v>0.81</v>
       </c>
       <c r="CU54" s="19">
-        <f t="shared" si="193"/>
-        <v>0.80999999999999994</v>
+        <f t="shared" si="202"/>
+        <v>0.81</v>
       </c>
     </row>
     <row r="55" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -9888,75 +9961,75 @@
       <c r="AK55" s="10"/>
       <c r="AL55" s="10"/>
       <c r="AM55" s="10">
-        <f t="shared" ref="AM55:AO55" si="194">+AM39/AM32</f>
+        <f t="shared" ref="AM55:AO55" si="203">+AM39/AM32</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="AN55" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="203"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="AO55" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="203"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="AP55" s="10">
-        <f t="shared" ref="AP55:AS55" si="195">+AP39/AP32</f>
+        <f t="shared" ref="AP55:AS55" si="204">+AP39/AP32</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="AQ55" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="AR55" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="AS55" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="204"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="AT55" s="10">
-        <f t="shared" ref="AT55:AV55" si="196">+AT39/AT32</f>
+        <f t="shared" ref="AT55:AV55" si="205">+AT39/AT32</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="AU55" s="10">
-        <f t="shared" si="196"/>
+        <f t="shared" si="205"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="AV55" s="10">
-        <f t="shared" si="196"/>
+        <f t="shared" si="205"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" ref="AW55:AZ55" si="197">+AW39/AW32</f>
+        <f t="shared" ref="AW55:AZ55" si="206">+AW39/AW32</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="AX55" s="10">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="AY55" s="10">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="AZ55" s="10">
-        <f t="shared" si="197"/>
+        <f t="shared" si="206"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="BA55" s="10">
-        <f t="shared" ref="BA55:BD55" si="198">+BA39/BA32</f>
+        <f t="shared" ref="BA55:BD55" si="207">+BA39/BA32</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="BB55" s="10">
-        <f t="shared" si="198"/>
+        <f t="shared" si="207"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="BC55" s="10">
-        <f t="shared" si="198"/>
+        <f t="shared" si="207"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="BD55" s="10">
-        <f t="shared" si="198"/>
+        <f t="shared" si="207"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="BE55" s="10">
@@ -9964,23 +10037,23 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="BF55" s="10">
-        <f t="shared" ref="BF55:BJ55" si="199">+BF39/BF32</f>
+        <f t="shared" ref="BF55:BJ55" si="208">+BF39/BF32</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="BG55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="208"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="BH55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="208"/>
         <v>0.35194849839057468</v>
       </c>
       <c r="BI55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="208"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="BJ55" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="208"/>
         <v>0.39030914213058771</v>
       </c>
       <c r="BK55" s="10">
@@ -9988,83 +10061,92 @@
         <v>0.37904265532848719</v>
       </c>
       <c r="BL55" s="10">
-        <f t="shared" ref="BL55:BO55" si="200">+BL39/BL32</f>
+        <f t="shared" ref="BL55:BO55" si="209">+BL39/BL32</f>
         <v>0.38000051188861306</v>
       </c>
       <c r="BM55" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="209"/>
         <v>0.4274557146024785</v>
       </c>
       <c r="BN55" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="209"/>
         <v>0.48289759222899659</v>
       </c>
       <c r="BO55" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="209"/>
         <v>0.41487450961856598</v>
       </c>
-      <c r="BP55" s="10"/>
-      <c r="BQ55" s="10"/>
-      <c r="BR55" s="10"/>
+      <c r="BP55" s="10">
+        <f t="shared" ref="BP55:BR55" si="210">+BP39/BP32</f>
+        <v>0.44343268847555922</v>
+      </c>
+      <c r="BQ55" s="10">
+        <f t="shared" si="210"/>
+        <v>0.48103141949085432</v>
+      </c>
+      <c r="BR55" s="10">
+        <f t="shared" si="210"/>
+        <v>0.51103677349828014</v>
+      </c>
       <c r="BS55" s="10"/>
       <c r="CI55" s="10">
-        <f t="shared" ref="CI55:CU55" si="201">+CI39/CI32</f>
+        <f t="shared" ref="CI55:CU55" si="211">+CI39/CI32</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="CJ55" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>0.41000325332050863</v>
       </c>
       <c r="CK55" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="CL55" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="CM55" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>0.4149918959943058</v>
       </c>
       <c r="CN55" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>0.48500203853196056</v>
       </c>
       <c r="CO55" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="211"/>
         <v>0.55562009118541034</v>
       </c>
       <c r="CP55" s="10">
-        <f t="shared" si="201"/>
-        <v>0.58867838905775083</v>
+        <f t="shared" si="211"/>
+        <v>0.59436788327220336</v>
       </c>
       <c r="CQ55" s="10">
-        <f t="shared" si="201"/>
-        <v>0.60773138620245015</v>
+        <f t="shared" si="211"/>
+        <v>0.6218887646524538</v>
       </c>
       <c r="CR55" s="10">
-        <f t="shared" si="201"/>
-        <v>0.62106201139335393</v>
+        <f t="shared" si="211"/>
+        <v>0.64242123163185649</v>
       </c>
       <c r="CS55" s="10">
-        <f t="shared" si="201"/>
-        <v>0.63306542437042934</v>
+        <f t="shared" si="211"/>
+        <v>0.66033305823161959</v>
       </c>
       <c r="CT55" s="10">
-        <f t="shared" si="201"/>
-        <v>0.64389878898945385</v>
+        <f t="shared" si="211"/>
+        <v>0.67217312788590167</v>
       </c>
       <c r="CU55" s="10">
-        <f t="shared" si="201"/>
-        <v>0.65369973430009876</v>
+        <f t="shared" si="211"/>
+        <v>0.68277608863847261</v>
       </c>
       <c r="CY55" t="s">
         <v>112</v>
       </c>
       <c r="CZ55" s="3">
         <f>NPV(CZ56,CN43:EY43)</f>
-        <v>1038855.7152797726</v>
+        <v>1679101.4412069775</v>
       </c>
     </row>
     <row r="56" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10108,99 +10190,99 @@
       <c r="AK56" s="10"/>
       <c r="AL56" s="10"/>
       <c r="AM56" s="10">
-        <f t="shared" ref="AM56:BF56" si="202">+AM42/AM41</f>
+        <f t="shared" ref="AM56:BF56" si="212">+AM42/AM41</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="AN56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="AO56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="AP56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="AQ56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="AR56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="AS56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="AT56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="AU56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="AV56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="AW56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="AX56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="AY56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="AZ56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="BA56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="BB56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="BC56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="BD56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="BE56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="BF56" s="10">
-        <f t="shared" si="202"/>
+        <f t="shared" si="212"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="BG56" s="10">
-        <f t="shared" ref="BG56:BJ56" si="203">+BG42/BG41</f>
+        <f t="shared" ref="BG56:BJ56" si="213">+BG42/BG41</f>
         <v>0.19</v>
       </c>
       <c r="BH56" s="10">
-        <f t="shared" si="203"/>
+        <f t="shared" si="213"/>
         <v>0.13482038878437697</v>
       </c>
       <c r="BI56" s="10">
-        <f t="shared" si="203"/>
+        <f t="shared" si="213"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="BJ56" s="10">
-        <f t="shared" si="203"/>
+        <f t="shared" si="213"/>
         <v>0.17357299798690146</v>
       </c>
       <c r="BK56" s="10">
@@ -10208,75 +10290,84 @@
         <v>0.12789959811041388</v>
       </c>
       <c r="BL56" s="10">
-        <f t="shared" ref="BL56:BO56" si="204">+BL42/BL41</f>
+        <f t="shared" ref="BL56:BO56" si="214">+BL42/BL41</f>
         <v>0.10863233152389778</v>
       </c>
       <c r="BM56" s="10">
-        <f t="shared" si="204"/>
+        <f t="shared" si="214"/>
         <v>0.11973964762652901</v>
       </c>
       <c r="BN56" s="10">
-        <f t="shared" si="204"/>
+        <f t="shared" si="214"/>
         <v>0.11527193988027003</v>
       </c>
       <c r="BO56" s="10">
-        <f t="shared" si="204"/>
+        <f t="shared" si="214"/>
         <v>9.4549015341094556E-2</v>
       </c>
-      <c r="BP56" s="10"/>
-      <c r="BQ56" s="10"/>
-      <c r="BR56" s="10"/>
+      <c r="BP56" s="10">
+        <f t="shared" ref="BP56:BR56" si="215">+BP42/BP41</f>
+        <v>0</v>
+      </c>
+      <c r="BQ56" s="10">
+        <f t="shared" si="215"/>
+        <v>0</v>
+      </c>
+      <c r="BR56" s="10">
+        <f t="shared" si="215"/>
+        <v>0</v>
+      </c>
       <c r="BS56" s="10"/>
       <c r="CI56" s="19">
-        <f t="shared" ref="CI56:CU56" si="205">+CI42/CI41</f>
+        <f t="shared" ref="CI56:CU56" si="216">+CI42/CI41</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="CJ56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="CK56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="CL56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="CM56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.18</v>
       </c>
       <c r="CN56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.18</v>
       </c>
       <c r="CO56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.18</v>
       </c>
       <c r="CP56" s="19">
-        <f t="shared" si="205"/>
-        <v>0.17999999999999997</v>
+        <f t="shared" si="216"/>
+        <v>0.18</v>
       </c>
       <c r="CQ56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.18</v>
       </c>
       <c r="CR56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.18</v>
       </c>
       <c r="CS56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.18</v>
       </c>
       <c r="CT56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.18</v>
       </c>
       <c r="CU56" s="19">
-        <f t="shared" si="205"/>
+        <f t="shared" si="216"/>
         <v>0.18</v>
       </c>
       <c r="CY56" s="3" t="s">
@@ -10292,7 +10383,7 @@
         <v>114</v>
       </c>
       <c r="CZ57" s="19">
-        <v>-0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:104" x14ac:dyDescent="0.25">
@@ -10300,63 +10391,63 @@
         <v>195</v>
       </c>
       <c r="BA58" s="6">
-        <f t="shared" ref="BA58:BC58" si="206">+BA59-BA73</f>
+        <f t="shared" ref="BA58:BC58" si="217">+BA59-BA73</f>
         <v>64833</v>
       </c>
       <c r="BB58" s="6">
-        <f t="shared" si="206"/>
+        <f t="shared" si="217"/>
         <v>54773</v>
       </c>
       <c r="BC58" s="6">
-        <f t="shared" si="206"/>
+        <f t="shared" si="217"/>
         <v>50665</v>
       </c>
       <c r="BD58" s="6">
-        <f t="shared" ref="BD58:BG58" si="207">+BD59-BD73</f>
+        <f t="shared" ref="BD58:BG58" si="218">+BD59-BD73</f>
         <v>47025</v>
       </c>
       <c r="BE58" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="218"/>
         <v>38382</v>
       </c>
       <c r="BF58" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="218"/>
         <v>37016</v>
       </c>
       <c r="BG58" s="6">
-        <f t="shared" si="207"/>
+        <f t="shared" si="218"/>
         <v>33681</v>
       </c>
       <c r="BH58" s="6">
-        <f t="shared" ref="BH58:BO58" si="208">+BH59-BH73</f>
+        <f t="shared" ref="BH58:BO58" si="219">+BH59-BH73</f>
         <v>41272</v>
       </c>
       <c r="BI58" s="6">
-        <f t="shared" si="208"/>
+        <f t="shared" si="219"/>
         <v>48882</v>
       </c>
       <c r="BJ58" s="6">
-        <f t="shared" si="208"/>
+        <f t="shared" si="219"/>
         <v>53159</v>
       </c>
       <c r="BK58" s="6">
-        <f t="shared" si="208"/>
+        <f t="shared" si="219"/>
         <v>45951</v>
       </c>
       <c r="BL58" s="6">
-        <f t="shared" si="208"/>
+        <f t="shared" si="219"/>
         <v>45898</v>
       </c>
       <c r="BM58" s="6">
-        <f t="shared" si="208"/>
+        <f t="shared" si="219"/>
         <v>48148</v>
       </c>
       <c r="BN58" s="6">
-        <f t="shared" si="208"/>
+        <f t="shared" si="219"/>
         <v>55059</v>
       </c>
       <c r="BO58" s="6">
-        <f t="shared" si="208"/>
+        <f t="shared" si="219"/>
         <v>47569</v>
       </c>
       <c r="BP58" s="6"/>
@@ -10506,43 +10597,43 @@
         <v>46939</v>
       </c>
       <c r="CN59" s="3">
-        <f t="shared" ref="CN59:CU59" si="209">+CM59+CN43</f>
+        <f t="shared" ref="CN59:CU59" si="220">+CM59+CN43</f>
         <v>101359.15280000001</v>
       </c>
       <c r="CO59" s="3">
-        <f t="shared" si="209"/>
+        <f t="shared" si="220"/>
         <v>177969.03700592002</v>
       </c>
       <c r="CP59" s="3">
-        <f t="shared" si="209"/>
-        <v>268235.23990281712</v>
+        <f t="shared" si="220"/>
+        <v>271406.39638281713</v>
       </c>
       <c r="CQ59" s="3">
-        <f t="shared" si="209"/>
-        <v>367317.60195822333</v>
+        <f t="shared" si="220"/>
+        <v>380038.38703249535</v>
       </c>
       <c r="CR59" s="3">
-        <f t="shared" si="209"/>
-        <v>473004.60447423824</v>
+        <f t="shared" si="220"/>
+        <v>502501.25875696831</v>
       </c>
       <c r="CS59" s="3">
-        <f t="shared" si="209"/>
-        <v>585398.7603061758</v>
+        <f t="shared" si="220"/>
+        <v>639770.89940329187</v>
       </c>
       <c r="CT59" s="3">
-        <f t="shared" si="209"/>
-        <v>704619.60881672264</v>
+        <f t="shared" si="220"/>
+        <v>788172.41159489914</v>
       </c>
       <c r="CU59" s="3">
-        <f t="shared" si="209"/>
-        <v>830802.90353015601</v>
+        <f t="shared" si="220"/>
+        <v>948187.34385321208</v>
       </c>
       <c r="CY59" s="3" t="s">
         <v>115</v>
       </c>
       <c r="CZ59" s="17">
         <f>CZ55/Main!M3</f>
-        <v>411.51161217299699</v>
+        <v>648.30171475172881</v>
       </c>
     </row>
     <row r="60" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10655,7 +10746,7 @@
       </c>
       <c r="CZ60" s="19">
         <f>CZ59/Main!M2-1</f>
-        <v>-0.27166086341062479</v>
+        <v>-0.10207518732447529</v>
       </c>
     </row>
     <row r="61" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11253,23 +11344,23 @@
       <c r="AV66" s="6"/>
       <c r="AW66" s="6"/>
       <c r="AX66" s="6">
-        <f t="shared" ref="AX66:AY66" si="210">SUM(AX59:AX65)</f>
+        <f t="shared" ref="AX66:AY66" si="221">SUM(AX59:AX65)</f>
         <v>159316</v>
       </c>
       <c r="AY66" s="6">
-        <f t="shared" si="210"/>
+        <f t="shared" si="221"/>
         <v>163523</v>
       </c>
       <c r="AZ66" s="6">
-        <f t="shared" ref="AZ66:BA66" si="211">SUM(AZ59:AZ65)</f>
+        <f t="shared" ref="AZ66:BA66" si="222">SUM(AZ59:AZ65)</f>
         <v>170609</v>
       </c>
       <c r="BA66" s="6">
-        <f t="shared" si="211"/>
+        <f t="shared" si="222"/>
         <v>169585</v>
       </c>
       <c r="BB66" s="6">
-        <f t="shared" ref="BB66" si="212">SUM(BB59:BB65)</f>
+        <f t="shared" ref="BB66" si="223">SUM(BB59:BB65)</f>
         <v>165987</v>
       </c>
       <c r="BC66" s="6">
@@ -11285,43 +11376,43 @@
         <v>178894</v>
       </c>
       <c r="BF66" s="6">
-        <f t="shared" ref="BF66:BO66" si="213">SUM(BF59:BF65)</f>
+        <f t="shared" ref="BF66:BO66" si="224">SUM(BF59:BF65)</f>
         <v>185727</v>
       </c>
       <c r="BG66" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="224"/>
         <v>184491</v>
       </c>
       <c r="BH66" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="224"/>
         <v>206688</v>
       </c>
       <c r="BI66" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="224"/>
         <v>216274</v>
       </c>
       <c r="BJ66" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="224"/>
         <v>229623</v>
       </c>
       <c r="BK66" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="224"/>
         <v>222844</v>
       </c>
       <c r="BL66" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="224"/>
         <v>230238</v>
       </c>
       <c r="BM66" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="224"/>
         <v>256408</v>
       </c>
       <c r="BN66" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="224"/>
         <v>276054</v>
       </c>
       <c r="BO66" s="6">
-        <f t="shared" si="213"/>
+        <f t="shared" si="224"/>
         <v>280213</v>
       </c>
     </row>
@@ -11928,35 +12019,35 @@
         <v>61</v>
       </c>
       <c r="AX78" s="6">
-        <f t="shared" ref="AX78:AY78" si="214">SUM(AX68:AX77)</f>
+        <f t="shared" ref="AX78:AY78" si="225">SUM(AX68:AX77)</f>
         <v>159316</v>
       </c>
       <c r="AY78" s="6">
-        <f t="shared" si="214"/>
+        <f t="shared" si="225"/>
         <v>163523</v>
       </c>
       <c r="AZ78" s="6">
-        <f t="shared" ref="AZ78:BA78" si="215">SUM(AZ68:AZ77)</f>
+        <f t="shared" ref="AZ78:BA78" si="226">SUM(AZ68:AZ77)</f>
         <v>170609</v>
       </c>
       <c r="BA78" s="6">
-        <f t="shared" si="215"/>
+        <f t="shared" si="226"/>
         <v>169585</v>
       </c>
       <c r="BB78" s="6">
-        <f t="shared" ref="BB78:BE78" si="216">SUM(BB68:BB77)</f>
+        <f t="shared" ref="BB78:BE78" si="227">SUM(BB68:BB77)</f>
         <v>165987</v>
       </c>
       <c r="BC78" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="227"/>
         <v>164218</v>
       </c>
       <c r="BD78" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="227"/>
         <v>169779</v>
       </c>
       <c r="BE78" s="6">
-        <f t="shared" si="216"/>
+        <f t="shared" si="227"/>
         <v>178894</v>
       </c>
       <c r="BF78" s="6">
@@ -11980,23 +12071,23 @@
         <v>229623</v>
       </c>
       <c r="BK78" s="6">
-        <f t="shared" ref="BK78:BO78" si="217">SUM(BK68:BK77)</f>
+        <f t="shared" ref="BK78:BO78" si="228">SUM(BK68:BK77)</f>
         <v>222844</v>
       </c>
       <c r="BL78" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="228"/>
         <v>230238</v>
       </c>
       <c r="BM78" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="228"/>
         <v>256408</v>
       </c>
       <c r="BN78" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="228"/>
         <v>276054</v>
       </c>
       <c r="BO78" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="228"/>
         <v>280213</v>
       </c>
     </row>
@@ -12008,31 +12099,31 @@
         <v>66</v>
       </c>
       <c r="AY80" s="6">
-        <f t="shared" ref="AY80:BJ80" si="218">AY43</f>
+        <f t="shared" ref="AY80:BJ80" si="229">AY43</f>
         <v>9497</v>
       </c>
       <c r="AZ80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>10394</v>
       </c>
       <c r="BA80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>9194</v>
       </c>
       <c r="BB80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>10285</v>
       </c>
       <c r="BC80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>7465</v>
       </c>
       <c r="BD80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>6687</v>
       </c>
       <c r="BE80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>4395</v>
       </c>
       <c r="BF80" s="6">
@@ -12040,39 +12131,39 @@
         <v>4652</v>
       </c>
       <c r="BG80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>8374.1444999999985</v>
       </c>
       <c r="BH80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>9658</v>
       </c>
       <c r="BI80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>11583</v>
       </c>
       <c r="BJ80" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="229"/>
         <v>13288.690000000002</v>
       </c>
       <c r="BK80" s="6">
-        <f t="shared" ref="BK80:BO80" si="219">BK43</f>
+        <f t="shared" ref="BK80:BO80" si="230">BK43</f>
         <v>12369</v>
       </c>
       <c r="BL80" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="230"/>
         <v>13465</v>
       </c>
       <c r="BM80" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="230"/>
         <v>15688</v>
       </c>
       <c r="BN80" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="230"/>
         <v>20838</v>
       </c>
       <c r="BO80" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="230"/>
         <v>16644</v>
       </c>
     </row>
@@ -12486,71 +12577,71 @@
         <v>68</v>
       </c>
       <c r="AY87" s="6">
-        <f t="shared" ref="AY87:BH87" si="220">SUM(AY81:AY86)</f>
+        <f t="shared" ref="AY87:BH87" si="231">SUM(AY81:AY86)</f>
         <v>12242</v>
       </c>
       <c r="AZ87" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="231"/>
         <v>13247</v>
       </c>
       <c r="BA87" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="231"/>
         <v>14090</v>
       </c>
       <c r="BB87" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="231"/>
         <v>18104</v>
       </c>
       <c r="BC87" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="231"/>
         <v>14076</v>
       </c>
       <c r="BD87" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="231"/>
         <v>12197</v>
       </c>
       <c r="BE87" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="231"/>
         <v>9691</v>
       </c>
       <c r="BF87" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="231"/>
         <v>14511</v>
       </c>
       <c r="BG87" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="231"/>
         <v>13998</v>
       </c>
       <c r="BH87" s="6">
-        <f t="shared" si="220"/>
+        <f t="shared" si="231"/>
         <v>17309</v>
       </c>
       <c r="BI87" s="6">
-        <f t="shared" ref="BI87:BO87" si="221">SUM(BI81:BI86)</f>
+        <f t="shared" ref="BI87:BO87" si="232">SUM(BI81:BI86)</f>
         <v>20402</v>
       </c>
       <c r="BJ87" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="232"/>
         <v>19404</v>
       </c>
       <c r="BK87" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="232"/>
         <v>19246</v>
       </c>
       <c r="BL87" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="232"/>
         <v>19370</v>
       </c>
       <c r="BM87" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="232"/>
         <v>24724</v>
       </c>
       <c r="BN87" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="232"/>
         <v>27988</v>
       </c>
       <c r="BO87" s="3">
-        <f t="shared" si="221"/>
+        <f t="shared" si="232"/>
         <v>24026</v>
       </c>
       <c r="CA87" s="3">
@@ -12972,51 +13063,51 @@
       <c r="AW92" s="6"/>
       <c r="AX92" s="6"/>
       <c r="AY92" s="6">
-        <f t="shared" ref="AY92:BJ92" si="222">SUM(AY89:AY91)</f>
+        <f t="shared" ref="AY92:BJ92" si="233">SUM(AY89:AY91)</f>
         <v>-4874</v>
       </c>
       <c r="AZ92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-8195</v>
       </c>
       <c r="BA92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-330</v>
       </c>
       <c r="BB92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>5829</v>
       </c>
       <c r="BC92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-4779</v>
       </c>
       <c r="BD92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-6959</v>
       </c>
       <c r="BE92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-9701</v>
       </c>
       <c r="BF92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-7531</v>
       </c>
       <c r="BG92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-6743</v>
       </c>
       <c r="BH92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-5203</v>
       </c>
       <c r="BI92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-6077</v>
       </c>
       <c r="BJ92" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="233"/>
         <v>-6472</v>
       </c>
       <c r="BK92" s="3">
@@ -13690,71 +13781,71 @@
       <c r="AW99" s="6"/>
       <c r="AX99" s="6"/>
       <c r="AY99" s="6">
-        <f t="shared" ref="AY99:BA99" si="223">SUM(AY94:AY98)</f>
+        <f t="shared" ref="AY99:BA99" si="234">SUM(AY94:AY98)</f>
         <v>-5185</v>
       </c>
       <c r="AZ99" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="234"/>
         <v>-8549</v>
       </c>
       <c r="BA99" s="6">
-        <f t="shared" si="223"/>
+        <f t="shared" si="234"/>
         <v>-15252</v>
       </c>
       <c r="BB99" s="6">
-        <f t="shared" ref="BB99" si="224">SUM(BB94:BB98)</f>
+        <f t="shared" ref="BB99" si="235">SUM(BB94:BB98)</f>
         <v>-21742</v>
       </c>
       <c r="BC99" s="6">
-        <f t="shared" ref="BC99:BO99" si="225">SUM(BC94:BC98)</f>
+        <f t="shared" ref="BC99:BO99" si="236">SUM(BC94:BC98)</f>
         <v>-10660</v>
       </c>
       <c r="BD99" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-6563</v>
       </c>
       <c r="BE99" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>2147</v>
       </c>
       <c r="BF99" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-7060</v>
       </c>
       <c r="BG99" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-10516</v>
       </c>
       <c r="BH99" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>5292</v>
       </c>
       <c r="BI99" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-5875</v>
       </c>
       <c r="BJ99" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-8401</v>
       </c>
       <c r="BK99" s="3">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-19767</v>
       </c>
       <c r="BL99" s="3">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-11178</v>
       </c>
       <c r="BM99" s="3">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-4371</v>
       </c>
       <c r="BN99" s="3">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-5465</v>
       </c>
       <c r="BO99" s="3">
-        <f t="shared" si="225"/>
+        <f t="shared" si="236"/>
         <v>-19495</v>
       </c>
     </row>
@@ -13829,31 +13920,31 @@
         <v>81</v>
       </c>
       <c r="AY101" s="6">
-        <f t="shared" ref="AY101:BJ101" si="226">+AY100+AY99+AY92+AY87</f>
+        <f t="shared" ref="AY101:BJ101" si="237">+AY100+AY99+AY92+AY87</f>
         <v>1937</v>
       </c>
       <c r="AZ101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>-3380</v>
       </c>
       <c r="BA101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>-1707</v>
       </c>
       <c r="BB101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>2061</v>
       </c>
       <c r="BC101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>-1512</v>
       </c>
       <c r="BD101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>-1875</v>
       </c>
       <c r="BE101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>1773</v>
       </c>
       <c r="BF101" s="6">
@@ -13861,19 +13952,19 @@
         <v>345</v>
       </c>
       <c r="BG101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>-3176</v>
       </c>
       <c r="BH101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>17384</v>
       </c>
       <c r="BI101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>8096</v>
       </c>
       <c r="BJ101" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="237"/>
         <v>4927</v>
       </c>
       <c r="BK101" s="3">
@@ -14007,55 +14098,55 @@
         <v>199</v>
       </c>
       <c r="BC104" s="6">
-        <f t="shared" ref="BC104:BO104" si="227">+BC103-BB103</f>
+        <f t="shared" ref="BC104:BO104" si="238">+BC103-BB103</f>
         <v>5835</v>
       </c>
       <c r="BD104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>5748</v>
       </c>
       <c r="BE104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>3761</v>
       </c>
       <c r="BF104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>-1314</v>
       </c>
       <c r="BG104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>-8886</v>
       </c>
       <c r="BH104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>-5645</v>
       </c>
       <c r="BI104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>-5284</v>
       </c>
       <c r="BJ104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>1132</v>
       </c>
       <c r="BK104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>2012</v>
       </c>
       <c r="BL104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>1470</v>
       </c>
       <c r="BM104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>1605</v>
       </c>
       <c r="BN104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>1663</v>
       </c>
       <c r="BO104" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="238"/>
         <v>2767</v>
       </c>
     </row>
@@ -14072,51 +14163,51 @@
         <v>7970</v>
       </c>
       <c r="AZ106" s="6">
-        <f t="shared" ref="AZ106:BC106" si="228">+AZ87+AZ89</f>
+        <f t="shared" ref="AZ106:BC106" si="239">+AZ87+AZ89</f>
         <v>8635</v>
       </c>
       <c r="BA106" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>9776</v>
       </c>
       <c r="BB106" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>12734</v>
       </c>
       <c r="BC106" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="239"/>
         <v>8761</v>
       </c>
       <c r="BD106" s="6">
-        <f t="shared" ref="BD106:BJ106" si="229">+BD87+BD89</f>
+        <f t="shared" ref="BD106:BJ106" si="240">+BD87+BD89</f>
         <v>4669</v>
       </c>
       <c r="BE106" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>336</v>
       </c>
       <c r="BF106" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>5523</v>
       </c>
       <c r="BG106" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>7175</v>
       </c>
       <c r="BH106" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>11175</v>
       </c>
       <c r="BI106" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>13906</v>
       </c>
       <c r="BJ106" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="240"/>
         <v>11812</v>
       </c>
       <c r="BK106" s="3">
-        <f t="shared" ref="BK106" si="230">+BK87+BK89</f>
+        <f t="shared" ref="BK106" si="241">+BK87+BK89</f>
         <v>12846</v>
       </c>
       <c r="BL106" s="3">
@@ -14141,11 +14232,11 @@
         <v>127</v>
       </c>
       <c r="BB107" s="6">
-        <f t="shared" ref="BB107:BC107" si="231">SUM(AY106:BB106)</f>
+        <f t="shared" ref="BB107:BC107" si="242">SUM(AY106:BB106)</f>
         <v>39115</v>
       </c>
       <c r="BC107" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="242"/>
         <v>39906</v>
       </c>
       <c r="BD107" s="6">
@@ -14161,31 +14252,31 @@
         <v>19289</v>
       </c>
       <c r="BG107" s="6">
-        <f t="shared" ref="BG107:BK107" si="232">SUM(BD106:BG106)</f>
+        <f t="shared" ref="BG107:BK107" si="243">SUM(BD106:BG106)</f>
         <v>17703</v>
       </c>
       <c r="BH107" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="243"/>
         <v>24209</v>
       </c>
       <c r="BI107" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="243"/>
         <v>37779</v>
       </c>
       <c r="BJ107" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="243"/>
         <v>44068</v>
       </c>
       <c r="BK107" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="243"/>
         <v>49739</v>
       </c>
       <c r="BL107" s="3">
-        <f t="shared" ref="BL107:BM107" si="233">SUM(BI106:BL106)</f>
+        <f t="shared" ref="BL107:BM107" si="244">SUM(BI106:BL106)</f>
         <v>49761</v>
       </c>
       <c r="BM107" s="3">
-        <f t="shared" si="233"/>
+        <f t="shared" si="244"/>
         <v>52321</v>
       </c>
       <c r="BN107" s="3">
@@ -14236,64 +14327,67 @@
       <c r="BO109" s="19"/>
     </row>
     <row r="110" spans="2:70" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>257</v>
+      </c>
       <c r="AY110" s="3">
-        <f t="shared" ref="AY110:BM110" si="234">SUM(AV32:AY32)</f>
+        <f>SUM(AV32:AY32)</f>
         <v>94400</v>
       </c>
       <c r="AZ110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" ref="AY110:BM110" si="245">SUM(AW32:AZ32)</f>
         <v>104790</v>
       </c>
       <c r="BA110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>112330</v>
       </c>
       <c r="BB110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>117929</v>
       </c>
       <c r="BC110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>119666</v>
       </c>
       <c r="BD110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>119411</v>
       </c>
       <c r="BE110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>118115</v>
       </c>
       <c r="BF110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>116609</v>
       </c>
       <c r="BG110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>117346</v>
       </c>
       <c r="BH110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>120523</v>
       </c>
       <c r="BI110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>126955</v>
       </c>
       <c r="BJ110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>134901</v>
       </c>
       <c r="BK110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>142711</v>
       </c>
       <c r="BL110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>149783</v>
       </c>
       <c r="BM110" s="3">
-        <f t="shared" si="234"/>
+        <f t="shared" si="245"/>
         <v>156226</v>
       </c>
       <c r="BN110" s="3">
@@ -14306,15 +14400,15 @@
       </c>
       <c r="BP110" s="3">
         <f>SUM(BM32:BP32)</f>
-        <v>174266.1</v>
+        <v>175047.52000000002</v>
       </c>
       <c r="BQ110" s="3">
         <f>SUM(BN32:BQ32)</f>
-        <v>178325</v>
+        <v>179918.2</v>
       </c>
       <c r="BR110" s="3">
         <f>SUM(BO32:BR32)</f>
-        <v>183163.5</v>
+        <v>185724.40000000002</v>
       </c>
     </row>
     <row r="111" spans="2:70" x14ac:dyDescent="0.25">

--- a/META.xlsx
+++ b/META.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F9648F-F61E-429E-8E3F-79009C8C6ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07D81F-C81E-4BAF-8C5D-FDB038479B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42150" yWindow="2920" windowWidth="22230" windowHeight="14240" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
+    <workbookView xWindow="49390" yWindow="4640" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{DF105585-55F7-489F-BFB3-1F48B85ABA8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1054,16 +1054,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>37289</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>81251</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1867</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>37289</xdr:colOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>81251</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>1868</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1078,8 +1078,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20322255" y="1867"/>
-          <a:ext cx="0" cy="20538967"/>
+          <a:off x="43139136" y="0"/>
+          <a:ext cx="0" cy="21140616"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1692,10 +1692,10 @@
   <dimension ref="A1:EY118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CJ23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CC25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CQ29" sqref="CQ29"/>
+      <selection pane="bottomRight" activeCell="CT38" sqref="CT38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4567,6 +4567,9 @@
       <c r="BO29" s="3">
         <v>510</v>
       </c>
+      <c r="BP29" s="3">
+        <v>583</v>
+      </c>
       <c r="CI29" s="3">
         <v>825</v>
       </c>
@@ -4697,6 +4700,9 @@
       <c r="BO30" s="3">
         <v>412</v>
       </c>
+      <c r="BP30" s="3">
+        <v>370</v>
+      </c>
       <c r="CJ30" s="3">
         <v>501</v>
       </c>
@@ -4892,7 +4898,9 @@
       <c r="BO31" s="6">
         <v>41392</v>
       </c>
-      <c r="BP31" s="6"/>
+      <c r="BP31" s="6">
+        <v>46563</v>
+      </c>
       <c r="BQ31" s="6"/>
       <c r="BR31" s="6"/>
       <c r="BS31" s="6"/>
@@ -5223,12 +5231,10 @@
         <v>42314</v>
       </c>
       <c r="BP32" s="8">
-        <f>+BL32*1.12</f>
-        <v>43759.520000000004</v>
+        <v>47516</v>
       </c>
       <c r="BQ32" s="8">
-        <f>+BM32*1.12</f>
-        <v>45459.680000000008</v>
+        <v>47000</v>
       </c>
       <c r="BR32" s="8">
         <f>+BN32*1.12</f>
@@ -5321,27 +5327,27 @@
       </c>
       <c r="CP32" s="7">
         <f>SUM(BO32:BR32)</f>
-        <v>185724.40000000002</v>
+        <v>191021.2</v>
       </c>
       <c r="CQ32" s="7">
         <f>+CP32*1.1</f>
-        <v>204296.84000000005</v>
+        <v>210123.32000000004</v>
       </c>
       <c r="CR32" s="7">
         <f>+CQ32*1.08</f>
-        <v>220640.58720000007</v>
+        <v>226933.18560000006</v>
       </c>
       <c r="CS32" s="7">
         <f>+CR32*1.08</f>
-        <v>238291.83417600009</v>
+        <v>245087.84044800009</v>
       </c>
       <c r="CT32" s="7">
         <f>+CS32*1.05</f>
-        <v>250206.42588480012</v>
+        <v>257342.23247040011</v>
       </c>
       <c r="CU32" s="7">
         <f>+CT32*1.05</f>
-        <v>262716.74717904016</v>
+        <v>270209.34409392014</v>
       </c>
     </row>
     <row r="33" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5497,12 +5503,11 @@
         <v>7572</v>
       </c>
       <c r="BP33" s="6">
-        <f>+BP32-BP34</f>
-        <v>7439.1183999999994</v>
+        <v>8491</v>
       </c>
       <c r="BQ33" s="6">
         <f>+BQ32-BQ34</f>
-        <v>7728.1456000000035</v>
+        <v>7990</v>
       </c>
       <c r="BR33" s="6">
         <f>+BR32-BR34</f>
@@ -5568,27 +5573,27 @@
       </c>
       <c r="CP33" s="3">
         <f t="shared" si="27"/>
-        <v>35287.635999999999</v>
+        <v>36294.027999999991</v>
       </c>
       <c r="CQ33" s="3">
         <f t="shared" si="27"/>
-        <v>38816.399600000004</v>
+        <v>39923.430800000002</v>
       </c>
       <c r="CR33" s="3">
         <f t="shared" si="27"/>
-        <v>41921.711567999999</v>
+        <v>43117.305263999995</v>
       </c>
       <c r="CS33" s="3">
         <f t="shared" si="27"/>
-        <v>45275.448493439995</v>
+        <v>46566.689685120014</v>
       </c>
       <c r="CT33" s="3">
         <f t="shared" si="27"/>
-        <v>47539.220918111998</v>
+        <v>48895.024169376004</v>
       </c>
       <c r="CU33" s="3">
         <f t="shared" si="27"/>
-        <v>49916.181964017625</v>
+        <v>51339.77537784481</v>
       </c>
     </row>
     <row r="34" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -5784,12 +5789,12 @@
         <v>34742</v>
       </c>
       <c r="BP34" s="6">
-        <f>+BP32*0.83</f>
-        <v>36320.401600000005</v>
+        <f>+BP32-BP33</f>
+        <v>39025</v>
       </c>
       <c r="BQ34" s="6">
         <f>+BQ32*0.83</f>
-        <v>37731.534400000004</v>
+        <v>39010</v>
       </c>
       <c r="BR34" s="6">
         <f>+BR32*0.83</f>
@@ -5870,27 +5875,27 @@
       </c>
       <c r="CP34" s="3">
         <f t="shared" si="39"/>
-        <v>150436.76400000002</v>
+        <v>154727.17200000002</v>
       </c>
       <c r="CQ34" s="3">
         <f t="shared" si="39"/>
-        <v>165480.44040000005</v>
+        <v>170199.88920000003</v>
       </c>
       <c r="CR34" s="3">
         <f t="shared" si="39"/>
-        <v>178718.87563200007</v>
+        <v>183815.88033600006</v>
       </c>
       <c r="CS34" s="3">
         <f t="shared" si="39"/>
-        <v>193016.3856825601</v>
+        <v>198521.15076288008</v>
       </c>
       <c r="CT34" s="3">
         <f t="shared" si="39"/>
-        <v>202667.20496668812</v>
+        <v>208447.2083010241</v>
       </c>
       <c r="CU34" s="3">
         <f t="shared" si="39"/>
-        <v>212800.56521502254</v>
+        <v>218869.56871607533</v>
       </c>
     </row>
     <row r="35" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -6046,15 +6051,14 @@
         <v>12150</v>
       </c>
       <c r="BP35" s="6">
-        <f>+BL35</f>
-        <v>10537</v>
+        <v>12942</v>
       </c>
       <c r="BQ35" s="6">
-        <f>+BM35</f>
+        <f t="shared" ref="BP35:BR36" si="40">+BM35</f>
         <v>11177</v>
       </c>
       <c r="BR35" s="6">
-        <f>+BN35</f>
+        <f t="shared" si="40"/>
         <v>12180</v>
       </c>
       <c r="BS35" s="6"/>
@@ -6104,39 +6108,39 @@
         <v>24655</v>
       </c>
       <c r="CM35" s="3">
-        <f t="shared" ref="CM35:CR35" si="40">+CL35*0.9</f>
+        <f t="shared" ref="CM35:CR35" si="41">+CL35*0.9</f>
         <v>22189.5</v>
       </c>
       <c r="CN35" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>19970.55</v>
       </c>
       <c r="CO35" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>17973.494999999999</v>
       </c>
       <c r="CP35" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>16176.145499999999</v>
       </c>
       <c r="CQ35" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>14558.530949999998</v>
       </c>
       <c r="CR35" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>13102.677854999998</v>
       </c>
       <c r="CS35" s="3">
-        <f t="shared" ref="CS35:CU35" si="41">+CR35*0.9</f>
+        <f t="shared" ref="CS35:CU35" si="42">+CR35*0.9</f>
         <v>11792.410069499998</v>
       </c>
       <c r="CT35" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>10613.169062549998</v>
       </c>
       <c r="CU35" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>9551.8521562949991</v>
       </c>
     </row>
@@ -6265,7 +6269,7 @@
         <v>4574</v>
       </c>
       <c r="BG36" s="6">
-        <f t="shared" ref="BG36:BG37" si="42">+BC36*0.9</f>
+        <f t="shared" ref="BG36:BG37" si="43">+BC36*0.9</f>
         <v>2980.8</v>
       </c>
       <c r="BH36" s="6">
@@ -6293,15 +6297,14 @@
         <v>2757</v>
       </c>
       <c r="BP36" s="6">
-        <f>+BL36</f>
-        <v>2721</v>
+        <v>2979</v>
       </c>
       <c r="BQ36" s="6">
-        <f>+BM36</f>
+        <f t="shared" si="40"/>
         <v>2822</v>
       </c>
       <c r="BR36" s="6">
-        <f>+BN36</f>
+        <f t="shared" si="40"/>
         <v>3240</v>
       </c>
       <c r="BS36" s="6"/>
@@ -6355,35 +6358,35 @@
         <v>14043</v>
       </c>
       <c r="CN36" s="3">
-        <f t="shared" ref="CN36:CU36" si="43">+CM36</f>
+        <f t="shared" ref="CN36:CU36" si="44">+CM36</f>
         <v>14043</v>
       </c>
       <c r="CO36" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14043</v>
       </c>
       <c r="CP36" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14043</v>
       </c>
       <c r="CQ36" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14043</v>
       </c>
       <c r="CR36" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14043</v>
       </c>
       <c r="CS36" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14043</v>
       </c>
       <c r="CT36" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14043</v>
       </c>
       <c r="CU36" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>14043</v>
       </c>
     </row>
@@ -6514,7 +6517,7 @@
         <v>3085</v>
       </c>
       <c r="BG37" s="6">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2124</v>
       </c>
       <c r="BH37" s="6">
@@ -6543,8 +6546,7 @@
         <v>2280</v>
       </c>
       <c r="BP37" s="6">
-        <f>+BL37</f>
-        <v>3658</v>
+        <v>2663</v>
       </c>
       <c r="BQ37" s="6">
         <f>+BM37</f>
@@ -6602,39 +6604,39 @@
         <v>9829</v>
       </c>
       <c r="CM37" s="3">
-        <f t="shared" ref="CM37:CU37" si="44">+CL37</f>
+        <f t="shared" ref="CM37:CU37" si="45">+CL37</f>
         <v>9829</v>
       </c>
       <c r="CN37" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9829</v>
       </c>
       <c r="CO37" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9829</v>
       </c>
       <c r="CP37" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9829</v>
       </c>
       <c r="CQ37" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9829</v>
       </c>
       <c r="CR37" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9829</v>
       </c>
       <c r="CS37" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9829</v>
       </c>
       <c r="CT37" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9829</v>
       </c>
       <c r="CU37" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>9829</v>
       </c>
     </row>
@@ -6647,47 +6649,47 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6">
-        <f t="shared" ref="G38" si="45">SUM(G35:G37)</f>
+        <f t="shared" ref="G38" si="46">SUM(G35:G37)</f>
         <v>83</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" ref="H38" si="46">SUM(H35:H37)</f>
+        <f t="shared" ref="H38" si="47">SUM(H35:H37)</f>
         <v>102</v>
       </c>
       <c r="I38" s="6">
-        <f t="shared" ref="I38" si="47">SUM(I35:I37)</f>
+        <f t="shared" ref="I38" si="48">SUM(I35:I37)</f>
         <v>120</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" ref="J38:Q38" si="48">SUM(J35:J37)</f>
+        <f t="shared" ref="J38:Q38" si="49">SUM(J35:J37)</f>
         <v>144</v>
       </c>
       <c r="K38" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>176</v>
       </c>
       <c r="L38" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>278</v>
       </c>
       <c r="M38" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>304</v>
       </c>
       <c r="N38" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>336</v>
       </c>
       <c r="O38" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>400</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1560</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>563</v>
       </c>
       <c r="R38" s="6">
@@ -6715,67 +6717,67 @@
       <c r="AK38" s="6"/>
       <c r="AL38" s="6"/>
       <c r="AM38" s="6">
-        <f t="shared" ref="AM38:AN38" si="49">+AM37+AM36+AM35</f>
+        <f t="shared" ref="AM38:AN38" si="50">+AM37+AM36+AM35</f>
         <v>4590</v>
       </c>
       <c r="AN38" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5154</v>
       </c>
       <c r="AO38" s="6">
-        <f t="shared" ref="AO38:AQ38" si="50">+AO37+AO36+AO35</f>
+        <f t="shared" ref="AO38:AQ38" si="51">+AO37+AO36+AO35</f>
         <v>5528</v>
       </c>
       <c r="AP38" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>6298</v>
       </c>
       <c r="AQ38" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>5944</v>
       </c>
       <c r="AR38" s="6">
-        <f t="shared" ref="AR38:AS38" si="51">+AR37+AR36+AR35</f>
+        <f t="shared" ref="AR38:AS38" si="52">+AR37+AR36+AR35</f>
         <v>6953</v>
       </c>
       <c r="AS38" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>7312</v>
       </c>
       <c r="AT38" s="6">
-        <f t="shared" ref="AT38:AU38" si="52">+AT37+AT36+AT35</f>
+        <f t="shared" ref="AT38:AU38" si="53">+AT37+AT36+AT35</f>
         <v>8732</v>
       </c>
       <c r="AU38" s="6">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>8385</v>
       </c>
       <c r="AV38" s="6">
-        <f t="shared" ref="AV38" si="53">+AV37+AV36+AV35</f>
+        <f t="shared" ref="AV38" si="54">+AV37+AV36+AV35</f>
         <v>8895</v>
       </c>
       <c r="AW38" s="6">
-        <f t="shared" ref="AW38" si="54">+AW37+AW36+AW35</f>
+        <f t="shared" ref="AW38" si="55">+AW37+AW36+AW35</f>
         <v>9236</v>
       </c>
       <c r="AX38" s="6">
-        <f t="shared" ref="AX38" si="55">+AX37+AX36+AX35</f>
+        <f t="shared" ref="AX38" si="56">+AX37+AX36+AX35</f>
         <v>10087</v>
       </c>
       <c r="AY38" s="6">
-        <f t="shared" ref="AY38:BB38" si="56">+AY37+AY36+AY35</f>
+        <f t="shared" ref="AY38:BB38" si="57">+AY37+AY36+AY35</f>
         <v>9662</v>
       </c>
       <c r="AZ38" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>11311</v>
       </c>
       <c r="BA38" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>12816</v>
       </c>
       <c r="BB38" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>14738</v>
       </c>
       <c r="BC38" s="6">
@@ -6783,31 +6785,31 @@
         <v>13379</v>
       </c>
       <c r="BD38" s="6">
-        <f t="shared" ref="BD38:BF38" si="57">+BD37+BD36+BD35</f>
+        <f t="shared" ref="BD38:BF38" si="58">+BD37+BD36+BD35</f>
         <v>15272</v>
       </c>
       <c r="BE38" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>16334</v>
       </c>
       <c r="BF38" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>17430</v>
       </c>
       <c r="BG38" s="6">
-        <f t="shared" ref="BG38:BJ38" si="58">+BG37+BG36+BG35</f>
+        <f t="shared" ref="BG38:BJ38" si="59">+BG37+BG36+BG35</f>
         <v>12041.1</v>
       </c>
       <c r="BH38" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>14792</v>
       </c>
       <c r="BI38" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>14188</v>
       </c>
       <c r="BJ38" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>16032</v>
       </c>
       <c r="BK38" s="6">
@@ -6831,60 +6833,60 @@
         <v>17187</v>
       </c>
       <c r="BP38" s="6">
-        <f t="shared" ref="BP38:BR38" si="59">+BP37+BP36+BP35</f>
-        <v>16916</v>
+        <f t="shared" ref="BP38:BR38" si="60">+BP37+BP36+BP35</f>
+        <v>18584</v>
       </c>
       <c r="BQ38" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>15864</v>
       </c>
       <c r="BR38" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>17285</v>
       </c>
       <c r="BS38" s="6"/>
       <c r="BX38" s="6">
-        <f t="shared" ref="BX38:BY38" si="60">+BX37+BX36+BX35</f>
+        <f t="shared" ref="BX38:BY38" si="61">+BX37+BX36+BX35</f>
         <v>236</v>
       </c>
       <c r="BY38" s="6">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>203</v>
       </c>
       <c r="BZ38" s="6">
-        <f t="shared" ref="BZ38:CA38" si="61">+BZ37+BZ36+BZ35</f>
+        <f t="shared" ref="BZ38:CA38" si="62">+BZ37+BZ36+BZ35</f>
         <v>292</v>
       </c>
       <c r="CA38" s="6">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>449</v>
       </c>
       <c r="CB38" s="6">
-        <f t="shared" ref="CB38:CC38" si="62">+CB37+CB36+CB35</f>
+        <f t="shared" ref="CB38:CC38" si="63">+CB37+CB36+CB35</f>
         <v>1095</v>
       </c>
       <c r="CC38" s="6">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>3187</v>
       </c>
       <c r="CD38" s="6">
-        <f t="shared" ref="CD38:CH38" si="63">+CD37+CD36+CD35</f>
+        <f t="shared" ref="CD38:CH38" si="64">+CD37+CD36+CD35</f>
         <v>3193</v>
       </c>
       <c r="CE38" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>5319</v>
       </c>
       <c r="CF38" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>8836</v>
       </c>
       <c r="CG38" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>11422</v>
       </c>
       <c r="CH38" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>14996</v>
       </c>
       <c r="CI38" s="3">
@@ -6900,43 +6902,43 @@
         <v>36602</v>
       </c>
       <c r="CL38" s="3">
-        <f t="shared" ref="CL38" si="64">SUM(CL35:CL37)</f>
+        <f t="shared" ref="CL38" si="65">SUM(CL35:CL37)</f>
         <v>48527</v>
       </c>
       <c r="CM38" s="3">
-        <f t="shared" ref="CM38" si="65">SUM(CM35:CM37)</f>
+        <f t="shared" ref="CM38" si="66">SUM(CM35:CM37)</f>
         <v>46061.5</v>
       </c>
       <c r="CN38" s="3">
-        <f t="shared" ref="CN38" si="66">SUM(CN35:CN37)</f>
+        <f t="shared" ref="CN38" si="67">SUM(CN35:CN37)</f>
         <v>43842.55</v>
       </c>
       <c r="CO38" s="3">
-        <f t="shared" ref="CO38" si="67">SUM(CO35:CO37)</f>
+        <f t="shared" ref="CO38" si="68">SUM(CO35:CO37)</f>
         <v>41845.494999999995</v>
       </c>
       <c r="CP38" s="3">
-        <f t="shared" ref="CP38" si="68">SUM(CP35:CP37)</f>
+        <f t="shared" ref="CP38" si="69">SUM(CP35:CP37)</f>
         <v>40048.145499999999</v>
       </c>
       <c r="CQ38" s="3">
-        <f t="shared" ref="CQ38" si="69">SUM(CQ35:CQ37)</f>
+        <f t="shared" ref="CQ38" si="70">SUM(CQ35:CQ37)</f>
         <v>38430.53095</v>
       </c>
       <c r="CR38" s="3">
-        <f t="shared" ref="CR38" si="70">SUM(CR35:CR37)</f>
+        <f t="shared" ref="CR38" si="71">SUM(CR35:CR37)</f>
         <v>36974.677855000002</v>
       </c>
       <c r="CS38" s="3">
-        <f t="shared" ref="CS38" si="71">SUM(CS35:CS37)</f>
+        <f t="shared" ref="CS38" si="72">SUM(CS35:CS37)</f>
         <v>35664.410069499994</v>
       </c>
       <c r="CT38" s="3">
-        <f t="shared" ref="CT38" si="72">SUM(CT35:CT37)</f>
+        <f t="shared" ref="CT38" si="73">SUM(CT35:CT37)</f>
         <v>34485.169062549998</v>
       </c>
       <c r="CU38" s="3">
-        <f t="shared" ref="CU38" si="73">SUM(CU35:CU37)</f>
+        <f t="shared" ref="CU38" si="74">SUM(CU35:CU37)</f>
         <v>33423.852156294997</v>
       </c>
     </row>
@@ -6949,47 +6951,47 @@
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6">
-        <f t="shared" ref="G39" si="74">+G34-G38</f>
+        <f t="shared" ref="G39" si="75">+G34-G38</f>
         <v>162</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" ref="H39" si="75">+H34-H38</f>
+        <f t="shared" ref="H39" si="76">+H34-H38</f>
         <v>219</v>
       </c>
       <c r="I39" s="6">
-        <f t="shared" ref="I39" si="76">+I34-I38</f>
+        <f t="shared" ref="I39" si="77">+I34-I38</f>
         <v>216</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" ref="J39:Q39" si="77">+J34-J38</f>
+        <f t="shared" ref="J39:Q39" si="78">+J34-J38</f>
         <v>437</v>
       </c>
       <c r="K39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>388</v>
       </c>
       <c r="L39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>407</v>
       </c>
       <c r="M39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>414</v>
       </c>
       <c r="N39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>548</v>
       </c>
       <c r="O39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>381</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>-743</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>377</v>
       </c>
       <c r="R39" s="6">
@@ -7017,67 +7019,67 @@
       <c r="AK39" s="6"/>
       <c r="AL39" s="6"/>
       <c r="AM39" s="6">
-        <f t="shared" ref="AM39:AN39" si="78">+AM34-AM38</f>
+        <f t="shared" ref="AM39:AN39" si="79">+AM34-AM38</f>
         <v>5449</v>
       </c>
       <c r="AN39" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>5863</v>
       </c>
       <c r="AO39" s="6">
-        <f t="shared" ref="AO39:AQ39" si="79">+AO34-AO38</f>
+        <f t="shared" ref="AO39:AQ39" si="80">+AO34-AO38</f>
         <v>5781</v>
       </c>
       <c r="AP39" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>7820</v>
       </c>
       <c r="AQ39" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>6317</v>
       </c>
       <c r="AR39" s="6">
-        <f t="shared" ref="AR39:AS39" si="80">+AR34-AR38</f>
+        <f t="shared" ref="AR39:AS39" si="81">+AR34-AR38</f>
         <v>6626</v>
       </c>
       <c r="AS39" s="6">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>7185</v>
       </c>
       <c r="AT39" s="6">
-        <f t="shared" ref="AT39:AU39" si="81">+AT34-AT38</f>
+        <f t="shared" ref="AT39:AU39" si="82">+AT34-AT38</f>
         <v>8858</v>
       </c>
       <c r="AU39" s="6">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v>5893</v>
       </c>
       <c r="AV39" s="6">
-        <f t="shared" ref="AV39" si="82">+AV34-AV38</f>
+        <f t="shared" ref="AV39" si="83">+AV34-AV38</f>
         <v>5963</v>
       </c>
       <c r="AW39" s="6">
-        <f t="shared" ref="AW39" si="83">+AW34-AW38</f>
+        <f t="shared" ref="AW39" si="84">+AW34-AW38</f>
         <v>8040</v>
       </c>
       <c r="AX39" s="6">
-        <f t="shared" ref="AX39" si="84">+AX34-AX38</f>
+        <f t="shared" ref="AX39" si="85">+AX34-AX38</f>
         <v>12775</v>
       </c>
       <c r="AY39" s="6">
-        <f t="shared" ref="AY39:BB39" si="85">+AY34-AY38</f>
+        <f t="shared" ref="AY39:BB39" si="86">+AY34-AY38</f>
         <v>11378</v>
       </c>
       <c r="AZ39" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>12367</v>
       </c>
       <c r="BA39" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>10423</v>
       </c>
       <c r="BB39" s="6">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>12585</v>
       </c>
       <c r="BC39" s="6">
@@ -7085,31 +7087,31 @@
         <v>8524</v>
       </c>
       <c r="BD39" s="6">
-        <f t="shared" ref="BD39:BF39" si="86">+BD34-BD38</f>
+        <f t="shared" ref="BD39:BF39" si="87">+BD34-BD38</f>
         <v>8358</v>
       </c>
       <c r="BE39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>5664</v>
       </c>
       <c r="BF39" s="6">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>6399</v>
       </c>
       <c r="BG39" s="6">
-        <f t="shared" ref="BG39:BJ39" si="87">+BG34-BG38</f>
+        <f t="shared" ref="BG39:BJ39" si="88">+BG34-BG38</f>
         <v>10588.449999999999</v>
       </c>
       <c r="BH39" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>11262</v>
       </c>
       <c r="BI39" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>13748</v>
       </c>
       <c r="BJ39" s="6">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>15655.690000000002</v>
       </c>
       <c r="BK39" s="6">
@@ -7133,60 +7135,60 @@
         <v>17555</v>
       </c>
       <c r="BP39" s="6">
-        <f t="shared" ref="BP39:BR39" si="88">+BP34-BP38</f>
-        <v>19404.401600000005</v>
+        <f t="shared" ref="BP39:BR39" si="89">+BP34-BP38</f>
+        <v>20441</v>
       </c>
       <c r="BQ39" s="6">
-        <f t="shared" si="88"/>
-        <v>21867.534400000004</v>
+        <f t="shared" si="89"/>
+        <v>23146</v>
       </c>
       <c r="BR39" s="6">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>27693.696000000004</v>
       </c>
       <c r="BS39" s="6"/>
       <c r="BX39" s="6">
-        <f t="shared" ref="BX39:BY39" si="89">+BX34-BX38</f>
+        <f t="shared" ref="BX39:BY39" si="90">+BX34-BX38</f>
         <v>-124</v>
       </c>
       <c r="BY39" s="6">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>-55</v>
       </c>
       <c r="BZ39" s="6">
-        <f t="shared" ref="BZ39:CA39" si="90">+BZ34-BZ38</f>
+        <f t="shared" ref="BZ39:CA39" si="91">+BZ34-BZ38</f>
         <v>262</v>
       </c>
       <c r="CA39" s="6">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1032</v>
       </c>
       <c r="CB39" s="6">
-        <f t="shared" ref="CB39:CC39" si="91">+CB34-CB38</f>
+        <f t="shared" ref="CB39:CC39" si="92">+CB34-CB38</f>
         <v>1756</v>
       </c>
       <c r="CC39" s="6">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>538</v>
       </c>
       <c r="CD39" s="6">
-        <f t="shared" ref="CD39:CH39" si="92">+CD34-CD38</f>
+        <f t="shared" ref="CD39:CH39" si="93">+CD34-CD38</f>
         <v>2804</v>
       </c>
       <c r="CE39" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>4994</v>
       </c>
       <c r="CF39" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>6225</v>
       </c>
       <c r="CG39" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>12427</v>
       </c>
       <c r="CH39" s="6">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>20203</v>
       </c>
       <c r="CI39" s="3">
@@ -7202,44 +7204,44 @@
         <v>32671</v>
       </c>
       <c r="CL39" s="3">
-        <f t="shared" ref="CL39" si="93">CL34-CL38</f>
+        <f t="shared" ref="CL39" si="94">CL34-CL38</f>
         <v>46753</v>
       </c>
       <c r="CM39" s="3">
-        <f t="shared" ref="CM39" si="94">CM34-CM38</f>
+        <f t="shared" ref="CM39" si="95">CM34-CM38</f>
         <v>48391.790000000008</v>
       </c>
       <c r="CN39" s="3">
-        <f t="shared" ref="CN39" si="95">CN34-CN38</f>
+        <f t="shared" ref="CN39" si="96">CN34-CN38</f>
         <v>65427.260000000009</v>
       </c>
       <c r="CO39" s="3">
-        <f t="shared" ref="CO39" si="96">CO34-CO38</f>
+        <f t="shared" ref="CO39" si="97">CO34-CO38</f>
         <v>91399.505000000005</v>
       </c>
       <c r="CP39" s="3">
-        <f t="shared" ref="CP39" si="97">CP34-CP38</f>
-        <v>110388.61850000003</v>
+        <f t="shared" ref="CP39" si="98">CP34-CP38</f>
+        <v>114679.02650000002</v>
       </c>
       <c r="CQ39" s="3">
-        <f t="shared" ref="CQ39" si="98">CQ34-CQ38</f>
-        <v>127049.90945000005</v>
+        <f t="shared" ref="CQ39" si="99">CQ34-CQ38</f>
+        <v>131769.35825000005</v>
       </c>
       <c r="CR39" s="3">
-        <f t="shared" ref="CR39" si="99">CR34-CR38</f>
-        <v>141744.19777700008</v>
+        <f t="shared" ref="CR39" si="100">CR34-CR38</f>
+        <v>146841.20248100004</v>
       </c>
       <c r="CS39" s="3">
-        <f t="shared" ref="CS39" si="100">CS34-CS38</f>
-        <v>157351.97561306012</v>
+        <f t="shared" ref="CS39" si="101">CS34-CS38</f>
+        <v>162856.74069338007</v>
       </c>
       <c r="CT39" s="3">
-        <f t="shared" ref="CT39" si="101">CT34-CT38</f>
-        <v>168182.03590413812</v>
+        <f t="shared" ref="CT39" si="102">CT34-CT38</f>
+        <v>173962.0392384741</v>
       </c>
       <c r="CU39" s="3">
-        <f t="shared" ref="CU39" si="102">CU34-CU38</f>
-        <v>179376.71305872753</v>
+        <f t="shared" ref="CU39" si="103">CU34-CU38</f>
+        <v>185445.71655978033</v>
       </c>
     </row>
     <row r="40" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7370,9 +7372,17 @@
       <c r="BO40" s="6">
         <v>827</v>
       </c>
-      <c r="BP40" s="6"/>
-      <c r="BQ40" s="6"/>
-      <c r="BR40" s="6"/>
+      <c r="BP40" s="6">
+        <v>93</v>
+      </c>
+      <c r="BQ40" s="6">
+        <f>+BP40</f>
+        <v>93</v>
+      </c>
+      <c r="BR40" s="6">
+        <f>+BQ40</f>
+        <v>93</v>
+      </c>
       <c r="BS40" s="6"/>
       <c r="CA40" s="3">
         <f>-22-2</f>
@@ -7414,36 +7424,36 @@
         <v>531</v>
       </c>
       <c r="CN40" s="3">
-        <f t="shared" ref="CN40:CU40" si="103">+CM59*$CZ$58</f>
+        <f t="shared" ref="CN40:CU40" si="104">+CM59*$CZ$58</f>
         <v>938.78</v>
       </c>
       <c r="CO40" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>2027.1830560000003</v>
       </c>
       <c r="CP40" s="3">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>3559.3807401184004</v>
       </c>
       <c r="CQ40" s="3">
-        <f t="shared" si="103"/>
-        <v>5428.1279276563428</v>
+        <f t="shared" si="104"/>
+        <v>5498.4906188563418</v>
       </c>
       <c r="CR40" s="3">
-        <f t="shared" si="103"/>
-        <v>7600.767740649907</v>
+        <f t="shared" si="104"/>
+        <v>7749.6833403055871</v>
       </c>
       <c r="CS40" s="3">
-        <f t="shared" si="103"/>
-        <v>10050.025175139366</v>
+        <f t="shared" si="104"/>
+        <v>10284.973867774999</v>
       </c>
       <c r="CT40" s="3">
-        <f t="shared" si="103"/>
-        <v>12795.417988065838</v>
+        <f t="shared" si="104"/>
+        <v>13124.497986577942</v>
       </c>
       <c r="CU40" s="3">
-        <f t="shared" si="103"/>
-        <v>15763.448231897983</v>
+        <f t="shared" si="104"/>
+        <v>16192.717197068794</v>
       </c>
     </row>
     <row r="41" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7487,67 +7497,67 @@
       <c r="AK41" s="6"/>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6">
-        <f t="shared" ref="AM41:AN41" si="104">+AM39+AM40</f>
+        <f t="shared" ref="AM41:AN41" si="105">+AM39+AM40</f>
         <v>5610</v>
       </c>
       <c r="AN41" s="6">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>5868</v>
       </c>
       <c r="AO41" s="6">
-        <f t="shared" ref="AO41:AQ41" si="105">+AO39+AO40</f>
+        <f t="shared" ref="AO41:AQ41" si="106">+AO39+AO40</f>
         <v>5912</v>
       </c>
       <c r="AP41" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>7971</v>
       </c>
       <c r="AQ41" s="6">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6523</v>
       </c>
       <c r="AR41" s="6">
-        <f t="shared" ref="AR41" si="106">+AR39+AR40</f>
+        <f t="shared" ref="AR41" si="107">+AR39+AR40</f>
         <v>6832</v>
       </c>
       <c r="AS41" s="6">
-        <f t="shared" ref="AS41:AT41" si="107">+AS39+AS40</f>
+        <f t="shared" ref="AS41:AT41" si="108">+AS39+AS40</f>
         <v>7329</v>
       </c>
       <c r="AT41" s="6">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>9169</v>
       </c>
       <c r="AU41" s="6">
-        <f t="shared" ref="AU41:BB41" si="108">+AU39+AU40</f>
+        <f t="shared" ref="AU41:BB41" si="109">+AU39+AU40</f>
         <v>5861</v>
       </c>
       <c r="AV41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>6131</v>
       </c>
       <c r="AW41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>8133</v>
       </c>
       <c r="AX41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>13055</v>
       </c>
       <c r="AY41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>11503</v>
       </c>
       <c r="AZ41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>12513</v>
       </c>
       <c r="BA41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>10565</v>
       </c>
       <c r="BB41" s="6">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>12702</v>
       </c>
       <c r="BC41" s="6">
@@ -7555,31 +7565,31 @@
         <v>8908</v>
       </c>
       <c r="BD41" s="6">
-        <f t="shared" ref="BD41:BJ41" si="109">+BD39+BD40</f>
+        <f t="shared" ref="BD41:BJ41" si="110">+BD39+BD40</f>
         <v>8186</v>
       </c>
       <c r="BE41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>5576</v>
       </c>
       <c r="BF41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>6149</v>
       </c>
       <c r="BG41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>10338.449999999999</v>
       </c>
       <c r="BH41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>11163</v>
       </c>
       <c r="BI41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>14020</v>
       </c>
       <c r="BJ41" s="6">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>16079.690000000002</v>
       </c>
       <c r="BK41" s="6">
@@ -7603,113 +7613,113 @@
         <v>18382</v>
       </c>
       <c r="BP41" s="6">
-        <f t="shared" ref="BP41:BR41" si="110">+BP39+BP40</f>
-        <v>19404.401600000005</v>
+        <f t="shared" ref="BP41:BR41" si="111">+BP39+BP40</f>
+        <v>20534</v>
       </c>
       <c r="BQ41" s="6">
-        <f t="shared" si="110"/>
-        <v>21867.534400000004</v>
+        <f t="shared" si="111"/>
+        <v>23239</v>
       </c>
       <c r="BR41" s="6">
-        <f t="shared" si="110"/>
-        <v>27693.696000000004</v>
+        <f t="shared" si="111"/>
+        <v>27786.696000000004</v>
       </c>
       <c r="BS41" s="6"/>
       <c r="BX41" s="3">
-        <f t="shared" ref="BX41" si="111">+BX39+BX40</f>
+        <f t="shared" ref="BX41" si="112">+BX39+BX40</f>
         <v>-124</v>
       </c>
       <c r="BY41" s="3">
-        <f t="shared" ref="BY41" si="112">+BY39+BY40</f>
+        <f t="shared" ref="BY41" si="113">+BY39+BY40</f>
         <v>-55</v>
       </c>
       <c r="BZ41" s="3">
-        <f t="shared" ref="BZ41" si="113">+BZ39+BZ40</f>
+        <f t="shared" ref="BZ41" si="114">+BZ39+BZ40</f>
         <v>262</v>
       </c>
       <c r="CA41" s="3">
-        <f t="shared" ref="CA41:CK41" si="114">+CA39+CA40</f>
+        <f t="shared" ref="CA41:CK41" si="115">+CA39+CA40</f>
         <v>1008</v>
       </c>
       <c r="CB41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>1695</v>
       </c>
       <c r="CC41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>494</v>
       </c>
       <c r="CD41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>2754</v>
       </c>
       <c r="CE41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>4910</v>
       </c>
       <c r="CF41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>6194</v>
       </c>
       <c r="CG41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>12518</v>
       </c>
       <c r="CH41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>20594</v>
       </c>
       <c r="CI41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>25361</v>
       </c>
       <c r="CJ41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>29812</v>
       </c>
       <c r="CK41" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>33180</v>
       </c>
       <c r="CL41" s="3">
-        <f t="shared" ref="CL41" si="115">+CL39+CL40</f>
+        <f t="shared" ref="CL41" si="116">+CL39+CL40</f>
         <v>47284</v>
       </c>
       <c r="CM41" s="3">
-        <f t="shared" ref="CM41" si="116">+CM39+CM40</f>
+        <f t="shared" ref="CM41" si="117">+CM39+CM40</f>
         <v>48391.790000000008</v>
       </c>
       <c r="CN41" s="3">
-        <f t="shared" ref="CN41" si="117">+CN39+CN40</f>
+        <f t="shared" ref="CN41" si="118">+CN39+CN40</f>
         <v>66366.040000000008</v>
       </c>
       <c r="CO41" s="3">
-        <f t="shared" ref="CO41" si="118">+CO39+CO40</f>
+        <f t="shared" ref="CO41" si="119">+CO39+CO40</f>
         <v>93426.688055999999</v>
       </c>
       <c r="CP41" s="3">
-        <f t="shared" ref="CP41" si="119">+CP39+CP40</f>
-        <v>113947.99924011843</v>
+        <f t="shared" ref="CP41" si="120">+CP39+CP40</f>
+        <v>118238.40724011842</v>
       </c>
       <c r="CQ41" s="3">
-        <f t="shared" ref="CQ41" si="120">+CQ39+CQ40</f>
-        <v>132478.03737765638</v>
+        <f t="shared" ref="CQ41" si="121">+CQ39+CQ40</f>
+        <v>137267.84886885638</v>
       </c>
       <c r="CR41" s="3">
-        <f t="shared" ref="CR41" si="121">+CR39+CR40</f>
-        <v>149344.96551764998</v>
+        <f t="shared" ref="CR41" si="122">+CR39+CR40</f>
+        <v>154590.88582130562</v>
       </c>
       <c r="CS41" s="3">
-        <f t="shared" ref="CS41" si="122">+CS39+CS40</f>
-        <v>167402.00078819948</v>
+        <f t="shared" ref="CS41" si="123">+CS39+CS40</f>
+        <v>173141.71456115507</v>
       </c>
       <c r="CT41" s="3">
-        <f t="shared" ref="CT41" si="123">+CT39+CT40</f>
-        <v>180977.45389220395</v>
+        <f t="shared" ref="CT41" si="124">+CT39+CT40</f>
+        <v>187086.53722505204</v>
       </c>
       <c r="CU41" s="3">
-        <f t="shared" ref="CU41" si="124">+CU39+CU40</f>
-        <v>195140.16129062552</v>
+        <f t="shared" ref="CU41" si="125">+CU39+CU40</f>
+        <v>201638.43375684912</v>
       </c>
     </row>
     <row r="42" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7814,7 +7824,7 @@
         <v>1497</v>
       </c>
       <c r="BG42" s="6">
-        <f t="shared" ref="BG42" si="125">+BG41*0.19</f>
+        <f t="shared" ref="BG42" si="126">+BG41*0.19</f>
         <v>1964.3054999999997</v>
       </c>
       <c r="BH42" s="6">
@@ -7841,9 +7851,17 @@
       <c r="BO42" s="6">
         <v>1738</v>
       </c>
-      <c r="BP42" s="6"/>
-      <c r="BQ42" s="6"/>
-      <c r="BR42" s="6"/>
+      <c r="BP42" s="6">
+        <v>2197</v>
+      </c>
+      <c r="BQ42" s="6">
+        <f>+BQ41*0.15</f>
+        <v>3485.85</v>
+      </c>
+      <c r="BR42" s="6">
+        <f>+BR41*0.15</f>
+        <v>4168.0044000000007</v>
+      </c>
       <c r="BS42" s="6"/>
       <c r="CA42" s="3">
         <v>402</v>
@@ -7887,36 +7905,36 @@
         <v>8710.5222000000012</v>
       </c>
       <c r="CN42" s="3">
-        <f t="shared" ref="CN42:CU42" si="126">+CN41*0.18</f>
+        <f t="shared" ref="CN42:CU42" si="127">+CN41*0.18</f>
         <v>11945.887200000001</v>
       </c>
       <c r="CO42" s="3">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>16816.803850079999</v>
       </c>
       <c r="CP42" s="3">
-        <f t="shared" si="126"/>
-        <v>20510.639863221317</v>
+        <f t="shared" si="127"/>
+        <v>21282.913303221314</v>
       </c>
       <c r="CQ42" s="3">
-        <f t="shared" si="126"/>
-        <v>23846.046727978148</v>
+        <f t="shared" si="127"/>
+        <v>24708.212796394149</v>
       </c>
       <c r="CR42" s="3">
-        <f t="shared" si="126"/>
-        <v>26882.093793176995</v>
+        <f t="shared" si="127"/>
+        <v>27826.35944783501</v>
       </c>
       <c r="CS42" s="3">
-        <f t="shared" si="126"/>
-        <v>30132.360141875906</v>
+        <f t="shared" si="127"/>
+        <v>31165.50862100791</v>
       </c>
       <c r="CT42" s="3">
-        <f t="shared" si="126"/>
-        <v>32575.941700596712</v>
+        <f t="shared" si="127"/>
+        <v>33675.576700509366</v>
       </c>
       <c r="CU42" s="3">
-        <f t="shared" si="126"/>
-        <v>35125.229032312593</v>
+        <f t="shared" si="127"/>
+        <v>36294.91807623284</v>
       </c>
     </row>
     <row r="43" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -7960,67 +7978,67 @@
       <c r="AK43" s="6"/>
       <c r="AL43" s="6"/>
       <c r="AM43" s="6">
-        <f t="shared" ref="AM43:AN43" si="127">+AM41-AM42</f>
+        <f t="shared" ref="AM43:AN43" si="128">+AM41-AM42</f>
         <v>4987</v>
       </c>
       <c r="AN43" s="6">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>5106</v>
       </c>
       <c r="AO43" s="6">
-        <f t="shared" ref="AO43:AQ43" si="128">+AO41-AO42</f>
+        <f t="shared" ref="AO43:AQ43" si="129">+AO41-AO42</f>
         <v>5137</v>
       </c>
       <c r="AP43" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>6882</v>
       </c>
       <c r="AQ43" s="6">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>4307</v>
       </c>
       <c r="AR43" s="6">
-        <f t="shared" ref="AR43" si="129">+AR41-AR42</f>
+        <f t="shared" ref="AR43" si="130">+AR41-AR42</f>
         <v>4616</v>
       </c>
       <c r="AS43" s="6">
-        <f t="shared" ref="AS43:AT43" si="130">+AS41-AS42</f>
+        <f t="shared" ref="AS43:AT43" si="131">+AS41-AS42</f>
         <v>6091</v>
       </c>
       <c r="AT43" s="6">
-        <f t="shared" si="130"/>
+        <f t="shared" si="131"/>
         <v>7349</v>
       </c>
       <c r="AU43" s="6">
-        <f t="shared" ref="AU43:AV43" si="131">+AU41-AU42</f>
+        <f t="shared" ref="AU43:AV43" si="132">+AU41-AU42</f>
         <v>4902</v>
       </c>
       <c r="AV43" s="6">
-        <f t="shared" si="131"/>
+        <f t="shared" si="132"/>
         <v>5178</v>
       </c>
       <c r="AW43" s="6">
-        <f t="shared" ref="AW43:BB43" si="132">+AW41-AW42</f>
+        <f t="shared" ref="AW43:BB43" si="133">+AW41-AW42</f>
         <v>7846</v>
       </c>
       <c r="AX43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>11219</v>
       </c>
       <c r="AY43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>9497</v>
       </c>
       <c r="AZ43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>10394</v>
       </c>
       <c r="BA43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>9194</v>
       </c>
       <c r="BB43" s="6">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>10285</v>
       </c>
       <c r="BC43" s="6">
@@ -8028,385 +8046,385 @@
         <v>7465</v>
       </c>
       <c r="BD43" s="6">
-        <f t="shared" ref="BD43:BF43" si="133">+BD41-BD42</f>
+        <f t="shared" ref="BD43:BF43" si="134">+BD41-BD42</f>
         <v>6687</v>
       </c>
       <c r="BE43" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>4395</v>
       </c>
       <c r="BF43" s="6">
-        <f t="shared" si="133"/>
+        <f t="shared" si="134"/>
         <v>4652</v>
       </c>
       <c r="BG43" s="6">
-        <f t="shared" ref="BG43:BR43" si="134">+BG41-BG42</f>
+        <f t="shared" ref="BG43:BR43" si="135">+BG41-BG42</f>
         <v>8374.1444999999985</v>
       </c>
       <c r="BH43" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>9658</v>
       </c>
       <c r="BI43" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>11583</v>
       </c>
       <c r="BJ43" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>13288.690000000002</v>
       </c>
       <c r="BK43" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>12369</v>
       </c>
       <c r="BL43" s="6">
-        <f t="shared" ref="BL43" si="135">+BL41-BL42</f>
+        <f t="shared" ref="BL43" si="136">+BL41-BL42</f>
         <v>13465</v>
       </c>
       <c r="BM43" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>15688</v>
       </c>
       <c r="BN43" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>20838</v>
       </c>
       <c r="BO43" s="6">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>16644</v>
       </c>
       <c r="BP43" s="6">
-        <f t="shared" si="134"/>
-        <v>19404.401600000005</v>
+        <f t="shared" si="135"/>
+        <v>18337</v>
       </c>
       <c r="BQ43" s="6">
-        <f t="shared" si="134"/>
-        <v>21867.534400000004</v>
+        <f t="shared" si="135"/>
+        <v>19753.150000000001</v>
       </c>
       <c r="BR43" s="6">
-        <f t="shared" si="134"/>
-        <v>27693.696000000004</v>
+        <f t="shared" si="135"/>
+        <v>23618.691600000002</v>
       </c>
       <c r="BS43" s="6"/>
       <c r="BX43" s="3">
-        <f t="shared" ref="BX43:BY43" si="136">+BX41-BX42</f>
+        <f t="shared" ref="BX43:BY43" si="137">+BX41-BX42</f>
         <v>-124</v>
       </c>
       <c r="BY43" s="3">
-        <f t="shared" si="136"/>
+        <f t="shared" si="137"/>
         <v>-55</v>
       </c>
       <c r="BZ43" s="3">
-        <f t="shared" ref="BZ43:CK43" si="137">+BZ41-BZ42</f>
+        <f t="shared" ref="BZ43:CK43" si="138">+BZ41-BZ42</f>
         <v>262</v>
       </c>
       <c r="CA43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>606</v>
       </c>
       <c r="CB43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1000</v>
       </c>
       <c r="CC43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>53</v>
       </c>
       <c r="CD43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1500</v>
       </c>
       <c r="CE43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>2940</v>
       </c>
       <c r="CF43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>3688</v>
       </c>
       <c r="CG43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>10217</v>
       </c>
       <c r="CH43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>15934</v>
       </c>
       <c r="CI43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>22111</v>
       </c>
       <c r="CJ43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>23485</v>
       </c>
       <c r="CK43" s="3">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>29146</v>
       </c>
       <c r="CL43" s="3">
-        <f t="shared" ref="CL43" si="138">+CL41-CL42</f>
+        <f t="shared" ref="CL43" si="139">+CL41-CL42</f>
         <v>39370</v>
       </c>
       <c r="CM43" s="3">
-        <f t="shared" ref="CM43" si="139">+CM41-CM42</f>
+        <f t="shared" ref="CM43" si="140">+CM41-CM42</f>
         <v>39681.267800000009</v>
       </c>
       <c r="CN43" s="3">
-        <f t="shared" ref="CN43" si="140">+CN41-CN42</f>
+        <f t="shared" ref="CN43" si="141">+CN41-CN42</f>
         <v>54420.152800000011</v>
       </c>
       <c r="CO43" s="3">
-        <f t="shared" ref="CO43" si="141">+CO41-CO42</f>
+        <f t="shared" ref="CO43" si="142">+CO41-CO42</f>
         <v>76609.884205919996</v>
       </c>
       <c r="CP43" s="3">
-        <f t="shared" ref="CP43" si="142">+CP41-CP42</f>
-        <v>93437.359376897104</v>
+        <f t="shared" ref="CP43" si="143">+CP41-CP42</f>
+        <v>96955.49393689711</v>
       </c>
       <c r="CQ43" s="3">
-        <f t="shared" ref="CQ43" si="143">+CQ41-CQ42</f>
-        <v>108631.99064967824</v>
+        <f t="shared" ref="CQ43" si="144">+CQ41-CQ42</f>
+        <v>112559.63607246224</v>
       </c>
       <c r="CR43" s="3">
-        <f t="shared" ref="CR43" si="144">+CR41-CR42</f>
-        <v>122462.87172447299</v>
+        <f t="shared" ref="CR43" si="145">+CR41-CR42</f>
+        <v>126764.52637347061</v>
       </c>
       <c r="CS43" s="3">
-        <f t="shared" ref="CS43" si="145">+CS41-CS42</f>
-        <v>137269.64064632356</v>
+        <f t="shared" ref="CS43" si="146">+CS41-CS42</f>
+        <v>141976.20594014716</v>
       </c>
       <c r="CT43" s="3">
-        <f t="shared" ref="CT43" si="146">+CT41-CT42</f>
-        <v>148401.51219160724</v>
+        <f t="shared" ref="CT43" si="147">+CT41-CT42</f>
+        <v>153410.96052454266</v>
       </c>
       <c r="CU43" s="3">
-        <f t="shared" ref="CU43" si="147">+CU41-CU42</f>
-        <v>160014.93225831294</v>
+        <f t="shared" ref="CU43" si="148">+CU41-CU42</f>
+        <v>165343.51568061628</v>
       </c>
       <c r="CV43" s="3">
-        <f t="shared" ref="CV43:EA43" si="148">+CU43*(1+$CZ$57)</f>
-        <v>160014.93225831294</v>
+        <f t="shared" ref="CV43:EA43" si="149">+CU43*(1+$CZ$57)</f>
+        <v>165343.51568061628</v>
       </c>
       <c r="CW43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="CX43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="CY43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="CZ43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DA43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DB43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DC43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DD43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DE43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DF43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DG43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DH43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DI43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DJ43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DK43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DL43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DM43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DN43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DO43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DP43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DQ43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DR43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DS43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DT43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DU43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DV43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DW43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DX43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DY43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="DZ43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EA43" s="3">
-        <f t="shared" si="148"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="149"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EB43" s="3">
-        <f t="shared" ref="EB43:EY43" si="149">+EA43*(1+$CZ$57)</f>
-        <v>160014.93225831294</v>
+        <f t="shared" ref="EB43:EY43" si="150">+EA43*(1+$CZ$57)</f>
+        <v>165343.51568061628</v>
       </c>
       <c r="EC43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="ED43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EE43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EF43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EG43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EH43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EI43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EJ43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EK43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EL43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EM43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EN43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EO43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EP43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EQ43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="ER43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="ES43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="ET43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EU43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EV43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EW43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EX43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
       <c r="EY43" s="3">
-        <f t="shared" si="149"/>
-        <v>160014.93225831294</v>
+        <f t="shared" si="150"/>
+        <v>165343.51568061628</v>
       </c>
     </row>
     <row r="44" spans="2:155" x14ac:dyDescent="0.25">
@@ -8450,67 +8468,67 @@
       <c r="AK44" s="9"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9">
-        <f t="shared" ref="AM44:AN44" si="150">+AM43/AM45</f>
+        <f t="shared" ref="AM44:AN44" si="151">+AM43/AM45</f>
         <v>1.6933786078098472</v>
       </c>
       <c r="AN44" s="9">
-        <f t="shared" si="150"/>
+        <f t="shared" si="151"/>
         <v>1.7426621160409557</v>
       </c>
       <c r="AO44" s="9">
-        <f t="shared" ref="AO44:AQ44" si="151">+AO43/AO45</f>
+        <f t="shared" ref="AO44:AQ44" si="152">+AO43/AO45</f>
         <v>1.7634740817027119</v>
       </c>
       <c r="AP44" s="9">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>2.3846153846153846</v>
       </c>
       <c r="AQ44" s="9">
-        <f t="shared" si="151"/>
+        <f t="shared" si="152"/>
         <v>1.4980869565217392</v>
       </c>
       <c r="AR44" s="9">
-        <f t="shared" ref="AR44" si="152">+AR43/AR45</f>
+        <f t="shared" ref="AR44" si="153">+AR43/AR45</f>
         <v>1.6055652173913044</v>
       </c>
       <c r="AS44" s="9">
-        <f t="shared" ref="AS44:AT44" si="153">+AS43/AS45</f>
+        <f t="shared" ref="AS44:AT44" si="154">+AS43/AS45</f>
         <v>2.1193458594293668</v>
       </c>
       <c r="AT44" s="9">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>2.559735283873215</v>
       </c>
       <c r="AU44" s="9">
-        <f t="shared" ref="AU44:AV44" si="154">+AU43/AU45</f>
+        <f t="shared" ref="AU44:AV44" si="155">+AU43/AU45</f>
         <v>1.7092050209205021</v>
       </c>
       <c r="AV44" s="9">
-        <f t="shared" si="154"/>
+        <f t="shared" si="155"/>
         <v>1.7985411601250434</v>
       </c>
       <c r="AW44" s="9">
-        <f t="shared" ref="AW44:BB44" si="155">+AW43/AW45</f>
+        <f t="shared" ref="AW44:BB44" si="156">+AW43/AW45</f>
         <v>2.7139398132134209</v>
       </c>
       <c r="AX44" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>3.882006920415225</v>
       </c>
       <c r="AY44" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>3.2952810548230396</v>
       </c>
       <c r="AZ44" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>3.6127911018421965</v>
       </c>
       <c r="BA44" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>3.2158097236796084</v>
       </c>
       <c r="BB44" s="9">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>3.6745266166488033</v>
       </c>
       <c r="BC44" s="9">
@@ -8518,141 +8536,150 @@
         <v>2.7224653537563821</v>
       </c>
       <c r="BD44" s="9">
-        <f t="shared" ref="BD44:BF44" si="156">+BD43/BD45</f>
+        <f t="shared" ref="BD44:BF44" si="157">+BD43/BD45</f>
         <v>2.4647991153704387</v>
       </c>
       <c r="BE44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>1.6356531447711202</v>
       </c>
       <c r="BF44" s="9">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>1.7621212121212122</v>
       </c>
       <c r="BG44" s="9">
-        <f t="shared" ref="BG44:BO44" si="157">+BG43/BG45</f>
+        <f t="shared" ref="BG44:BR44" si="158">+BG43/BG45</f>
         <v>3.1720244318181812</v>
       </c>
       <c r="BH44" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3.6975497702909648</v>
       </c>
       <c r="BI44" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>4.3858386974630825</v>
       </c>
       <c r="BJ44" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>5.0527338403041835</v>
       </c>
       <c r="BK44" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>4.7119999999999997</v>
       </c>
       <c r="BL44" s="9">
-        <f t="shared" ref="BL44" si="158">+BL43/BL45</f>
+        <f t="shared" ref="BL44" si="159">+BL43/BL45</f>
         <v>5.1590038314176248</v>
       </c>
       <c r="BM44" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>6.0338461538461541</v>
       </c>
       <c r="BN44" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>8.0176991150442483</v>
       </c>
       <c r="BO44" s="9">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>6.4262548262548265</v>
       </c>
-      <c r="BP44" s="9"/>
-      <c r="BQ44" s="9"/>
-      <c r="BR44" s="9"/>
+      <c r="BP44" s="9">
+        <f t="shared" si="158"/>
+        <v>7.1350194552529187</v>
+      </c>
+      <c r="BQ44" s="9">
+        <f t="shared" si="158"/>
+        <v>7.6860505836575879</v>
+      </c>
+      <c r="BR44" s="9">
+        <f t="shared" si="158"/>
+        <v>9.1901523735408563</v>
+      </c>
       <c r="BS44" s="9"/>
       <c r="BZ44" s="17"/>
       <c r="CA44" s="17">
-        <f t="shared" ref="CA44:CK44" si="159">+CA43/CA45</f>
+        <f t="shared" ref="CA44:CK44" si="160">+CA43/CA45</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="CB44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.66312997347480107</v>
       </c>
       <c r="CC44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>2.4469067405355493E-2</v>
       </c>
       <c r="CD44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.59594755661501786</v>
       </c>
       <c r="CE44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.1036036036036037</v>
       </c>
       <c r="CF44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>1.2926743778478795</v>
       </c>
       <c r="CG44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>3.4929914529914532</v>
       </c>
       <c r="CH44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>5.4850243863516397</v>
       </c>
       <c r="CI44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>7.5696679219445393</v>
       </c>
       <c r="CJ44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>8.1658553546592483</v>
       </c>
       <c r="CK44" s="17">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>10.092105263157896</v>
       </c>
       <c r="CL44" s="17">
-        <f t="shared" ref="CL44" si="160">+CL43/CL45</f>
+        <f t="shared" ref="CL44" si="161">+CL43/CL45</f>
         <v>13.770549143057012</v>
       </c>
       <c r="CM44" s="17">
-        <f t="shared" ref="CM44" si="161">+CM43/CM45</f>
+        <f t="shared" ref="CM44" si="162">+CM43/CM45</f>
         <v>14.721301354108704</v>
       </c>
       <c r="CN44" s="17">
-        <f t="shared" ref="CN44" si="162">+CN43/CN45</f>
+        <f t="shared" ref="CN44" si="163">+CN43/CN45</f>
         <v>20.189260916342057</v>
       </c>
       <c r="CO44" s="17">
-        <f t="shared" ref="CO44" si="163">+CO43/CO45</f>
+        <f t="shared" ref="CO44" si="164">+CO43/CO45</f>
         <v>29.369324978309372</v>
       </c>
       <c r="CP44" s="17">
-        <f t="shared" ref="CP44" si="164">+CP43/CP45</f>
-        <v>35.820340953382058</v>
+        <f t="shared" ref="CP44" si="165">+CP43/CP45</f>
+        <v>37.169060355337209</v>
       </c>
       <c r="CQ44" s="17">
-        <f t="shared" ref="CQ44" si="165">+CQ43/CQ45</f>
-        <v>41.645386486363137</v>
+        <f t="shared" ref="CQ44" si="166">+CQ43/CQ45</f>
+        <v>43.15109682670586</v>
       </c>
       <c r="CR44" s="17">
-        <f t="shared" ref="CR44" si="166">+CR43/CR45</f>
-        <v>46.947621899357102</v>
+        <f t="shared" ref="CR44" si="167">+CR43/CR45</f>
+        <v>48.596713196653482</v>
       </c>
       <c r="CS44" s="17">
-        <f t="shared" ref="CS44" si="167">+CS43/CS45</f>
-        <v>52.62397571260248</v>
+        <f t="shared" ref="CS44" si="168">+CS43/CS45</f>
+        <v>54.428294399136348</v>
       </c>
       <c r="CT44" s="17">
-        <f t="shared" ref="CT44" si="168">+CT43/CT45</f>
-        <v>56.89151320360638</v>
+        <f t="shared" ref="CT44" si="169">+CT43/CT45</f>
+        <v>58.811945763673627</v>
       </c>
       <c r="CU44" s="17">
-        <f t="shared" ref="CU44" si="169">+CU43/CU45</f>
-        <v>61.343658140047133</v>
+        <f t="shared" ref="CU44" si="170">+CU43/CU45</f>
+        <v>63.386434993527423</v>
       </c>
     </row>
     <row r="45" spans="2:155" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -8784,16 +8811,15 @@
         <v>2590</v>
       </c>
       <c r="BP45" s="6">
-        <f>+BO45</f>
-        <v>2590</v>
+        <v>2570</v>
       </c>
       <c r="BQ45" s="6">
         <f>+BP45</f>
-        <v>2590</v>
+        <v>2570</v>
       </c>
       <c r="BR45" s="6">
         <f>+BQ45</f>
-        <v>2590</v>
+        <v>2570</v>
       </c>
       <c r="BS45" s="6"/>
       <c r="CA45" s="3">
@@ -8838,7 +8864,7 @@
         <v>2695.5</v>
       </c>
       <c r="CN45" s="3">
-        <f t="shared" ref="CN45:CU45" si="170">+CM45</f>
+        <f t="shared" ref="CN45:CU45" si="171">+CM45</f>
         <v>2695.5</v>
       </c>
       <c r="CO45" s="3">
@@ -8846,27 +8872,27 @@
         <v>2608.5</v>
       </c>
       <c r="CP45" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>2608.5</v>
       </c>
       <c r="CQ45" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>2608.5</v>
       </c>
       <c r="CR45" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>2608.5</v>
       </c>
       <c r="CS45" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>2608.5</v>
       </c>
       <c r="CT45" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>2608.5</v>
       </c>
       <c r="CU45" s="3">
-        <f t="shared" si="170"/>
+        <f t="shared" si="171"/>
         <v>2608.5</v>
       </c>
     </row>
@@ -8918,23 +8944,23 @@
       <c r="AO47" s="12"/>
       <c r="AP47" s="12"/>
       <c r="AQ47" s="11">
-        <f t="shared" ref="AQ47:AU47" si="171">+AQ32/AM32-1</f>
+        <f t="shared" ref="AQ47:AU47" si="172">+AQ32/AM32-1</f>
         <v>0.25998662878154777</v>
       </c>
       <c r="AR47" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.2762451817700855</v>
       </c>
       <c r="AS47" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.2859328331026445</v>
       </c>
       <c r="AT47" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.2464230814709707</v>
       </c>
       <c r="AU47" s="11">
-        <f t="shared" si="171"/>
+        <f t="shared" si="172"/>
         <v>0.17642767128739134</v>
       </c>
       <c r="AV47" s="11">
@@ -8958,11 +8984,11 @@
         <v>0.5560014983678494</v>
       </c>
       <c r="BA47" s="11">
-        <f t="shared" ref="BA47:BB47" si="172">+BA32/AW32-1</f>
+        <f t="shared" ref="BA47:BB47" si="173">+BA32/AW32-1</f>
         <v>0.35118770377270603</v>
       </c>
       <c r="BB47" s="11">
-        <f t="shared" si="172"/>
+        <f t="shared" si="173"/>
         <v>0.19945141065830718</v>
       </c>
       <c r="BC47" s="11">
@@ -8978,7 +9004,7 @@
         <v>-4.4674250258531556E-2</v>
       </c>
       <c r="BF47" s="11">
-        <f t="shared" ref="BF47" si="173">+BF32/BB32-1</f>
+        <f t="shared" ref="BF47" si="174">+BF32/BB32-1</f>
         <v>-4.4726916337501144E-2</v>
       </c>
       <c r="BG47" s="11">
@@ -8986,31 +9012,31 @@
         <v>2.6408198366060009E-2</v>
       </c>
       <c r="BH47" s="11">
-        <f t="shared" ref="BH47" si="174">+BH32/BD32-1</f>
+        <f t="shared" ref="BH47" si="175">+BH32/BD32-1</f>
         <v>0.11022829782804799</v>
       </c>
       <c r="BI47" s="11">
-        <f t="shared" ref="BI47" si="175">+BI32/BE32-1</f>
+        <f t="shared" ref="BI47" si="176">+BI32/BE32-1</f>
         <v>0.23208486685429741</v>
       </c>
       <c r="BJ47" s="11">
-        <f t="shared" ref="BJ47" si="176">+BJ32/BF32-1</f>
+        <f t="shared" ref="BJ47" si="177">+BJ32/BF32-1</f>
         <v>0.24703870666873939</v>
       </c>
       <c r="BK47" s="11">
-        <f t="shared" ref="BK47:BR47" si="177">+BK32/BG32-1</f>
+        <f t="shared" ref="BK47:BR47" si="178">+BK32/BG32-1</f>
         <v>0.27264793157619138</v>
       </c>
       <c r="BL47" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.2210069064658271</v>
       </c>
       <c r="BM47" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.18868974404029748</v>
       </c>
       <c r="BN47" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.20627757971628724</v>
       </c>
       <c r="BO47" s="11">
@@ -9018,72 +9044,72 @@
         <v>0.16071869428062002</v>
       </c>
       <c r="BP47" s="11">
-        <f t="shared" si="177"/>
-        <v>0.12000000000000011</v>
+        <f t="shared" si="178"/>
+        <v>0.21614496685521223</v>
       </c>
       <c r="BQ47" s="11">
-        <f t="shared" si="177"/>
-        <v>0.12000000000000011</v>
+        <f t="shared" si="178"/>
+        <v>0.1579491980585872</v>
       </c>
       <c r="BR47" s="11">
-        <f t="shared" si="177"/>
+        <f t="shared" si="178"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="BS47" s="11"/>
       <c r="BV47" s="18">
-        <f t="shared" ref="BV47:CH47" si="178">+BV32/BU32-1</f>
+        <f t="shared" ref="BV47:CH47" si="179">+BV32/BU32-1</f>
         <v>22.560209424083769</v>
       </c>
       <c r="BW47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>4.333333333333333</v>
       </c>
       <c r="BX47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>2.1875</v>
       </c>
       <c r="BY47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.77777777777777768</v>
       </c>
       <c r="BZ47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>1.8566176470588234</v>
       </c>
       <c r="CA47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>1.5405405405405403</v>
       </c>
       <c r="CB47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.87993920972644379</v>
       </c>
       <c r="CC47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.37132848288870934</v>
       </c>
       <c r="CD47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.5468657889565729</v>
       </c>
       <c r="CE47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.58358739837398366</v>
       </c>
       <c r="CF47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.43815177282207607</v>
       </c>
       <c r="CG47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.54161088799643009</v>
       </c>
       <c r="CH47" s="18">
-        <f t="shared" si="178"/>
+        <f t="shared" si="179"/>
         <v>0.47090961719371882</v>
       </c>
       <c r="CI47" s="18">
-        <f t="shared" ref="CI47" si="179">+CI32/CH32-1</f>
+        <f t="shared" ref="CI47" si="180">+CI32/CH32-1</f>
         <v>0.37352716896661997</v>
       </c>
       <c r="CJ47" s="18">
@@ -9103,35 +9129,35 @@
         <v>-1.1193175554782941E-2</v>
       </c>
       <c r="CN47" s="18">
-        <f t="shared" ref="CN47:CU47" si="180">+CN32/CM32-1</f>
+        <f t="shared" ref="CN47:CU47" si="181">+CN32/CM32-1</f>
         <v>0.15686610810486323</v>
       </c>
       <c r="CO47" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.21941275453851339</v>
       </c>
       <c r="CP47" s="18">
-        <f t="shared" si="180"/>
-        <v>0.12902370820668718</v>
+        <f t="shared" si="181"/>
+        <v>0.16122310030395148</v>
       </c>
       <c r="CQ47" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="CR47" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="CS47" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="CT47" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="CU47" s="18">
-        <f t="shared" si="180"/>
+        <f t="shared" si="181"/>
         <v>5.0000000000000044E-2</v>
       </c>
     </row>
@@ -9192,15 +9218,15 @@
         <v>0.41985917173887088</v>
       </c>
       <c r="AZ48" s="11">
-        <f t="shared" ref="AZ48:BB48" si="181">+AZ27/AV27-1</f>
+        <f t="shared" ref="AZ48:BB48" si="182">+AZ27/AV27-1</f>
         <v>0.47543879015343848</v>
       </c>
       <c r="BA48" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.31097316780136164</v>
       </c>
       <c r="BB48" s="11">
-        <f t="shared" si="181"/>
+        <f t="shared" si="182"/>
         <v>0.14539923954372624</v>
       </c>
       <c r="BC48" s="11">
@@ -9212,7 +9238,7 @@
         <v>-1</v>
       </c>
       <c r="BE48" s="11">
-        <f t="shared" ref="BE48" si="182">+BE27/BA27-1</f>
+        <f t="shared" ref="BE48" si="183">+BE27/BA27-1</f>
         <v>-1</v>
       </c>
       <c r="BF48" s="11"/>
@@ -9418,76 +9444,76 @@
       <c r="AZ51" s="10"/>
       <c r="BA51" s="10"/>
       <c r="BB51" s="10">
-        <f t="shared" ref="BB51" si="183">+BB30/AX30-1</f>
+        <f t="shared" ref="BB51" si="184">+BB30/AX30-1</f>
         <v>0.22315202231520215</v>
       </c>
       <c r="BC51" s="10">
-        <f t="shared" ref="BC51:BK51" si="184">+BC30/AY30-1</f>
+        <f t="shared" ref="BC51:BK51" si="185">+BC30/AY30-1</f>
         <v>0.30149812734082393</v>
       </c>
       <c r="BD51" s="10">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.4819672131147541</v>
       </c>
       <c r="BE51" s="10">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>-0.489247311827957</v>
       </c>
       <c r="BF51" s="10">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>-0.17103762827822122</v>
       </c>
       <c r="BG51" s="10">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>-0.51223021582733819</v>
       </c>
       <c r="BH51" s="10">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>-0.38938053097345138</v>
       </c>
       <c r="BI51" s="10">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>-0.26315789473684215</v>
       </c>
       <c r="BJ51" s="10">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.47317744154057761</v>
       </c>
       <c r="BK51" s="10">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.29793510324483785</v>
       </c>
       <c r="BL51" s="10">
-        <f t="shared" ref="BL51" si="185">+BL30/BH30-1</f>
+        <f t="shared" ref="BL51" si="186">+BL30/BH30-1</f>
         <v>0.27898550724637672</v>
       </c>
       <c r="BM51" s="10">
-        <f t="shared" ref="BM51" si="186">+BM30/BI30-1</f>
+        <f t="shared" ref="BM51" si="187">+BM30/BI30-1</f>
         <v>0.28571428571428581</v>
       </c>
       <c r="BN51" s="10">
-        <f t="shared" ref="BN51" si="187">+BN30/BJ30-1</f>
+        <f t="shared" ref="BN51" si="188">+BN30/BJ30-1</f>
         <v>1.1204481792717047E-2</v>
       </c>
       <c r="BO51" s="10">
-        <f t="shared" ref="BO51" si="188">+BO30/BK30-1</f>
+        <f t="shared" ref="BO51" si="189">+BO30/BK30-1</f>
         <v>-6.3636363636363602E-2</v>
       </c>
       <c r="BP51" s="10">
-        <f t="shared" ref="BP51" si="189">+BP30/BL30-1</f>
+        <f t="shared" ref="BP51" si="190">+BP30/BL30-1</f>
+        <v>4.8158640226628968E-2</v>
+      </c>
+      <c r="BQ51" s="10">
+        <f t="shared" ref="BQ51" si="191">+BQ30/BM30-1</f>
         <v>-1</v>
       </c>
-      <c r="BQ51" s="10">
-        <f t="shared" ref="BQ51" si="190">+BQ30/BM30-1</f>
-        <v>-1</v>
-      </c>
       <c r="BR51" s="10">
-        <f t="shared" ref="BR51" si="191">+BR30/BN30-1</f>
+        <f t="shared" ref="BR51" si="192">+BR30/BN30-1</f>
         <v>-1</v>
       </c>
       <c r="BS51" s="10"/>
       <c r="CK51" s="19">
-        <f t="shared" ref="CK51" si="192">CK30/CJ30-1</f>
+        <f t="shared" ref="CK51" si="193">CK30/CJ30-1</f>
         <v>1.2734530938123751</v>
       </c>
       <c r="CL51" s="19">
@@ -9554,19 +9580,19 @@
       <c r="AY52" s="6"/>
       <c r="AZ52" s="6"/>
       <c r="BA52" s="10">
-        <f t="shared" ref="BA52:BD52" si="193">+BA38/AW38-1</f>
+        <f t="shared" ref="BA52:BD52" si="194">+BA38/AW38-1</f>
         <v>0.38761368557817244</v>
       </c>
       <c r="BB52" s="10">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.46108852979081982</v>
       </c>
       <c r="BC52" s="10">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.38470296004967919</v>
       </c>
       <c r="BD52" s="10">
-        <f t="shared" si="193"/>
+        <f t="shared" si="194"/>
         <v>0.35019008045265676</v>
       </c>
       <c r="BE52" s="10">
@@ -9574,23 +9600,23 @@
         <v>0.27450062421972543</v>
       </c>
       <c r="BF52" s="10">
-        <f t="shared" ref="BF52:BJ52" si="194">+BF38/BB38-1</f>
+        <f t="shared" ref="BF52:BJ52" si="195">+BF38/BB38-1</f>
         <v>0.18265707694395439</v>
       </c>
       <c r="BG52" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="BH52" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>-3.1430068098480923E-2</v>
       </c>
       <c r="BI52" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>-0.13138239255540585</v>
       </c>
       <c r="BJ52" s="10">
-        <f t="shared" si="194"/>
+        <f t="shared" si="195"/>
         <v>-8.0206540447504304E-2</v>
       </c>
       <c r="BK52" s="10">
@@ -9598,31 +9624,31 @@
         <v>0.32853310744035014</v>
       </c>
       <c r="BL52" s="10">
-        <f t="shared" ref="BL52:BO52" si="195">+BL38/BH38-1</f>
+        <f t="shared" ref="BL52:BO52" si="196">+BL38/BH38-1</f>
         <v>0.14359113034072468</v>
       </c>
       <c r="BM52" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>0.11812799548914565</v>
       </c>
       <c r="BN52" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>9.2939121756487886E-3</v>
       </c>
       <c r="BO52" s="10">
-        <f t="shared" si="195"/>
+        <f t="shared" si="196"/>
         <v>7.4388947927736426E-2</v>
       </c>
       <c r="BP52" s="10">
-        <f t="shared" ref="BP52" si="196">+BP38/BL38-1</f>
+        <f t="shared" ref="BP52" si="197">+BP38/BL38-1</f>
+        <v>9.8604871127926152E-2</v>
+      </c>
+      <c r="BQ52" s="10">
+        <f t="shared" ref="BQ52" si="198">+BQ38/BM38-1</f>
         <v>0</v>
       </c>
-      <c r="BQ52" s="10">
-        <f t="shared" ref="BQ52" si="197">+BQ38/BM38-1</f>
-        <v>0</v>
-      </c>
       <c r="BR52" s="10">
-        <f t="shared" ref="BR52" si="198">+BR38/BN38-1</f>
+        <f t="shared" ref="BR52" si="199">+BR38/BN38-1</f>
         <v>6.8228168839997494E-2</v>
       </c>
       <c r="BS52" s="10"/>
@@ -9739,99 +9765,99 @@
       <c r="AK54" s="10"/>
       <c r="AL54" s="10"/>
       <c r="AM54" s="10">
-        <f t="shared" ref="AM54:BJ54" si="199">+AM34/AM32</f>
+        <f t="shared" ref="AM54:BJ54" si="200">+AM34/AM32</f>
         <v>0.8389603877653351</v>
       </c>
       <c r="AN54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.83266570931902351</v>
       </c>
       <c r="AO54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.82385080498288044</v>
       </c>
       <c r="AP54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.83469315360056762</v>
       </c>
       <c r="AQ54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.81322544272733299</v>
       </c>
       <c r="AR54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.80415729006277392</v>
       </c>
       <c r="AS54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.82126671198731027</v>
       </c>
       <c r="AT54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.83436106631249407</v>
       </c>
       <c r="AU54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.80498393189378137</v>
       </c>
       <c r="AV54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.7950981966072671</v>
       </c>
       <c r="AW54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.80465766185374943</v>
       </c>
       <c r="AX54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.81440581362211462</v>
       </c>
       <c r="AY54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.80394329601467274</v>
       </c>
       <c r="AZ54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.81432059703545756</v>
       </c>
       <c r="BA54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.80106859703550504</v>
       </c>
       <c r="BB54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.81146981081642955</v>
       </c>
       <c r="BC54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.78482872294682526</v>
       </c>
       <c r="BD54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.81985982929706469</v>
       </c>
       <c r="BE54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.79375045103557773</v>
       </c>
       <c r="BF54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.74083631276231932</v>
       </c>
       <c r="BG54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="BH54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.81421294415450485</v>
       </c>
       <c r="BI54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.81813389562467054</v>
       </c>
       <c r="BJ54" s="10">
-        <f t="shared" si="199"/>
+        <f t="shared" si="200"/>
         <v>0.79</v>
       </c>
       <c r="BK54" s="10">
@@ -9839,84 +9865,84 @@
         <v>0.81785763269784661</v>
       </c>
       <c r="BL54" s="10">
-        <f t="shared" ref="BL54:BO54" si="200">+BL34/BL32</f>
+        <f t="shared" ref="BL54:BO54" si="201">+BL34/BL32</f>
         <v>0.81295590079598679</v>
       </c>
       <c r="BM54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.81830052477272164</v>
       </c>
       <c r="BN54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.81731941717474421</v>
       </c>
       <c r="BO54" s="10">
-        <f t="shared" si="200"/>
+        <f t="shared" si="201"/>
         <v>0.82105213404546962</v>
       </c>
       <c r="BP54" s="10">
-        <f t="shared" ref="BP54:BR54" si="201">+BP34/BP32</f>
-        <v>0.83000000000000007</v>
+        <f t="shared" ref="BP54:BR54" si="202">+BP34/BP32</f>
+        <v>0.82130229817324696</v>
       </c>
       <c r="BQ54" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.83</v>
       </c>
       <c r="BR54" s="10">
-        <f t="shared" si="201"/>
+        <f t="shared" si="202"/>
         <v>0.83</v>
       </c>
       <c r="BS54" s="10"/>
       <c r="CI54" s="19">
-        <f t="shared" ref="CI54:CU54" si="202">+CI34/CI32</f>
+        <f t="shared" ref="CI54:CU54" si="203">+CI34/CI32</f>
         <v>0.8324617643898421</v>
       </c>
       <c r="CJ54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81936998741106415</v>
       </c>
       <c r="CK54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.80582795323678236</v>
       </c>
       <c r="CL54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.80794376277251567</v>
       </c>
       <c r="CM54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81</v>
       </c>
       <c r="CN54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81</v>
       </c>
       <c r="CO54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81</v>
       </c>
       <c r="CP54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81</v>
       </c>
       <c r="CQ54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81</v>
       </c>
       <c r="CR54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81</v>
       </c>
       <c r="CS54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81</v>
       </c>
       <c r="CT54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81</v>
       </c>
       <c r="CU54" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="203"/>
         <v>0.81</v>
       </c>
     </row>
@@ -9961,75 +9987,75 @@
       <c r="AK55" s="10"/>
       <c r="AL55" s="10"/>
       <c r="AM55" s="10">
-        <f t="shared" ref="AM55:AO55" si="203">+AM39/AM32</f>
+        <f t="shared" ref="AM55:AO55" si="204">+AM39/AM32</f>
         <v>0.45537355841551064</v>
       </c>
       <c r="AN55" s="10">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.44312599198851182</v>
       </c>
       <c r="AO55" s="10">
-        <f t="shared" si="203"/>
+        <f t="shared" si="204"/>
         <v>0.42114081736723247</v>
       </c>
       <c r="AP55" s="10">
-        <f t="shared" ref="AP55:AS55" si="204">+AP39/AP32</f>
+        <f t="shared" ref="AP55:AS55" si="205">+AP39/AP32</f>
         <v>0.46233889085964291</v>
       </c>
       <c r="AQ55" s="10">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.41898255621144792</v>
       </c>
       <c r="AR55" s="10">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.39239606774843067</v>
       </c>
       <c r="AS55" s="10">
-        <f t="shared" si="204"/>
+        <f t="shared" si="205"/>
         <v>0.40703602991162474</v>
       </c>
       <c r="AT55" s="10">
-        <f t="shared" ref="AT55:AV55" si="205">+AT39/AT32</f>
+        <f t="shared" ref="AT55:AV55" si="206">+AT39/AT32</f>
         <v>0.42016886443411439</v>
       </c>
       <c r="AU55" s="10">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>0.33224333314540228</v>
       </c>
       <c r="AV55" s="10">
-        <f t="shared" si="205"/>
+        <f t="shared" si="206"/>
         <v>0.31909883876491679</v>
       </c>
       <c r="AW55" s="10">
-        <f t="shared" ref="AW55:AZ55" si="206">+AW39/AW32</f>
+        <f t="shared" ref="AW55:AZ55" si="207">+AW39/AW32</f>
         <v>0.37447601304145317</v>
       </c>
       <c r="AX55" s="10">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.45507979481333716</v>
       </c>
       <c r="AY55" s="10">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.43475602766420846</v>
       </c>
       <c r="AZ55" s="10">
-        <f t="shared" si="206"/>
+        <f t="shared" si="207"/>
         <v>0.42531898063761736</v>
       </c>
       <c r="BA55" s="10">
-        <f t="shared" ref="BA55:BD55" si="207">+BA39/BA32</f>
+        <f t="shared" ref="BA55:BD55" si="208">+BA39/BA32</f>
         <v>0.35928990003447087</v>
       </c>
       <c r="BB55" s="10">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.37376377297971547</v>
       </c>
       <c r="BC55" s="10">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.30543213415508097</v>
       </c>
       <c r="BD55" s="10">
-        <f t="shared" si="207"/>
+        <f t="shared" si="208"/>
         <v>0.28998681562695161</v>
       </c>
       <c r="BE55" s="10">
@@ -10037,23 +10063,23 @@
         <v>0.20437324096124701</v>
       </c>
       <c r="BF55" s="10">
-        <f t="shared" ref="BF55:BJ55" si="208">+BF39/BF32</f>
+        <f t="shared" ref="BF55:BJ55" si="209">+BF39/BF32</f>
         <v>0.19894295041193844</v>
       </c>
       <c r="BG55" s="10">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.36964391691394655</v>
       </c>
       <c r="BH55" s="10">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.35194849839057468</v>
       </c>
       <c r="BI55" s="10">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.40262402624026239</v>
       </c>
       <c r="BJ55" s="10">
-        <f t="shared" si="208"/>
+        <f t="shared" si="209"/>
         <v>0.39030914213058771</v>
       </c>
       <c r="BK55" s="10">
@@ -10061,92 +10087,92 @@
         <v>0.37904265532848719</v>
       </c>
       <c r="BL55" s="10">
-        <f t="shared" ref="BL55:BO55" si="209">+BL39/BL32</f>
+        <f t="shared" ref="BL55:BO55" si="210">+BL39/BL32</f>
         <v>0.38000051188861306</v>
       </c>
       <c r="BM55" s="10">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.4274557146024785</v>
       </c>
       <c r="BN55" s="10">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.48289759222899659</v>
       </c>
       <c r="BO55" s="10">
-        <f t="shared" si="209"/>
+        <f t="shared" si="210"/>
         <v>0.41487450961856598</v>
       </c>
       <c r="BP55" s="10">
-        <f t="shared" ref="BP55:BR55" si="210">+BP39/BP32</f>
-        <v>0.44343268847555922</v>
+        <f t="shared" ref="BP55:BR55" si="211">+BP39/BP32</f>
+        <v>0.43019193534809325</v>
       </c>
       <c r="BQ55" s="10">
-        <f t="shared" si="210"/>
-        <v>0.48103141949085432</v>
+        <f t="shared" si="211"/>
+        <v>0.49246808510638296</v>
       </c>
       <c r="BR55" s="10">
-        <f t="shared" si="210"/>
+        <f t="shared" si="211"/>
         <v>0.51103677349828014</v>
       </c>
       <c r="BS55" s="10"/>
       <c r="CI55" s="10">
-        <f t="shared" ref="CI55:CU55" si="211">+CI39/CI32</f>
+        <f t="shared" ref="CI55:CU55" si="212">+CI39/CI32</f>
         <v>0.44616569361366809</v>
       </c>
       <c r="CJ55" s="10">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.41000325332050863</v>
       </c>
       <c r="CK55" s="10">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.3800500203571221</v>
       </c>
       <c r="CL55" s="10">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.39645040660058173</v>
       </c>
       <c r="CM55" s="10">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.4149918959943058</v>
       </c>
       <c r="CN55" s="10">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.48500203853196056</v>
       </c>
       <c r="CO55" s="10">
-        <f t="shared" si="211"/>
+        <f t="shared" si="212"/>
         <v>0.55562009118541034</v>
       </c>
       <c r="CP55" s="10">
-        <f t="shared" si="211"/>
-        <v>0.59436788327220336</v>
+        <f t="shared" si="212"/>
+        <v>0.6003471159222119</v>
       </c>
       <c r="CQ55" s="10">
-        <f t="shared" si="211"/>
-        <v>0.6218887646524538</v>
+        <f t="shared" si="212"/>
+        <v>0.62710487465170461</v>
       </c>
       <c r="CR55" s="10">
-        <f t="shared" si="211"/>
-        <v>0.64242123163185649</v>
+        <f t="shared" si="212"/>
+        <v>0.64706799974080131</v>
       </c>
       <c r="CS55" s="10">
-        <f t="shared" si="211"/>
-        <v>0.66033305823161959</v>
+        <f t="shared" si="212"/>
+        <v>0.66448315181892159</v>
       </c>
       <c r="CT55" s="10">
-        <f t="shared" si="211"/>
-        <v>0.67217312788590167</v>
+        <f t="shared" si="212"/>
+        <v>0.67599490984630151</v>
       </c>
       <c r="CU55" s="10">
-        <f t="shared" si="211"/>
-        <v>0.68277608863847261</v>
+        <f t="shared" si="212"/>
+        <v>0.68630386259078657</v>
       </c>
       <c r="CY55" t="s">
         <v>112</v>
       </c>
       <c r="CZ55" s="3">
         <f>NPV(CZ56,CN43:EY43)</f>
-        <v>1679101.4412069775</v>
+        <v>1731978.9299193062</v>
       </c>
     </row>
     <row r="56" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10190,99 +10216,99 @@
       <c r="AK56" s="10"/>
       <c r="AL56" s="10"/>
       <c r="AM56" s="10">
-        <f t="shared" ref="AM56:BF56" si="212">+AM42/AM41</f>
+        <f t="shared" ref="AM56:BF56" si="213">+AM42/AM41</f>
         <v>0.11105169340463458</v>
       </c>
       <c r="AN56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.12985685071574643</v>
       </c>
       <c r="AO56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.13108930987821379</v>
       </c>
       <c r="AP56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.13662024840045164</v>
       </c>
       <c r="AQ56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.33972098727579336</v>
       </c>
       <c r="AR56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.32435597189695553</v>
       </c>
       <c r="AS56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.16891799699822621</v>
       </c>
       <c r="AT56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.19849492856363835</v>
       </c>
       <c r="AU56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.16362395495649207</v>
       </c>
       <c r="AV56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.15543956940140272</v>
       </c>
       <c r="AW56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>3.5288331488995447E-2</v>
       </c>
       <c r="AX56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.14063577173496744</v>
       </c>
       <c r="AY56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.17438928975049986</v>
       </c>
       <c r="AZ56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.16934388236234316</v>
       </c>
       <c r="BA56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.12976810222432561</v>
       </c>
       <c r="BB56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.19028499448905684</v>
       </c>
       <c r="BC56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.1619892231701841</v>
       </c>
       <c r="BD56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.18311751771316884</v>
       </c>
       <c r="BE56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.21180057388809181</v>
       </c>
       <c r="BF56" s="10">
-        <f t="shared" si="212"/>
+        <f t="shared" si="213"/>
         <v>0.24345422019840623</v>
       </c>
       <c r="BG56" s="10">
-        <f t="shared" ref="BG56:BJ56" si="213">+BG42/BG41</f>
+        <f t="shared" ref="BG56:BJ56" si="214">+BG42/BG41</f>
         <v>0.19</v>
       </c>
       <c r="BH56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.13482038878437697</v>
       </c>
       <c r="BI56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.1738231098430813</v>
       </c>
       <c r="BJ56" s="10">
-        <f t="shared" si="213"/>
+        <f t="shared" si="214"/>
         <v>0.17357299798690146</v>
       </c>
       <c r="BK56" s="10">
@@ -10290,84 +10316,84 @@
         <v>0.12789959811041388</v>
       </c>
       <c r="BL56" s="10">
-        <f t="shared" ref="BL56:BO56" si="214">+BL42/BL41</f>
+        <f t="shared" ref="BL56:BO56" si="215">+BL42/BL41</f>
         <v>0.10863233152389778</v>
       </c>
       <c r="BM56" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>0.11973964762652901</v>
       </c>
       <c r="BN56" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>0.11527193988027003</v>
       </c>
       <c r="BO56" s="10">
-        <f t="shared" si="214"/>
+        <f t="shared" si="215"/>
         <v>9.4549015341094556E-2</v>
       </c>
       <c r="BP56" s="10">
-        <f t="shared" ref="BP56:BR56" si="215">+BP42/BP41</f>
-        <v>0</v>
+        <f t="shared" ref="BP56:BR56" si="216">+BP42/BP41</f>
+        <v>0.10699327943897925</v>
       </c>
       <c r="BQ56" s="10">
-        <f t="shared" si="215"/>
-        <v>0</v>
+        <f t="shared" si="216"/>
+        <v>0.15</v>
       </c>
       <c r="BR56" s="10">
-        <f t="shared" si="215"/>
-        <v>0</v>
+        <f t="shared" si="216"/>
+        <v>0.15</v>
       </c>
       <c r="BS56" s="10"/>
       <c r="CI56" s="19">
-        <f t="shared" ref="CI56:CU56" si="216">+CI42/CI41</f>
+        <f t="shared" ref="CI56:CU56" si="217">+CI42/CI41</f>
         <v>0.12814952091794488</v>
       </c>
       <c r="CJ56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.21222997450690997</v>
       </c>
       <c r="CK56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.12157926461723931</v>
       </c>
       <c r="CL56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.16737162676592504</v>
       </c>
       <c r="CM56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.18</v>
       </c>
       <c r="CN56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.18</v>
       </c>
       <c r="CO56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.18</v>
       </c>
       <c r="CP56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.18</v>
       </c>
       <c r="CQ56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.18</v>
       </c>
       <c r="CR56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.18</v>
       </c>
       <c r="CS56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.18</v>
       </c>
       <c r="CT56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.18</v>
       </c>
       <c r="CU56" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="217"/>
         <v>0.18</v>
       </c>
       <c r="CY56" s="3" t="s">
@@ -10391,63 +10417,63 @@
         <v>195</v>
       </c>
       <c r="BA58" s="6">
-        <f t="shared" ref="BA58:BC58" si="217">+BA59-BA73</f>
+        <f t="shared" ref="BA58:BC58" si="218">+BA59-BA73</f>
         <v>64833</v>
       </c>
       <c r="BB58" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>54773</v>
       </c>
       <c r="BC58" s="6">
-        <f t="shared" si="217"/>
+        <f t="shared" si="218"/>
         <v>50665</v>
       </c>
       <c r="BD58" s="6">
-        <f t="shared" ref="BD58:BG58" si="218">+BD59-BD73</f>
+        <f t="shared" ref="BD58:BG58" si="219">+BD59-BD73</f>
         <v>47025</v>
       </c>
       <c r="BE58" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>38382</v>
       </c>
       <c r="BF58" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>37016</v>
       </c>
       <c r="BG58" s="6">
-        <f t="shared" si="218"/>
+        <f t="shared" si="219"/>
         <v>33681</v>
       </c>
       <c r="BH58" s="6">
-        <f t="shared" ref="BH58:BO58" si="219">+BH59-BH73</f>
+        <f t="shared" ref="BH58:BO58" si="220">+BH59-BH73</f>
         <v>41272</v>
       </c>
       <c r="BI58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>48882</v>
       </c>
       <c r="BJ58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>53159</v>
       </c>
       <c r="BK58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>45951</v>
       </c>
       <c r="BL58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>45898</v>
       </c>
       <c r="BM58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>48148</v>
       </c>
       <c r="BN58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>55059</v>
       </c>
       <c r="BO58" s="6">
-        <f t="shared" si="219"/>
+        <f t="shared" si="220"/>
         <v>47569</v>
       </c>
       <c r="BP58" s="6"/>
@@ -10597,43 +10623,43 @@
         <v>46939</v>
       </c>
       <c r="CN59" s="3">
-        <f t="shared" ref="CN59:CU59" si="220">+CM59+CN43</f>
+        <f t="shared" ref="CN59:CU59" si="221">+CM59+CN43</f>
         <v>101359.15280000001</v>
       </c>
       <c r="CO59" s="3">
-        <f t="shared" si="220"/>
+        <f t="shared" si="221"/>
         <v>177969.03700592002</v>
       </c>
       <c r="CP59" s="3">
-        <f t="shared" si="220"/>
-        <v>271406.39638281713</v>
+        <f t="shared" si="221"/>
+        <v>274924.5309428171</v>
       </c>
       <c r="CQ59" s="3">
-        <f t="shared" si="220"/>
-        <v>380038.38703249535</v>
+        <f t="shared" si="221"/>
+        <v>387484.16701527935</v>
       </c>
       <c r="CR59" s="3">
-        <f t="shared" si="220"/>
-        <v>502501.25875696831</v>
+        <f t="shared" si="221"/>
+        <v>514248.69338874996</v>
       </c>
       <c r="CS59" s="3">
-        <f t="shared" si="220"/>
-        <v>639770.89940329187</v>
+        <f t="shared" si="221"/>
+        <v>656224.89932889713</v>
       </c>
       <c r="CT59" s="3">
-        <f t="shared" si="220"/>
-        <v>788172.41159489914</v>
+        <f t="shared" si="221"/>
+        <v>809635.85985343973</v>
       </c>
       <c r="CU59" s="3">
-        <f t="shared" si="220"/>
-        <v>948187.34385321208</v>
+        <f t="shared" si="221"/>
+        <v>974979.37553405599</v>
       </c>
       <c r="CY59" s="3" t="s">
         <v>115</v>
       </c>
       <c r="CZ59" s="17">
         <f>CZ55/Main!M3</f>
-        <v>648.30171475172881</v>
+        <v>668.71773355957771</v>
       </c>
     </row>
     <row r="60" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -10746,7 +10772,7 @@
       </c>
       <c r="CZ60" s="19">
         <f>CZ59/Main!M2-1</f>
-        <v>-0.10207518732447529</v>
+        <v>-7.3798152964573815E-2</v>
       </c>
     </row>
     <row r="61" spans="2:104" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11344,23 +11370,23 @@
       <c r="AV66" s="6"/>
       <c r="AW66" s="6"/>
       <c r="AX66" s="6">
-        <f t="shared" ref="AX66:AY66" si="221">SUM(AX59:AX65)</f>
+        <f t="shared" ref="AX66:AY66" si="222">SUM(AX59:AX65)</f>
         <v>159316</v>
       </c>
       <c r="AY66" s="6">
-        <f t="shared" si="221"/>
+        <f t="shared" si="222"/>
         <v>163523</v>
       </c>
       <c r="AZ66" s="6">
-        <f t="shared" ref="AZ66:BA66" si="222">SUM(AZ59:AZ65)</f>
+        <f t="shared" ref="AZ66:BA66" si="223">SUM(AZ59:AZ65)</f>
         <v>170609</v>
       </c>
       <c r="BA66" s="6">
-        <f t="shared" si="222"/>
+        <f t="shared" si="223"/>
         <v>169585</v>
       </c>
       <c r="BB66" s="6">
-        <f t="shared" ref="BB66" si="223">SUM(BB59:BB65)</f>
+        <f t="shared" ref="BB66" si="224">SUM(BB59:BB65)</f>
         <v>165987</v>
       </c>
       <c r="BC66" s="6">
@@ -11376,43 +11402,43 @@
         <v>178894</v>
       </c>
       <c r="BF66" s="6">
-        <f t="shared" ref="BF66:BO66" si="224">SUM(BF59:BF65)</f>
+        <f t="shared" ref="BF66:BO66" si="225">SUM(BF59:BF65)</f>
         <v>185727</v>
       </c>
       <c r="BG66" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>184491</v>
       </c>
       <c r="BH66" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>206688</v>
       </c>
       <c r="BI66" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>216274</v>
       </c>
       <c r="BJ66" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>229623</v>
       </c>
       <c r="BK66" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>222844</v>
       </c>
       <c r="BL66" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>230238</v>
       </c>
       <c r="BM66" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>256408</v>
       </c>
       <c r="BN66" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>276054</v>
       </c>
       <c r="BO66" s="6">
-        <f t="shared" si="224"/>
+        <f t="shared" si="225"/>
         <v>280213</v>
       </c>
     </row>
@@ -12019,35 +12045,35 @@
         <v>61</v>
       </c>
       <c r="AX78" s="6">
-        <f t="shared" ref="AX78:AY78" si="225">SUM(AX68:AX77)</f>
+        <f t="shared" ref="AX78:AY78" si="226">SUM(AX68:AX77)</f>
         <v>159316</v>
       </c>
       <c r="AY78" s="6">
-        <f t="shared" si="225"/>
+        <f t="shared" si="226"/>
         <v>163523</v>
       </c>
       <c r="AZ78" s="6">
-        <f t="shared" ref="AZ78:BA78" si="226">SUM(AZ68:AZ77)</f>
+        <f t="shared" ref="AZ78:BA78" si="227">SUM(AZ68:AZ77)</f>
         <v>170609</v>
       </c>
       <c r="BA78" s="6">
-        <f t="shared" si="226"/>
+        <f t="shared" si="227"/>
         <v>169585</v>
       </c>
       <c r="BB78" s="6">
-        <f t="shared" ref="BB78:BE78" si="227">SUM(BB68:BB77)</f>
+        <f t="shared" ref="BB78:BE78" si="228">SUM(BB68:BB77)</f>
         <v>165987</v>
       </c>
       <c r="BC78" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>164218</v>
       </c>
       <c r="BD78" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>169779</v>
       </c>
       <c r="BE78" s="6">
-        <f t="shared" si="227"/>
+        <f t="shared" si="228"/>
         <v>178894</v>
       </c>
       <c r="BF78" s="6">
@@ -12071,23 +12097,23 @@
         <v>229623</v>
       </c>
       <c r="BK78" s="6">
-        <f t="shared" ref="BK78:BO78" si="228">SUM(BK68:BK77)</f>
+        <f t="shared" ref="BK78:BO78" si="229">SUM(BK68:BK77)</f>
         <v>222844</v>
       </c>
       <c r="BL78" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>230238</v>
       </c>
       <c r="BM78" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>256408</v>
       </c>
       <c r="BN78" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>276054</v>
       </c>
       <c r="BO78" s="6">
-        <f t="shared" si="228"/>
+        <f t="shared" si="229"/>
         <v>280213</v>
       </c>
     </row>
@@ -12099,31 +12125,31 @@
         <v>66</v>
       </c>
       <c r="AY80" s="6">
-        <f t="shared" ref="AY80:BJ80" si="229">AY43</f>
+        <f t="shared" ref="AY80:BJ80" si="230">AY43</f>
         <v>9497</v>
       </c>
       <c r="AZ80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>10394</v>
       </c>
       <c r="BA80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>9194</v>
       </c>
       <c r="BB80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>10285</v>
       </c>
       <c r="BC80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>7465</v>
       </c>
       <c r="BD80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>6687</v>
       </c>
       <c r="BE80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>4395</v>
       </c>
       <c r="BF80" s="6">
@@ -12131,39 +12157,39 @@
         <v>4652</v>
       </c>
       <c r="BG80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>8374.1444999999985</v>
       </c>
       <c r="BH80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>9658</v>
       </c>
       <c r="BI80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>11583</v>
       </c>
       <c r="BJ80" s="6">
-        <f t="shared" si="229"/>
+        <f t="shared" si="230"/>
         <v>13288.690000000002</v>
       </c>
       <c r="BK80" s="6">
-        <f t="shared" ref="BK80:BO80" si="230">BK43</f>
+        <f t="shared" ref="BK80:BO80" si="231">BK43</f>
         <v>12369</v>
       </c>
       <c r="BL80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>13465</v>
       </c>
       <c r="BM80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>15688</v>
       </c>
       <c r="BN80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>20838</v>
       </c>
       <c r="BO80" s="6">
-        <f t="shared" si="230"/>
+        <f t="shared" si="231"/>
         <v>16644</v>
       </c>
     </row>
@@ -12577,71 +12603,71 @@
         <v>68</v>
       </c>
       <c r="AY87" s="6">
-        <f t="shared" ref="AY87:BH87" si="231">SUM(AY81:AY86)</f>
+        <f t="shared" ref="AY87:BH87" si="232">SUM(AY81:AY86)</f>
         <v>12242</v>
       </c>
       <c r="AZ87" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>13247</v>
       </c>
       <c r="BA87" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>14090</v>
       </c>
       <c r="BB87" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>18104</v>
       </c>
       <c r="BC87" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>14076</v>
       </c>
       <c r="BD87" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>12197</v>
       </c>
       <c r="BE87" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>9691</v>
       </c>
       <c r="BF87" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>14511</v>
       </c>
       <c r="BG87" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>13998</v>
       </c>
       <c r="BH87" s="6">
-        <f t="shared" si="231"/>
+        <f t="shared" si="232"/>
         <v>17309</v>
       </c>
       <c r="BI87" s="6">
-        <f t="shared" ref="BI87:BO87" si="232">SUM(BI81:BI86)</f>
+        <f t="shared" ref="BI87:BO87" si="233">SUM(BI81:BI86)</f>
         <v>20402</v>
       </c>
       <c r="BJ87" s="6">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>19404</v>
       </c>
       <c r="BK87" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>19246</v>
       </c>
       <c r="BL87" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>19370</v>
       </c>
       <c r="BM87" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>24724</v>
       </c>
       <c r="BN87" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>27988</v>
       </c>
       <c r="BO87" s="3">
-        <f t="shared" si="232"/>
+        <f t="shared" si="233"/>
         <v>24026</v>
       </c>
       <c r="CA87" s="3">
@@ -13063,51 +13089,51 @@
       <c r="AW92" s="6"/>
       <c r="AX92" s="6"/>
       <c r="AY92" s="6">
-        <f t="shared" ref="AY92:BJ92" si="233">SUM(AY89:AY91)</f>
+        <f t="shared" ref="AY92:BJ92" si="234">SUM(AY89:AY91)</f>
         <v>-4874</v>
       </c>
       <c r="AZ92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-8195</v>
       </c>
       <c r="BA92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-330</v>
       </c>
       <c r="BB92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>5829</v>
       </c>
       <c r="BC92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-4779</v>
       </c>
       <c r="BD92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-6959</v>
       </c>
       <c r="BE92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-9701</v>
       </c>
       <c r="BF92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-7531</v>
       </c>
       <c r="BG92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-6743</v>
       </c>
       <c r="BH92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-5203</v>
       </c>
       <c r="BI92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-6077</v>
       </c>
       <c r="BJ92" s="6">
-        <f t="shared" si="233"/>
+        <f t="shared" si="234"/>
         <v>-6472</v>
       </c>
       <c r="BK92" s="3">
@@ -13781,71 +13807,71 @@
       <c r="AW99" s="6"/>
       <c r="AX99" s="6"/>
       <c r="AY99" s="6">
-        <f t="shared" ref="AY99:BA99" si="234">SUM(AY94:AY98)</f>
+        <f t="shared" ref="AY99:BA99" si="235">SUM(AY94:AY98)</f>
         <v>-5185</v>
       </c>
       <c r="AZ99" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-8549</v>
       </c>
       <c r="BA99" s="6">
-        <f t="shared" si="234"/>
+        <f t="shared" si="235"/>
         <v>-15252</v>
       </c>
       <c r="BB99" s="6">
-        <f t="shared" ref="BB99" si="235">SUM(BB94:BB98)</f>
+        <f t="shared" ref="BB99" si="236">SUM(BB94:BB98)</f>
         <v>-21742</v>
       </c>
       <c r="BC99" s="6">
-        <f t="shared" ref="BC99:BO99" si="236">SUM(BC94:BC98)</f>
+        <f t="shared" ref="BC99:BO99" si="237">SUM(BC94:BC98)</f>
         <v>-10660</v>
       </c>
       <c r="BD99" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-6563</v>
       </c>
       <c r="BE99" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>2147</v>
       </c>
       <c r="BF99" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-7060</v>
       </c>
       <c r="BG99" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-10516</v>
       </c>
       <c r="BH99" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>5292</v>
       </c>
       <c r="BI99" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-5875</v>
       </c>
       <c r="BJ99" s="6">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-8401</v>
       </c>
       <c r="BK99" s="3">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-19767</v>
       </c>
       <c r="BL99" s="3">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-11178</v>
       </c>
       <c r="BM99" s="3">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-4371</v>
       </c>
       <c r="BN99" s="3">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-5465</v>
       </c>
       <c r="BO99" s="3">
-        <f t="shared" si="236"/>
+        <f t="shared" si="237"/>
         <v>-19495</v>
       </c>
     </row>
@@ -13920,31 +13946,31 @@
         <v>81</v>
       </c>
       <c r="AY101" s="6">
-        <f t="shared" ref="AY101:BJ101" si="237">+AY100+AY99+AY92+AY87</f>
+        <f t="shared" ref="AY101:BJ101" si="238">+AY100+AY99+AY92+AY87</f>
         <v>1937</v>
       </c>
       <c r="AZ101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-3380</v>
       </c>
       <c r="BA101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-1707</v>
       </c>
       <c r="BB101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>2061</v>
       </c>
       <c r="BC101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-1512</v>
       </c>
       <c r="BD101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-1875</v>
       </c>
       <c r="BE101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>1773</v>
       </c>
       <c r="BF101" s="6">
@@ -13952,19 +13978,19 @@
         <v>345</v>
       </c>
       <c r="BG101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>-3176</v>
       </c>
       <c r="BH101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>17384</v>
       </c>
       <c r="BI101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>8096</v>
       </c>
       <c r="BJ101" s="6">
-        <f t="shared" si="237"/>
+        <f t="shared" si="238"/>
         <v>4927</v>
       </c>
       <c r="BK101" s="3">
@@ -14098,55 +14124,55 @@
         <v>199</v>
       </c>
       <c r="BC104" s="6">
-        <f t="shared" ref="BC104:BO104" si="238">+BC103-BB103</f>
+        <f t="shared" ref="BC104:BO104" si="239">+BC103-BB103</f>
         <v>5835</v>
       </c>
       <c r="BD104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>5748</v>
       </c>
       <c r="BE104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>3761</v>
       </c>
       <c r="BF104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-1314</v>
       </c>
       <c r="BG104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-8886</v>
       </c>
       <c r="BH104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-5645</v>
       </c>
       <c r="BI104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>-5284</v>
       </c>
       <c r="BJ104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>1132</v>
       </c>
       <c r="BK104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>2012</v>
       </c>
       <c r="BL104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>1470</v>
       </c>
       <c r="BM104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>1605</v>
       </c>
       <c r="BN104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>1663</v>
       </c>
       <c r="BO104" s="6">
-        <f t="shared" si="238"/>
+        <f t="shared" si="239"/>
         <v>2767</v>
       </c>
     </row>
@@ -14163,51 +14189,51 @@
         <v>7970</v>
       </c>
       <c r="AZ106" s="6">
-        <f t="shared" ref="AZ106:BC106" si="239">+AZ87+AZ89</f>
+        <f t="shared" ref="AZ106:BC106" si="240">+AZ87+AZ89</f>
         <v>8635</v>
       </c>
       <c r="BA106" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>9776</v>
       </c>
       <c r="BB106" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>12734</v>
       </c>
       <c r="BC106" s="6">
-        <f t="shared" si="239"/>
+        <f t="shared" si="240"/>
         <v>8761</v>
       </c>
       <c r="BD106" s="6">
-        <f t="shared" ref="BD106:BJ106" si="240">+BD87+BD89</f>
+        <f t="shared" ref="BD106:BJ106" si="241">+BD87+BD89</f>
         <v>4669</v>
       </c>
       <c r="BE106" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>336</v>
       </c>
       <c r="BF106" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>5523</v>
       </c>
       <c r="BG106" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>7175</v>
       </c>
       <c r="BH106" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>11175</v>
       </c>
       <c r="BI106" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>13906</v>
       </c>
       <c r="BJ106" s="6">
-        <f t="shared" si="240"/>
+        <f t="shared" si="241"/>
         <v>11812</v>
       </c>
       <c r="BK106" s="3">
-        <f t="shared" ref="BK106" si="241">+BK87+BK89</f>
+        <f t="shared" ref="BK106" si="242">+BK87+BK89</f>
         <v>12846</v>
       </c>
       <c r="BL106" s="3">
@@ -14232,11 +14258,11 @@
         <v>127</v>
       </c>
       <c r="BB107" s="6">
-        <f t="shared" ref="BB107:BC107" si="242">SUM(AY106:BB106)</f>
+        <f t="shared" ref="BB107:BC107" si="243">SUM(AY106:BB106)</f>
         <v>39115</v>
       </c>
       <c r="BC107" s="6">
-        <f t="shared" si="242"/>
+        <f t="shared" si="243"/>
         <v>39906</v>
       </c>
       <c r="BD107" s="6">
@@ -14252,31 +14278,31 @@
         <v>19289</v>
       </c>
       <c r="BG107" s="6">
-        <f t="shared" ref="BG107:BK107" si="243">SUM(BD106:BG106)</f>
+        <f t="shared" ref="BG107:BK107" si="244">SUM(BD106:BG106)</f>
         <v>17703</v>
       </c>
       <c r="BH107" s="6">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>24209</v>
       </c>
       <c r="BI107" s="6">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>37779</v>
       </c>
       <c r="BJ107" s="6">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>44068</v>
       </c>
       <c r="BK107" s="6">
-        <f t="shared" si="243"/>
+        <f t="shared" si="244"/>
         <v>49739</v>
       </c>
       <c r="BL107" s="3">
-        <f t="shared" ref="BL107:BM107" si="244">SUM(BI106:BL106)</f>
+        <f t="shared" ref="BL107:BM107" si="245">SUM(BI106:BL106)</f>
         <v>49761</v>
       </c>
       <c r="BM107" s="3">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>52321</v>
       </c>
       <c r="BN107" s="3">
@@ -14335,59 +14361,59 @@
         <v>94400</v>
       </c>
       <c r="AZ110" s="3">
-        <f t="shared" ref="AY110:BM110" si="245">SUM(AW32:AZ32)</f>
+        <f t="shared" ref="AZ110:BM110" si="246">SUM(AW32:AZ32)</f>
         <v>104790</v>
       </c>
       <c r="BA110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>112330</v>
       </c>
       <c r="BB110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>117929</v>
       </c>
       <c r="BC110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>119666</v>
       </c>
       <c r="BD110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>119411</v>
       </c>
       <c r="BE110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>118115</v>
       </c>
       <c r="BF110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>116609</v>
       </c>
       <c r="BG110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>117346</v>
       </c>
       <c r="BH110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>120523</v>
       </c>
       <c r="BI110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>126955</v>
       </c>
       <c r="BJ110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>134901</v>
       </c>
       <c r="BK110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>142711</v>
       </c>
       <c r="BL110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>149783</v>
       </c>
       <c r="BM110" s="3">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>156226</v>
       </c>
       <c r="BN110" s="3">
@@ -14400,15 +14426,15 @@
       </c>
       <c r="BP110" s="3">
         <f>SUM(BM32:BP32)</f>
-        <v>175047.52000000002</v>
+        <v>178804</v>
       </c>
       <c r="BQ110" s="3">
         <f>SUM(BN32:BQ32)</f>
-        <v>179918.2</v>
+        <v>185215</v>
       </c>
       <c r="BR110" s="3">
         <f>SUM(BO32:BR32)</f>
-        <v>185724.40000000002</v>
+        <v>191021.2</v>
       </c>
     </row>
     <row r="111" spans="2:70" x14ac:dyDescent="0.25">
